--- a/results/GAIA_TESS_candidate_matches_unique_planets.xlsx
+++ b/results/GAIA_TESS_candidate_matches_unique_planets.xlsx
@@ -574,63 +574,63 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6276.01</v>
+        <v>260.01</v>
       </c>
       <c r="B2" t="n">
-        <v>397362481</v>
+        <v>37749396</v>
       </c>
       <c r="C2" t="n">
-        <v>175.256304</v>
+        <v>4.773018</v>
       </c>
       <c r="D2" t="n">
-        <v>-44.404149</v>
+        <v>-9.966150000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2460017.108056</v>
+        <v>2458392.294018</v>
       </c>
       <c r="F2" t="n">
-        <v>6.207472</v>
+        <v>13.4758478</v>
       </c>
       <c r="G2" t="n">
-        <v>1.5587404</v>
+        <v>2.0643913</v>
       </c>
       <c r="H2" t="n">
-        <v>230.9041397</v>
+        <v>708.9461601</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.9558514</v>
+        <v>1.9840882</v>
       </c>
       <c r="J2" t="n">
-        <v>45.9200706</v>
+        <v>10.1837519</v>
       </c>
       <c r="K2" t="n">
-        <v>663.9270852</v>
+        <v>455.6136246</v>
       </c>
       <c r="L2" t="n">
-        <v>6.7213</v>
+        <v>8.4991</v>
       </c>
       <c r="M2" t="n">
-        <v>12.7781</v>
+        <v>20.1852</v>
       </c>
       <c r="N2" t="n">
-        <v>4633.87</v>
+        <v>4111</v>
       </c>
       <c r="O2" t="n">
-        <v>4.70763</v>
+        <v>4.6461</v>
       </c>
       <c r="P2" t="n">
-        <v>0.630715</v>
+        <v>0.618173</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>0.5190580025232407</v>
+        <v>0.6629172386673313</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3529309609610866</v>
+        <v>0.1536852942719399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6276.02</v>
+        <v>6276.03</v>
       </c>
       <c r="B3" t="n">
         <v>397362481</v>
@@ -642,25 +642,25 @@
         <v>-44.404149</v>
       </c>
       <c r="E3" t="n">
-        <v>2460014.846822</v>
+        <v>2460018.572448</v>
       </c>
       <c r="F3" t="n">
-        <v>4.4653471</v>
+        <v>7.8708661</v>
       </c>
       <c r="G3" t="n">
-        <v>1.5691486</v>
+        <v>1.6355898</v>
       </c>
       <c r="H3" t="n">
-        <v>186.7606727</v>
+        <v>190.7947353</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.8856846</v>
+        <v>1.0314874</v>
       </c>
       <c r="J3" t="n">
-        <v>71.2440519</v>
+        <v>33.4599699</v>
       </c>
       <c r="K3" t="n">
-        <v>740.9807105</v>
+        <v>613.4104018</v>
       </c>
       <c r="L3" t="n">
         <v>6.7213</v>
@@ -678,7 +678,7 @@
         <v>0.630715</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>0.5190580025232407</v>
+        <v>0.7044582505479338</v>
       </c>
       <c r="R3" t="n">
         <v>0.3529309609610866</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6276.03</v>
+        <v>6276.01</v>
       </c>
       <c r="B4" t="n">
         <v>397362481</v>
@@ -698,25 +698,25 @@
         <v>-44.404149</v>
       </c>
       <c r="E4" t="n">
-        <v>2460018.572448</v>
+        <v>2460017.108056</v>
       </c>
       <c r="F4" t="n">
-        <v>7.8708661</v>
+        <v>6.207472</v>
       </c>
       <c r="G4" t="n">
-        <v>1.6355898</v>
+        <v>1.5587404</v>
       </c>
       <c r="H4" t="n">
-        <v>190.7947353</v>
+        <v>230.9041397</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1.0314874</v>
+        <v>0.9558514</v>
       </c>
       <c r="J4" t="n">
-        <v>33.4599699</v>
+        <v>45.9200706</v>
       </c>
       <c r="K4" t="n">
-        <v>613.4104018</v>
+        <v>663.9270852</v>
       </c>
       <c r="L4" t="n">
         <v>6.7213</v>
@@ -734,7 +734,7 @@
         <v>0.630715</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.5190580025232407</v>
+        <v>0.7044582505479338</v>
       </c>
       <c r="R4" t="n">
         <v>0.3529309609610866</v>
@@ -742,58 +742,58 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>260.01</v>
+        <v>6276.02</v>
       </c>
       <c r="B5" t="n">
-        <v>37749396</v>
+        <v>397362481</v>
       </c>
       <c r="C5" t="n">
-        <v>4.773018</v>
+        <v>175.256304</v>
       </c>
       <c r="D5" t="n">
-        <v>-9.966150000000001</v>
+        <v>-44.404149</v>
       </c>
       <c r="E5" t="n">
-        <v>2458392.294018</v>
+        <v>2460014.846822</v>
       </c>
       <c r="F5" t="n">
-        <v>13.4758478</v>
+        <v>4.4653471</v>
       </c>
       <c r="G5" t="n">
-        <v>2.0643913</v>
+        <v>1.5691486</v>
       </c>
       <c r="H5" t="n">
-        <v>708.9461601</v>
+        <v>186.7606727</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>1.9840882</v>
+        <v>0.8856846</v>
       </c>
       <c r="J5" t="n">
-        <v>10.1837519</v>
+        <v>71.2440519</v>
       </c>
       <c r="K5" t="n">
-        <v>455.6136246</v>
+        <v>740.9807105</v>
       </c>
       <c r="L5" t="n">
-        <v>8.4991</v>
+        <v>6.7213</v>
       </c>
       <c r="M5" t="n">
-        <v>20.1852</v>
+        <v>12.7781</v>
       </c>
       <c r="N5" t="n">
-        <v>4111</v>
+        <v>4633.87</v>
       </c>
       <c r="O5" t="n">
-        <v>4.6461</v>
+        <v>4.70763</v>
       </c>
       <c r="P5" t="n">
-        <v>0.618173</v>
+        <v>0.630715</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>0.557122294849115</v>
+        <v>0.7044582505479338</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1536852942719399</v>
+        <v>0.3529309609610866</v>
       </c>
     </row>
     <row r="6">
@@ -846,7 +846,7 @@
         <v>0.661076</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>0.6019455046306895</v>
+        <v>0.710256858620737</v>
       </c>
       <c r="R6" t="n">
         <v>0.07410788918668496</v>
@@ -902,7 +902,7 @@
         <v>0.66</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>0.6019455046306895</v>
+        <v>0.710256858620737</v>
       </c>
       <c r="R7" t="n">
         <v>0.07410788918668496</v>
@@ -910,114 +910,114 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>186.01</v>
+        <v>253.01</v>
       </c>
       <c r="B8" t="n">
-        <v>279741379</v>
+        <v>322063810</v>
       </c>
       <c r="C8" t="n">
-        <v>51.750188</v>
+        <v>14.318503</v>
       </c>
       <c r="D8" t="n">
-        <v>-63.500166</v>
+        <v>-51.585251</v>
       </c>
       <c r="E8" t="n">
-        <v>2460202.210988</v>
+        <v>2458355.622789</v>
       </c>
       <c r="F8" t="n">
-        <v>35.6134391</v>
+        <v>3.5104148</v>
       </c>
       <c r="G8" t="n">
-        <v>3.512</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>1575</v>
+        <v>308.8285985</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>3.12194</v>
+        <v>1.328654</v>
       </c>
       <c r="J8" t="n">
-        <v>10.8612</v>
+        <v>64.709886</v>
       </c>
       <c r="K8" t="n">
-        <v>505</v>
+        <v>723.3731892</v>
       </c>
       <c r="L8" t="n">
-        <v>6.9934</v>
+        <v>9.3626</v>
       </c>
       <c r="M8" t="n">
-        <v>16.32</v>
+        <v>30.8431</v>
       </c>
       <c r="N8" t="n">
-        <v>4628.53</v>
+        <v>4020</v>
       </c>
       <c r="O8" t="n">
-        <v>4.32239</v>
+        <v>4.438</v>
       </c>
       <c r="P8" t="n">
-        <v>0.71</v>
+        <v>0.639371</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>0.6292229239426154</v>
+        <v>0.742814302548056</v>
       </c>
       <c r="R8" t="n">
-        <v>0.216873501781118</v>
+        <v>0.08762883918922149</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>186.02</v>
+        <v>5961.01</v>
       </c>
       <c r="B9" t="n">
-        <v>279741379</v>
+        <v>262689575</v>
       </c>
       <c r="C9" t="n">
-        <v>51.750188</v>
+        <v>349.216044</v>
       </c>
       <c r="D9" t="n">
-        <v>-63.500166</v>
+        <v>5.695887</v>
       </c>
       <c r="E9" t="n">
-        <v>2460201.824941</v>
+        <v>2459447.785905</v>
       </c>
       <c r="F9" t="n">
-        <v>7.7897726</v>
+        <v>1.617487</v>
       </c>
       <c r="G9" t="n">
-        <v>2.376</v>
+        <v>1.2809267</v>
       </c>
       <c r="H9" t="n">
-        <v>194</v>
+        <v>342.1852102</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>1.00084</v>
+        <v>1.3134056</v>
       </c>
       <c r="J9" t="n">
-        <v>144.765</v>
+        <v>197.2074933</v>
       </c>
       <c r="K9" t="n">
-        <v>966</v>
+        <v>955.7638559</v>
       </c>
       <c r="L9" t="n">
-        <v>6.9934</v>
+        <v>9.039199999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>16.32</v>
+        <v>26.2533</v>
       </c>
       <c r="N9" t="n">
-        <v>4628.53</v>
+        <v>3900.68</v>
       </c>
       <c r="O9" t="n">
-        <v>4.32239</v>
+        <v>4.5239</v>
       </c>
       <c r="P9" t="n">
-        <v>0.71</v>
+        <v>0.7017099999999999</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>0.6292229239426154</v>
+        <v>0.8075760790095958</v>
       </c>
       <c r="R9" t="n">
-        <v>0.216873501781118</v>
+        <v>0.01821666933803688</v>
       </c>
     </row>
     <row r="10">
@@ -1070,7 +1070,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>0.6338468422935803</v>
+        <v>0.8271720847294067</v>
       </c>
       <c r="R10" t="n">
         <v>0.2060338426977061</v>
@@ -1078,338 +1078,338 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5084.01</v>
+        <v>186.01</v>
       </c>
       <c r="B11" t="n">
-        <v>438260486</v>
+        <v>279741379</v>
       </c>
       <c r="C11" t="n">
-        <v>45.954561</v>
+        <v>51.750188</v>
       </c>
       <c r="D11" t="n">
-        <v>20.110588</v>
+        <v>-63.500166</v>
       </c>
       <c r="E11" t="n">
-        <v>2460252.991856</v>
+        <v>2460202.210988</v>
       </c>
       <c r="F11" t="n">
-        <v>5.8321337</v>
+        <v>35.6134391</v>
       </c>
       <c r="G11" t="n">
-        <v>2.039</v>
+        <v>3.512</v>
       </c>
       <c r="H11" t="n">
-        <v>274</v>
+        <v>1575</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>1.15554</v>
+        <v>3.12194</v>
       </c>
       <c r="J11" t="n">
-        <v>49.8722</v>
+        <v>10.8612</v>
       </c>
       <c r="K11" t="n">
-        <v>740</v>
+        <v>505</v>
       </c>
       <c r="L11" t="n">
-        <v>7.564</v>
+        <v>6.9934</v>
       </c>
       <c r="M11" t="n">
-        <v>21.3575</v>
+        <v>16.32</v>
       </c>
       <c r="N11" t="n">
-        <v>4544</v>
+        <v>4628.53</v>
       </c>
       <c r="O11" t="n">
-        <v>4.54</v>
+        <v>4.32239</v>
       </c>
       <c r="P11" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>0.6743765173470957</v>
+        <v>0.8461524089254281</v>
       </c>
       <c r="R11" t="n">
-        <v>0.03576864546243089</v>
+        <v>0.216873501781118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>253.01</v>
+        <v>186.02</v>
       </c>
       <c r="B12" t="n">
-        <v>322063810</v>
+        <v>279741379</v>
       </c>
       <c r="C12" t="n">
-        <v>14.318503</v>
+        <v>51.750188</v>
       </c>
       <c r="D12" t="n">
-        <v>-51.585251</v>
+        <v>-63.500166</v>
       </c>
       <c r="E12" t="n">
-        <v>2458355.622789</v>
+        <v>2460201.824941</v>
       </c>
       <c r="F12" t="n">
-        <v>3.5104148</v>
+        <v>7.7897726</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>2.376</v>
       </c>
       <c r="H12" t="n">
-        <v>308.8285985</v>
+        <v>194</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>1.328654</v>
+        <v>1.00084</v>
       </c>
       <c r="J12" t="n">
-        <v>64.709886</v>
+        <v>144.765</v>
       </c>
       <c r="K12" t="n">
-        <v>723.3731892</v>
+        <v>966</v>
       </c>
       <c r="L12" t="n">
-        <v>9.3626</v>
+        <v>6.9934</v>
       </c>
       <c r="M12" t="n">
-        <v>30.8431</v>
+        <v>16.32</v>
       </c>
       <c r="N12" t="n">
-        <v>4020</v>
+        <v>4628.53</v>
       </c>
       <c r="O12" t="n">
-        <v>4.438</v>
+        <v>4.32239</v>
       </c>
       <c r="P12" t="n">
-        <v>0.639371</v>
+        <v>0.71</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>0.6749692520700614</v>
+        <v>0.8461524089254281</v>
       </c>
       <c r="R12" t="n">
-        <v>0.08762883918922149</v>
+        <v>0.216873501781118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2009.01</v>
+        <v>2443.01</v>
       </c>
       <c r="B13" t="n">
-        <v>243187830</v>
+        <v>318753380</v>
       </c>
       <c r="C13" t="n">
-        <v>16.908292</v>
+        <v>40.179861</v>
       </c>
       <c r="D13" t="n">
-        <v>22.952868</v>
+        <v>1.199676</v>
       </c>
       <c r="E13" t="n">
-        <v>2458783.768755</v>
+        <v>2459148.098617</v>
       </c>
       <c r="F13" t="n">
-        <v>1071.0898448</v>
+        <v>15.6692322</v>
       </c>
       <c r="G13" t="n">
-        <v>2.1734134</v>
+        <v>4.562853</v>
       </c>
       <c r="H13" t="n">
-        <v>865.169438</v>
+        <v>1393.3814802</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>2.2407785</v>
+        <v>2.6868893</v>
       </c>
       <c r="J13" t="n">
-        <v>1.3880259</v>
+        <v>13.2931176</v>
       </c>
       <c r="K13" t="n">
-        <v>276.8338183</v>
+        <v>486.9971964</v>
       </c>
       <c r="L13" t="n">
-        <v>7.3551</v>
+        <v>8.296900000000001</v>
       </c>
       <c r="M13" t="n">
-        <v>20.5272</v>
+        <v>23.9258</v>
       </c>
       <c r="N13" t="n">
-        <v>4755.33</v>
+        <v>4214.44</v>
       </c>
       <c r="O13" t="n">
-        <v>4.62683</v>
+        <v>4.52845</v>
       </c>
       <c r="P13" t="n">
-        <v>0.701499</v>
+        <v>0.732115</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>0.6894262387675165</v>
+        <v>0.8554185453037726</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2489958576576189</v>
+        <v>0.1818675256393356</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6713.01</v>
+        <v>5084.01</v>
       </c>
       <c r="B14" t="n">
-        <v>428673146</v>
+        <v>438260486</v>
       </c>
       <c r="C14" t="n">
-        <v>179.792354</v>
+        <v>45.954561</v>
       </c>
       <c r="D14" t="n">
-        <v>-20.355606</v>
+        <v>20.110588</v>
       </c>
       <c r="E14" t="n">
-        <v>2458571.522303</v>
+        <v>2460252.991856</v>
       </c>
       <c r="F14" t="n">
-        <v>2.1538049</v>
+        <v>5.8321337</v>
       </c>
       <c r="G14" t="n">
-        <v>1.6541007</v>
+        <v>2.039</v>
       </c>
       <c r="H14" t="n">
-        <v>137.9312313</v>
+        <v>274</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.8814471</v>
+        <v>1.15554</v>
       </c>
       <c r="J14" t="n">
-        <v>331.6009868</v>
+        <v>49.8722</v>
       </c>
       <c r="K14" t="n">
-        <v>1088.3628347</v>
+        <v>740</v>
       </c>
       <c r="L14" t="n">
-        <v>7.0276</v>
+        <v>7.564</v>
       </c>
       <c r="M14" t="n">
-        <v>20.3632</v>
+        <v>21.3575</v>
       </c>
       <c r="N14" t="n">
-        <v>4944.24</v>
+        <v>4544</v>
       </c>
       <c r="O14" t="n">
-        <v>4.58767</v>
+        <v>4.54</v>
       </c>
       <c r="P14" t="n">
-        <v>0.757603</v>
+        <v>0.75</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>0.7135939999775276</v>
+        <v>0.8729662821703333</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2228342109737272</v>
+        <v>0.03576864546243089</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2443.01</v>
+        <v>2009.01</v>
       </c>
       <c r="B15" t="n">
-        <v>318753380</v>
+        <v>243187830</v>
       </c>
       <c r="C15" t="n">
-        <v>40.179861</v>
+        <v>16.908292</v>
       </c>
       <c r="D15" t="n">
-        <v>1.199676</v>
+        <v>22.952868</v>
       </c>
       <c r="E15" t="n">
-        <v>2459148.098617</v>
+        <v>2458783.768755</v>
       </c>
       <c r="F15" t="n">
-        <v>15.6692322</v>
+        <v>1071.0898448</v>
       </c>
       <c r="G15" t="n">
-        <v>4.562853</v>
+        <v>2.1734134</v>
       </c>
       <c r="H15" t="n">
-        <v>1393.3814802</v>
+        <v>865.169438</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>2.6868893</v>
+        <v>2.2407785</v>
       </c>
       <c r="J15" t="n">
-        <v>13.2931176</v>
+        <v>1.3880259</v>
       </c>
       <c r="K15" t="n">
-        <v>486.9971964</v>
+        <v>276.8338183</v>
       </c>
       <c r="L15" t="n">
-        <v>8.296900000000001</v>
+        <v>7.3551</v>
       </c>
       <c r="M15" t="n">
-        <v>23.9258</v>
+        <v>20.5272</v>
       </c>
       <c r="N15" t="n">
-        <v>4214.44</v>
+        <v>4755.33</v>
       </c>
       <c r="O15" t="n">
-        <v>4.52845</v>
+        <v>4.62683</v>
       </c>
       <c r="P15" t="n">
-        <v>0.732115</v>
+        <v>0.701499</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>0.7149622517816325</v>
+        <v>0.9111400841059024</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1818675256393356</v>
+        <v>0.2489958576576189</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5961.01</v>
+        <v>4517.01</v>
       </c>
       <c r="B16" t="n">
-        <v>262689575</v>
+        <v>301289516</v>
       </c>
       <c r="C16" t="n">
-        <v>349.216044</v>
+        <v>351.771776</v>
       </c>
       <c r="D16" t="n">
-        <v>5.695887</v>
+        <v>-1.285343</v>
       </c>
       <c r="E16" t="n">
-        <v>2459447.785905</v>
+        <v>2460231.733831</v>
       </c>
       <c r="F16" t="n">
-        <v>1.617487</v>
+        <v>1.2089755</v>
       </c>
       <c r="G16" t="n">
-        <v>1.2809267</v>
+        <v>1.286</v>
       </c>
       <c r="H16" t="n">
-        <v>342.1852102</v>
+        <v>668</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>1.3134056</v>
+        <v>1.68645</v>
       </c>
       <c r="J16" t="n">
-        <v>197.2074933</v>
+        <v>325.749</v>
       </c>
       <c r="K16" t="n">
-        <v>955.7638559</v>
+        <v>1183</v>
       </c>
       <c r="L16" t="n">
-        <v>9.039199999999999</v>
+        <v>9.0684</v>
       </c>
       <c r="M16" t="n">
-        <v>26.2533</v>
+        <v>29.661</v>
       </c>
       <c r="N16" t="n">
-        <v>3900.68</v>
+        <v>4199</v>
       </c>
       <c r="O16" t="n">
-        <v>4.5239</v>
+        <v>4.65321</v>
       </c>
       <c r="P16" t="n">
-        <v>0.7017099999999999</v>
+        <v>0.63</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>0.725640112171313</v>
+        <v>0.9154584467275934</v>
       </c>
       <c r="R16" t="n">
-        <v>0.01821666933803688</v>
+        <v>0.2166081726537622</v>
       </c>
     </row>
     <row r="17">
@@ -1462,7 +1462,7 @@
         <v>0.750709</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>0.7294099803952822</v>
+        <v>0.9555862363533906</v>
       </c>
       <c r="R17" t="n">
         <v>0.08153377876240343</v>
@@ -1470,226 +1470,226 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4470.01</v>
+        <v>2459.01</v>
       </c>
       <c r="B18" t="n">
-        <v>256364928</v>
+        <v>192790476</v>
       </c>
       <c r="C18" t="n">
-        <v>300.182122</v>
+        <v>82.143332</v>
       </c>
       <c r="D18" t="n">
-        <v>22.709776</v>
+        <v>-39.373046</v>
       </c>
       <c r="E18" t="n">
-        <v>2459770.410421</v>
+        <v>2458452.334564</v>
       </c>
       <c r="F18" t="n">
-        <v>2.2185748</v>
+        <v>19.1047019</v>
       </c>
       <c r="G18" t="n">
-        <v>1.8233621</v>
+        <v>3.2516728</v>
       </c>
       <c r="H18" t="n">
-        <v>25854.2144559</v>
+        <v>1906.0596245</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>13.3010355</v>
+        <v>2.9365337</v>
       </c>
       <c r="J18" t="n">
-        <v>348.1506195</v>
+        <v>8.5187297</v>
       </c>
       <c r="K18" t="n">
-        <v>1101.6954166</v>
+        <v>435.7259839</v>
       </c>
       <c r="L18" t="n">
-        <v>6.8481</v>
+        <v>9.395099999999999</v>
       </c>
       <c r="M18" t="n">
-        <v>19.7638</v>
+        <v>36.6113</v>
       </c>
       <c r="N18" t="n">
-        <v>5023</v>
+        <v>4195</v>
       </c>
       <c r="O18" t="n">
-        <v>4.58</v>
+        <v>4.59888</v>
       </c>
       <c r="P18" t="n">
-        <v>0.776484</v>
+        <v>0.6750930000000001</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>0.7727959666994614</v>
+        <v>0.9631817734805855</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1256230421520718</v>
+        <v>0.04566165863559627</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1821.01</v>
+        <v>6713.01</v>
       </c>
       <c r="B19" t="n">
-        <v>82308728</v>
+        <v>428673146</v>
       </c>
       <c r="C19" t="n">
-        <v>168.637658</v>
+        <v>179.792354</v>
       </c>
       <c r="D19" t="n">
-        <v>25.710596</v>
+        <v>-20.355606</v>
       </c>
       <c r="E19" t="n">
-        <v>2459664.085255</v>
+        <v>2458571.522303</v>
       </c>
       <c r="F19" t="n">
-        <v>9.4893231</v>
+        <v>2.1538049</v>
       </c>
       <c r="G19" t="n">
-        <v>2.757</v>
+        <v>1.6541007</v>
       </c>
       <c r="H19" t="n">
-        <v>940</v>
+        <v>137.9312313</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>2.4304</v>
+        <v>0.8814471</v>
       </c>
       <c r="J19" t="n">
-        <v>41.924</v>
+        <v>331.6009868</v>
       </c>
       <c r="K19" t="n">
-        <v>708</v>
+        <v>1088.3628347</v>
       </c>
       <c r="L19" t="n">
-        <v>6.9859</v>
+        <v>7.0276</v>
       </c>
       <c r="M19" t="n">
-        <v>21.5618</v>
+        <v>20.3632</v>
       </c>
       <c r="N19" t="n">
-        <v>5120</v>
+        <v>4944.24</v>
       </c>
       <c r="O19" t="n">
-        <v>4.6</v>
+        <v>4.58767</v>
       </c>
       <c r="P19" t="n">
-        <v>0.77</v>
+        <v>0.757603</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>0.775028246070732</v>
+        <v>0.9716867913511416</v>
       </c>
       <c r="R19" t="n">
-        <v>0.05814337766711058</v>
+        <v>0.2228342109737272</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1099.01</v>
+        <v>544.01</v>
       </c>
       <c r="B20" t="n">
-        <v>290348383</v>
+        <v>50618703</v>
       </c>
       <c r="C20" t="n">
-        <v>328.718171</v>
+        <v>82.290072</v>
       </c>
       <c r="D20" t="n">
-        <v>-77.338802</v>
+        <v>-0.342898</v>
       </c>
       <c r="E20" t="n">
-        <v>2460140.220927</v>
+        <v>2458469.756983</v>
       </c>
       <c r="F20" t="n">
-        <v>6.441006</v>
+        <v>1.5483542</v>
       </c>
       <c r="G20" t="n">
-        <v>1.812</v>
+        <v>1.2030925</v>
       </c>
       <c r="H20" t="n">
-        <v>914</v>
+        <v>926.4111032</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>2.56374</v>
+        <v>2.1601741</v>
       </c>
       <c r="J20" t="n">
-        <v>87.89019999999999</v>
+        <v>240.1950345</v>
       </c>
       <c r="K20" t="n">
-        <v>853</v>
+        <v>1004.0625199</v>
       </c>
       <c r="L20" t="n">
-        <v>7.3661</v>
+        <v>9.650399999999999</v>
       </c>
       <c r="M20" t="n">
-        <v>23.606</v>
+        <v>41.1166</v>
       </c>
       <c r="N20" t="n">
-        <v>4867</v>
+        <v>4665</v>
       </c>
       <c r="O20" t="n">
-        <v>4.438</v>
+        <v>4.67631</v>
       </c>
       <c r="P20" t="n">
-        <v>0.8</v>
+        <v>0.6634139999999999</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>0.7834968123457137</v>
+        <v>1.043500380382299</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1472633162803166</v>
+        <v>0.04285830752449767</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4517.01</v>
+        <v>431.02</v>
       </c>
       <c r="B21" t="n">
-        <v>301289516</v>
+        <v>31374837</v>
       </c>
       <c r="C21" t="n">
-        <v>351.771776</v>
+        <v>83.26925</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.285343</v>
+        <v>-26.72387</v>
       </c>
       <c r="E21" t="n">
-        <v>2460231.733831</v>
+        <v>2458438.375965</v>
       </c>
       <c r="F21" t="n">
-        <v>1.2089755</v>
+        <v>0.4900589</v>
       </c>
       <c r="G21" t="n">
-        <v>1.286</v>
+        <v>1.0123328</v>
       </c>
       <c r="H21" t="n">
-        <v>668</v>
+        <v>291.0399722</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>1.68645</v>
+        <v>1.4741529</v>
       </c>
       <c r="J21" t="n">
-        <v>325.749</v>
+        <v>2120.4474663</v>
       </c>
       <c r="K21" t="n">
-        <v>1183</v>
+        <v>1730.7192689</v>
       </c>
       <c r="L21" t="n">
-        <v>9.0684</v>
+        <v>8.170500000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>29.661</v>
+        <v>32.5686</v>
       </c>
       <c r="N21" t="n">
-        <v>4199</v>
+        <v>4891</v>
       </c>
       <c r="O21" t="n">
-        <v>4.65321</v>
+        <v>4.62</v>
       </c>
       <c r="P21" t="n">
-        <v>0.63</v>
+        <v>0.7266319999999999</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>0.827936617866505</v>
+        <v>1.044427435098838</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2166081726537622</v>
+        <v>0.0767170384367596</v>
       </c>
     </row>
     <row r="22">
@@ -1742,7 +1742,7 @@
         <v>0.7266319999999999</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>0.8383402684482589</v>
+        <v>1.044427435098838</v>
       </c>
       <c r="R22" t="n">
         <v>0.0767170384367596</v>
@@ -1750,335 +1750,338 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>431.02</v>
+        <v>833.01</v>
       </c>
       <c r="B23" t="n">
-        <v>31374837</v>
+        <v>362249359</v>
       </c>
       <c r="C23" t="n">
-        <v>83.26925</v>
+        <v>145.645472</v>
       </c>
       <c r="D23" t="n">
-        <v>-26.72387</v>
+        <v>-62.475886</v>
       </c>
       <c r="E23" t="n">
-        <v>2458438.375965</v>
+        <v>2458544.120496</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4900589</v>
+        <v>1.041889</v>
       </c>
       <c r="G23" t="n">
-        <v>1.0123328</v>
+        <v>1.2737667</v>
       </c>
       <c r="H23" t="n">
-        <v>291.0399722</v>
+        <v>465.3854112</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>1.4741529</v>
+        <v>1.389031</v>
       </c>
       <c r="J23" t="n">
-        <v>2120.4474663</v>
+        <v>270.068174</v>
       </c>
       <c r="K23" t="n">
-        <v>1730.7192689</v>
+        <v>1033.9227741</v>
       </c>
       <c r="L23" t="n">
-        <v>8.170500000000001</v>
+        <v>10.1461</v>
       </c>
       <c r="M23" t="n">
-        <v>32.5686</v>
+        <v>41.7148</v>
       </c>
       <c r="N23" t="n">
-        <v>4891</v>
+        <v>3965</v>
       </c>
       <c r="O23" t="n">
-        <v>4.62</v>
+        <v>4.68337</v>
       </c>
       <c r="P23" t="n">
-        <v>0.7266319999999999</v>
+        <v>0.603336</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>0.8383402684482589</v>
+        <v>1.044521400590919</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0767170384367596</v>
+        <v>0.08879781148820186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>802.01</v>
+        <v>1099.01</v>
       </c>
       <c r="B24" t="n">
-        <v>167303382</v>
+        <v>290348383</v>
       </c>
       <c r="C24" t="n">
-        <v>97.985715</v>
+        <v>328.718171</v>
       </c>
       <c r="D24" t="n">
-        <v>-68.7118</v>
+        <v>-77.338802</v>
       </c>
       <c r="E24" t="n">
-        <v>2458327.391469</v>
+        <v>2460140.220927</v>
       </c>
       <c r="F24" t="n">
-        <v>3.693916</v>
+        <v>6.441006</v>
       </c>
       <c r="G24" t="n">
-        <v>1.7264201</v>
+        <v>1.812</v>
       </c>
       <c r="H24" t="n">
-        <v>74.807186</v>
+        <v>914</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>0.6501353</v>
+        <v>2.56374</v>
       </c>
       <c r="J24" t="n">
-        <v>186.8668956</v>
+        <v>87.89019999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>942.9807829</v>
+        <v>853</v>
       </c>
       <c r="L24" t="n">
-        <v>7.5209</v>
+        <v>7.3661</v>
       </c>
       <c r="M24" t="n">
-        <v>28.1042</v>
+        <v>23.606</v>
       </c>
       <c r="N24" t="n">
-        <v>5235.78</v>
+        <v>4867</v>
       </c>
       <c r="O24" t="n">
         <v>4.438</v>
       </c>
       <c r="P24" t="n">
-        <v>0.74982</v>
+        <v>0.8</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>0.8411339741174774</v>
+        <v>1.051534549285856</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2277199720930105</v>
+        <v>0.1472633162803166</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5789.01</v>
+        <v>1821.01</v>
       </c>
       <c r="B25" t="n">
-        <v>87216634</v>
+        <v>82308728</v>
       </c>
       <c r="C25" t="n">
-        <v>302.773447</v>
+        <v>168.637658</v>
       </c>
       <c r="D25" t="n">
-        <v>16.189714</v>
+        <v>25.710596</v>
       </c>
       <c r="E25" t="n">
-        <v>2459776.255982</v>
+        <v>2459664.085255</v>
       </c>
       <c r="F25" t="n">
-        <v>12.9256051</v>
+        <v>9.4893231</v>
       </c>
       <c r="G25" t="n">
-        <v>1.691</v>
+        <v>2.757</v>
       </c>
       <c r="H25" t="n">
-        <v>790</v>
+        <v>940</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>2.53704</v>
+        <v>2.4304</v>
       </c>
       <c r="J25" t="n">
-        <v>8.719390000000001</v>
+        <v>41.924</v>
       </c>
       <c r="K25" t="n">
-        <v>478</v>
+        <v>708</v>
       </c>
       <c r="L25" t="n">
-        <v>6.5715</v>
+        <v>6.9859</v>
       </c>
       <c r="M25" t="n">
-        <v>20.4581</v>
+        <v>21.5618</v>
       </c>
       <c r="N25" t="n">
-        <v>5132</v>
+        <v>5120</v>
       </c>
       <c r="O25" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="P25" t="n">
-        <v>0.88</v>
+        <v>0.77</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>0.8872845824462069</v>
+        <v>1.065846328578727</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2860097255552455</v>
+        <v>0.05814337766711058</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2459.01</v>
+        <v>4470.01</v>
       </c>
       <c r="B26" t="n">
-        <v>192790476</v>
+        <v>256364928</v>
       </c>
       <c r="C26" t="n">
-        <v>82.143332</v>
+        <v>300.182122</v>
       </c>
       <c r="D26" t="n">
-        <v>-39.373046</v>
+        <v>22.709776</v>
       </c>
       <c r="E26" t="n">
-        <v>2458452.334564</v>
+        <v>2459770.410421</v>
       </c>
       <c r="F26" t="n">
-        <v>19.1047019</v>
+        <v>2.2185748</v>
       </c>
       <c r="G26" t="n">
-        <v>3.2516728</v>
+        <v>1.8233621</v>
       </c>
       <c r="H26" t="n">
-        <v>1906.0596245</v>
+        <v>25854.2144559</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>2.9365337</v>
+        <v>13.3010355</v>
       </c>
       <c r="J26" t="n">
-        <v>8.5187297</v>
+        <v>348.1506195</v>
       </c>
       <c r="K26" t="n">
-        <v>435.7259839</v>
+        <v>1101.6954166</v>
       </c>
       <c r="L26" t="n">
-        <v>9.395099999999999</v>
+        <v>6.8481</v>
       </c>
       <c r="M26" t="n">
-        <v>36.6113</v>
+        <v>19.7638</v>
       </c>
       <c r="N26" t="n">
-        <v>4195</v>
+        <v>5023</v>
       </c>
       <c r="O26" t="n">
-        <v>4.59888</v>
+        <v>4.58</v>
       </c>
       <c r="P26" t="n">
-        <v>0.6750930000000001</v>
+        <v>0.776484</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>0.8886386728191763</v>
+        <v>1.07195385275587</v>
       </c>
       <c r="R26" t="n">
-        <v>0.04566165863559627</v>
+        <v>0.1256230421520718</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1835.02</v>
+        <v>174.05</v>
       </c>
       <c r="B27" t="n">
-        <v>347332255</v>
+        <v>425997655</v>
       </c>
       <c r="C27" t="n">
-        <v>189.839224</v>
+        <v>55.459031</v>
       </c>
       <c r="D27" t="n">
-        <v>20.027338</v>
+        <v>-62.767267</v>
       </c>
       <c r="E27" t="n">
-        <v>2458937.873023</v>
+        <v>2460197.038739</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7.9076222</v>
       </c>
       <c r="G27" t="n">
-        <v>3.9454498</v>
+        <v>2.611</v>
       </c>
       <c r="H27" t="n">
-        <v>886.4838237</v>
+        <v>217</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>2.5398986</v>
+        <v>0.969819</v>
       </c>
       <c r="J27" t="n">
-        <v>48.4006234</v>
+        <v>44.8107</v>
       </c>
       <c r="K27" t="n">
-        <v>672.7171326</v>
+        <v>720</v>
       </c>
       <c r="L27" t="n">
-        <v>7.6621</v>
+        <v>8.751300000000001</v>
       </c>
       <c r="M27" t="n">
-        <v>32.1585</v>
+        <v>39.0341</v>
       </c>
       <c r="N27" t="n">
-        <v>5297</v>
+        <v>4813</v>
       </c>
       <c r="O27" t="n">
-        <v>4.61016</v>
+        <v>4.38</v>
       </c>
       <c r="P27" t="n">
-        <v>0.782479</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>0.9070767119481528</v>
+        <v>1.091922494331644</v>
       </c>
       <c r="R27" t="n">
-        <v>0.06661906649581383</v>
+        <v>0.05462548793553362</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1835.01</v>
+        <v>174.04</v>
       </c>
       <c r="B28" t="n">
-        <v>347332255</v>
+        <v>425997655</v>
       </c>
       <c r="C28" t="n">
-        <v>189.839224</v>
+        <v>55.459031</v>
       </c>
       <c r="D28" t="n">
-        <v>20.027338</v>
+        <v>-62.767267</v>
       </c>
       <c r="E28" t="n">
-        <v>2458932.763635</v>
+        <v>2460203.017928</v>
       </c>
       <c r="F28" t="n">
-        <v>5.6419598</v>
+        <v>3.9766833</v>
       </c>
       <c r="G28" t="n">
-        <v>3.0871502</v>
+        <v>1.859</v>
       </c>
       <c r="H28" t="n">
-        <v>543.838848</v>
+        <v>142</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>1.8245844</v>
+        <v>0.757588</v>
       </c>
       <c r="J28" t="n">
-        <v>119.4171181</v>
+        <v>89.0886</v>
       </c>
       <c r="K28" t="n">
-        <v>843.1141848</v>
+        <v>855</v>
       </c>
       <c r="L28" t="n">
-        <v>7.6621</v>
+        <v>8.751300000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>32.1585</v>
+        <v>39.0341</v>
       </c>
       <c r="N28" t="n">
-        <v>5297</v>
+        <v>4813</v>
       </c>
       <c r="O28" t="n">
-        <v>4.61016</v>
+        <v>4.38</v>
       </c>
       <c r="P28" t="n">
-        <v>0.782479</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>0.9070767119481528</v>
+        <v>1.091922494331644</v>
       </c>
       <c r="R28" t="n">
-        <v>0.06661906649581383</v>
+        <v>0.05462548793553362</v>
       </c>
     </row>
     <row r="29">
@@ -2131,7 +2134,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>0.9284749654172852</v>
+        <v>1.091922494331644</v>
       </c>
       <c r="R29" t="n">
         <v>0.05462548793553362</v>
@@ -2139,7 +2142,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>174.04</v>
+        <v>174.02</v>
       </c>
       <c r="B30" t="n">
         <v>425997655</v>
@@ -2151,25 +2154,25 @@
         <v>-62.767267</v>
       </c>
       <c r="E30" t="n">
-        <v>2460203.017928</v>
+        <v>2460157.951364</v>
       </c>
       <c r="F30" t="n">
-        <v>3.9766833</v>
+        <v>29.7975205</v>
       </c>
       <c r="G30" t="n">
-        <v>1.859</v>
+        <v>2.782</v>
       </c>
       <c r="H30" t="n">
-        <v>142</v>
+        <v>671</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>0.757588</v>
+        <v>1.60982</v>
       </c>
       <c r="J30" t="n">
-        <v>89.0886</v>
+        <v>3.2713</v>
       </c>
       <c r="K30" t="n">
-        <v>855</v>
+        <v>374</v>
       </c>
       <c r="L30" t="n">
         <v>8.751300000000001</v>
@@ -2187,7 +2190,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>0.9284749654172852</v>
+        <v>1.091922494331644</v>
       </c>
       <c r="R30" t="n">
         <v>0.05462548793553362</v>
@@ -2243,7 +2246,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>0.9284749654172852</v>
+        <v>1.091922494331644</v>
       </c>
       <c r="R31" t="n">
         <v>0.05462548793553362</v>
@@ -2251,450 +2254,450 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>174.05</v>
+        <v>6709.01</v>
       </c>
       <c r="B32" t="n">
-        <v>425997655</v>
+        <v>20375215</v>
       </c>
       <c r="C32" t="n">
-        <v>55.459031</v>
+        <v>167.608218</v>
       </c>
       <c r="D32" t="n">
-        <v>-62.767267</v>
+        <v>-29.414302</v>
       </c>
       <c r="E32" t="n">
-        <v>2460197.038739</v>
+        <v>2458544.543307</v>
       </c>
       <c r="F32" t="n">
-        <v>7.9076222</v>
+        <v>2.3477336</v>
       </c>
       <c r="G32" t="n">
-        <v>2.611</v>
+        <v>1.8624266</v>
       </c>
       <c r="H32" t="n">
-        <v>217</v>
+        <v>182.9434914</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>0.969819</v>
+        <v>1.0903541</v>
       </c>
       <c r="J32" t="n">
-        <v>44.8107</v>
+        <v>215.4979378</v>
       </c>
       <c r="K32" t="n">
-        <v>720</v>
+        <v>977.1934094</v>
       </c>
       <c r="L32" t="n">
-        <v>8.751300000000001</v>
+        <v>8.8392</v>
       </c>
       <c r="M32" t="n">
-        <v>39.0341</v>
+        <v>39.7429</v>
       </c>
       <c r="N32" t="n">
-        <v>4813</v>
+        <v>4799</v>
       </c>
       <c r="O32" t="n">
-        <v>4.38</v>
+        <v>4.66766</v>
       </c>
       <c r="P32" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.678033</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>0.9284749654172852</v>
+        <v>1.095343770541425</v>
       </c>
       <c r="R32" t="n">
-        <v>0.05462548793553362</v>
+        <v>0.03672621597918261</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>174.02</v>
+        <v>802.01</v>
       </c>
       <c r="B33" t="n">
-        <v>425997655</v>
+        <v>167303382</v>
       </c>
       <c r="C33" t="n">
-        <v>55.459031</v>
+        <v>97.985715</v>
       </c>
       <c r="D33" t="n">
-        <v>-62.767267</v>
+        <v>-68.7118</v>
       </c>
       <c r="E33" t="n">
-        <v>2460157.951364</v>
+        <v>2458327.391469</v>
       </c>
       <c r="F33" t="n">
-        <v>29.7975205</v>
+        <v>3.693916</v>
       </c>
       <c r="G33" t="n">
-        <v>2.782</v>
+        <v>1.7264201</v>
       </c>
       <c r="H33" t="n">
-        <v>671</v>
+        <v>74.807186</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>1.60982</v>
+        <v>0.6501353</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2713</v>
+        <v>186.8668956</v>
       </c>
       <c r="K33" t="n">
-        <v>374</v>
+        <v>942.9807829</v>
       </c>
       <c r="L33" t="n">
-        <v>8.751300000000001</v>
+        <v>7.5209</v>
       </c>
       <c r="M33" t="n">
-        <v>39.0341</v>
+        <v>28.1042</v>
       </c>
       <c r="N33" t="n">
-        <v>4813</v>
+        <v>5235.78</v>
       </c>
       <c r="O33" t="n">
-        <v>4.38</v>
+        <v>4.438</v>
       </c>
       <c r="P33" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.74982</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>0.9284749654172852</v>
+        <v>1.116703040663285</v>
       </c>
       <c r="R33" t="n">
-        <v>0.05462548793553362</v>
+        <v>0.2277199720930105</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6709.01</v>
+        <v>4310.01</v>
       </c>
       <c r="B34" t="n">
-        <v>20375215</v>
+        <v>303317324</v>
       </c>
       <c r="C34" t="n">
-        <v>167.608218</v>
+        <v>351.903531</v>
       </c>
       <c r="D34" t="n">
-        <v>-29.414302</v>
+        <v>-25.508462</v>
       </c>
       <c r="E34" t="n">
-        <v>2458544.543307</v>
+        <v>2458365.181534</v>
       </c>
       <c r="F34" t="n">
-        <v>2.3477336</v>
+        <v>739.1670007</v>
       </c>
       <c r="G34" t="n">
-        <v>1.8624266</v>
+        <v>5.7183604</v>
       </c>
       <c r="H34" t="n">
-        <v>182.9434914</v>
+        <v>1376.1395053</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>1.0903541</v>
+        <v>2.6735992</v>
       </c>
       <c r="J34" t="n">
-        <v>215.4979378</v>
+        <v>0.0724872</v>
       </c>
       <c r="K34" t="n">
-        <v>977.1934094</v>
+        <v>132.3381364</v>
       </c>
       <c r="L34" t="n">
-        <v>8.8392</v>
+        <v>9.4961</v>
       </c>
       <c r="M34" t="n">
-        <v>39.7429</v>
+        <v>40.0268</v>
       </c>
       <c r="N34" t="n">
-        <v>4799</v>
+        <v>4159</v>
       </c>
       <c r="O34" t="n">
-        <v>4.66766</v>
+        <v>4.53501</v>
       </c>
       <c r="P34" t="n">
-        <v>0.678033</v>
+        <v>0.7210839999999999</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>0.9416408367405514</v>
+        <v>1.117779766286029</v>
       </c>
       <c r="R34" t="n">
-        <v>0.03672621597918261</v>
+        <v>0.04720909237717162</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6266.01</v>
+        <v>2018.01</v>
       </c>
       <c r="B35" t="n">
-        <v>193023697</v>
+        <v>357501308</v>
       </c>
       <c r="C35" t="n">
-        <v>155.597851</v>
+        <v>229.837442</v>
       </c>
       <c r="D35" t="n">
-        <v>-28.847487</v>
+        <v>29.207877</v>
       </c>
       <c r="E35" t="n">
-        <v>2460013.265158</v>
+        <v>2458958.257962</v>
       </c>
       <c r="F35" t="n">
-        <v>2.7895524</v>
+        <v>7.4355709</v>
       </c>
       <c r="G35" t="n">
-        <v>1.969</v>
+        <v>2.3450321</v>
       </c>
       <c r="H35" t="n">
-        <v>262</v>
+        <v>1310.6803156</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>0.986147</v>
+        <v>2.2761564</v>
       </c>
       <c r="J35" t="n">
-        <v>376.853</v>
+        <v>26.0757607</v>
       </c>
       <c r="K35" t="n">
-        <v>1227</v>
+        <v>576.3403106</v>
       </c>
       <c r="L35" t="n">
-        <v>8.5953</v>
+        <v>8.962</v>
       </c>
       <c r="M35" t="n">
-        <v>42.6435</v>
+        <v>27.9956</v>
       </c>
       <c r="N35" t="n">
-        <v>5039</v>
+        <v>4218.9</v>
       </c>
       <c r="O35" t="n">
-        <v>4.62</v>
+        <v>4.67</v>
       </c>
       <c r="P35" t="n">
-        <v>0.74</v>
+        <v>0.622512</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>0.96652789500998</v>
+        <v>1.133499123640524</v>
       </c>
       <c r="R35" t="n">
-        <v>0.01595707167941454</v>
+        <v>0.2100230324201724</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>544.01</v>
+        <v>5554.01</v>
       </c>
       <c r="B36" t="n">
-        <v>50618703</v>
+        <v>91287873</v>
       </c>
       <c r="C36" t="n">
-        <v>82.290072</v>
+        <v>104.74387</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.342898</v>
+        <v>28.715768</v>
       </c>
       <c r="E36" t="n">
-        <v>2458469.756983</v>
+        <v>2459515.17161</v>
       </c>
       <c r="F36" t="n">
-        <v>1.5483542</v>
+        <v>26.694279</v>
       </c>
       <c r="G36" t="n">
-        <v>1.2030925</v>
+        <v>3.7831301</v>
       </c>
       <c r="H36" t="n">
-        <v>926.4111032</v>
+        <v>1854.2924324</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>2.1601741</v>
+        <v>2.6845863</v>
       </c>
       <c r="J36" t="n">
-        <v>240.1950345</v>
+        <v>4.0851419</v>
       </c>
       <c r="K36" t="n">
-        <v>1004.0625199</v>
+        <v>362.5947706</v>
       </c>
       <c r="L36" t="n">
-        <v>9.650399999999999</v>
+        <v>9.83733</v>
       </c>
       <c r="M36" t="n">
-        <v>41.1166</v>
+        <v>39.4478</v>
       </c>
       <c r="N36" t="n">
-        <v>4665</v>
+        <v>3997</v>
       </c>
       <c r="O36" t="n">
-        <v>4.67631</v>
+        <v>4.6288</v>
       </c>
       <c r="P36" t="n">
-        <v>0.6634139999999999</v>
+        <v>0.626722</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>0.9751167140002389</v>
+        <v>1.166081929611407</v>
       </c>
       <c r="R36" t="n">
-        <v>0.04285830752449767</v>
+        <v>0.05933370243670238</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>833.01</v>
+        <v>139.01</v>
       </c>
       <c r="B37" t="n">
-        <v>362249359</v>
+        <v>62483237</v>
       </c>
       <c r="C37" t="n">
-        <v>145.645472</v>
+        <v>336.402414</v>
       </c>
       <c r="D37" t="n">
-        <v>-62.475886</v>
+        <v>-34.909713</v>
       </c>
       <c r="E37" t="n">
-        <v>2458544.120496</v>
+        <v>2458334.891563</v>
       </c>
       <c r="F37" t="n">
-        <v>1.041889</v>
+        <v>11.0708575</v>
       </c>
       <c r="G37" t="n">
-        <v>1.2737667</v>
+        <v>2.1937617</v>
       </c>
       <c r="H37" t="n">
-        <v>465.3854112</v>
+        <v>1149.7328034</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>1.389031</v>
+        <v>2.3337648</v>
       </c>
       <c r="J37" t="n">
-        <v>270.068174</v>
+        <v>22.4219066</v>
       </c>
       <c r="K37" t="n">
-        <v>1033.9227741</v>
+        <v>554.9934842</v>
       </c>
       <c r="L37" t="n">
-        <v>10.1461</v>
+        <v>9.3636</v>
       </c>
       <c r="M37" t="n">
-        <v>41.7148</v>
+        <v>42.4061</v>
       </c>
       <c r="N37" t="n">
-        <v>3965</v>
+        <v>4356</v>
       </c>
       <c r="O37" t="n">
-        <v>4.68337</v>
+        <v>4.53491</v>
       </c>
       <c r="P37" t="n">
-        <v>0.603336</v>
+        <v>0.700727</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>0.9974143369044169</v>
+        <v>1.172158076349136</v>
       </c>
       <c r="R37" t="n">
-        <v>0.08879781148820186</v>
+        <v>0.02144133416206292</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1773.01</v>
+        <v>6266.01</v>
       </c>
       <c r="B38" t="n">
-        <v>332064670</v>
+        <v>193023697</v>
       </c>
       <c r="C38" t="n">
-        <v>133.146837</v>
+        <v>155.597851</v>
       </c>
       <c r="D38" t="n">
-        <v>28.329815</v>
+        <v>-28.847487</v>
       </c>
       <c r="E38" t="n">
-        <v>2458870.692828</v>
+        <v>2460013.265158</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7365463</v>
+        <v>2.7895524</v>
       </c>
       <c r="G38" t="n">
-        <v>1.5732208</v>
+        <v>1.969</v>
       </c>
       <c r="H38" t="n">
-        <v>384.6733121</v>
+        <v>262</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>2.0231121</v>
+        <v>0.986147</v>
       </c>
       <c r="J38" t="n">
-        <v>2657.8322415</v>
+        <v>376.853</v>
       </c>
       <c r="K38" t="n">
-        <v>1831.2668801</v>
+        <v>1227</v>
       </c>
       <c r="L38" t="n">
-        <v>5.2058</v>
+        <v>8.5953</v>
       </c>
       <c r="M38" t="n">
-        <v>12.5855</v>
+        <v>42.6435</v>
       </c>
       <c r="N38" t="n">
-        <v>5250</v>
+        <v>5039</v>
       </c>
       <c r="O38" t="n">
-        <v>4.42</v>
+        <v>4.62</v>
       </c>
       <c r="P38" t="n">
-        <v>0.963515</v>
+        <v>0.74</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>0.9989312399418354</v>
+        <v>1.177538316413939</v>
       </c>
       <c r="R38" t="n">
-        <v>0.2680494911224468</v>
+        <v>0.01595707167941454</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2018.01</v>
+        <v>461.01</v>
       </c>
       <c r="B39" t="n">
-        <v>357501308</v>
+        <v>4646810</v>
       </c>
       <c r="C39" t="n">
-        <v>229.837442</v>
+        <v>38.271253</v>
       </c>
       <c r="D39" t="n">
-        <v>29.207877</v>
+        <v>-10.352178</v>
       </c>
       <c r="E39" t="n">
-        <v>2458958.257962</v>
+        <v>2458416.351956</v>
       </c>
       <c r="F39" t="n">
-        <v>7.4355709</v>
+        <v>10.9245478</v>
       </c>
       <c r="G39" t="n">
-        <v>2.3450321</v>
+        <v>1.8716477</v>
       </c>
       <c r="H39" t="n">
-        <v>1310.6803156</v>
+        <v>653.537141</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>2.2761564</v>
+        <v>1.9015018</v>
       </c>
       <c r="J39" t="n">
-        <v>26.0757607</v>
+        <v>35.242668</v>
       </c>
       <c r="K39" t="n">
-        <v>576.3403106</v>
+        <v>621.4224577</v>
       </c>
       <c r="L39" t="n">
-        <v>8.962</v>
+        <v>8.872299999999999</v>
       </c>
       <c r="M39" t="n">
-        <v>27.9956</v>
+        <v>45.5621</v>
       </c>
       <c r="N39" t="n">
-        <v>4218.9</v>
+        <v>4884</v>
       </c>
       <c r="O39" t="n">
-        <v>4.67</v>
+        <v>4.49</v>
       </c>
       <c r="P39" t="n">
-        <v>0.622512</v>
+        <v>0.74413</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>1.002327292116447</v>
+        <v>1.193593315162176</v>
       </c>
       <c r="R39" t="n">
-        <v>0.2100230324201724</v>
+        <v>0.09656722333313997</v>
       </c>
     </row>
     <row r="40">
@@ -2747,7 +2750,7 @@
         <v>0.77</v>
       </c>
       <c r="Q40" s="3" t="n">
-        <v>1.012005510775336</v>
+        <v>1.194427860860118</v>
       </c>
       <c r="R40" t="n">
         <v>0.0352176809563584</v>
@@ -2755,562 +2758,559 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>461.01</v>
+        <v>1835.01</v>
       </c>
       <c r="B41" t="n">
-        <v>4646810</v>
+        <v>347332255</v>
       </c>
       <c r="C41" t="n">
-        <v>38.271253</v>
+        <v>189.839224</v>
       </c>
       <c r="D41" t="n">
-        <v>-10.352178</v>
+        <v>20.027338</v>
       </c>
       <c r="E41" t="n">
-        <v>2458416.351956</v>
+        <v>2458932.763635</v>
       </c>
       <c r="F41" t="n">
-        <v>10.9245478</v>
+        <v>5.6419598</v>
       </c>
       <c r="G41" t="n">
-        <v>1.8716477</v>
+        <v>3.0871502</v>
       </c>
       <c r="H41" t="n">
-        <v>653.537141</v>
+        <v>543.838848</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>1.9015018</v>
+        <v>1.8245844</v>
       </c>
       <c r="J41" t="n">
-        <v>35.242668</v>
+        <v>119.4171181</v>
       </c>
       <c r="K41" t="n">
-        <v>621.4224577</v>
+        <v>843.1141848</v>
       </c>
       <c r="L41" t="n">
-        <v>8.872299999999999</v>
+        <v>7.6621</v>
       </c>
       <c r="M41" t="n">
-        <v>45.5621</v>
+        <v>32.1585</v>
       </c>
       <c r="N41" t="n">
-        <v>4884</v>
+        <v>5297</v>
       </c>
       <c r="O41" t="n">
-        <v>4.49</v>
+        <v>4.61016</v>
       </c>
       <c r="P41" t="n">
-        <v>0.74413</v>
+        <v>0.782479</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>1.014112396663402</v>
+        <v>1.206980474191085</v>
       </c>
       <c r="R41" t="n">
-        <v>0.09656722333313997</v>
+        <v>0.06661906649581383</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4310.01</v>
+        <v>1835.02</v>
       </c>
       <c r="B42" t="n">
-        <v>303317324</v>
+        <v>347332255</v>
       </c>
       <c r="C42" t="n">
-        <v>351.903531</v>
+        <v>189.839224</v>
       </c>
       <c r="D42" t="n">
-        <v>-25.508462</v>
+        <v>20.027338</v>
       </c>
       <c r="E42" t="n">
-        <v>2458365.181534</v>
-      </c>
-      <c r="F42" t="n">
-        <v>739.1670007</v>
+        <v>2458937.873023</v>
       </c>
       <c r="G42" t="n">
-        <v>5.7183604</v>
+        <v>3.9454498</v>
       </c>
       <c r="H42" t="n">
-        <v>1376.1395053</v>
+        <v>886.4838237</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>2.6735992</v>
+        <v>2.5398986</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0724872</v>
+        <v>48.4006234</v>
       </c>
       <c r="K42" t="n">
-        <v>132.3381364</v>
+        <v>672.7171326</v>
       </c>
       <c r="L42" t="n">
-        <v>9.4961</v>
+        <v>7.6621</v>
       </c>
       <c r="M42" t="n">
-        <v>40.0268</v>
+        <v>32.1585</v>
       </c>
       <c r="N42" t="n">
-        <v>4159</v>
+        <v>5297</v>
       </c>
       <c r="O42" t="n">
-        <v>4.53501</v>
+        <v>4.61016</v>
       </c>
       <c r="P42" t="n">
-        <v>0.7210839999999999</v>
+        <v>0.782479</v>
       </c>
       <c r="Q42" s="3" t="n">
-        <v>1.018586022426446</v>
+        <v>1.206980474191085</v>
       </c>
       <c r="R42" t="n">
-        <v>0.04720909237717162</v>
+        <v>0.06661906649581383</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>214.02</v>
+        <v>6263.01</v>
       </c>
       <c r="B43" t="n">
-        <v>167415965</v>
+        <v>293547742</v>
       </c>
       <c r="C43" t="n">
-        <v>99.458741</v>
+        <v>139.199747</v>
       </c>
       <c r="D43" t="n">
-        <v>-70.931327</v>
+        <v>-49.300844</v>
       </c>
       <c r="E43" t="n">
-        <v>2460174.709658</v>
+        <v>2460009.249357</v>
       </c>
       <c r="F43" t="n">
-        <v>9.695961</v>
+        <v>3.0178746</v>
       </c>
       <c r="G43" t="n">
-        <v>2.772</v>
+        <v>2.679</v>
       </c>
       <c r="H43" t="n">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="I43" s="3" t="n">
-        <v>0.808552</v>
+        <v>0.930891</v>
       </c>
       <c r="J43" t="n">
-        <v>66.2914</v>
+        <v>303.499</v>
       </c>
       <c r="K43" t="n">
-        <v>794</v>
+        <v>1162</v>
       </c>
       <c r="L43" t="n">
-        <v>8.008900000000001</v>
+        <v>9.1348</v>
       </c>
       <c r="M43" t="n">
-        <v>38.96</v>
+        <v>46.2588</v>
       </c>
       <c r="N43" t="n">
-        <v>5346.2</v>
+        <v>4717</v>
       </c>
       <c r="O43" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="P43" t="n">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="Q43" s="3" t="n">
-        <v>1.028101905110566</v>
+        <v>1.218760052563028</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1669777466970116</v>
+        <v>0.1214124615862055</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>214.01</v>
+        <v>6726.01</v>
       </c>
       <c r="B44" t="n">
-        <v>167415965</v>
+        <v>121490076</v>
       </c>
       <c r="C44" t="n">
-        <v>99.458741</v>
+        <v>343.572379</v>
       </c>
       <c r="D44" t="n">
-        <v>-70.931327</v>
+        <v>-43.010229</v>
       </c>
       <c r="E44" t="n">
-        <v>2460154.945542</v>
+        <v>2460160.495921</v>
       </c>
       <c r="F44" t="n">
-        <v>18.5537012</v>
+        <v>14.2456603</v>
       </c>
       <c r="G44" t="n">
-        <v>3.438</v>
+        <v>3.403</v>
       </c>
       <c r="H44" t="n">
-        <v>448</v>
+        <v>1084</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>1.57606</v>
+        <v>3.68209</v>
       </c>
       <c r="J44" t="n">
-        <v>25.0891</v>
+        <v>180.487</v>
       </c>
       <c r="K44" t="n">
-        <v>623</v>
+        <v>1021</v>
       </c>
       <c r="L44" t="n">
-        <v>8.008900000000001</v>
+        <v>8.998799999999999</v>
       </c>
       <c r="M44" t="n">
-        <v>38.96</v>
+        <v>46.2122</v>
       </c>
       <c r="N44" t="n">
-        <v>5346.2</v>
+        <v>4760</v>
       </c>
       <c r="O44" t="n">
-        <v>4.6</v>
+        <v>4.57</v>
       </c>
       <c r="P44" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="Q44" s="3" t="n">
-        <v>1.028101905110566</v>
+        <v>1.228120417822723</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1669777466970116</v>
+        <v>0.01321577041923607</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1793.01</v>
+        <v>5789.01</v>
       </c>
       <c r="B45" t="n">
-        <v>304142124</v>
+        <v>87216634</v>
       </c>
       <c r="C45" t="n">
-        <v>164.856336</v>
+        <v>302.773447</v>
       </c>
       <c r="D45" t="n">
-        <v>-56.623556</v>
+        <v>16.189714</v>
       </c>
       <c r="E45" t="n">
-        <v>2460017.429225</v>
+        <v>2459776.255982</v>
       </c>
       <c r="F45" t="n">
-        <v>55.087</v>
+        <v>12.9256051</v>
       </c>
       <c r="G45" t="n">
-        <v>5.709</v>
+        <v>1.691</v>
       </c>
       <c r="H45" t="n">
-        <v>2509</v>
+        <v>790</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>4.36639</v>
+        <v>2.53704</v>
       </c>
       <c r="J45" t="n">
-        <v>16.5899</v>
+        <v>8.719390000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>562</v>
+        <v>478</v>
       </c>
       <c r="L45" t="n">
-        <v>7.8436</v>
+        <v>6.5715</v>
       </c>
       <c r="M45" t="n">
-        <v>36.9941</v>
+        <v>20.4581</v>
       </c>
       <c r="N45" t="n">
-        <v>5175</v>
+        <v>5132</v>
       </c>
       <c r="O45" t="n">
-        <v>4.51</v>
+        <v>4.49</v>
       </c>
       <c r="P45" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="Q45" s="3" t="n">
-        <v>1.030384541778003</v>
+        <v>1.248266790486248</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2165786356227843</v>
+        <v>0.2860097255552455</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6726.01</v>
+        <v>7062.01</v>
       </c>
       <c r="B46" t="n">
-        <v>121490076</v>
+        <v>23961340</v>
       </c>
       <c r="C46" t="n">
-        <v>343.572379</v>
+        <v>313.292091</v>
       </c>
       <c r="D46" t="n">
-        <v>-43.010229</v>
+        <v>-9.044055</v>
       </c>
       <c r="E46" t="n">
-        <v>2460160.495921</v>
+        <v>2460528.435521</v>
       </c>
       <c r="F46" t="n">
-        <v>14.2456603</v>
+        <v>10.5137924</v>
       </c>
       <c r="G46" t="n">
-        <v>3.403</v>
+        <v>2.275</v>
       </c>
       <c r="H46" t="n">
-        <v>1084</v>
+        <v>1611</v>
       </c>
       <c r="I46" s="3" t="n">
-        <v>3.68209</v>
+        <v>3.1867</v>
       </c>
       <c r="J46" t="n">
-        <v>180.487</v>
+        <v>25.6571</v>
       </c>
       <c r="K46" t="n">
-        <v>1021</v>
+        <v>627</v>
       </c>
       <c r="L46" t="n">
-        <v>8.998799999999999</v>
+        <v>8.863</v>
       </c>
       <c r="M46" t="n">
-        <v>46.2122</v>
+        <v>47.6049</v>
       </c>
       <c r="N46" t="n">
-        <v>4760</v>
+        <v>4942</v>
       </c>
       <c r="O46" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="P46" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="Q46" s="3" t="n">
-        <v>1.044931162723233</v>
+        <v>1.252998079866031</v>
       </c>
       <c r="R46" t="n">
-        <v>0.01321577041923607</v>
+        <v>0.02720601594492704</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7062.01</v>
+        <v>687.01</v>
       </c>
       <c r="B47" t="n">
-        <v>23961340</v>
+        <v>74534430</v>
       </c>
       <c r="C47" t="n">
-        <v>313.292091</v>
+        <v>137.672815</v>
       </c>
       <c r="D47" t="n">
-        <v>-9.044055</v>
+        <v>-45.098845</v>
       </c>
       <c r="E47" t="n">
-        <v>2460528.435521</v>
+        <v>2459977.554802</v>
       </c>
       <c r="F47" t="n">
-        <v>10.5137924</v>
+        <v>36.2995129</v>
       </c>
       <c r="G47" t="n">
-        <v>2.275</v>
+        <v>4.4333923</v>
       </c>
       <c r="H47" t="n">
-        <v>1611</v>
+        <v>1322.2472746</v>
       </c>
       <c r="I47" s="3" t="n">
-        <v>3.1867</v>
+        <v>2.2115007</v>
       </c>
       <c r="J47" t="n">
-        <v>25.6571</v>
+        <v>3.169782</v>
       </c>
       <c r="K47" t="n">
-        <v>627</v>
+        <v>340.3118696</v>
       </c>
       <c r="L47" t="n">
-        <v>8.863</v>
+        <v>9.8445</v>
       </c>
       <c r="M47" t="n">
-        <v>47.6049</v>
+        <v>42.4467</v>
       </c>
       <c r="N47" t="n">
-        <v>4942</v>
+        <v>4253.9</v>
       </c>
       <c r="O47" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="P47" t="n">
-        <v>0.77</v>
+        <v>0.617519</v>
       </c>
       <c r="Q47" s="3" t="n">
-        <v>1.048433260945048</v>
+        <v>1.256471683357629</v>
       </c>
       <c r="R47" t="n">
-        <v>0.02720601594492704</v>
+        <v>0.1945912951651126</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>139.01</v>
+        <v>214.01</v>
       </c>
       <c r="B48" t="n">
-        <v>62483237</v>
+        <v>167415965</v>
       </c>
       <c r="C48" t="n">
-        <v>336.402414</v>
+        <v>99.458741</v>
       </c>
       <c r="D48" t="n">
-        <v>-34.909713</v>
+        <v>-70.931327</v>
       </c>
       <c r="E48" t="n">
-        <v>2458334.891563</v>
+        <v>2460154.945542</v>
       </c>
       <c r="F48" t="n">
-        <v>11.0708575</v>
+        <v>18.5537012</v>
       </c>
       <c r="G48" t="n">
-        <v>2.1937617</v>
+        <v>3.438</v>
       </c>
       <c r="H48" t="n">
-        <v>1149.7328034</v>
+        <v>448</v>
       </c>
       <c r="I48" s="3" t="n">
-        <v>2.3337648</v>
+        <v>1.57606</v>
       </c>
       <c r="J48" t="n">
-        <v>22.4219066</v>
+        <v>25.0891</v>
       </c>
       <c r="K48" t="n">
-        <v>554.9934842</v>
+        <v>623</v>
       </c>
       <c r="L48" t="n">
-        <v>9.3636</v>
+        <v>8.008900000000001</v>
       </c>
       <c r="M48" t="n">
-        <v>42.4061</v>
+        <v>38.96</v>
       </c>
       <c r="N48" t="n">
-        <v>4356</v>
+        <v>5346.2</v>
       </c>
       <c r="O48" t="n">
-        <v>4.53491</v>
+        <v>4.6</v>
       </c>
       <c r="P48" t="n">
-        <v>0.700727</v>
+        <v>0.8</v>
       </c>
       <c r="Q48" s="3" t="n">
-        <v>1.065243911131356</v>
+        <v>1.323991886142067</v>
       </c>
       <c r="R48" t="n">
-        <v>0.02144133416206292</v>
+        <v>0.1669777466970116</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6263.01</v>
+        <v>214.02</v>
       </c>
       <c r="B49" t="n">
-        <v>293547742</v>
+        <v>167415965</v>
       </c>
       <c r="C49" t="n">
-        <v>139.199747</v>
+        <v>99.458741</v>
       </c>
       <c r="D49" t="n">
-        <v>-49.300844</v>
+        <v>-70.931327</v>
       </c>
       <c r="E49" t="n">
-        <v>2460009.249357</v>
+        <v>2460174.709658</v>
       </c>
       <c r="F49" t="n">
-        <v>3.0178746</v>
+        <v>9.695961</v>
       </c>
       <c r="G49" t="n">
-        <v>2.679</v>
+        <v>2.772</v>
       </c>
       <c r="H49" t="n">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>0.930891</v>
+        <v>0.808552</v>
       </c>
       <c r="J49" t="n">
-        <v>303.499</v>
+        <v>66.2914</v>
       </c>
       <c r="K49" t="n">
-        <v>1162</v>
+        <v>794</v>
       </c>
       <c r="L49" t="n">
-        <v>9.1348</v>
+        <v>8.008900000000001</v>
       </c>
       <c r="M49" t="n">
-        <v>46.2588</v>
+        <v>38.96</v>
       </c>
       <c r="N49" t="n">
-        <v>4717</v>
+        <v>5346.2</v>
       </c>
       <c r="O49" t="n">
-        <v>4.61</v>
+        <v>4.6</v>
       </c>
       <c r="P49" t="n">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="Q49" s="3" t="n">
-        <v>1.06616931995387</v>
+        <v>1.323991886142067</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1214124615862055</v>
+        <v>0.1669777466970116</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>402.01</v>
+        <v>1793.01</v>
       </c>
       <c r="B50" t="n">
-        <v>120896927</v>
+        <v>304142124</v>
       </c>
       <c r="C50" t="n">
-        <v>36.867885</v>
+        <v>164.856336</v>
       </c>
       <c r="D50" t="n">
-        <v>-27.636117</v>
+        <v>-56.623556</v>
       </c>
       <c r="E50" t="n">
-        <v>2459139.126535</v>
+        <v>2460017.429225</v>
       </c>
       <c r="F50" t="n">
-        <v>4.7559737</v>
+        <v>55.087</v>
       </c>
       <c r="G50" t="n">
-        <v>2.5469696</v>
+        <v>5.709</v>
       </c>
       <c r="H50" t="n">
-        <v>398.6310113</v>
+        <v>2509</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>1.725417</v>
+        <v>4.36639</v>
       </c>
       <c r="J50" t="n">
-        <v>161.7314334</v>
+        <v>16.5899</v>
       </c>
       <c r="K50" t="n">
-        <v>909.5327855</v>
+        <v>562</v>
       </c>
       <c r="L50" t="n">
-        <v>8.3157</v>
+        <v>7.8436</v>
       </c>
       <c r="M50" t="n">
-        <v>44.8155</v>
+        <v>36.9941</v>
       </c>
       <c r="N50" t="n">
-        <v>5175.2</v>
+        <v>5175</v>
       </c>
       <c r="O50" t="n">
-        <v>4.37657</v>
+        <v>4.51</v>
       </c>
       <c r="P50" t="n">
-        <v>0.841842</v>
+        <v>0.87</v>
       </c>
       <c r="Q50" s="3" t="n">
-        <v>1.096574922083197</v>
+        <v>1.369241037640056</v>
       </c>
       <c r="R50" t="n">
-        <v>0.1131206969732151</v>
+        <v>0.2165786356227843</v>
       </c>
     </row>
     <row r="51">
@@ -3363,7 +3363,7 @@
         <v>0.841842</v>
       </c>
       <c r="Q51" s="3" t="n">
-        <v>1.096574922083197</v>
+        <v>1.407840268141881</v>
       </c>
       <c r="R51" t="n">
         <v>0.1131206969732151</v>
@@ -3371,503 +3371,506 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5554.01</v>
+        <v>402.01</v>
       </c>
       <c r="B52" t="n">
-        <v>91287873</v>
+        <v>120896927</v>
       </c>
       <c r="C52" t="n">
-        <v>104.74387</v>
+        <v>36.867885</v>
       </c>
       <c r="D52" t="n">
-        <v>28.715768</v>
+        <v>-27.636117</v>
       </c>
       <c r="E52" t="n">
-        <v>2459515.17161</v>
+        <v>2459139.126535</v>
       </c>
       <c r="F52" t="n">
-        <v>26.694279</v>
+        <v>4.7559737</v>
       </c>
       <c r="G52" t="n">
-        <v>3.7831301</v>
+        <v>2.5469696</v>
       </c>
       <c r="H52" t="n">
-        <v>1854.2924324</v>
+        <v>398.6310113</v>
       </c>
       <c r="I52" s="3" t="n">
-        <v>2.6845863</v>
+        <v>1.725417</v>
       </c>
       <c r="J52" t="n">
-        <v>4.0851419</v>
+        <v>161.7314334</v>
       </c>
       <c r="K52" t="n">
-        <v>362.5947706</v>
+        <v>909.5327855</v>
       </c>
       <c r="L52" t="n">
-        <v>9.83733</v>
+        <v>8.3157</v>
       </c>
       <c r="M52" t="n">
-        <v>39.4478</v>
+        <v>44.8155</v>
       </c>
       <c r="N52" t="n">
-        <v>3997</v>
+        <v>5175.2</v>
       </c>
       <c r="O52" t="n">
-        <v>4.6288</v>
+        <v>4.37657</v>
       </c>
       <c r="P52" t="n">
-        <v>0.626722</v>
+        <v>0.841842</v>
       </c>
       <c r="Q52" s="3" t="n">
-        <v>1.109357984179921</v>
+        <v>1.407840268141881</v>
       </c>
       <c r="R52" t="n">
-        <v>0.05933370243670238</v>
+        <v>0.1131206969732151</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6985.01</v>
+        <v>2431.01</v>
       </c>
       <c r="B53" t="n">
-        <v>59490344</v>
+        <v>258804746</v>
       </c>
       <c r="C53" t="n">
-        <v>108.993831</v>
+        <v>37.765299</v>
       </c>
       <c r="D53" t="n">
-        <v>18.691658</v>
+        <v>8.381625</v>
       </c>
       <c r="E53" t="n">
-        <v>2459509.801369</v>
+        <v>2460258.868869</v>
       </c>
       <c r="F53" t="n">
-        <v>748.7146251</v>
+        <v>0.224195</v>
       </c>
       <c r="G53" t="n">
-        <v>6.6689152</v>
+        <v>0.292</v>
       </c>
       <c r="H53" t="n">
-        <v>1655.3509066</v>
+        <v>540</v>
       </c>
       <c r="I53" s="3" t="n">
-        <v>3.4308988</v>
+        <v>5.59553</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1991332</v>
+        <v>2649.15</v>
       </c>
       <c r="K53" t="n">
-        <v>170.3749226</v>
+        <v>1998</v>
       </c>
       <c r="L53" t="n">
-        <v>8.3323</v>
+        <v>9.520899999999999</v>
       </c>
       <c r="M53" t="n">
-        <v>46.2206</v>
+        <v>36.0559</v>
       </c>
       <c r="N53" t="n">
-        <v>5235</v>
+        <v>4079</v>
       </c>
       <c r="O53" t="n">
-        <v>4.5339</v>
+        <v>4.58</v>
       </c>
       <c r="P53" t="n">
-        <v>0.844852</v>
+        <v>0.68</v>
       </c>
       <c r="Q53" s="3" t="n">
-        <v>1.12952987253714</v>
+        <v>1.43799451076228</v>
       </c>
       <c r="R53" t="n">
-        <v>0.05116830388656043</v>
+        <v>0.1915281956726753</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>262.01</v>
+        <v>6985.01</v>
       </c>
       <c r="B54" t="n">
-        <v>70513361</v>
+        <v>59490344</v>
       </c>
       <c r="C54" t="n">
-        <v>32.534687</v>
+        <v>108.993831</v>
       </c>
       <c r="D54" t="n">
-        <v>-31.070627</v>
+        <v>18.691658</v>
       </c>
       <c r="E54" t="n">
-        <v>2459136.576258</v>
+        <v>2459509.801369</v>
       </c>
       <c r="F54" t="n">
-        <v>11.1452784</v>
+        <v>748.7146251</v>
       </c>
       <c r="G54" t="n">
-        <v>1.3947705</v>
+        <v>6.6689152</v>
       </c>
       <c r="H54" t="n">
-        <v>566.2736451</v>
+        <v>1655.3509066</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>2.0671456</v>
+        <v>3.4308988</v>
       </c>
       <c r="J54" t="n">
-        <v>56.9132658</v>
+        <v>0.1991332</v>
       </c>
       <c r="K54" t="n">
-        <v>700.5241733</v>
+        <v>170.3749226</v>
       </c>
       <c r="L54" t="n">
-        <v>8.134499999999999</v>
+        <v>8.3323</v>
       </c>
       <c r="M54" t="n">
-        <v>43.932</v>
+        <v>46.2206</v>
       </c>
       <c r="N54" t="n">
-        <v>5302.58</v>
+        <v>5235</v>
       </c>
       <c r="O54" t="n">
-        <v>4.53515</v>
+        <v>4.5339</v>
       </c>
       <c r="P54" t="n">
-        <v>0.848675</v>
+        <v>0.844852</v>
       </c>
       <c r="Q54" s="3" t="n">
-        <v>1.131329883804335</v>
+        <v>1.440023065167122</v>
       </c>
       <c r="R54" t="n">
-        <v>0.1492879722617396</v>
+        <v>0.05116830388656043</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>687.01</v>
+        <v>1773.01</v>
       </c>
       <c r="B55" t="n">
-        <v>74534430</v>
+        <v>332064670</v>
       </c>
       <c r="C55" t="n">
-        <v>137.672815</v>
+        <v>133.146837</v>
       </c>
       <c r="D55" t="n">
-        <v>-45.098845</v>
+        <v>28.329815</v>
       </c>
       <c r="E55" t="n">
-        <v>2459977.554802</v>
+        <v>2458870.692828</v>
       </c>
       <c r="F55" t="n">
-        <v>36.2995129</v>
+        <v>0.7365463</v>
       </c>
       <c r="G55" t="n">
-        <v>4.4333923</v>
+        <v>1.5732208</v>
       </c>
       <c r="H55" t="n">
-        <v>1322.2472746</v>
+        <v>384.6733121</v>
       </c>
       <c r="I55" s="3" t="n">
-        <v>2.2115007</v>
+        <v>2.0231121</v>
       </c>
       <c r="J55" t="n">
-        <v>3.169782</v>
+        <v>2657.8322415</v>
       </c>
       <c r="K55" t="n">
-        <v>340.3118696</v>
+        <v>1831.2668801</v>
       </c>
       <c r="L55" t="n">
-        <v>9.8445</v>
+        <v>5.2058</v>
       </c>
       <c r="M55" t="n">
-        <v>42.4467</v>
+        <v>12.5855</v>
       </c>
       <c r="N55" t="n">
-        <v>4253.9</v>
+        <v>5250</v>
       </c>
       <c r="O55" t="n">
-        <v>4.57</v>
+        <v>4.42</v>
       </c>
       <c r="P55" t="n">
-        <v>0.617519</v>
+        <v>0.963515</v>
       </c>
       <c r="Q55" s="3" t="n">
-        <v>1.19177254542978</v>
+        <v>1.443641691583105</v>
       </c>
       <c r="R55" t="n">
-        <v>0.1945912951651126</v>
+        <v>0.2680494911224468</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2431.01</v>
+        <v>262.01</v>
       </c>
       <c r="B56" t="n">
-        <v>258804746</v>
+        <v>70513361</v>
       </c>
       <c r="C56" t="n">
-        <v>37.765299</v>
+        <v>32.534687</v>
       </c>
       <c r="D56" t="n">
-        <v>8.381625</v>
+        <v>-31.070627</v>
       </c>
       <c r="E56" t="n">
-        <v>2460258.868869</v>
+        <v>2459136.576258</v>
       </c>
       <c r="F56" t="n">
-        <v>0.224195</v>
+        <v>11.1452784</v>
       </c>
       <c r="G56" t="n">
-        <v>0.292</v>
+        <v>1.3947705</v>
       </c>
       <c r="H56" t="n">
-        <v>540</v>
+        <v>566.2736451</v>
       </c>
       <c r="I56" s="3" t="n">
-        <v>5.59553</v>
+        <v>2.0671456</v>
       </c>
       <c r="J56" t="n">
-        <v>2649.15</v>
+        <v>56.9132658</v>
       </c>
       <c r="K56" t="n">
-        <v>1998</v>
+        <v>700.5241733</v>
       </c>
       <c r="L56" t="n">
-        <v>9.520899999999999</v>
+        <v>8.134499999999999</v>
       </c>
       <c r="M56" t="n">
-        <v>36.0559</v>
+        <v>43.932</v>
       </c>
       <c r="N56" t="n">
-        <v>4079</v>
+        <v>5302.58</v>
       </c>
       <c r="O56" t="n">
-        <v>4.58</v>
+        <v>4.53515</v>
       </c>
       <c r="P56" t="n">
-        <v>0.68</v>
+        <v>0.848675</v>
       </c>
       <c r="Q56" s="3" t="n">
-        <v>1.32891277259645</v>
+        <v>1.474450938640137</v>
       </c>
       <c r="R56" t="n">
-        <v>0.1915281956726753</v>
+        <v>0.1492879722617396</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>509.01</v>
+        <v>5801.01</v>
       </c>
       <c r="B57" t="n">
-        <v>453211454</v>
+        <v>243921117</v>
       </c>
       <c r="C57" t="n">
-        <v>117.924642</v>
+        <v>303.1668</v>
       </c>
       <c r="D57" t="n">
-        <v>9.385241000000001</v>
+        <v>-2.144437</v>
       </c>
       <c r="E57" t="n">
-        <v>2460269.974997</v>
+        <v>2459770.026754</v>
       </c>
       <c r="F57" t="n">
-        <v>9.058820900000001</v>
+        <v>3.067816</v>
       </c>
       <c r="G57" t="n">
-        <v>3.342</v>
+        <v>2.1103325</v>
       </c>
       <c r="H57" t="n">
-        <v>875</v>
+        <v>34536.7848173</v>
       </c>
       <c r="I57" s="3" t="n">
-        <v>2.67607</v>
+        <v>11.7996868</v>
       </c>
       <c r="J57" t="n">
-        <v>92.839</v>
+        <v>72.44198299999999</v>
       </c>
       <c r="K57" t="n">
-        <v>864</v>
+        <v>744.0760606</v>
       </c>
       <c r="L57" t="n">
-        <v>7.9259</v>
+        <v>10.3622</v>
       </c>
       <c r="M57" t="n">
-        <v>48.9739</v>
+        <v>49.7876</v>
       </c>
       <c r="N57" t="n">
-        <v>5560.26</v>
+        <v>3965</v>
       </c>
       <c r="O57" t="n">
-        <v>4.438</v>
+        <v>4.62</v>
       </c>
       <c r="P57" t="n">
-        <v>0.96</v>
+        <v>0.636572</v>
       </c>
       <c r="Q57" s="3" t="n">
-        <v>1.360430193662415</v>
+        <v>1.526189495863593</v>
       </c>
       <c r="R57" t="n">
-        <v>0.1017032808558144</v>
+        <v>0.07251061220725062</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>509.02</v>
+        <v>5955.01</v>
       </c>
       <c r="B58" t="n">
-        <v>453211454</v>
+        <v>434116397</v>
       </c>
       <c r="C58" t="n">
-        <v>117.924642</v>
+        <v>355.467833</v>
       </c>
       <c r="D58" t="n">
-        <v>9.385241000000001</v>
+        <v>14.106803</v>
       </c>
       <c r="E58" t="n">
-        <v>2460259.048369</v>
+        <v>2459825.845336</v>
       </c>
       <c r="F58" t="n">
-        <v>21.4003129</v>
+        <v>0.5902387</v>
       </c>
       <c r="G58" t="n">
-        <v>5.3847459</v>
+        <v>1.045052</v>
       </c>
       <c r="H58" t="n">
-        <v>960.7539877</v>
+        <v>518.7240999000001</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>3.0010426</v>
+        <v>1.6802901</v>
       </c>
       <c r="J58" t="n">
-        <v>35.2811724</v>
+        <v>517.0065166000001</v>
       </c>
       <c r="K58" t="n">
-        <v>621.592122</v>
+        <v>1216.1685093</v>
       </c>
       <c r="L58" t="n">
-        <v>7.9259</v>
+        <v>10.3224</v>
       </c>
       <c r="M58" t="n">
-        <v>48.9739</v>
+        <v>42.8747</v>
       </c>
       <c r="N58" t="n">
-        <v>5560.26</v>
+        <v>3844</v>
       </c>
       <c r="O58" t="n">
-        <v>4.438</v>
+        <v>4.6589</v>
       </c>
       <c r="P58" t="n">
-        <v>0.962324</v>
+        <v>0.590924</v>
       </c>
       <c r="Q58" s="3" t="n">
-        <v>1.360430193662415</v>
+        <v>1.601255234908785</v>
       </c>
       <c r="R58" t="n">
-        <v>0.1017032808558144</v>
+        <v>0.1022963165103159</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2011.03</v>
+        <v>509.02</v>
       </c>
       <c r="B59" t="n">
-        <v>136916387</v>
+        <v>453211454</v>
       </c>
       <c r="C59" t="n">
-        <v>230.440115</v>
+        <v>117.924642</v>
       </c>
       <c r="D59" t="n">
-        <v>-48.318817</v>
+        <v>9.385241000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>2460081.126376</v>
+        <v>2460259.048369</v>
+      </c>
+      <c r="F59" t="n">
+        <v>21.4003129</v>
       </c>
       <c r="G59" t="n">
-        <v>3.5341354</v>
+        <v>5.3847459</v>
       </c>
       <c r="H59" t="n">
-        <v>195.1972939</v>
+        <v>960.7539877</v>
       </c>
       <c r="I59" s="3" t="n">
-        <v>1.6208326</v>
+        <v>3.0010426</v>
       </c>
       <c r="J59" t="n">
-        <v>335.6075222</v>
+        <v>35.2811724</v>
       </c>
       <c r="K59" t="n">
-        <v>1091.635552</v>
+        <v>621.592122</v>
       </c>
       <c r="L59" t="n">
-        <v>5.0494</v>
+        <v>7.9259</v>
       </c>
       <c r="M59" t="n">
-        <v>14.682</v>
+        <v>48.9739</v>
       </c>
       <c r="N59" t="n">
-        <v>5739</v>
+        <v>5560.26</v>
       </c>
       <c r="O59" t="n">
-        <v>4.51</v>
+        <v>4.438</v>
       </c>
       <c r="P59" t="n">
-        <v>1.02607</v>
+        <v>0.962324</v>
       </c>
       <c r="Q59" s="3" t="n">
-        <v>1.36872725783496</v>
+        <v>1.811267434501338</v>
       </c>
       <c r="R59" t="n">
-        <v>0.8241668035706786</v>
+        <v>0.1017032808558144</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2011.02</v>
+        <v>509.01</v>
       </c>
       <c r="B60" t="n">
-        <v>136916387</v>
+        <v>453211454</v>
       </c>
       <c r="C60" t="n">
-        <v>230.440115</v>
+        <v>117.924642</v>
       </c>
       <c r="D60" t="n">
-        <v>-48.318817</v>
+        <v>9.385241000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>2458650.89757</v>
+        <v>2460269.974997</v>
       </c>
       <c r="F60" t="n">
-        <v>27.5920718</v>
+        <v>9.058820900000001</v>
       </c>
       <c r="G60" t="n">
-        <v>3.2743016</v>
+        <v>3.342</v>
       </c>
       <c r="H60" t="n">
-        <v>555.3352929</v>
+        <v>875</v>
       </c>
       <c r="I60" s="3" t="n">
-        <v>2.7050278</v>
+        <v>2.67607</v>
       </c>
       <c r="J60" t="n">
-        <v>31.3830711</v>
+        <v>92.839</v>
       </c>
       <c r="K60" t="n">
-        <v>603.6616824</v>
+        <v>864</v>
       </c>
       <c r="L60" t="n">
-        <v>5.0494</v>
+        <v>7.9259</v>
       </c>
       <c r="M60" t="n">
-        <v>14.682</v>
+        <v>48.9739</v>
       </c>
       <c r="N60" t="n">
-        <v>5739</v>
+        <v>5560.26</v>
       </c>
       <c r="O60" t="n">
-        <v>4.51</v>
+        <v>4.438</v>
       </c>
       <c r="P60" t="n">
-        <v>1.02607</v>
+        <v>0.96</v>
       </c>
       <c r="Q60" s="3" t="n">
-        <v>1.36872725783496</v>
+        <v>1.811267434501338</v>
       </c>
       <c r="R60" t="n">
-        <v>0.8241668035706786</v>
+        <v>0.1017032808558144</v>
       </c>
     </row>
     <row r="61">
@@ -3920,7 +3923,7 @@
         <v>1.02607</v>
       </c>
       <c r="Q61" s="3" t="n">
-        <v>1.36872725783496</v>
+        <v>1.987476277149291</v>
       </c>
       <c r="R61" t="n">
         <v>0.8241668035706786</v>
@@ -3928,170 +3931,167 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5801.01</v>
+        <v>2011.02</v>
       </c>
       <c r="B62" t="n">
-        <v>243921117</v>
+        <v>136916387</v>
       </c>
       <c r="C62" t="n">
-        <v>303.1668</v>
+        <v>230.440115</v>
       </c>
       <c r="D62" t="n">
-        <v>-2.144437</v>
+        <v>-48.318817</v>
       </c>
       <c r="E62" t="n">
-        <v>2459770.026754</v>
+        <v>2458650.89757</v>
       </c>
       <c r="F62" t="n">
-        <v>3.067816</v>
+        <v>27.5920718</v>
       </c>
       <c r="G62" t="n">
-        <v>2.1103325</v>
+        <v>3.2743016</v>
       </c>
       <c r="H62" t="n">
-        <v>34536.7848173</v>
+        <v>555.3352929</v>
       </c>
       <c r="I62" s="3" t="n">
-        <v>11.7996868</v>
+        <v>2.7050278</v>
       </c>
       <c r="J62" t="n">
-        <v>72.44198299999999</v>
+        <v>31.3830711</v>
       </c>
       <c r="K62" t="n">
-        <v>744.0760606</v>
+        <v>603.6616824</v>
       </c>
       <c r="L62" t="n">
-        <v>10.3622</v>
+        <v>5.0494</v>
       </c>
       <c r="M62" t="n">
-        <v>49.7876</v>
+        <v>14.682</v>
       </c>
       <c r="N62" t="n">
-        <v>3965</v>
+        <v>5739</v>
       </c>
       <c r="O62" t="n">
-        <v>4.62</v>
+        <v>4.51</v>
       </c>
       <c r="P62" t="n">
-        <v>0.636572</v>
+        <v>1.02607</v>
       </c>
       <c r="Q62" s="3" t="n">
-        <v>1.48027495396936</v>
+        <v>1.987476277149291</v>
       </c>
       <c r="R62" t="n">
-        <v>0.07251061220725062</v>
+        <v>0.8241668035706786</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>440.01</v>
+        <v>2011.03</v>
       </c>
       <c r="B63" t="n">
-        <v>143350972</v>
+        <v>136916387</v>
       </c>
       <c r="C63" t="n">
-        <v>82.245986</v>
+        <v>230.440115</v>
       </c>
       <c r="D63" t="n">
-        <v>-17.429564</v>
+        <v>-48.318817</v>
       </c>
       <c r="E63" t="n">
-        <v>2458439.13519</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1.0817</v>
+        <v>2460081.126376</v>
       </c>
       <c r="G63" t="n">
-        <v>1.588</v>
+        <v>3.5341354</v>
       </c>
       <c r="H63" t="n">
-        <v>341.533</v>
+        <v>195.1972939</v>
       </c>
       <c r="I63" s="3" t="n">
-        <v>2.07554</v>
+        <v>1.6208326</v>
       </c>
       <c r="J63" t="n">
-        <v>2462.7009749</v>
+        <v>335.6075222</v>
       </c>
       <c r="K63" t="n">
-        <v>1796.6880123</v>
+        <v>1091.635552</v>
       </c>
       <c r="L63" t="n">
-        <v>7.6818</v>
+        <v>5.0494</v>
       </c>
       <c r="M63" t="n">
-        <v>49.3375</v>
+        <v>14.682</v>
       </c>
       <c r="N63" t="n">
-        <v>5759.2</v>
+        <v>5739</v>
       </c>
       <c r="O63" t="n">
-        <v>4.45</v>
+        <v>4.51</v>
       </c>
       <c r="P63" t="n">
-        <v>1.02</v>
+        <v>1.02607</v>
       </c>
       <c r="Q63" s="3" t="n">
-        <v>1.51952657809784</v>
+        <v>1.987476277149291</v>
       </c>
       <c r="R63" t="n">
-        <v>0.05708224099375498</v>
+        <v>0.8241668035706786</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5955.01</v>
+        <v>440.01</v>
       </c>
       <c r="B64" t="n">
-        <v>434116397</v>
+        <v>143350972</v>
       </c>
       <c r="C64" t="n">
-        <v>355.467833</v>
+        <v>82.245986</v>
       </c>
       <c r="D64" t="n">
-        <v>14.106803</v>
+        <v>-17.429564</v>
       </c>
       <c r="E64" t="n">
-        <v>2459825.845336</v>
+        <v>2458439.13519</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5902387</v>
+        <v>1.0817</v>
       </c>
       <c r="G64" t="n">
-        <v>1.045052</v>
+        <v>1.588</v>
       </c>
       <c r="H64" t="n">
-        <v>518.7240999000001</v>
+        <v>341.533</v>
       </c>
       <c r="I64" s="3" t="n">
-        <v>1.6802901</v>
+        <v>2.07554</v>
       </c>
       <c r="J64" t="n">
-        <v>517.0065166000001</v>
+        <v>2462.7009749</v>
       </c>
       <c r="K64" t="n">
-        <v>1216.1685093</v>
+        <v>1796.6880123</v>
       </c>
       <c r="L64" t="n">
-        <v>10.3224</v>
+        <v>7.6818</v>
       </c>
       <c r="M64" t="n">
-        <v>42.8747</v>
+        <v>49.3375</v>
       </c>
       <c r="N64" t="n">
-        <v>3844</v>
+        <v>5759.2</v>
       </c>
       <c r="O64" t="n">
-        <v>4.6589</v>
+        <v>4.45</v>
       </c>
       <c r="P64" t="n">
-        <v>0.590924</v>
+        <v>1.02</v>
       </c>
       <c r="Q64" s="3" t="n">
-        <v>1.56645087511944</v>
+        <v>2.048158595966117</v>
       </c>
       <c r="R64" t="n">
-        <v>0.1022963165103159</v>
+        <v>0.05708224099375498</v>
       </c>
     </row>
     <row r="65">
@@ -4144,7 +4144,7 @@
         <v>1.03</v>
       </c>
       <c r="Q65" s="3" t="n">
-        <v>1.580911200071067</v>
+        <v>2.164160750371749</v>
       </c>
       <c r="R65" t="n">
         <v>0.09064358833580949</v>
@@ -4152,58 +4152,58 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6965.01</v>
+        <v>141.01</v>
       </c>
       <c r="B66" t="n">
-        <v>80224448</v>
+        <v>403224672</v>
       </c>
       <c r="C66" t="n">
-        <v>103.678273</v>
+        <v>338.983717</v>
       </c>
       <c r="D66" t="n">
-        <v>24.245141</v>
+        <v>-59.864829</v>
       </c>
       <c r="E66" t="n">
-        <v>2459505.193695</v>
+        <v>2460178.671412</v>
       </c>
       <c r="F66" t="n">
-        <v>5.9693397</v>
+        <v>1.0082361</v>
       </c>
       <c r="G66" t="n">
-        <v>3.441038</v>
+        <v>1.41</v>
       </c>
       <c r="H66" t="n">
-        <v>105.5424205</v>
+        <v>228</v>
       </c>
       <c r="I66" s="3" t="n">
-        <v>1.3473608</v>
+        <v>1.7202</v>
       </c>
       <c r="J66" t="n">
-        <v>334.6170929</v>
+        <v>1882.94</v>
       </c>
       <c r="K66" t="n">
-        <v>1090.8292631</v>
+        <v>1835</v>
       </c>
       <c r="L66" t="n">
-        <v>6.3103</v>
+        <v>7.384</v>
       </c>
       <c r="M66" t="n">
-        <v>31.1664</v>
+        <v>48.0883</v>
       </c>
       <c r="N66" t="n">
-        <v>6007</v>
+        <v>5795.29</v>
       </c>
       <c r="O66" t="n">
-        <v>4.37729</v>
+        <v>4.438</v>
       </c>
       <c r="P66" t="n">
-        <v>1.12993</v>
+        <v>1.13</v>
       </c>
       <c r="Q66" s="3" t="n">
-        <v>1.640427339891585</v>
+        <v>2.255461822390964</v>
       </c>
       <c r="R66" t="n">
-        <v>0.05173693479333623</v>
+        <v>0.06928742029234983</v>
       </c>
     </row>
     <row r="67">
@@ -4256,7 +4256,7 @@
         <v>1.12993</v>
       </c>
       <c r="Q67" s="3" t="n">
-        <v>1.640427339891585</v>
+        <v>2.345120679338927</v>
       </c>
       <c r="R67" t="n">
         <v>0.05173693479333623</v>
@@ -4264,114 +4264,114 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>141.01</v>
+        <v>6965.01</v>
       </c>
       <c r="B68" t="n">
-        <v>403224672</v>
+        <v>80224448</v>
       </c>
       <c r="C68" t="n">
-        <v>338.983717</v>
+        <v>103.678273</v>
       </c>
       <c r="D68" t="n">
-        <v>-59.864829</v>
+        <v>24.245141</v>
       </c>
       <c r="E68" t="n">
-        <v>2460178.671412</v>
+        <v>2459505.193695</v>
       </c>
       <c r="F68" t="n">
-        <v>1.0082361</v>
+        <v>5.9693397</v>
       </c>
       <c r="G68" t="n">
-        <v>1.41</v>
+        <v>3.441038</v>
       </c>
       <c r="H68" t="n">
-        <v>228</v>
+        <v>105.5424205</v>
       </c>
       <c r="I68" s="3" t="n">
-        <v>1.7202</v>
+        <v>1.3473608</v>
       </c>
       <c r="J68" t="n">
-        <v>1882.94</v>
+        <v>334.6170929</v>
       </c>
       <c r="K68" t="n">
-        <v>1835</v>
+        <v>1090.8292631</v>
       </c>
       <c r="L68" t="n">
-        <v>7.384</v>
+        <v>6.3103</v>
       </c>
       <c r="M68" t="n">
-        <v>48.0883</v>
+        <v>31.1664</v>
       </c>
       <c r="N68" t="n">
-        <v>5795.29</v>
+        <v>6007</v>
       </c>
       <c r="O68" t="n">
-        <v>4.438</v>
+        <v>4.37729</v>
       </c>
       <c r="P68" t="n">
-        <v>1.13</v>
+        <v>1.12993</v>
       </c>
       <c r="Q68" s="3" t="n">
-        <v>1.642355548883465</v>
+        <v>2.345120679338927</v>
       </c>
       <c r="R68" t="n">
-        <v>0.06928742029234983</v>
+        <v>0.05173693479333623</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>144.01</v>
+        <v>4307.01</v>
       </c>
       <c r="B69" t="n">
-        <v>261136679</v>
+        <v>141186075</v>
       </c>
       <c r="C69" t="n">
-        <v>84.29928</v>
+        <v>81.32749800000001</v>
       </c>
       <c r="D69" t="n">
-        <v>-80.46460399999999</v>
+        <v>-75.69373400000001</v>
       </c>
       <c r="E69" t="n">
-        <v>2460011.550653</v>
+        <v>2458349.759358</v>
       </c>
       <c r="F69" t="n">
-        <v>6.267832</v>
+        <v>32.696666</v>
       </c>
       <c r="G69" t="n">
-        <v>2.789</v>
+        <v>4.428309</v>
       </c>
       <c r="H69" t="n">
-        <v>321</v>
+        <v>108.5170828</v>
       </c>
       <c r="I69" s="3" t="n">
-        <v>1.99779</v>
+        <v>1.3159881</v>
       </c>
       <c r="J69" t="n">
-        <v>203.434</v>
+        <v>33.7475807</v>
       </c>
       <c r="K69" t="n">
-        <v>1052</v>
+        <v>614.7243418</v>
       </c>
       <c r="L69" t="n">
-        <v>5.1054</v>
+        <v>6.6418</v>
       </c>
       <c r="M69" t="n">
-        <v>18.2702</v>
+        <v>36.0469</v>
       </c>
       <c r="N69" t="n">
-        <v>5950</v>
+        <v>6079.16</v>
       </c>
       <c r="O69" t="n">
         <v>4.438</v>
       </c>
       <c r="P69" t="n">
-        <v>1.15</v>
+        <v>1.09843</v>
       </c>
       <c r="Q69" s="3" t="n">
-        <v>1.649668543913831</v>
+        <v>2.396525544307746</v>
       </c>
       <c r="R69" t="n">
-        <v>0.5469902615930315</v>
+        <v>0.1616304778941326</v>
       </c>
     </row>
     <row r="70">
@@ -4424,7 +4424,7 @@
         <v>1.09843</v>
       </c>
       <c r="Q70" s="3" t="n">
-        <v>1.693376258886304</v>
+        <v>2.396525544307746</v>
       </c>
       <c r="R70" t="n">
         <v>0.1616304778941326</v>
@@ -4432,58 +4432,58 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4307.01</v>
+        <v>144.01</v>
       </c>
       <c r="B71" t="n">
-        <v>141186075</v>
+        <v>261136679</v>
       </c>
       <c r="C71" t="n">
-        <v>81.32749800000001</v>
+        <v>84.29928</v>
       </c>
       <c r="D71" t="n">
-        <v>-75.69373400000001</v>
+        <v>-80.46460399999999</v>
       </c>
       <c r="E71" t="n">
-        <v>2458349.759358</v>
+        <v>2460011.550653</v>
       </c>
       <c r="F71" t="n">
-        <v>32.696666</v>
+        <v>6.267832</v>
       </c>
       <c r="G71" t="n">
-        <v>4.428309</v>
+        <v>2.789</v>
       </c>
       <c r="H71" t="n">
-        <v>108.5170828</v>
+        <v>321</v>
       </c>
       <c r="I71" s="3" t="n">
-        <v>1.3159881</v>
+        <v>1.99779</v>
       </c>
       <c r="J71" t="n">
-        <v>33.7475807</v>
+        <v>203.434</v>
       </c>
       <c r="K71" t="n">
-        <v>614.7243418</v>
+        <v>1052</v>
       </c>
       <c r="L71" t="n">
-        <v>6.6418</v>
+        <v>5.1054</v>
       </c>
       <c r="M71" t="n">
-        <v>36.0469</v>
+        <v>18.2702</v>
       </c>
       <c r="N71" t="n">
-        <v>6079.16</v>
+        <v>5950</v>
       </c>
       <c r="O71" t="n">
         <v>4.438</v>
       </c>
       <c r="P71" t="n">
-        <v>1.09843</v>
+        <v>1.15</v>
       </c>
       <c r="Q71" s="3" t="n">
-        <v>1.693376258886304</v>
+        <v>2.405178033970014</v>
       </c>
       <c r="R71" t="n">
-        <v>0.1616304778941326</v>
+        <v>0.5469902615930315</v>
       </c>
     </row>
     <row r="72">
@@ -4536,7 +4536,7 @@
         <v>1.19</v>
       </c>
       <c r="Q72" s="3" t="n">
-        <v>1.899584704692059</v>
+        <v>2.64920738833917</v>
       </c>
       <c r="R72" t="n">
         <v>0.01731301595994347</v>
@@ -4592,7 +4592,7 @@
         <v>1.22568</v>
       </c>
       <c r="Q73" s="3" t="n">
-        <v>2.080322995881168</v>
+        <v>2.84489150755921</v>
       </c>
       <c r="R73" t="n">
         <v>0.07805369350328827</v>
@@ -4648,7 +4648,7 @@
         <v>1.33</v>
       </c>
       <c r="Q74" s="3" t="n">
-        <v>2.115844360724317</v>
+        <v>2.989065321326483</v>
       </c>
       <c r="R74" t="n">
         <v>0.0118387871337529</v>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>396.03</v>
+        <v>396.02</v>
       </c>
       <c r="B75" t="n">
         <v>178155732</v>
@@ -4668,25 +4668,25 @@
         <v>-30.814061</v>
       </c>
       <c r="E75" t="n">
-        <v>2459117.261055</v>
+        <v>2459169.27128</v>
       </c>
       <c r="F75" t="n">
-        <v>11.2304605</v>
+        <v>3.58529</v>
       </c>
       <c r="G75" t="n">
-        <v>3.6009978</v>
+        <v>2.495</v>
       </c>
       <c r="H75" t="n">
-        <v>208.629137</v>
+        <v>180</v>
       </c>
       <c r="I75" s="3" t="n">
-        <v>2.0754665</v>
+        <v>1.77141</v>
       </c>
       <c r="J75" t="n">
-        <v>210.3340005</v>
+        <v>646.628</v>
       </c>
       <c r="K75" t="n">
-        <v>971.2859803</v>
+        <v>1404</v>
       </c>
       <c r="L75" t="n">
         <v>5.9053</v>
@@ -4701,10 +4701,10 @@
         <v>4.438</v>
       </c>
       <c r="P75" t="n">
-        <v>1.2845</v>
+        <v>1.28</v>
       </c>
       <c r="Q75" s="3" t="n">
-        <v>3.748013146989461</v>
+        <v>4.362412611177165</v>
       </c>
       <c r="R75" t="n">
         <v>0.08132008275074698</v>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>396.02</v>
+        <v>396.03</v>
       </c>
       <c r="B76" t="n">
         <v>178155732</v>
@@ -4724,25 +4724,25 @@
         <v>-30.814061</v>
       </c>
       <c r="E76" t="n">
-        <v>2459169.27128</v>
+        <v>2459117.261055</v>
       </c>
       <c r="F76" t="n">
-        <v>3.58529</v>
+        <v>11.2304605</v>
       </c>
       <c r="G76" t="n">
-        <v>2.495</v>
+        <v>3.6009978</v>
       </c>
       <c r="H76" t="n">
-        <v>180</v>
+        <v>208.629137</v>
       </c>
       <c r="I76" s="3" t="n">
-        <v>1.77141</v>
+        <v>2.0754665</v>
       </c>
       <c r="J76" t="n">
-        <v>646.628</v>
+        <v>210.3340005</v>
       </c>
       <c r="K76" t="n">
-        <v>1404</v>
+        <v>971.2859803</v>
       </c>
       <c r="L76" t="n">
         <v>5.9053</v>
@@ -4757,10 +4757,10 @@
         <v>4.438</v>
       </c>
       <c r="P76" t="n">
-        <v>1.28</v>
+        <v>1.2845</v>
       </c>
       <c r="Q76" s="3" t="n">
-        <v>3.748013146989461</v>
+        <v>4.362412611177165</v>
       </c>
       <c r="R76" t="n">
         <v>0.08132008275074698</v>
@@ -4816,7 +4816,7 @@
         <v>1.2845</v>
       </c>
       <c r="Q77" s="3" t="n">
-        <v>3.748013146989461</v>
+        <v>4.362412611177165</v>
       </c>
       <c r="R77" t="n">
         <v>0.08132008275074698</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>554.01</v>
+        <v>554.02</v>
       </c>
       <c r="B78" t="n">
         <v>407966340</v>
@@ -4836,25 +4836,25 @@
         <v>9.207768</v>
       </c>
       <c r="E78" t="n">
-        <v>2458442.61543</v>
+        <v>2458438.475888</v>
       </c>
       <c r="F78" t="n">
-        <v>7.0491608</v>
+        <v>3.0440441</v>
       </c>
       <c r="G78" t="n">
-        <v>3.5024531</v>
+        <v>1.3542885</v>
       </c>
       <c r="H78" t="n">
-        <v>300.5227138</v>
+        <v>82.7350431</v>
       </c>
       <c r="I78" s="3" t="n">
-        <v>2.8464941</v>
+        <v>1.3337425</v>
       </c>
       <c r="J78" t="n">
-        <v>489.6346689</v>
+        <v>1500.1020491</v>
       </c>
       <c r="K78" t="n">
-        <v>1199.7417985</v>
+        <v>1587.2668665</v>
       </c>
       <c r="L78" t="n">
         <v>6.4386</v>
@@ -4872,7 +4872,7 @@
         <v>1.42717</v>
       </c>
       <c r="Q78" s="3" t="n">
-        <v>6.427453739275534</v>
+        <v>6.918604325668497</v>
       </c>
       <c r="R78" t="n">
         <v>0.09557954007745355</v>
@@ -4880,7 +4880,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>554.02</v>
+        <v>554.01</v>
       </c>
       <c r="B79" t="n">
         <v>407966340</v>
@@ -4892,25 +4892,25 @@
         <v>9.207768</v>
       </c>
       <c r="E79" t="n">
-        <v>2458438.475888</v>
+        <v>2458442.61543</v>
       </c>
       <c r="F79" t="n">
-        <v>3.0440441</v>
+        <v>7.0491608</v>
       </c>
       <c r="G79" t="n">
-        <v>1.3542885</v>
+        <v>3.5024531</v>
       </c>
       <c r="H79" t="n">
-        <v>82.7350431</v>
+        <v>300.5227138</v>
       </c>
       <c r="I79" s="3" t="n">
-        <v>1.3337425</v>
+        <v>2.8464941</v>
       </c>
       <c r="J79" t="n">
-        <v>1500.1020491</v>
+        <v>489.6346689</v>
       </c>
       <c r="K79" t="n">
-        <v>1587.2668665</v>
+        <v>1199.7417985</v>
       </c>
       <c r="L79" t="n">
         <v>6.4386</v>
@@ -4928,7 +4928,7 @@
         <v>1.42717</v>
       </c>
       <c r="Q79" s="3" t="n">
-        <v>6.427453739275534</v>
+        <v>6.918604325668497</v>
       </c>
       <c r="R79" t="n">
         <v>0.09557954007745355</v>
@@ -4967,7 +4967,7 @@
         <v>154.124</v>
       </c>
       <c r="Q80" s="3" t="n">
-        <v>35.766280006237</v>
+        <v>35.83857477532435</v>
       </c>
       <c r="R80" t="n">
         <v>0.0305854259260738</v>

--- a/results/GAIA_TESS_candidate_matches_unique_planets.xlsx
+++ b/results/GAIA_TESS_candidate_matches_unique_planets.xlsx
@@ -574,63 +574,63 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>260.01</v>
+        <v>6276.01</v>
       </c>
       <c r="B2" t="n">
-        <v>37749396</v>
+        <v>397362481</v>
       </c>
       <c r="C2" t="n">
-        <v>4.773018</v>
+        <v>175.256304</v>
       </c>
       <c r="D2" t="n">
-        <v>-9.966150000000001</v>
+        <v>-44.404149</v>
       </c>
       <c r="E2" t="n">
-        <v>2458392.294018</v>
+        <v>2460017.108056</v>
       </c>
       <c r="F2" t="n">
-        <v>13.4758478</v>
+        <v>6.207472</v>
       </c>
       <c r="G2" t="n">
-        <v>2.0643913</v>
+        <v>1.5587404</v>
       </c>
       <c r="H2" t="n">
-        <v>708.9461601</v>
+        <v>230.9041397</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>1.9840882</v>
+        <v>0.9558514</v>
       </c>
       <c r="J2" t="n">
-        <v>10.1837519</v>
+        <v>45.9200706</v>
       </c>
       <c r="K2" t="n">
-        <v>455.6136246</v>
+        <v>663.9270852</v>
       </c>
       <c r="L2" t="n">
-        <v>8.4991</v>
+        <v>6.7213</v>
       </c>
       <c r="M2" t="n">
-        <v>20.1852</v>
+        <v>12.7781</v>
       </c>
       <c r="N2" t="n">
-        <v>4111</v>
+        <v>4633.87</v>
       </c>
       <c r="O2" t="n">
-        <v>4.6461</v>
+        <v>4.70763</v>
       </c>
       <c r="P2" t="n">
-        <v>0.618173</v>
+        <v>0.630715</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>0.6629172386673313</v>
+        <v>0.3183878703705095</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1536852942719399</v>
+        <v>0.3529309609610866</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6276.03</v>
+        <v>6276.02</v>
       </c>
       <c r="B3" t="n">
         <v>397362481</v>
@@ -642,25 +642,25 @@
         <v>-44.404149</v>
       </c>
       <c r="E3" t="n">
-        <v>2460018.572448</v>
+        <v>2460014.846822</v>
       </c>
       <c r="F3" t="n">
-        <v>7.8708661</v>
+        <v>4.4653471</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6355898</v>
+        <v>1.5691486</v>
       </c>
       <c r="H3" t="n">
-        <v>190.7947353</v>
+        <v>186.7606727</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>1.0314874</v>
+        <v>0.8856846</v>
       </c>
       <c r="J3" t="n">
-        <v>33.4599699</v>
+        <v>71.2440519</v>
       </c>
       <c r="K3" t="n">
-        <v>613.4104018</v>
+        <v>740.9807105</v>
       </c>
       <c r="L3" t="n">
         <v>6.7213</v>
@@ -678,7 +678,7 @@
         <v>0.630715</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>0.7044582505479338</v>
+        <v>0.3183878703705095</v>
       </c>
       <c r="R3" t="n">
         <v>0.3529309609610866</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6276.01</v>
+        <v>6276.03</v>
       </c>
       <c r="B4" t="n">
         <v>397362481</v>
@@ -698,25 +698,25 @@
         <v>-44.404149</v>
       </c>
       <c r="E4" t="n">
-        <v>2460017.108056</v>
+        <v>2460018.572448</v>
       </c>
       <c r="F4" t="n">
-        <v>6.207472</v>
+        <v>7.8708661</v>
       </c>
       <c r="G4" t="n">
-        <v>1.5587404</v>
+        <v>1.6355898</v>
       </c>
       <c r="H4" t="n">
-        <v>230.9041397</v>
+        <v>190.7947353</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.9558514</v>
+        <v>1.0314874</v>
       </c>
       <c r="J4" t="n">
-        <v>45.9200706</v>
+        <v>33.4599699</v>
       </c>
       <c r="K4" t="n">
-        <v>663.9270852</v>
+        <v>613.4104018</v>
       </c>
       <c r="L4" t="n">
         <v>6.7213</v>
@@ -734,7 +734,7 @@
         <v>0.630715</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.7044582505479338</v>
+        <v>0.3183878703705095</v>
       </c>
       <c r="R4" t="n">
         <v>0.3529309609610866</v>
@@ -742,3921 +742,3921 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6276.02</v>
+        <v>1773.01</v>
       </c>
       <c r="B5" t="n">
-        <v>397362481</v>
+        <v>332064670</v>
       </c>
       <c r="C5" t="n">
-        <v>175.256304</v>
+        <v>133.146837</v>
       </c>
       <c r="D5" t="n">
-        <v>-44.404149</v>
+        <v>28.329815</v>
       </c>
       <c r="E5" t="n">
-        <v>2460014.846822</v>
+        <v>2458870.692828</v>
       </c>
       <c r="F5" t="n">
-        <v>4.4653471</v>
+        <v>0.7365463</v>
       </c>
       <c r="G5" t="n">
-        <v>1.5691486</v>
+        <v>1.5732208</v>
       </c>
       <c r="H5" t="n">
-        <v>186.7606727</v>
+        <v>384.6733121</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.8856846</v>
+        <v>2.0231121</v>
       </c>
       <c r="J5" t="n">
-        <v>71.2440519</v>
+        <v>2657.8322415</v>
       </c>
       <c r="K5" t="n">
-        <v>740.9807105</v>
+        <v>1831.2668801</v>
       </c>
       <c r="L5" t="n">
-        <v>6.7213</v>
+        <v>5.2058</v>
       </c>
       <c r="M5" t="n">
-        <v>12.7781</v>
+        <v>12.5855</v>
       </c>
       <c r="N5" t="n">
-        <v>4633.87</v>
+        <v>5250</v>
       </c>
       <c r="O5" t="n">
-        <v>4.70763</v>
+        <v>4.42</v>
       </c>
       <c r="P5" t="n">
-        <v>0.630715</v>
+        <v>0.963515</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>0.7044582505479338</v>
+        <v>0.3639498627094521</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3529309609610866</v>
+        <v>0.2680494911224468</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2540.01</v>
+        <v>186.01</v>
       </c>
       <c r="B6" t="n">
-        <v>354518617</v>
+        <v>279741379</v>
       </c>
       <c r="C6" t="n">
-        <v>82.558548</v>
+        <v>51.750188</v>
       </c>
       <c r="D6" t="n">
-        <v>-42.697946</v>
+        <v>-63.500166</v>
       </c>
       <c r="E6" t="n">
-        <v>2458480.943804</v>
+        <v>2460202.210988</v>
       </c>
       <c r="F6" t="n">
-        <v>12.7187255</v>
+        <v>35.6134391</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1582562</v>
+        <v>3.512</v>
       </c>
       <c r="H6" t="n">
-        <v>1144.1789073</v>
+        <v>1575</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>2.5924633</v>
+        <v>3.12194</v>
       </c>
       <c r="J6" t="n">
-        <v>12.2599233</v>
+        <v>10.8612</v>
       </c>
       <c r="K6" t="n">
-        <v>477.2453303</v>
+        <v>505</v>
       </c>
       <c r="L6" t="n">
-        <v>8.273099999999999</v>
+        <v>6.9934</v>
       </c>
       <c r="M6" t="n">
-        <v>19.1419</v>
+        <v>16.32</v>
       </c>
       <c r="N6" t="n">
-        <v>4036.3</v>
+        <v>4628.53</v>
       </c>
       <c r="O6" t="n">
-        <v>4.65</v>
+        <v>4.32239</v>
       </c>
       <c r="P6" t="n">
-        <v>0.661076</v>
+        <v>0.71</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>0.710256858620737</v>
+        <v>0.3840778462287892</v>
       </c>
       <c r="R6" t="n">
-        <v>0.07410788918668496</v>
+        <v>0.216873501781118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2540.02</v>
+        <v>186.02</v>
       </c>
       <c r="B7" t="n">
-        <v>354518617</v>
+        <v>279741379</v>
       </c>
       <c r="C7" t="n">
-        <v>82.558548</v>
+        <v>51.750188</v>
       </c>
       <c r="D7" t="n">
-        <v>-42.697946</v>
+        <v>-63.500166</v>
       </c>
       <c r="E7" t="n">
-        <v>2459223.145597</v>
+        <v>2460201.824941</v>
       </c>
       <c r="F7" t="n">
-        <v>22.0819969</v>
+        <v>7.7897726</v>
       </c>
       <c r="G7" t="n">
-        <v>3.073</v>
+        <v>2.376</v>
       </c>
       <c r="H7" t="n">
-        <v>1019</v>
+        <v>194</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>2.28729</v>
+        <v>1.00084</v>
       </c>
       <c r="J7" t="n">
-        <v>5.94816</v>
+        <v>144.765</v>
       </c>
       <c r="K7" t="n">
-        <v>435</v>
+        <v>966</v>
       </c>
       <c r="L7" t="n">
-        <v>8.273099999999999</v>
+        <v>6.9934</v>
       </c>
       <c r="M7" t="n">
-        <v>19.1419</v>
+        <v>16.32</v>
       </c>
       <c r="N7" t="n">
-        <v>4036.3</v>
+        <v>4628.53</v>
       </c>
       <c r="O7" t="n">
-        <v>4.65</v>
+        <v>4.32239</v>
       </c>
       <c r="P7" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>0.710256858620737</v>
+        <v>0.3840778462287892</v>
       </c>
       <c r="R7" t="n">
-        <v>0.07410788918668496</v>
+        <v>0.216873501781118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>253.01</v>
+        <v>4470.01</v>
       </c>
       <c r="B8" t="n">
-        <v>322063810</v>
+        <v>256364928</v>
       </c>
       <c r="C8" t="n">
-        <v>14.318503</v>
+        <v>300.182122</v>
       </c>
       <c r="D8" t="n">
-        <v>-51.585251</v>
+        <v>22.709776</v>
       </c>
       <c r="E8" t="n">
-        <v>2458355.622789</v>
+        <v>2459770.410421</v>
       </c>
       <c r="F8" t="n">
-        <v>3.5104148</v>
+        <v>2.2185748</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1.8233621</v>
       </c>
       <c r="H8" t="n">
-        <v>308.8285985</v>
+        <v>25854.2144559</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>1.328654</v>
+        <v>13.3010355</v>
       </c>
       <c r="J8" t="n">
-        <v>64.709886</v>
+        <v>348.1506195</v>
       </c>
       <c r="K8" t="n">
-        <v>723.3731892</v>
+        <v>1101.6954166</v>
       </c>
       <c r="L8" t="n">
-        <v>9.3626</v>
+        <v>6.8481</v>
       </c>
       <c r="M8" t="n">
-        <v>30.8431</v>
+        <v>19.7638</v>
       </c>
       <c r="N8" t="n">
-        <v>4020</v>
+        <v>5023</v>
       </c>
       <c r="O8" t="n">
-        <v>4.438</v>
+        <v>4.58</v>
       </c>
       <c r="P8" t="n">
-        <v>0.639371</v>
+        <v>0.776484</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>0.742814302548056</v>
+        <v>0.4065417784609112</v>
       </c>
       <c r="R8" t="n">
-        <v>0.08762883918922149</v>
+        <v>0.1256230421520718</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5961.01</v>
+        <v>6713.01</v>
       </c>
       <c r="B9" t="n">
-        <v>262689575</v>
+        <v>428673146</v>
       </c>
       <c r="C9" t="n">
-        <v>349.216044</v>
+        <v>179.792354</v>
       </c>
       <c r="D9" t="n">
-        <v>5.695887</v>
+        <v>-20.355606</v>
       </c>
       <c r="E9" t="n">
-        <v>2459447.785905</v>
+        <v>2458571.522303</v>
       </c>
       <c r="F9" t="n">
-        <v>1.617487</v>
+        <v>2.1538049</v>
       </c>
       <c r="G9" t="n">
-        <v>1.2809267</v>
+        <v>1.6541007</v>
       </c>
       <c r="H9" t="n">
-        <v>342.1852102</v>
+        <v>137.9312313</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>1.3134056</v>
+        <v>0.8814471</v>
       </c>
       <c r="J9" t="n">
-        <v>197.2074933</v>
+        <v>331.6009868</v>
       </c>
       <c r="K9" t="n">
-        <v>955.7638559</v>
+        <v>1088.3628347</v>
       </c>
       <c r="L9" t="n">
-        <v>9.039199999999999</v>
+        <v>7.0276</v>
       </c>
       <c r="M9" t="n">
-        <v>26.2533</v>
+        <v>20.3632</v>
       </c>
       <c r="N9" t="n">
-        <v>3900.68</v>
+        <v>4944.24</v>
       </c>
       <c r="O9" t="n">
-        <v>4.5239</v>
+        <v>4.58767</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7017099999999999</v>
+        <v>0.757603</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>0.8075760790095958</v>
+        <v>0.4231331142458284</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01821666933803688</v>
+        <v>0.2228342109737272</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2194.01</v>
+        <v>5789.01</v>
       </c>
       <c r="B10" t="n">
-        <v>271478281</v>
+        <v>87216634</v>
       </c>
       <c r="C10" t="n">
-        <v>299.156339</v>
+        <v>302.773447</v>
       </c>
       <c r="D10" t="n">
-        <v>-31.335181</v>
+        <v>16.189714</v>
       </c>
       <c r="E10" t="n">
-        <v>2460141.982191</v>
+        <v>2459776.255982</v>
       </c>
       <c r="F10" t="n">
-        <v>15.3419095</v>
+        <v>12.9256051</v>
       </c>
       <c r="G10" t="n">
-        <v>2.736</v>
+        <v>1.691</v>
       </c>
       <c r="H10" t="n">
-        <v>683</v>
+        <v>790</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>1.7005</v>
+        <v>2.53704</v>
       </c>
       <c r="J10" t="n">
-        <v>14.2526</v>
+        <v>8.719390000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>541</v>
+        <v>478</v>
       </c>
       <c r="L10" t="n">
-        <v>7.4259</v>
+        <v>6.5715</v>
       </c>
       <c r="M10" t="n">
-        <v>19.5711</v>
+        <v>20.4581</v>
       </c>
       <c r="N10" t="n">
-        <v>4669</v>
+        <v>5132</v>
       </c>
       <c r="O10" t="n">
-        <v>4.63</v>
+        <v>4.49</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>0.8271720847294067</v>
+        <v>0.4311738188042931</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2060338426977061</v>
+        <v>0.2860097255552455</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>186.01</v>
+        <v>2194.01</v>
       </c>
       <c r="B11" t="n">
-        <v>279741379</v>
+        <v>271478281</v>
       </c>
       <c r="C11" t="n">
-        <v>51.750188</v>
+        <v>299.156339</v>
       </c>
       <c r="D11" t="n">
-        <v>-63.500166</v>
+        <v>-31.335181</v>
       </c>
       <c r="E11" t="n">
-        <v>2460202.210988</v>
+        <v>2460141.982191</v>
       </c>
       <c r="F11" t="n">
-        <v>35.6134391</v>
+        <v>15.3419095</v>
       </c>
       <c r="G11" t="n">
-        <v>3.512</v>
+        <v>2.736</v>
       </c>
       <c r="H11" t="n">
-        <v>1575</v>
+        <v>683</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>3.12194</v>
+        <v>1.7005</v>
       </c>
       <c r="J11" t="n">
-        <v>10.8612</v>
+        <v>14.2526</v>
       </c>
       <c r="K11" t="n">
-        <v>505</v>
+        <v>541</v>
       </c>
       <c r="L11" t="n">
-        <v>6.9934</v>
+        <v>7.4259</v>
       </c>
       <c r="M11" t="n">
-        <v>16.32</v>
+        <v>19.5711</v>
       </c>
       <c r="N11" t="n">
-        <v>4628.53</v>
+        <v>4669</v>
       </c>
       <c r="O11" t="n">
-        <v>4.32239</v>
+        <v>4.63</v>
       </c>
       <c r="P11" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>0.8461524089254281</v>
+        <v>0.4369855154896619</v>
       </c>
       <c r="R11" t="n">
-        <v>0.216873501781118</v>
+        <v>0.2060338426977061</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>186.02</v>
+        <v>1821.01</v>
       </c>
       <c r="B12" t="n">
-        <v>279741379</v>
+        <v>82308728</v>
       </c>
       <c r="C12" t="n">
-        <v>51.750188</v>
+        <v>168.637658</v>
       </c>
       <c r="D12" t="n">
-        <v>-63.500166</v>
+        <v>25.710596</v>
       </c>
       <c r="E12" t="n">
-        <v>2460201.824941</v>
+        <v>2459664.085255</v>
       </c>
       <c r="F12" t="n">
-        <v>7.7897726</v>
+        <v>9.4893231</v>
       </c>
       <c r="G12" t="n">
-        <v>2.376</v>
+        <v>2.757</v>
       </c>
       <c r="H12" t="n">
-        <v>194</v>
+        <v>940</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>1.00084</v>
+        <v>2.4304</v>
       </c>
       <c r="J12" t="n">
-        <v>144.765</v>
+        <v>41.924</v>
       </c>
       <c r="K12" t="n">
-        <v>966</v>
+        <v>708</v>
       </c>
       <c r="L12" t="n">
-        <v>6.9934</v>
+        <v>6.9859</v>
       </c>
       <c r="M12" t="n">
-        <v>16.32</v>
+        <v>21.5618</v>
       </c>
       <c r="N12" t="n">
-        <v>4628.53</v>
+        <v>5120</v>
       </c>
       <c r="O12" t="n">
-        <v>4.32239</v>
+        <v>4.6</v>
       </c>
       <c r="P12" t="n">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>0.8461524089254281</v>
+        <v>0.440467041313477</v>
       </c>
       <c r="R12" t="n">
-        <v>0.216873501781118</v>
+        <v>0.05814337766711058</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2443.01</v>
+        <v>2009.01</v>
       </c>
       <c r="B13" t="n">
-        <v>318753380</v>
+        <v>243187830</v>
       </c>
       <c r="C13" t="n">
-        <v>40.179861</v>
+        <v>16.908292</v>
       </c>
       <c r="D13" t="n">
-        <v>1.199676</v>
+        <v>22.952868</v>
       </c>
       <c r="E13" t="n">
-        <v>2459148.098617</v>
+        <v>2458783.768755</v>
       </c>
       <c r="F13" t="n">
-        <v>15.6692322</v>
+        <v>1071.0898448</v>
       </c>
       <c r="G13" t="n">
-        <v>4.562853</v>
+        <v>2.1734134</v>
       </c>
       <c r="H13" t="n">
-        <v>1393.3814802</v>
+        <v>865.169438</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>2.6868893</v>
+        <v>2.2407785</v>
       </c>
       <c r="J13" t="n">
-        <v>13.2931176</v>
+        <v>1.3880259</v>
       </c>
       <c r="K13" t="n">
-        <v>486.9971964</v>
+        <v>276.8338183</v>
       </c>
       <c r="L13" t="n">
-        <v>8.296900000000001</v>
+        <v>7.3551</v>
       </c>
       <c r="M13" t="n">
-        <v>23.9258</v>
+        <v>20.5272</v>
       </c>
       <c r="N13" t="n">
-        <v>4214.44</v>
+        <v>4755.33</v>
       </c>
       <c r="O13" t="n">
-        <v>4.52845</v>
+        <v>4.62683</v>
       </c>
       <c r="P13" t="n">
-        <v>0.732115</v>
+        <v>0.701499</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>0.8554185453037726</v>
+        <v>0.4464933530419892</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1818675256393356</v>
+        <v>0.2489958576576189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5084.01</v>
+        <v>2011.03</v>
       </c>
       <c r="B14" t="n">
-        <v>438260486</v>
+        <v>136916387</v>
       </c>
       <c r="C14" t="n">
-        <v>45.954561</v>
+        <v>230.440115</v>
       </c>
       <c r="D14" t="n">
-        <v>20.110588</v>
+        <v>-48.318817</v>
       </c>
       <c r="E14" t="n">
-        <v>2460252.991856</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5.8321337</v>
+        <v>2460081.126376</v>
       </c>
       <c r="G14" t="n">
-        <v>2.039</v>
+        <v>3.5341354</v>
       </c>
       <c r="H14" t="n">
-        <v>274</v>
+        <v>195.1972939</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>1.15554</v>
+        <v>1.6208326</v>
       </c>
       <c r="J14" t="n">
-        <v>49.8722</v>
+        <v>335.6075222</v>
       </c>
       <c r="K14" t="n">
-        <v>740</v>
+        <v>1091.635552</v>
       </c>
       <c r="L14" t="n">
-        <v>7.564</v>
+        <v>5.0494</v>
       </c>
       <c r="M14" t="n">
-        <v>21.3575</v>
+        <v>14.682</v>
       </c>
       <c r="N14" t="n">
-        <v>4544</v>
+        <v>5739</v>
       </c>
       <c r="O14" t="n">
-        <v>4.54</v>
+        <v>4.51</v>
       </c>
       <c r="P14" t="n">
-        <v>0.75</v>
+        <v>1.02607</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>0.8729662821703333</v>
+        <v>0.4604547707874415</v>
       </c>
       <c r="R14" t="n">
-        <v>0.03576864546243089</v>
+        <v>0.8241668035706786</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2009.01</v>
+        <v>2011.02</v>
       </c>
       <c r="B15" t="n">
-        <v>243187830</v>
+        <v>136916387</v>
       </c>
       <c r="C15" t="n">
-        <v>16.908292</v>
+        <v>230.440115</v>
       </c>
       <c r="D15" t="n">
-        <v>22.952868</v>
+        <v>-48.318817</v>
       </c>
       <c r="E15" t="n">
-        <v>2458783.768755</v>
+        <v>2458650.89757</v>
       </c>
       <c r="F15" t="n">
-        <v>1071.0898448</v>
+        <v>27.5920718</v>
       </c>
       <c r="G15" t="n">
-        <v>2.1734134</v>
+        <v>3.2743016</v>
       </c>
       <c r="H15" t="n">
-        <v>865.169438</v>
+        <v>555.3352929</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>2.2407785</v>
+        <v>2.7050278</v>
       </c>
       <c r="J15" t="n">
-        <v>1.3880259</v>
+        <v>31.3830711</v>
       </c>
       <c r="K15" t="n">
-        <v>276.8338183</v>
+        <v>603.6616824</v>
       </c>
       <c r="L15" t="n">
-        <v>7.3551</v>
+        <v>5.0494</v>
       </c>
       <c r="M15" t="n">
-        <v>20.5272</v>
+        <v>14.682</v>
       </c>
       <c r="N15" t="n">
-        <v>4755.33</v>
+        <v>5739</v>
       </c>
       <c r="O15" t="n">
-        <v>4.62683</v>
+        <v>4.51</v>
       </c>
       <c r="P15" t="n">
-        <v>0.701499</v>
+        <v>1.02607</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>0.9111400841059024</v>
+        <v>0.4604547707874415</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2489958576576189</v>
+        <v>0.8241668035706786</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4517.01</v>
+        <v>2011.01</v>
       </c>
       <c r="B16" t="n">
-        <v>301289516</v>
+        <v>136916387</v>
       </c>
       <c r="C16" t="n">
-        <v>351.771776</v>
+        <v>230.440115</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.285343</v>
+        <v>-48.318817</v>
       </c>
       <c r="E16" t="n">
-        <v>2460231.733831</v>
+        <v>2458631.767617</v>
       </c>
       <c r="F16" t="n">
-        <v>1.2089755</v>
+        <v>11.5778362</v>
       </c>
       <c r="G16" t="n">
-        <v>1.286</v>
+        <v>3.8772499</v>
       </c>
       <c r="H16" t="n">
-        <v>668</v>
+        <v>217.3994918</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>1.68645</v>
+        <v>1.5422129</v>
       </c>
       <c r="J16" t="n">
-        <v>325.749</v>
+        <v>99.9013415</v>
       </c>
       <c r="K16" t="n">
-        <v>1183</v>
+        <v>806.3295568999999</v>
       </c>
       <c r="L16" t="n">
-        <v>9.0684</v>
+        <v>5.0494</v>
       </c>
       <c r="M16" t="n">
-        <v>29.661</v>
+        <v>14.682</v>
       </c>
       <c r="N16" t="n">
-        <v>4199</v>
+        <v>5739</v>
       </c>
       <c r="O16" t="n">
-        <v>4.65321</v>
+        <v>4.51</v>
       </c>
       <c r="P16" t="n">
-        <v>0.63</v>
+        <v>1.02607</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>0.9154584467275934</v>
+        <v>0.4604547707874415</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2166081726537622</v>
+        <v>0.8241668035706786</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6978.01</v>
+        <v>260.01</v>
       </c>
       <c r="B17" t="n">
-        <v>320847025</v>
+        <v>37749396</v>
       </c>
       <c r="C17" t="n">
-        <v>299.638248</v>
+        <v>4.773018</v>
       </c>
       <c r="D17" t="n">
-        <v>-54.937423</v>
+        <v>-9.966150000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>2458661.083459</v>
+        <v>2458392.294018</v>
       </c>
       <c r="F17" t="n">
-        <v>9.125813600000001</v>
+        <v>13.4758478</v>
       </c>
       <c r="G17" t="n">
-        <v>3.173012</v>
+        <v>2.0643913</v>
       </c>
       <c r="H17" t="n">
-        <v>169.7218223</v>
+        <v>708.9461601</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.9704787</v>
+        <v>1.9840882</v>
       </c>
       <c r="J17" t="n">
-        <v>42.107688</v>
+        <v>10.1837519</v>
       </c>
       <c r="K17" t="n">
-        <v>649.6958588</v>
+        <v>455.6136246</v>
       </c>
       <c r="L17" t="n">
-        <v>7.5621</v>
+        <v>8.4991</v>
       </c>
       <c r="M17" t="n">
-        <v>23.6103</v>
+        <v>20.1852</v>
       </c>
       <c r="N17" t="n">
-        <v>4747.13</v>
+        <v>4111</v>
       </c>
       <c r="O17" t="n">
-        <v>4.56794</v>
+        <v>4.6461</v>
       </c>
       <c r="P17" t="n">
-        <v>0.750709</v>
+        <v>0.618173</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>0.9555862363533906</v>
+        <v>0.4644199760795594</v>
       </c>
       <c r="R17" t="n">
-        <v>0.08153377876240343</v>
+        <v>0.1536852942719399</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2459.01</v>
+        <v>5084.01</v>
       </c>
       <c r="B18" t="n">
-        <v>192790476</v>
+        <v>438260486</v>
       </c>
       <c r="C18" t="n">
-        <v>82.143332</v>
+        <v>45.954561</v>
       </c>
       <c r="D18" t="n">
-        <v>-39.373046</v>
+        <v>20.110588</v>
       </c>
       <c r="E18" t="n">
-        <v>2458452.334564</v>
+        <v>2460252.991856</v>
       </c>
       <c r="F18" t="n">
-        <v>19.1047019</v>
+        <v>5.8321337</v>
       </c>
       <c r="G18" t="n">
-        <v>3.2516728</v>
+        <v>2.039</v>
       </c>
       <c r="H18" t="n">
-        <v>1906.0596245</v>
+        <v>274</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>2.9365337</v>
+        <v>1.15554</v>
       </c>
       <c r="J18" t="n">
-        <v>8.5187297</v>
+        <v>49.8722</v>
       </c>
       <c r="K18" t="n">
-        <v>435.7259839</v>
+        <v>740</v>
       </c>
       <c r="L18" t="n">
-        <v>9.395099999999999</v>
+        <v>7.564</v>
       </c>
       <c r="M18" t="n">
-        <v>36.6113</v>
+        <v>21.3575</v>
       </c>
       <c r="N18" t="n">
-        <v>4195</v>
+        <v>4544</v>
       </c>
       <c r="O18" t="n">
-        <v>4.59888</v>
+        <v>4.54</v>
       </c>
       <c r="P18" t="n">
-        <v>0.6750930000000001</v>
+        <v>0.75</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>0.9631817734805855</v>
+        <v>0.4686604135697814</v>
       </c>
       <c r="R18" t="n">
-        <v>0.04566165863559627</v>
+        <v>0.03576864546243089</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6713.01</v>
+        <v>1099.01</v>
       </c>
       <c r="B19" t="n">
-        <v>428673146</v>
+        <v>290348383</v>
       </c>
       <c r="C19" t="n">
-        <v>179.792354</v>
+        <v>328.718171</v>
       </c>
       <c r="D19" t="n">
-        <v>-20.355606</v>
+        <v>-77.338802</v>
       </c>
       <c r="E19" t="n">
-        <v>2458571.522303</v>
+        <v>2460140.220927</v>
       </c>
       <c r="F19" t="n">
-        <v>2.1538049</v>
+        <v>6.441006</v>
       </c>
       <c r="G19" t="n">
-        <v>1.6541007</v>
+        <v>1.812</v>
       </c>
       <c r="H19" t="n">
-        <v>137.9312313</v>
+        <v>914</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.8814471</v>
+        <v>2.56374</v>
       </c>
       <c r="J19" t="n">
-        <v>331.6009868</v>
+        <v>87.89019999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>1088.3628347</v>
+        <v>853</v>
       </c>
       <c r="L19" t="n">
-        <v>7.0276</v>
+        <v>7.3661</v>
       </c>
       <c r="M19" t="n">
-        <v>20.3632</v>
+        <v>23.606</v>
       </c>
       <c r="N19" t="n">
-        <v>4944.24</v>
+        <v>4867</v>
       </c>
       <c r="O19" t="n">
-        <v>4.58767</v>
+        <v>4.438</v>
       </c>
       <c r="P19" t="n">
-        <v>0.757603</v>
+        <v>0.8</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>0.9716867913511416</v>
+        <v>0.4784930261051164</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2228342109737272</v>
+        <v>0.1472633162803166</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>544.01</v>
+        <v>6978.01</v>
       </c>
       <c r="B20" t="n">
-        <v>50618703</v>
+        <v>320847025</v>
       </c>
       <c r="C20" t="n">
-        <v>82.290072</v>
+        <v>299.638248</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.342898</v>
+        <v>-54.937423</v>
       </c>
       <c r="E20" t="n">
-        <v>2458469.756983</v>
+        <v>2458661.083459</v>
       </c>
       <c r="F20" t="n">
-        <v>1.5483542</v>
+        <v>9.125813600000001</v>
       </c>
       <c r="G20" t="n">
-        <v>1.2030925</v>
+        <v>3.173012</v>
       </c>
       <c r="H20" t="n">
-        <v>926.4111032</v>
+        <v>169.7218223</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>2.1601741</v>
+        <v>0.9704787</v>
       </c>
       <c r="J20" t="n">
-        <v>240.1950345</v>
+        <v>42.107688</v>
       </c>
       <c r="K20" t="n">
-        <v>1004.0625199</v>
+        <v>649.6958588</v>
       </c>
       <c r="L20" t="n">
-        <v>9.650399999999999</v>
+        <v>7.5621</v>
       </c>
       <c r="M20" t="n">
-        <v>41.1166</v>
+        <v>23.6103</v>
       </c>
       <c r="N20" t="n">
-        <v>4665</v>
+        <v>4747.13</v>
       </c>
       <c r="O20" t="n">
-        <v>4.67631</v>
+        <v>4.56794</v>
       </c>
       <c r="P20" t="n">
-        <v>0.6634139999999999</v>
+        <v>0.750709</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>1.043500380382299</v>
+        <v>0.4877356136941862</v>
       </c>
       <c r="R20" t="n">
-        <v>0.04285830752449767</v>
+        <v>0.08153377876240343</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>431.02</v>
+        <v>2540.02</v>
       </c>
       <c r="B21" t="n">
-        <v>31374837</v>
+        <v>354518617</v>
       </c>
       <c r="C21" t="n">
-        <v>83.26925</v>
+        <v>82.558548</v>
       </c>
       <c r="D21" t="n">
-        <v>-26.72387</v>
+        <v>-42.697946</v>
       </c>
       <c r="E21" t="n">
-        <v>2458438.375965</v>
+        <v>2459223.145597</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4900589</v>
+        <v>22.0819969</v>
       </c>
       <c r="G21" t="n">
-        <v>1.0123328</v>
+        <v>3.073</v>
       </c>
       <c r="H21" t="n">
-        <v>291.0399722</v>
+        <v>1019</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>1.4741529</v>
+        <v>2.28729</v>
       </c>
       <c r="J21" t="n">
-        <v>2120.4474663</v>
+        <v>5.94816</v>
       </c>
       <c r="K21" t="n">
-        <v>1730.7192689</v>
+        <v>435</v>
       </c>
       <c r="L21" t="n">
-        <v>8.170500000000001</v>
+        <v>8.273099999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>32.5686</v>
+        <v>19.1419</v>
       </c>
       <c r="N21" t="n">
-        <v>4891</v>
+        <v>4036.3</v>
       </c>
       <c r="O21" t="n">
-        <v>4.62</v>
+        <v>4.65</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7266319999999999</v>
+        <v>0.66</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>1.044427435098838</v>
+        <v>0.5078596040079951</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0767170384367596</v>
+        <v>0.07410788918668496</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>431.01</v>
+        <v>2540.01</v>
       </c>
       <c r="B22" t="n">
-        <v>31374837</v>
+        <v>354518617</v>
       </c>
       <c r="C22" t="n">
-        <v>83.26925</v>
+        <v>82.558548</v>
       </c>
       <c r="D22" t="n">
-        <v>-26.72387</v>
+        <v>-42.697946</v>
       </c>
       <c r="E22" t="n">
-        <v>2458440.630295</v>
+        <v>2458480.943804</v>
       </c>
       <c r="F22" t="n">
-        <v>12.4610086</v>
+        <v>12.7187255</v>
       </c>
       <c r="G22" t="n">
-        <v>3.3195777</v>
+        <v>3.1582562</v>
       </c>
       <c r="H22" t="n">
-        <v>2078.1425981</v>
+        <v>1144.1789073</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>3.2809492</v>
+        <v>2.5924633</v>
       </c>
       <c r="J22" t="n">
-        <v>28.3587888</v>
+        <v>12.2599233</v>
       </c>
       <c r="K22" t="n">
-        <v>588.5612549</v>
+        <v>477.2453303</v>
       </c>
       <c r="L22" t="n">
-        <v>8.170500000000001</v>
+        <v>8.273099999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>32.5686</v>
+        <v>19.1419</v>
       </c>
       <c r="N22" t="n">
-        <v>4891</v>
+        <v>4036.3</v>
       </c>
       <c r="O22" t="n">
-        <v>4.62</v>
+        <v>4.65</v>
       </c>
       <c r="P22" t="n">
-        <v>0.7266319999999999</v>
+        <v>0.661076</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>1.044427435098838</v>
+        <v>0.5078596040079951</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0767170384367596</v>
+        <v>0.07410788918668496</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>833.01</v>
+        <v>802.01</v>
       </c>
       <c r="B23" t="n">
-        <v>362249359</v>
+        <v>167303382</v>
       </c>
       <c r="C23" t="n">
-        <v>145.645472</v>
+        <v>97.985715</v>
       </c>
       <c r="D23" t="n">
-        <v>-62.475886</v>
+        <v>-68.7118</v>
       </c>
       <c r="E23" t="n">
-        <v>2458544.120496</v>
+        <v>2458327.391469</v>
       </c>
       <c r="F23" t="n">
-        <v>1.041889</v>
+        <v>3.693916</v>
       </c>
       <c r="G23" t="n">
-        <v>1.2737667</v>
+        <v>1.7264201</v>
       </c>
       <c r="H23" t="n">
-        <v>465.3854112</v>
+        <v>74.807186</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>1.389031</v>
+        <v>0.6501353</v>
       </c>
       <c r="J23" t="n">
-        <v>270.068174</v>
+        <v>186.8668956</v>
       </c>
       <c r="K23" t="n">
-        <v>1033.9227741</v>
+        <v>942.9807829</v>
       </c>
       <c r="L23" t="n">
-        <v>10.1461</v>
+        <v>7.5209</v>
       </c>
       <c r="M23" t="n">
-        <v>41.7148</v>
+        <v>28.1042</v>
       </c>
       <c r="N23" t="n">
-        <v>3965</v>
+        <v>5235.78</v>
       </c>
       <c r="O23" t="n">
-        <v>4.68337</v>
+        <v>4.438</v>
       </c>
       <c r="P23" t="n">
-        <v>0.603336</v>
+        <v>0.74982</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>1.044521400590919</v>
+        <v>0.5505815501150764</v>
       </c>
       <c r="R23" t="n">
-        <v>0.08879781148820186</v>
+        <v>0.2277199720930105</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1099.01</v>
+        <v>144.01</v>
       </c>
       <c r="B24" t="n">
-        <v>290348383</v>
+        <v>261136679</v>
       </c>
       <c r="C24" t="n">
-        <v>328.718171</v>
+        <v>84.29928</v>
       </c>
       <c r="D24" t="n">
-        <v>-77.338802</v>
+        <v>-80.46460399999999</v>
       </c>
       <c r="E24" t="n">
-        <v>2460140.220927</v>
+        <v>2460011.550653</v>
       </c>
       <c r="F24" t="n">
-        <v>6.441006</v>
+        <v>6.267832</v>
       </c>
       <c r="G24" t="n">
-        <v>1.812</v>
+        <v>2.789</v>
       </c>
       <c r="H24" t="n">
-        <v>914</v>
+        <v>321</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>2.56374</v>
+        <v>1.99779</v>
       </c>
       <c r="J24" t="n">
-        <v>87.89019999999999</v>
+        <v>203.434</v>
       </c>
       <c r="K24" t="n">
-        <v>853</v>
+        <v>1052</v>
       </c>
       <c r="L24" t="n">
-        <v>7.3661</v>
+        <v>5.1054</v>
       </c>
       <c r="M24" t="n">
-        <v>23.606</v>
+        <v>18.2702</v>
       </c>
       <c r="N24" t="n">
-        <v>4867</v>
+        <v>5950</v>
       </c>
       <c r="O24" t="n">
         <v>4.438</v>
       </c>
       <c r="P24" t="n">
-        <v>0.8</v>
+        <v>1.15</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>1.051534549285856</v>
+        <v>0.5682507800699519</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1472633162803166</v>
+        <v>0.5469902615930315</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1821.01</v>
+        <v>1835.01</v>
       </c>
       <c r="B25" t="n">
-        <v>82308728</v>
+        <v>347332255</v>
       </c>
       <c r="C25" t="n">
-        <v>168.637658</v>
+        <v>189.839224</v>
       </c>
       <c r="D25" t="n">
-        <v>25.710596</v>
+        <v>20.027338</v>
       </c>
       <c r="E25" t="n">
-        <v>2459664.085255</v>
+        <v>2458932.763635</v>
       </c>
       <c r="F25" t="n">
-        <v>9.4893231</v>
+        <v>5.6419598</v>
       </c>
       <c r="G25" t="n">
-        <v>2.757</v>
+        <v>3.0871502</v>
       </c>
       <c r="H25" t="n">
-        <v>940</v>
+        <v>543.838848</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>2.4304</v>
+        <v>1.8245844</v>
       </c>
       <c r="J25" t="n">
-        <v>41.924</v>
+        <v>119.4171181</v>
       </c>
       <c r="K25" t="n">
-        <v>708</v>
+        <v>843.1141848</v>
       </c>
       <c r="L25" t="n">
-        <v>6.9859</v>
+        <v>7.6621</v>
       </c>
       <c r="M25" t="n">
-        <v>21.5618</v>
+        <v>32.1585</v>
       </c>
       <c r="N25" t="n">
-        <v>5120</v>
+        <v>5297</v>
       </c>
       <c r="O25" t="n">
-        <v>4.6</v>
+        <v>4.61016</v>
       </c>
       <c r="P25" t="n">
-        <v>0.77</v>
+        <v>0.782479</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>1.065846328578727</v>
+        <v>0.5830139874015356</v>
       </c>
       <c r="R25" t="n">
-        <v>0.05814337766711058</v>
+        <v>0.06661906649581383</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4470.01</v>
+        <v>1835.02</v>
       </c>
       <c r="B26" t="n">
-        <v>256364928</v>
+        <v>347332255</v>
       </c>
       <c r="C26" t="n">
-        <v>300.182122</v>
+        <v>189.839224</v>
       </c>
       <c r="D26" t="n">
-        <v>22.709776</v>
+        <v>20.027338</v>
       </c>
       <c r="E26" t="n">
-        <v>2459770.410421</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2.2185748</v>
+        <v>2458937.873023</v>
       </c>
       <c r="G26" t="n">
-        <v>1.8233621</v>
+        <v>3.9454498</v>
       </c>
       <c r="H26" t="n">
-        <v>25854.2144559</v>
+        <v>886.4838237</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>13.3010355</v>
+        <v>2.5398986</v>
       </c>
       <c r="J26" t="n">
-        <v>348.1506195</v>
+        <v>48.4006234</v>
       </c>
       <c r="K26" t="n">
-        <v>1101.6954166</v>
+        <v>672.7171326</v>
       </c>
       <c r="L26" t="n">
-        <v>6.8481</v>
+        <v>7.6621</v>
       </c>
       <c r="M26" t="n">
-        <v>19.7638</v>
+        <v>32.1585</v>
       </c>
       <c r="N26" t="n">
-        <v>5023</v>
+        <v>5297</v>
       </c>
       <c r="O26" t="n">
-        <v>4.58</v>
+        <v>4.61016</v>
       </c>
       <c r="P26" t="n">
-        <v>0.776484</v>
+        <v>0.782479</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>1.07195385275587</v>
+        <v>0.5830139874015356</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1256230421520718</v>
+        <v>0.06661906649581383</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>174.05</v>
+        <v>2443.01</v>
       </c>
       <c r="B27" t="n">
-        <v>425997655</v>
+        <v>318753380</v>
       </c>
       <c r="C27" t="n">
-        <v>55.459031</v>
+        <v>40.179861</v>
       </c>
       <c r="D27" t="n">
-        <v>-62.767267</v>
+        <v>1.199676</v>
       </c>
       <c r="E27" t="n">
-        <v>2460197.038739</v>
+        <v>2459148.098617</v>
       </c>
       <c r="F27" t="n">
-        <v>7.9076222</v>
+        <v>15.6692322</v>
       </c>
       <c r="G27" t="n">
-        <v>2.611</v>
+        <v>4.562853</v>
       </c>
       <c r="H27" t="n">
-        <v>217</v>
+        <v>1393.3814802</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>0.969819</v>
+        <v>2.6868893</v>
       </c>
       <c r="J27" t="n">
-        <v>44.8107</v>
+        <v>13.2931176</v>
       </c>
       <c r="K27" t="n">
-        <v>720</v>
+        <v>486.9971964</v>
       </c>
       <c r="L27" t="n">
-        <v>8.751300000000001</v>
+        <v>8.296900000000001</v>
       </c>
       <c r="M27" t="n">
-        <v>39.0341</v>
+        <v>23.9258</v>
       </c>
       <c r="N27" t="n">
-        <v>4813</v>
+        <v>4214.44</v>
       </c>
       <c r="O27" t="n">
-        <v>4.38</v>
+        <v>4.52845</v>
       </c>
       <c r="P27" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.732115</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>1.091922494331644</v>
+        <v>0.5875221654235464</v>
       </c>
       <c r="R27" t="n">
-        <v>0.05462548793553362</v>
+        <v>0.1818675256393356</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>174.04</v>
+        <v>253.01</v>
       </c>
       <c r="B28" t="n">
-        <v>425997655</v>
+        <v>322063810</v>
       </c>
       <c r="C28" t="n">
-        <v>55.459031</v>
+        <v>14.318503</v>
       </c>
       <c r="D28" t="n">
-        <v>-62.767267</v>
+        <v>-51.585251</v>
       </c>
       <c r="E28" t="n">
-        <v>2460203.017928</v>
+        <v>2458355.622789</v>
       </c>
       <c r="F28" t="n">
-        <v>3.9766833</v>
+        <v>3.5104148</v>
       </c>
       <c r="G28" t="n">
-        <v>1.859</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>142</v>
+        <v>308.8285985</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>0.757588</v>
+        <v>1.328654</v>
       </c>
       <c r="J28" t="n">
-        <v>89.0886</v>
+        <v>64.709886</v>
       </c>
       <c r="K28" t="n">
-        <v>855</v>
+        <v>723.3731892</v>
       </c>
       <c r="L28" t="n">
-        <v>8.751300000000001</v>
+        <v>9.3626</v>
       </c>
       <c r="M28" t="n">
-        <v>39.0341</v>
+        <v>30.8431</v>
       </c>
       <c r="N28" t="n">
-        <v>4813</v>
+        <v>4020</v>
       </c>
       <c r="O28" t="n">
-        <v>4.38</v>
+        <v>4.438</v>
       </c>
       <c r="P28" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.639371</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>1.091922494331644</v>
+        <v>0.6217175629236638</v>
       </c>
       <c r="R28" t="n">
-        <v>0.05462548793553362</v>
+        <v>0.08762883918922149</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>174.03</v>
+        <v>431.02</v>
       </c>
       <c r="B29" t="n">
-        <v>425997655</v>
+        <v>31374837</v>
       </c>
       <c r="C29" t="n">
-        <v>55.459031</v>
+        <v>83.26925</v>
       </c>
       <c r="D29" t="n">
-        <v>-62.767267</v>
+        <v>-26.72387</v>
       </c>
       <c r="E29" t="n">
-        <v>2460184.414244</v>
+        <v>2458438.375965</v>
       </c>
       <c r="F29" t="n">
-        <v>12.1623316</v>
+        <v>0.4900589</v>
       </c>
       <c r="G29" t="n">
-        <v>2.614</v>
+        <v>1.0123328</v>
       </c>
       <c r="H29" t="n">
-        <v>317</v>
+        <v>291.0399722</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>1.15643</v>
+        <v>1.4741529</v>
       </c>
       <c r="J29" t="n">
-        <v>27.5458</v>
+        <v>2120.4474663</v>
       </c>
       <c r="K29" t="n">
-        <v>638</v>
+        <v>1730.7192689</v>
       </c>
       <c r="L29" t="n">
-        <v>8.751300000000001</v>
+        <v>8.170500000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>39.0341</v>
+        <v>32.5686</v>
       </c>
       <c r="N29" t="n">
-        <v>4813</v>
+        <v>4891</v>
       </c>
       <c r="O29" t="n">
-        <v>4.38</v>
+        <v>4.62</v>
       </c>
       <c r="P29" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7266319999999999</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>1.091922494331644</v>
+        <v>0.638733258076041</v>
       </c>
       <c r="R29" t="n">
-        <v>0.05462548793553362</v>
+        <v>0.0767170384367596</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>174.02</v>
+        <v>431.01</v>
       </c>
       <c r="B30" t="n">
-        <v>425997655</v>
+        <v>31374837</v>
       </c>
       <c r="C30" t="n">
-        <v>55.459031</v>
+        <v>83.26925</v>
       </c>
       <c r="D30" t="n">
-        <v>-62.767267</v>
+        <v>-26.72387</v>
       </c>
       <c r="E30" t="n">
-        <v>2460157.951364</v>
+        <v>2458440.630295</v>
       </c>
       <c r="F30" t="n">
-        <v>29.7975205</v>
+        <v>12.4610086</v>
       </c>
       <c r="G30" t="n">
-        <v>2.782</v>
+        <v>3.3195777</v>
       </c>
       <c r="H30" t="n">
-        <v>671</v>
+        <v>2078.1425981</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>1.60982</v>
+        <v>3.2809492</v>
       </c>
       <c r="J30" t="n">
-        <v>3.2713</v>
+        <v>28.3587888</v>
       </c>
       <c r="K30" t="n">
-        <v>374</v>
+        <v>588.5612549</v>
       </c>
       <c r="L30" t="n">
-        <v>8.751300000000001</v>
+        <v>8.170500000000001</v>
       </c>
       <c r="M30" t="n">
-        <v>39.0341</v>
+        <v>32.5686</v>
       </c>
       <c r="N30" t="n">
-        <v>4813</v>
+        <v>4891</v>
       </c>
       <c r="O30" t="n">
-        <v>4.38</v>
+        <v>4.62</v>
       </c>
       <c r="P30" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7266319999999999</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>1.091922494331644</v>
+        <v>0.638733258076041</v>
       </c>
       <c r="R30" t="n">
-        <v>0.05462548793553362</v>
+        <v>0.0767170384367596</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>174.01</v>
+        <v>1793.01</v>
       </c>
       <c r="B31" t="n">
-        <v>425997655</v>
+        <v>304142124</v>
       </c>
       <c r="C31" t="n">
-        <v>55.459031</v>
+        <v>164.856336</v>
       </c>
       <c r="D31" t="n">
-        <v>-62.767267</v>
+        <v>-56.623556</v>
       </c>
       <c r="E31" t="n">
-        <v>2460180.378105</v>
+        <v>2460017.429225</v>
       </c>
       <c r="F31" t="n">
-        <v>17.6671687</v>
+        <v>55.087</v>
       </c>
       <c r="G31" t="n">
-        <v>2.525</v>
+        <v>5.709</v>
       </c>
       <c r="H31" t="n">
-        <v>854</v>
+        <v>2509</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>1.87042</v>
+        <v>4.36639</v>
       </c>
       <c r="J31" t="n">
-        <v>7.60884</v>
+        <v>16.5899</v>
       </c>
       <c r="K31" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="L31" t="n">
-        <v>8.751300000000001</v>
+        <v>7.8436</v>
       </c>
       <c r="M31" t="n">
-        <v>39.0341</v>
+        <v>36.9941</v>
       </c>
       <c r="N31" t="n">
-        <v>4813</v>
+        <v>5175</v>
       </c>
       <c r="O31" t="n">
-        <v>4.38</v>
+        <v>4.51</v>
       </c>
       <c r="P31" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>1.091922494331644</v>
+        <v>0.6423787840647773</v>
       </c>
       <c r="R31" t="n">
-        <v>0.05462548793553362</v>
+        <v>0.2165786356227843</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6709.01</v>
+        <v>5961.01</v>
       </c>
       <c r="B32" t="n">
-        <v>20375215</v>
+        <v>262689575</v>
       </c>
       <c r="C32" t="n">
-        <v>167.608218</v>
+        <v>349.216044</v>
       </c>
       <c r="D32" t="n">
-        <v>-29.414302</v>
+        <v>5.695887</v>
       </c>
       <c r="E32" t="n">
-        <v>2458544.543307</v>
+        <v>2459447.785905</v>
       </c>
       <c r="F32" t="n">
-        <v>2.3477336</v>
+        <v>1.617487</v>
       </c>
       <c r="G32" t="n">
-        <v>1.8624266</v>
+        <v>1.2809267</v>
       </c>
       <c r="H32" t="n">
-        <v>182.9434914</v>
+        <v>342.1852102</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>1.0903541</v>
+        <v>1.3134056</v>
       </c>
       <c r="J32" t="n">
-        <v>215.4979378</v>
+        <v>197.2074933</v>
       </c>
       <c r="K32" t="n">
-        <v>977.1934094</v>
+        <v>955.7638559</v>
       </c>
       <c r="L32" t="n">
-        <v>8.8392</v>
+        <v>9.039199999999999</v>
       </c>
       <c r="M32" t="n">
-        <v>39.7429</v>
+        <v>26.2533</v>
       </c>
       <c r="N32" t="n">
-        <v>4799</v>
+        <v>3900.68</v>
       </c>
       <c r="O32" t="n">
-        <v>4.66766</v>
+        <v>4.5239</v>
       </c>
       <c r="P32" t="n">
-        <v>0.678033</v>
+        <v>0.7017099999999999</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>1.095343770541425</v>
+        <v>0.6595363756557957</v>
       </c>
       <c r="R32" t="n">
-        <v>0.03672621597918261</v>
+        <v>0.01821666933803688</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>802.01</v>
+        <v>6965.01</v>
       </c>
       <c r="B33" t="n">
-        <v>167303382</v>
+        <v>80224448</v>
       </c>
       <c r="C33" t="n">
-        <v>97.985715</v>
+        <v>103.678273</v>
       </c>
       <c r="D33" t="n">
-        <v>-68.7118</v>
+        <v>24.245141</v>
       </c>
       <c r="E33" t="n">
-        <v>2458327.391469</v>
+        <v>2459505.193695</v>
       </c>
       <c r="F33" t="n">
-        <v>3.693916</v>
+        <v>5.9693397</v>
       </c>
       <c r="G33" t="n">
-        <v>1.7264201</v>
+        <v>3.441038</v>
       </c>
       <c r="H33" t="n">
-        <v>74.807186</v>
+        <v>105.5424205</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>0.6501353</v>
+        <v>1.3473608</v>
       </c>
       <c r="J33" t="n">
-        <v>186.8668956</v>
+        <v>334.6170929</v>
       </c>
       <c r="K33" t="n">
-        <v>942.9807829</v>
+        <v>1090.8292631</v>
       </c>
       <c r="L33" t="n">
-        <v>7.5209</v>
+        <v>6.3103</v>
       </c>
       <c r="M33" t="n">
-        <v>28.1042</v>
+        <v>31.1664</v>
       </c>
       <c r="N33" t="n">
-        <v>5235.78</v>
+        <v>6007</v>
       </c>
       <c r="O33" t="n">
-        <v>4.438</v>
+        <v>4.37729</v>
       </c>
       <c r="P33" t="n">
-        <v>0.74982</v>
+        <v>1.12993</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>1.116703040663285</v>
+        <v>0.7181866415369055</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2277199720930105</v>
+        <v>0.05173693479333623</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4310.01</v>
+        <v>6965.02</v>
       </c>
       <c r="B34" t="n">
-        <v>303317324</v>
+        <v>80224448</v>
       </c>
       <c r="C34" t="n">
-        <v>351.903531</v>
+        <v>103.678273</v>
       </c>
       <c r="D34" t="n">
-        <v>-25.508462</v>
+        <v>24.245141</v>
       </c>
       <c r="E34" t="n">
-        <v>2458365.181534</v>
+        <v>2459508.008646</v>
       </c>
       <c r="F34" t="n">
-        <v>739.1670007</v>
+        <v>28.0693949</v>
       </c>
       <c r="G34" t="n">
-        <v>5.7183604</v>
+        <v>6.0393818</v>
       </c>
       <c r="H34" t="n">
-        <v>1376.1395053</v>
+        <v>154.3008171</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>2.6735992</v>
+        <v>1.6221344</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0724872</v>
+        <v>42.4755605</v>
       </c>
       <c r="K34" t="n">
-        <v>132.3381364</v>
+        <v>651.1102456</v>
       </c>
       <c r="L34" t="n">
-        <v>9.4961</v>
+        <v>6.3103</v>
       </c>
       <c r="M34" t="n">
-        <v>40.0268</v>
+        <v>31.1664</v>
       </c>
       <c r="N34" t="n">
-        <v>4159</v>
+        <v>6007</v>
       </c>
       <c r="O34" t="n">
-        <v>4.53501</v>
+        <v>4.37729</v>
       </c>
       <c r="P34" t="n">
-        <v>0.7210839999999999</v>
+        <v>1.12993</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>1.117779766286029</v>
+        <v>0.7181866415369055</v>
       </c>
       <c r="R34" t="n">
-        <v>0.04720909237717162</v>
+        <v>0.05173693479333623</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2018.01</v>
+        <v>214.02</v>
       </c>
       <c r="B35" t="n">
-        <v>357501308</v>
+        <v>167415965</v>
       </c>
       <c r="C35" t="n">
-        <v>229.837442</v>
+        <v>99.458741</v>
       </c>
       <c r="D35" t="n">
-        <v>29.207877</v>
+        <v>-70.931327</v>
       </c>
       <c r="E35" t="n">
-        <v>2458958.257962</v>
+        <v>2460174.709658</v>
       </c>
       <c r="F35" t="n">
-        <v>7.4355709</v>
+        <v>9.695961</v>
       </c>
       <c r="G35" t="n">
-        <v>2.3450321</v>
+        <v>2.772</v>
       </c>
       <c r="H35" t="n">
-        <v>1310.6803156</v>
+        <v>122</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>2.2761564</v>
+        <v>0.808552</v>
       </c>
       <c r="J35" t="n">
-        <v>26.0757607</v>
+        <v>66.2914</v>
       </c>
       <c r="K35" t="n">
-        <v>576.3403106</v>
+        <v>794</v>
       </c>
       <c r="L35" t="n">
-        <v>8.962</v>
+        <v>8.008900000000001</v>
       </c>
       <c r="M35" t="n">
-        <v>27.9956</v>
+        <v>38.96</v>
       </c>
       <c r="N35" t="n">
-        <v>4218.9</v>
+        <v>5346.2</v>
       </c>
       <c r="O35" t="n">
-        <v>4.67</v>
+        <v>4.6</v>
       </c>
       <c r="P35" t="n">
-        <v>0.622512</v>
+        <v>0.8</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>1.133499123640524</v>
+        <v>0.7275928301762715</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2100230324201724</v>
+        <v>0.1669777466970116</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5554.01</v>
+        <v>214.01</v>
       </c>
       <c r="B36" t="n">
-        <v>91287873</v>
+        <v>167415965</v>
       </c>
       <c r="C36" t="n">
-        <v>104.74387</v>
+        <v>99.458741</v>
       </c>
       <c r="D36" t="n">
-        <v>28.715768</v>
+        <v>-70.931327</v>
       </c>
       <c r="E36" t="n">
-        <v>2459515.17161</v>
+        <v>2460154.945542</v>
       </c>
       <c r="F36" t="n">
-        <v>26.694279</v>
+        <v>18.5537012</v>
       </c>
       <c r="G36" t="n">
-        <v>3.7831301</v>
+        <v>3.438</v>
       </c>
       <c r="H36" t="n">
-        <v>1854.2924324</v>
+        <v>448</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>2.6845863</v>
+        <v>1.57606</v>
       </c>
       <c r="J36" t="n">
-        <v>4.0851419</v>
+        <v>25.0891</v>
       </c>
       <c r="K36" t="n">
-        <v>362.5947706</v>
+        <v>623</v>
       </c>
       <c r="L36" t="n">
-        <v>9.83733</v>
+        <v>8.008900000000001</v>
       </c>
       <c r="M36" t="n">
-        <v>39.4478</v>
+        <v>38.96</v>
       </c>
       <c r="N36" t="n">
-        <v>3997</v>
+        <v>5346.2</v>
       </c>
       <c r="O36" t="n">
-        <v>4.6288</v>
+        <v>4.6</v>
       </c>
       <c r="P36" t="n">
-        <v>0.626722</v>
+        <v>0.8</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>1.166081929611407</v>
+        <v>0.7275928301762715</v>
       </c>
       <c r="R36" t="n">
-        <v>0.05933370243670238</v>
+        <v>0.1669777466970116</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>139.01</v>
+        <v>262.01</v>
       </c>
       <c r="B37" t="n">
-        <v>62483237</v>
+        <v>70513361</v>
       </c>
       <c r="C37" t="n">
-        <v>336.402414</v>
+        <v>32.534687</v>
       </c>
       <c r="D37" t="n">
-        <v>-34.909713</v>
+        <v>-31.070627</v>
       </c>
       <c r="E37" t="n">
-        <v>2458334.891563</v>
+        <v>2459136.576258</v>
       </c>
       <c r="F37" t="n">
-        <v>11.0708575</v>
+        <v>11.1452784</v>
       </c>
       <c r="G37" t="n">
-        <v>2.1937617</v>
+        <v>1.3947705</v>
       </c>
       <c r="H37" t="n">
-        <v>1149.7328034</v>
+        <v>566.2736451</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>2.3337648</v>
+        <v>2.0671456</v>
       </c>
       <c r="J37" t="n">
-        <v>22.4219066</v>
+        <v>56.9132658</v>
       </c>
       <c r="K37" t="n">
-        <v>554.9934842</v>
+        <v>700.5241733</v>
       </c>
       <c r="L37" t="n">
-        <v>9.3636</v>
+        <v>8.134499999999999</v>
       </c>
       <c r="M37" t="n">
-        <v>42.4061</v>
+        <v>43.932</v>
       </c>
       <c r="N37" t="n">
-        <v>4356</v>
+        <v>5302.58</v>
       </c>
       <c r="O37" t="n">
-        <v>4.53491</v>
+        <v>4.53515</v>
       </c>
       <c r="P37" t="n">
-        <v>0.700727</v>
+        <v>0.848675</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>1.172158076349136</v>
+        <v>0.7509786365939464</v>
       </c>
       <c r="R37" t="n">
-        <v>0.02144133416206292</v>
+        <v>0.1492879722617396</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6266.01</v>
+        <v>4517.01</v>
       </c>
       <c r="B38" t="n">
-        <v>193023697</v>
+        <v>301289516</v>
       </c>
       <c r="C38" t="n">
-        <v>155.597851</v>
+        <v>351.771776</v>
       </c>
       <c r="D38" t="n">
-        <v>-28.847487</v>
+        <v>-1.285343</v>
       </c>
       <c r="E38" t="n">
-        <v>2460013.265158</v>
+        <v>2460231.733831</v>
       </c>
       <c r="F38" t="n">
-        <v>2.7895524</v>
+        <v>1.2089755</v>
       </c>
       <c r="G38" t="n">
-        <v>1.969</v>
+        <v>1.286</v>
       </c>
       <c r="H38" t="n">
-        <v>262</v>
+        <v>668</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>0.986147</v>
+        <v>1.68645</v>
       </c>
       <c r="J38" t="n">
-        <v>376.853</v>
+        <v>325.749</v>
       </c>
       <c r="K38" t="n">
-        <v>1227</v>
+        <v>1183</v>
       </c>
       <c r="L38" t="n">
-        <v>8.5953</v>
+        <v>9.0684</v>
       </c>
       <c r="M38" t="n">
-        <v>42.6435</v>
+        <v>29.661</v>
       </c>
       <c r="N38" t="n">
-        <v>5039</v>
+        <v>4199</v>
       </c>
       <c r="O38" t="n">
-        <v>4.62</v>
+        <v>4.65321</v>
       </c>
       <c r="P38" t="n">
-        <v>0.74</v>
+        <v>0.63</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>1.177538316413939</v>
+        <v>0.7573579347875248</v>
       </c>
       <c r="R38" t="n">
-        <v>0.01595707167941454</v>
+        <v>0.2166081726537622</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>461.01</v>
+        <v>402.01</v>
       </c>
       <c r="B39" t="n">
-        <v>4646810</v>
+        <v>120896927</v>
       </c>
       <c r="C39" t="n">
-        <v>38.271253</v>
+        <v>36.867885</v>
       </c>
       <c r="D39" t="n">
-        <v>-10.352178</v>
+        <v>-27.636117</v>
       </c>
       <c r="E39" t="n">
-        <v>2458416.351956</v>
+        <v>2459139.126535</v>
       </c>
       <c r="F39" t="n">
-        <v>10.9245478</v>
+        <v>4.7559737</v>
       </c>
       <c r="G39" t="n">
-        <v>1.8716477</v>
+        <v>2.5469696</v>
       </c>
       <c r="H39" t="n">
-        <v>653.537141</v>
+        <v>398.6310113</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>1.9015018</v>
+        <v>1.725417</v>
       </c>
       <c r="J39" t="n">
-        <v>35.242668</v>
+        <v>161.7314334</v>
       </c>
       <c r="K39" t="n">
-        <v>621.4224577</v>
+        <v>909.5327855</v>
       </c>
       <c r="L39" t="n">
-        <v>8.872299999999999</v>
+        <v>8.3157</v>
       </c>
       <c r="M39" t="n">
-        <v>45.5621</v>
+        <v>44.8155</v>
       </c>
       <c r="N39" t="n">
-        <v>4884</v>
+        <v>5175.2</v>
       </c>
       <c r="O39" t="n">
-        <v>4.49</v>
+        <v>4.37657</v>
       </c>
       <c r="P39" t="n">
-        <v>0.74413</v>
+        <v>0.841842</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>1.193593315162176</v>
+        <v>0.7628677312478804</v>
       </c>
       <c r="R39" t="n">
-        <v>0.09656722333313997</v>
+        <v>0.1131206969732151</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6678.01</v>
+        <v>402.02</v>
       </c>
       <c r="B40" t="n">
-        <v>253864764</v>
+        <v>120896927</v>
       </c>
       <c r="C40" t="n">
-        <v>283.536275</v>
+        <v>36.867885</v>
       </c>
       <c r="D40" t="n">
-        <v>-36.65686</v>
+        <v>-27.636117</v>
       </c>
       <c r="E40" t="n">
-        <v>2460149.83497</v>
+        <v>2459118.955569</v>
       </c>
       <c r="F40" t="n">
-        <v>3.4268387</v>
+        <v>17.1807214</v>
       </c>
       <c r="G40" t="n">
-        <v>1.288</v>
+        <v>2.1004813</v>
       </c>
       <c r="H40" t="n">
-        <v>844</v>
+        <v>680.1385904</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>2.12571</v>
+        <v>2.1954034</v>
       </c>
       <c r="J40" t="n">
-        <v>94.0962</v>
+        <v>29.1782002</v>
       </c>
       <c r="K40" t="n">
-        <v>867</v>
+        <v>592.7674866</v>
       </c>
       <c r="L40" t="n">
-        <v>8.8688</v>
+        <v>8.3157</v>
       </c>
       <c r="M40" t="n">
-        <v>44.8496</v>
+        <v>44.8155</v>
       </c>
       <c r="N40" t="n">
-        <v>4794</v>
+        <v>5175.2</v>
       </c>
       <c r="O40" t="n">
-        <v>4.55</v>
+        <v>4.37657</v>
       </c>
       <c r="P40" t="n">
-        <v>0.77</v>
+        <v>0.841842</v>
       </c>
       <c r="Q40" s="3" t="n">
-        <v>1.194427860860118</v>
+        <v>0.7628677312478804</v>
       </c>
       <c r="R40" t="n">
-        <v>0.0352176809563584</v>
+        <v>0.1131206969732151</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1835.01</v>
+        <v>6266.01</v>
       </c>
       <c r="B41" t="n">
-        <v>347332255</v>
+        <v>193023697</v>
       </c>
       <c r="C41" t="n">
-        <v>189.839224</v>
+        <v>155.597851</v>
       </c>
       <c r="D41" t="n">
-        <v>20.027338</v>
+        <v>-28.847487</v>
       </c>
       <c r="E41" t="n">
-        <v>2458932.763635</v>
+        <v>2460013.265158</v>
       </c>
       <c r="F41" t="n">
-        <v>5.6419598</v>
+        <v>2.7895524</v>
       </c>
       <c r="G41" t="n">
-        <v>3.0871502</v>
+        <v>1.969</v>
       </c>
       <c r="H41" t="n">
-        <v>543.838848</v>
+        <v>262</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>1.8245844</v>
+        <v>0.986147</v>
       </c>
       <c r="J41" t="n">
-        <v>119.4171181</v>
+        <v>376.853</v>
       </c>
       <c r="K41" t="n">
-        <v>843.1141848</v>
+        <v>1227</v>
       </c>
       <c r="L41" t="n">
-        <v>7.6621</v>
+        <v>8.5953</v>
       </c>
       <c r="M41" t="n">
-        <v>32.1585</v>
+        <v>42.6435</v>
       </c>
       <c r="N41" t="n">
-        <v>5297</v>
+        <v>5039</v>
       </c>
       <c r="O41" t="n">
-        <v>4.61016</v>
+        <v>4.62</v>
       </c>
       <c r="P41" t="n">
-        <v>0.782479</v>
+        <v>0.74</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>1.206980474191085</v>
+        <v>0.7675547898499949</v>
       </c>
       <c r="R41" t="n">
-        <v>0.06661906649581383</v>
+        <v>0.01595707167941454</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1835.02</v>
+        <v>174.03</v>
       </c>
       <c r="B42" t="n">
-        <v>347332255</v>
+        <v>425997655</v>
       </c>
       <c r="C42" t="n">
-        <v>189.839224</v>
+        <v>55.459031</v>
       </c>
       <c r="D42" t="n">
-        <v>20.027338</v>
+        <v>-62.767267</v>
       </c>
       <c r="E42" t="n">
-        <v>2458937.873023</v>
+        <v>2460184.414244</v>
+      </c>
+      <c r="F42" t="n">
+        <v>12.1623316</v>
       </c>
       <c r="G42" t="n">
-        <v>3.9454498</v>
+        <v>2.614</v>
       </c>
       <c r="H42" t="n">
-        <v>886.4838237</v>
+        <v>317</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>2.5398986</v>
+        <v>1.15643</v>
       </c>
       <c r="J42" t="n">
-        <v>48.4006234</v>
+        <v>27.5458</v>
       </c>
       <c r="K42" t="n">
-        <v>672.7171326</v>
+        <v>638</v>
       </c>
       <c r="L42" t="n">
-        <v>7.6621</v>
+        <v>8.751300000000001</v>
       </c>
       <c r="M42" t="n">
-        <v>32.1585</v>
+        <v>39.0341</v>
       </c>
       <c r="N42" t="n">
-        <v>5297</v>
+        <v>4813</v>
       </c>
       <c r="O42" t="n">
-        <v>4.61016</v>
+        <v>4.38</v>
       </c>
       <c r="P42" t="n">
-        <v>0.782479</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q42" s="3" t="n">
-        <v>1.206980474191085</v>
+        <v>0.7830204577516093</v>
       </c>
       <c r="R42" t="n">
-        <v>0.06661906649581383</v>
+        <v>0.05462548793553362</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6263.01</v>
+        <v>174.01</v>
       </c>
       <c r="B43" t="n">
-        <v>293547742</v>
+        <v>425997655</v>
       </c>
       <c r="C43" t="n">
-        <v>139.199747</v>
+        <v>55.459031</v>
       </c>
       <c r="D43" t="n">
-        <v>-49.300844</v>
+        <v>-62.767267</v>
       </c>
       <c r="E43" t="n">
-        <v>2460009.249357</v>
+        <v>2460180.378105</v>
       </c>
       <c r="F43" t="n">
-        <v>3.0178746</v>
+        <v>17.6671687</v>
       </c>
       <c r="G43" t="n">
-        <v>2.679</v>
+        <v>2.525</v>
       </c>
       <c r="H43" t="n">
-        <v>193</v>
+        <v>854</v>
       </c>
       <c r="I43" s="3" t="n">
-        <v>0.930891</v>
+        <v>1.87042</v>
       </c>
       <c r="J43" t="n">
-        <v>303.499</v>
+        <v>7.60884</v>
       </c>
       <c r="K43" t="n">
-        <v>1162</v>
+        <v>462</v>
       </c>
       <c r="L43" t="n">
-        <v>9.1348</v>
+        <v>8.751300000000001</v>
       </c>
       <c r="M43" t="n">
-        <v>46.2588</v>
+        <v>39.0341</v>
       </c>
       <c r="N43" t="n">
-        <v>4717</v>
+        <v>4813</v>
       </c>
       <c r="O43" t="n">
-        <v>4.61</v>
+        <v>4.38</v>
       </c>
       <c r="P43" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q43" s="3" t="n">
-        <v>1.218760052563028</v>
+        <v>0.7830204577516093</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1214124615862055</v>
+        <v>0.05462548793553362</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6726.01</v>
+        <v>174.05</v>
       </c>
       <c r="B44" t="n">
-        <v>121490076</v>
+        <v>425997655</v>
       </c>
       <c r="C44" t="n">
-        <v>343.572379</v>
+        <v>55.459031</v>
       </c>
       <c r="D44" t="n">
-        <v>-43.010229</v>
+        <v>-62.767267</v>
       </c>
       <c r="E44" t="n">
-        <v>2460160.495921</v>
+        <v>2460197.038739</v>
       </c>
       <c r="F44" t="n">
-        <v>14.2456603</v>
+        <v>7.9076222</v>
       </c>
       <c r="G44" t="n">
-        <v>3.403</v>
+        <v>2.611</v>
       </c>
       <c r="H44" t="n">
-        <v>1084</v>
+        <v>217</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>3.68209</v>
+        <v>0.969819</v>
       </c>
       <c r="J44" t="n">
-        <v>180.487</v>
+        <v>44.8107</v>
       </c>
       <c r="K44" t="n">
-        <v>1021</v>
+        <v>720</v>
       </c>
       <c r="L44" t="n">
-        <v>8.998799999999999</v>
+        <v>8.751300000000001</v>
       </c>
       <c r="M44" t="n">
-        <v>46.2122</v>
+        <v>39.0341</v>
       </c>
       <c r="N44" t="n">
-        <v>4760</v>
+        <v>4813</v>
       </c>
       <c r="O44" t="n">
-        <v>4.57</v>
+        <v>4.38</v>
       </c>
       <c r="P44" t="n">
-        <v>0.76</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q44" s="3" t="n">
-        <v>1.228120417822723</v>
+        <v>0.7830204577516093</v>
       </c>
       <c r="R44" t="n">
-        <v>0.01321577041923607</v>
+        <v>0.05462548793553362</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5789.01</v>
+        <v>174.02</v>
       </c>
       <c r="B45" t="n">
-        <v>87216634</v>
+        <v>425997655</v>
       </c>
       <c r="C45" t="n">
-        <v>302.773447</v>
+        <v>55.459031</v>
       </c>
       <c r="D45" t="n">
-        <v>16.189714</v>
+        <v>-62.767267</v>
       </c>
       <c r="E45" t="n">
-        <v>2459776.255982</v>
+        <v>2460157.951364</v>
       </c>
       <c r="F45" t="n">
-        <v>12.9256051</v>
+        <v>29.7975205</v>
       </c>
       <c r="G45" t="n">
-        <v>1.691</v>
+        <v>2.782</v>
       </c>
       <c r="H45" t="n">
-        <v>790</v>
+        <v>671</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>2.53704</v>
+        <v>1.60982</v>
       </c>
       <c r="J45" t="n">
-        <v>8.719390000000001</v>
+        <v>3.2713</v>
       </c>
       <c r="K45" t="n">
-        <v>478</v>
+        <v>374</v>
       </c>
       <c r="L45" t="n">
-        <v>6.5715</v>
+        <v>8.751300000000001</v>
       </c>
       <c r="M45" t="n">
-        <v>20.4581</v>
+        <v>39.0341</v>
       </c>
       <c r="N45" t="n">
-        <v>5132</v>
+        <v>4813</v>
       </c>
       <c r="O45" t="n">
-        <v>4.49</v>
+        <v>4.38</v>
       </c>
       <c r="P45" t="n">
-        <v>0.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q45" s="3" t="n">
-        <v>1.248266790486248</v>
+        <v>0.7830204577516093</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2860097255552455</v>
+        <v>0.05462548793553362</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7062.01</v>
+        <v>174.04</v>
       </c>
       <c r="B46" t="n">
-        <v>23961340</v>
+        <v>425997655</v>
       </c>
       <c r="C46" t="n">
-        <v>313.292091</v>
+        <v>55.459031</v>
       </c>
       <c r="D46" t="n">
-        <v>-9.044055</v>
+        <v>-62.767267</v>
       </c>
       <c r="E46" t="n">
-        <v>2460528.435521</v>
+        <v>2460203.017928</v>
       </c>
       <c r="F46" t="n">
-        <v>10.5137924</v>
+        <v>3.9766833</v>
       </c>
       <c r="G46" t="n">
-        <v>2.275</v>
+        <v>1.859</v>
       </c>
       <c r="H46" t="n">
-        <v>1611</v>
+        <v>142</v>
       </c>
       <c r="I46" s="3" t="n">
-        <v>3.1867</v>
+        <v>0.757588</v>
       </c>
       <c r="J46" t="n">
-        <v>25.6571</v>
+        <v>89.0886</v>
       </c>
       <c r="K46" t="n">
-        <v>627</v>
+        <v>855</v>
       </c>
       <c r="L46" t="n">
-        <v>8.863</v>
+        <v>8.751300000000001</v>
       </c>
       <c r="M46" t="n">
-        <v>47.6049</v>
+        <v>39.0341</v>
       </c>
       <c r="N46" t="n">
-        <v>4942</v>
+        <v>4813</v>
       </c>
       <c r="O46" t="n">
-        <v>4.58</v>
+        <v>4.38</v>
       </c>
       <c r="P46" t="n">
-        <v>0.77</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q46" s="3" t="n">
-        <v>1.252998079866031</v>
+        <v>0.7830204577516093</v>
       </c>
       <c r="R46" t="n">
-        <v>0.02720601594492704</v>
+        <v>0.05462548793553362</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>687.01</v>
+        <v>4307.02</v>
       </c>
       <c r="B47" t="n">
-        <v>74534430</v>
+        <v>141186075</v>
       </c>
       <c r="C47" t="n">
-        <v>137.672815</v>
+        <v>81.32749800000001</v>
       </c>
       <c r="D47" t="n">
-        <v>-45.098845</v>
+        <v>-75.69373400000001</v>
       </c>
       <c r="E47" t="n">
-        <v>2459977.554802</v>
+        <v>2458328.004126</v>
       </c>
       <c r="F47" t="n">
-        <v>36.2995129</v>
+        <v>4.6545798</v>
       </c>
       <c r="G47" t="n">
-        <v>4.4333923</v>
+        <v>3.1445137</v>
       </c>
       <c r="H47" t="n">
-        <v>1322.2472746</v>
+        <v>24.5834929</v>
       </c>
       <c r="I47" s="3" t="n">
-        <v>2.2115007</v>
+        <v>0.5531037</v>
       </c>
       <c r="J47" t="n">
-        <v>3.169782</v>
+        <v>454.0182322</v>
       </c>
       <c r="K47" t="n">
-        <v>340.3118696</v>
+        <v>1177.3025181</v>
       </c>
       <c r="L47" t="n">
-        <v>9.8445</v>
+        <v>6.6418</v>
       </c>
       <c r="M47" t="n">
-        <v>42.4467</v>
+        <v>36.0469</v>
       </c>
       <c r="N47" t="n">
-        <v>4253.9</v>
+        <v>6079.16</v>
       </c>
       <c r="O47" t="n">
-        <v>4.57</v>
+        <v>4.438</v>
       </c>
       <c r="P47" t="n">
-        <v>0.617519</v>
+        <v>1.09843</v>
       </c>
       <c r="Q47" s="3" t="n">
-        <v>1.256471683357629</v>
+        <v>0.7994076233898318</v>
       </c>
       <c r="R47" t="n">
-        <v>0.1945912951651126</v>
+        <v>0.1616304778941326</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>214.01</v>
+        <v>4307.01</v>
       </c>
       <c r="B48" t="n">
-        <v>167415965</v>
+        <v>141186075</v>
       </c>
       <c r="C48" t="n">
-        <v>99.458741</v>
+        <v>81.32749800000001</v>
       </c>
       <c r="D48" t="n">
-        <v>-70.931327</v>
+        <v>-75.69373400000001</v>
       </c>
       <c r="E48" t="n">
-        <v>2460154.945542</v>
+        <v>2458349.759358</v>
       </c>
       <c r="F48" t="n">
-        <v>18.5537012</v>
+        <v>32.696666</v>
       </c>
       <c r="G48" t="n">
-        <v>3.438</v>
+        <v>4.428309</v>
       </c>
       <c r="H48" t="n">
-        <v>448</v>
+        <v>108.5170828</v>
       </c>
       <c r="I48" s="3" t="n">
-        <v>1.57606</v>
+        <v>1.3159881</v>
       </c>
       <c r="J48" t="n">
-        <v>25.0891</v>
+        <v>33.7475807</v>
       </c>
       <c r="K48" t="n">
-        <v>623</v>
+        <v>614.7243418</v>
       </c>
       <c r="L48" t="n">
-        <v>8.008900000000001</v>
+        <v>6.6418</v>
       </c>
       <c r="M48" t="n">
-        <v>38.96</v>
+        <v>36.0469</v>
       </c>
       <c r="N48" t="n">
-        <v>5346.2</v>
+        <v>6079.16</v>
       </c>
       <c r="O48" t="n">
-        <v>4.6</v>
+        <v>4.438</v>
       </c>
       <c r="P48" t="n">
-        <v>0.8</v>
+        <v>1.09843</v>
       </c>
       <c r="Q48" s="3" t="n">
-        <v>1.323991886142067</v>
+        <v>0.7994076233898318</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1669777466970116</v>
+        <v>0.1616304778941326</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>214.02</v>
+        <v>6985.01</v>
       </c>
       <c r="B49" t="n">
-        <v>167415965</v>
+        <v>59490344</v>
       </c>
       <c r="C49" t="n">
-        <v>99.458741</v>
+        <v>108.993831</v>
       </c>
       <c r="D49" t="n">
-        <v>-70.931327</v>
+        <v>18.691658</v>
       </c>
       <c r="E49" t="n">
-        <v>2460174.709658</v>
+        <v>2459509.801369</v>
       </c>
       <c r="F49" t="n">
-        <v>9.695961</v>
+        <v>748.7146251</v>
       </c>
       <c r="G49" t="n">
-        <v>2.772</v>
+        <v>6.6689152</v>
       </c>
       <c r="H49" t="n">
-        <v>122</v>
+        <v>1655.3509066</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>0.808552</v>
+        <v>3.4308988</v>
       </c>
       <c r="J49" t="n">
-        <v>66.2914</v>
+        <v>0.1991332</v>
       </c>
       <c r="K49" t="n">
-        <v>794</v>
+        <v>170.3749226</v>
       </c>
       <c r="L49" t="n">
-        <v>8.008900000000001</v>
+        <v>8.3323</v>
       </c>
       <c r="M49" t="n">
-        <v>38.96</v>
+        <v>46.2206</v>
       </c>
       <c r="N49" t="n">
-        <v>5346.2</v>
+        <v>5235</v>
       </c>
       <c r="O49" t="n">
-        <v>4.6</v>
+        <v>4.5339</v>
       </c>
       <c r="P49" t="n">
-        <v>0.8</v>
+        <v>0.844852</v>
       </c>
       <c r="Q49" s="3" t="n">
-        <v>1.323991886142067</v>
+        <v>0.801501182634099</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1669777466970116</v>
+        <v>0.05116830388656043</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1793.01</v>
+        <v>6709.01</v>
       </c>
       <c r="B50" t="n">
-        <v>304142124</v>
+        <v>20375215</v>
       </c>
       <c r="C50" t="n">
-        <v>164.856336</v>
+        <v>167.608218</v>
       </c>
       <c r="D50" t="n">
-        <v>-56.623556</v>
+        <v>-29.414302</v>
       </c>
       <c r="E50" t="n">
-        <v>2460017.429225</v>
+        <v>2458544.543307</v>
       </c>
       <c r="F50" t="n">
-        <v>55.087</v>
+        <v>2.3477336</v>
       </c>
       <c r="G50" t="n">
-        <v>5.709</v>
+        <v>1.8624266</v>
       </c>
       <c r="H50" t="n">
-        <v>2509</v>
+        <v>182.9434914</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>4.36639</v>
+        <v>1.0903541</v>
       </c>
       <c r="J50" t="n">
-        <v>16.5899</v>
+        <v>215.4979378</v>
       </c>
       <c r="K50" t="n">
-        <v>562</v>
+        <v>977.1934094</v>
       </c>
       <c r="L50" t="n">
-        <v>7.8436</v>
+        <v>8.8392</v>
       </c>
       <c r="M50" t="n">
-        <v>36.9941</v>
+        <v>39.7429</v>
       </c>
       <c r="N50" t="n">
-        <v>5175</v>
+        <v>4799</v>
       </c>
       <c r="O50" t="n">
-        <v>4.51</v>
+        <v>4.66766</v>
       </c>
       <c r="P50" t="n">
-        <v>0.87</v>
+        <v>0.678033</v>
       </c>
       <c r="Q50" s="3" t="n">
-        <v>1.369241037640056</v>
+        <v>0.8070233188124741</v>
       </c>
       <c r="R50" t="n">
-        <v>0.2165786356227843</v>
+        <v>0.03672621597918261</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>402.02</v>
+        <v>2459.01</v>
       </c>
       <c r="B51" t="n">
-        <v>120896927</v>
+        <v>192790476</v>
       </c>
       <c r="C51" t="n">
-        <v>36.867885</v>
+        <v>82.143332</v>
       </c>
       <c r="D51" t="n">
-        <v>-27.636117</v>
+        <v>-39.373046</v>
       </c>
       <c r="E51" t="n">
-        <v>2459118.955569</v>
+        <v>2458452.334564</v>
       </c>
       <c r="F51" t="n">
-        <v>17.1807214</v>
+        <v>19.1047019</v>
       </c>
       <c r="G51" t="n">
-        <v>2.1004813</v>
+        <v>3.2516728</v>
       </c>
       <c r="H51" t="n">
-        <v>680.1385904</v>
+        <v>1906.0596245</v>
       </c>
       <c r="I51" s="3" t="n">
-        <v>2.1954034</v>
+        <v>2.9365337</v>
       </c>
       <c r="J51" t="n">
-        <v>29.1782002</v>
+        <v>8.5187297</v>
       </c>
       <c r="K51" t="n">
-        <v>592.7674866</v>
+        <v>435.7259839</v>
       </c>
       <c r="L51" t="n">
-        <v>8.3157</v>
+        <v>9.395099999999999</v>
       </c>
       <c r="M51" t="n">
-        <v>44.8155</v>
+        <v>36.6113</v>
       </c>
       <c r="N51" t="n">
-        <v>5175.2</v>
+        <v>4195</v>
       </c>
       <c r="O51" t="n">
-        <v>4.37657</v>
+        <v>4.59888</v>
       </c>
       <c r="P51" t="n">
-        <v>0.841842</v>
+        <v>0.6750930000000001</v>
       </c>
       <c r="Q51" s="3" t="n">
-        <v>1.407840268141881</v>
+        <v>0.8304488523779201</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1131206969732151</v>
+        <v>0.04566165863559627</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>402.01</v>
+        <v>509.01</v>
       </c>
       <c r="B52" t="n">
-        <v>120896927</v>
+        <v>453211454</v>
       </c>
       <c r="C52" t="n">
-        <v>36.867885</v>
+        <v>117.924642</v>
       </c>
       <c r="D52" t="n">
-        <v>-27.636117</v>
+        <v>9.385241000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>2459139.126535</v>
+        <v>2460269.974997</v>
       </c>
       <c r="F52" t="n">
-        <v>4.7559737</v>
+        <v>9.058820900000001</v>
       </c>
       <c r="G52" t="n">
-        <v>2.5469696</v>
+        <v>3.342</v>
       </c>
       <c r="H52" t="n">
-        <v>398.6310113</v>
+        <v>875</v>
       </c>
       <c r="I52" s="3" t="n">
-        <v>1.725417</v>
+        <v>2.67607</v>
       </c>
       <c r="J52" t="n">
-        <v>161.7314334</v>
+        <v>92.839</v>
       </c>
       <c r="K52" t="n">
-        <v>909.5327855</v>
+        <v>864</v>
       </c>
       <c r="L52" t="n">
-        <v>8.3157</v>
+        <v>7.9259</v>
       </c>
       <c r="M52" t="n">
-        <v>44.8155</v>
+        <v>48.9739</v>
       </c>
       <c r="N52" t="n">
-        <v>5175.2</v>
+        <v>5560.26</v>
       </c>
       <c r="O52" t="n">
-        <v>4.37657</v>
+        <v>4.438</v>
       </c>
       <c r="P52" t="n">
-        <v>0.841842</v>
+        <v>0.96</v>
       </c>
       <c r="Q52" s="3" t="n">
-        <v>1.407840268141881</v>
+        <v>0.842554396475881</v>
       </c>
       <c r="R52" t="n">
-        <v>0.1131206969732151</v>
+        <v>0.1017032808558144</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2431.01</v>
+        <v>509.02</v>
       </c>
       <c r="B53" t="n">
-        <v>258804746</v>
+        <v>453211454</v>
       </c>
       <c r="C53" t="n">
-        <v>37.765299</v>
+        <v>117.924642</v>
       </c>
       <c r="D53" t="n">
-        <v>8.381625</v>
+        <v>9.385241000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>2460258.868869</v>
+        <v>2460259.048369</v>
       </c>
       <c r="F53" t="n">
-        <v>0.224195</v>
+        <v>21.4003129</v>
       </c>
       <c r="G53" t="n">
-        <v>0.292</v>
+        <v>5.3847459</v>
       </c>
       <c r="H53" t="n">
-        <v>540</v>
+        <v>960.7539877</v>
       </c>
       <c r="I53" s="3" t="n">
-        <v>5.59553</v>
+        <v>3.0010426</v>
       </c>
       <c r="J53" t="n">
-        <v>2649.15</v>
+        <v>35.2811724</v>
       </c>
       <c r="K53" t="n">
-        <v>1998</v>
+        <v>621.592122</v>
       </c>
       <c r="L53" t="n">
-        <v>9.520899999999999</v>
+        <v>7.9259</v>
       </c>
       <c r="M53" t="n">
-        <v>36.0559</v>
+        <v>48.9739</v>
       </c>
       <c r="N53" t="n">
-        <v>4079</v>
+        <v>5560.26</v>
       </c>
       <c r="O53" t="n">
-        <v>4.58</v>
+        <v>4.438</v>
       </c>
       <c r="P53" t="n">
-        <v>0.68</v>
+        <v>0.962324</v>
       </c>
       <c r="Q53" s="3" t="n">
-        <v>1.43799451076228</v>
+        <v>0.842554396475881</v>
       </c>
       <c r="R53" t="n">
-        <v>0.1915281956726753</v>
+        <v>0.1017032808558144</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6985.01</v>
+        <v>6678.01</v>
       </c>
       <c r="B54" t="n">
-        <v>59490344</v>
+        <v>253864764</v>
       </c>
       <c r="C54" t="n">
-        <v>108.993831</v>
+        <v>283.536275</v>
       </c>
       <c r="D54" t="n">
-        <v>18.691658</v>
+        <v>-36.65686</v>
       </c>
       <c r="E54" t="n">
-        <v>2459509.801369</v>
+        <v>2460149.83497</v>
       </c>
       <c r="F54" t="n">
-        <v>748.7146251</v>
+        <v>3.4268387</v>
       </c>
       <c r="G54" t="n">
-        <v>6.6689152</v>
+        <v>1.288</v>
       </c>
       <c r="H54" t="n">
-        <v>1655.3509066</v>
+        <v>844</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>3.4308988</v>
+        <v>2.12571</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1991332</v>
+        <v>94.0962</v>
       </c>
       <c r="K54" t="n">
-        <v>170.3749226</v>
+        <v>867</v>
       </c>
       <c r="L54" t="n">
-        <v>8.3323</v>
+        <v>8.8688</v>
       </c>
       <c r="M54" t="n">
-        <v>46.2206</v>
+        <v>44.8496</v>
       </c>
       <c r="N54" t="n">
-        <v>5235</v>
+        <v>4794</v>
       </c>
       <c r="O54" t="n">
-        <v>4.5339</v>
+        <v>4.55</v>
       </c>
       <c r="P54" t="n">
-        <v>0.844852</v>
+        <v>0.77</v>
       </c>
       <c r="Q54" s="3" t="n">
-        <v>1.440023065167122</v>
+        <v>0.8460331487101693</v>
       </c>
       <c r="R54" t="n">
-        <v>0.05116830388656043</v>
+        <v>0.0352176809563584</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1773.01</v>
+        <v>461.01</v>
       </c>
       <c r="B55" t="n">
-        <v>332064670</v>
+        <v>4646810</v>
       </c>
       <c r="C55" t="n">
-        <v>133.146837</v>
+        <v>38.271253</v>
       </c>
       <c r="D55" t="n">
-        <v>28.329815</v>
+        <v>-10.352178</v>
       </c>
       <c r="E55" t="n">
-        <v>2458870.692828</v>
+        <v>2458416.351956</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7365463</v>
+        <v>10.9245478</v>
       </c>
       <c r="G55" t="n">
-        <v>1.5732208</v>
+        <v>1.8716477</v>
       </c>
       <c r="H55" t="n">
-        <v>384.6733121</v>
+        <v>653.537141</v>
       </c>
       <c r="I55" s="3" t="n">
-        <v>2.0231121</v>
+        <v>1.9015018</v>
       </c>
       <c r="J55" t="n">
-        <v>2657.8322415</v>
+        <v>35.242668</v>
       </c>
       <c r="K55" t="n">
-        <v>1831.2668801</v>
+        <v>621.4224577</v>
       </c>
       <c r="L55" t="n">
-        <v>5.2058</v>
+        <v>8.872299999999999</v>
       </c>
       <c r="M55" t="n">
-        <v>12.5855</v>
+        <v>45.5621</v>
       </c>
       <c r="N55" t="n">
-        <v>5250</v>
+        <v>4884</v>
       </c>
       <c r="O55" t="n">
-        <v>4.42</v>
+        <v>4.49</v>
       </c>
       <c r="P55" t="n">
-        <v>0.963515</v>
+        <v>0.74413</v>
       </c>
       <c r="Q55" s="3" t="n">
-        <v>1.443641691583105</v>
+        <v>0.8527980511516221</v>
       </c>
       <c r="R55" t="n">
-        <v>0.2680494911224468</v>
+        <v>0.09656722333313997</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>262.01</v>
+        <v>7062.01</v>
       </c>
       <c r="B56" t="n">
-        <v>70513361</v>
+        <v>23961340</v>
       </c>
       <c r="C56" t="n">
-        <v>32.534687</v>
+        <v>313.292091</v>
       </c>
       <c r="D56" t="n">
-        <v>-31.070627</v>
+        <v>-9.044055</v>
       </c>
       <c r="E56" t="n">
-        <v>2459136.576258</v>
+        <v>2460528.435521</v>
       </c>
       <c r="F56" t="n">
-        <v>11.1452784</v>
+        <v>10.5137924</v>
       </c>
       <c r="G56" t="n">
-        <v>1.3947705</v>
+        <v>2.275</v>
       </c>
       <c r="H56" t="n">
-        <v>566.2736451</v>
+        <v>1611</v>
       </c>
       <c r="I56" s="3" t="n">
-        <v>2.0671456</v>
+        <v>3.1867</v>
       </c>
       <c r="J56" t="n">
-        <v>56.9132658</v>
+        <v>25.6571</v>
       </c>
       <c r="K56" t="n">
-        <v>700.5241733</v>
+        <v>627</v>
       </c>
       <c r="L56" t="n">
-        <v>8.134499999999999</v>
+        <v>8.863</v>
       </c>
       <c r="M56" t="n">
-        <v>43.932</v>
+        <v>47.6049</v>
       </c>
       <c r="N56" t="n">
-        <v>5302.58</v>
+        <v>4942</v>
       </c>
       <c r="O56" t="n">
-        <v>4.53515</v>
+        <v>4.58</v>
       </c>
       <c r="P56" t="n">
-        <v>0.848675</v>
+        <v>0.77</v>
       </c>
       <c r="Q56" s="3" t="n">
-        <v>1.474450938640137</v>
+        <v>0.8582848736645433</v>
       </c>
       <c r="R56" t="n">
-        <v>0.1492879722617396</v>
+        <v>0.02720601594492704</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5801.01</v>
+        <v>6726.01</v>
       </c>
       <c r="B57" t="n">
-        <v>243921117</v>
+        <v>121490076</v>
       </c>
       <c r="C57" t="n">
-        <v>303.1668</v>
+        <v>343.572379</v>
       </c>
       <c r="D57" t="n">
-        <v>-2.144437</v>
+        <v>-43.010229</v>
       </c>
       <c r="E57" t="n">
-        <v>2459770.026754</v>
+        <v>2460160.495921</v>
       </c>
       <c r="F57" t="n">
-        <v>3.067816</v>
+        <v>14.2456603</v>
       </c>
       <c r="G57" t="n">
-        <v>2.1103325</v>
+        <v>3.403</v>
       </c>
       <c r="H57" t="n">
-        <v>34536.7848173</v>
+        <v>1084</v>
       </c>
       <c r="I57" s="3" t="n">
-        <v>11.7996868</v>
+        <v>3.68209</v>
       </c>
       <c r="J57" t="n">
-        <v>72.44198299999999</v>
+        <v>180.487</v>
       </c>
       <c r="K57" t="n">
-        <v>744.0760606</v>
+        <v>1021</v>
       </c>
       <c r="L57" t="n">
-        <v>10.3622</v>
+        <v>8.998799999999999</v>
       </c>
       <c r="M57" t="n">
-        <v>49.7876</v>
+        <v>46.2122</v>
       </c>
       <c r="N57" t="n">
-        <v>3965</v>
+        <v>4760</v>
       </c>
       <c r="O57" t="n">
-        <v>4.62</v>
+        <v>4.57</v>
       </c>
       <c r="P57" t="n">
-        <v>0.636572</v>
+        <v>0.76</v>
       </c>
       <c r="Q57" s="3" t="n">
-        <v>1.526189495863593</v>
+        <v>0.8755490982267587</v>
       </c>
       <c r="R57" t="n">
-        <v>0.07251061220725062</v>
+        <v>0.01321577041923607</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5955.01</v>
+        <v>2018.01</v>
       </c>
       <c r="B58" t="n">
-        <v>434116397</v>
+        <v>357501308</v>
       </c>
       <c r="C58" t="n">
-        <v>355.467833</v>
+        <v>229.837442</v>
       </c>
       <c r="D58" t="n">
-        <v>14.106803</v>
+        <v>29.207877</v>
       </c>
       <c r="E58" t="n">
-        <v>2459825.845336</v>
+        <v>2458958.257962</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5902387</v>
+        <v>7.4355709</v>
       </c>
       <c r="G58" t="n">
-        <v>1.045052</v>
+        <v>2.3450321</v>
       </c>
       <c r="H58" t="n">
-        <v>518.7240999000001</v>
+        <v>1310.6803156</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>1.6802901</v>
+        <v>2.2761564</v>
       </c>
       <c r="J58" t="n">
-        <v>517.0065166000001</v>
+        <v>26.0757607</v>
       </c>
       <c r="K58" t="n">
-        <v>1216.1685093</v>
+        <v>576.3403106</v>
       </c>
       <c r="L58" t="n">
-        <v>10.3224</v>
+        <v>8.962</v>
       </c>
       <c r="M58" t="n">
-        <v>42.8747</v>
+        <v>27.9956</v>
       </c>
       <c r="N58" t="n">
-        <v>3844</v>
+        <v>4218.9</v>
       </c>
       <c r="O58" t="n">
-        <v>4.6589</v>
+        <v>4.67</v>
       </c>
       <c r="P58" t="n">
-        <v>0.590924</v>
+        <v>0.622512</v>
       </c>
       <c r="Q58" s="3" t="n">
-        <v>1.601255234908785</v>
+        <v>0.8895167524026653</v>
       </c>
       <c r="R58" t="n">
-        <v>0.1022963165103159</v>
+        <v>0.2100230324201724</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>509.02</v>
+        <v>652.01</v>
       </c>
       <c r="B59" t="n">
-        <v>453211454</v>
+        <v>22221375</v>
       </c>
       <c r="C59" t="n">
-        <v>117.924642</v>
+        <v>149.123515</v>
       </c>
       <c r="D59" t="n">
-        <v>9.385241000000001</v>
+        <v>-24.099186</v>
       </c>
       <c r="E59" t="n">
-        <v>2460259.048369</v>
+        <v>2460013.591733</v>
       </c>
       <c r="F59" t="n">
-        <v>21.4003129</v>
+        <v>3.9846589</v>
       </c>
       <c r="G59" t="n">
-        <v>5.3847459</v>
+        <v>2.146</v>
       </c>
       <c r="H59" t="n">
-        <v>960.7539877</v>
+        <v>445</v>
       </c>
       <c r="I59" s="3" t="n">
-        <v>3.0010426</v>
+        <v>2.12827</v>
       </c>
       <c r="J59" t="n">
-        <v>35.2811724</v>
+        <v>647.901</v>
       </c>
       <c r="K59" t="n">
-        <v>621.592122</v>
+        <v>1405</v>
       </c>
       <c r="L59" t="n">
-        <v>7.9259</v>
+        <v>7.3635</v>
       </c>
       <c r="M59" t="n">
-        <v>48.9739</v>
+        <v>45.683</v>
       </c>
       <c r="N59" t="n">
-        <v>5560.26</v>
+        <v>5903</v>
       </c>
       <c r="O59" t="n">
-        <v>4.438</v>
+        <v>4.44653</v>
       </c>
       <c r="P59" t="n">
-        <v>0.962324</v>
+        <v>1.03</v>
       </c>
       <c r="Q59" s="3" t="n">
-        <v>1.811267434501338</v>
+        <v>0.8937733752542706</v>
       </c>
       <c r="R59" t="n">
-        <v>0.1017032808558144</v>
+        <v>0.09064358833580949</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>509.01</v>
+        <v>440.01</v>
       </c>
       <c r="B60" t="n">
-        <v>453211454</v>
+        <v>143350972</v>
       </c>
       <c r="C60" t="n">
-        <v>117.924642</v>
+        <v>82.245986</v>
       </c>
       <c r="D60" t="n">
-        <v>9.385241000000001</v>
+        <v>-17.429564</v>
       </c>
       <c r="E60" t="n">
-        <v>2460269.974997</v>
+        <v>2458439.13519</v>
       </c>
       <c r="F60" t="n">
-        <v>9.058820900000001</v>
+        <v>1.0817</v>
       </c>
       <c r="G60" t="n">
-        <v>3.342</v>
+        <v>1.588</v>
       </c>
       <c r="H60" t="n">
-        <v>875</v>
+        <v>341.533</v>
       </c>
       <c r="I60" s="3" t="n">
-        <v>2.67607</v>
+        <v>2.07554</v>
       </c>
       <c r="J60" t="n">
-        <v>92.839</v>
+        <v>2462.7009749</v>
       </c>
       <c r="K60" t="n">
-        <v>864</v>
+        <v>1796.6880123</v>
       </c>
       <c r="L60" t="n">
-        <v>7.9259</v>
+        <v>7.6818</v>
       </c>
       <c r="M60" t="n">
-        <v>48.9739</v>
+        <v>49.3375</v>
       </c>
       <c r="N60" t="n">
-        <v>5560.26</v>
+        <v>5759.2</v>
       </c>
       <c r="O60" t="n">
-        <v>4.438</v>
+        <v>4.45</v>
       </c>
       <c r="P60" t="n">
-        <v>0.96</v>
+        <v>1.02</v>
       </c>
       <c r="Q60" s="3" t="n">
-        <v>1.811267434501338</v>
+        <v>0.9064552235095198</v>
       </c>
       <c r="R60" t="n">
-        <v>0.1017032808558144</v>
+        <v>0.05708224099375498</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2011.01</v>
+        <v>141.01</v>
       </c>
       <c r="B61" t="n">
-        <v>136916387</v>
+        <v>403224672</v>
       </c>
       <c r="C61" t="n">
-        <v>230.440115</v>
+        <v>338.983717</v>
       </c>
       <c r="D61" t="n">
-        <v>-48.318817</v>
+        <v>-59.864829</v>
       </c>
       <c r="E61" t="n">
-        <v>2458631.767617</v>
+        <v>2460178.671412</v>
       </c>
       <c r="F61" t="n">
-        <v>11.5778362</v>
+        <v>1.0082361</v>
       </c>
       <c r="G61" t="n">
-        <v>3.8772499</v>
+        <v>1.41</v>
       </c>
       <c r="H61" t="n">
-        <v>217.3994918</v>
+        <v>228</v>
       </c>
       <c r="I61" s="3" t="n">
-        <v>1.5422129</v>
+        <v>1.7202</v>
       </c>
       <c r="J61" t="n">
-        <v>99.9013415</v>
+        <v>1882.94</v>
       </c>
       <c r="K61" t="n">
-        <v>806.3295568999999</v>
+        <v>1835</v>
       </c>
       <c r="L61" t="n">
-        <v>5.0494</v>
+        <v>7.384</v>
       </c>
       <c r="M61" t="n">
-        <v>14.682</v>
+        <v>48.0883</v>
       </c>
       <c r="N61" t="n">
-        <v>5739</v>
+        <v>5795.29</v>
       </c>
       <c r="O61" t="n">
-        <v>4.51</v>
+        <v>4.438</v>
       </c>
       <c r="P61" t="n">
-        <v>1.02607</v>
+        <v>1.13</v>
       </c>
       <c r="Q61" s="3" t="n">
-        <v>1.987476277149291</v>
+        <v>0.9086312583242271</v>
       </c>
       <c r="R61" t="n">
-        <v>0.8241668035706786</v>
+        <v>0.06928742029234983</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2011.02</v>
+        <v>544.01</v>
       </c>
       <c r="B62" t="n">
-        <v>136916387</v>
+        <v>50618703</v>
       </c>
       <c r="C62" t="n">
-        <v>230.440115</v>
+        <v>82.290072</v>
       </c>
       <c r="D62" t="n">
-        <v>-48.318817</v>
+        <v>-0.342898</v>
       </c>
       <c r="E62" t="n">
-        <v>2458650.89757</v>
+        <v>2458469.756983</v>
       </c>
       <c r="F62" t="n">
-        <v>27.5920718</v>
+        <v>1.5483542</v>
       </c>
       <c r="G62" t="n">
-        <v>3.2743016</v>
+        <v>1.2030925</v>
       </c>
       <c r="H62" t="n">
-        <v>555.3352929</v>
+        <v>926.4111032</v>
       </c>
       <c r="I62" s="3" t="n">
-        <v>2.7050278</v>
+        <v>2.1601741</v>
       </c>
       <c r="J62" t="n">
-        <v>31.3830711</v>
+        <v>240.1950345</v>
       </c>
       <c r="K62" t="n">
-        <v>603.6616824</v>
+        <v>1004.0625199</v>
       </c>
       <c r="L62" t="n">
-        <v>5.0494</v>
+        <v>9.650399999999999</v>
       </c>
       <c r="M62" t="n">
-        <v>14.682</v>
+        <v>41.1166</v>
       </c>
       <c r="N62" t="n">
-        <v>5739</v>
+        <v>4665</v>
       </c>
       <c r="O62" t="n">
-        <v>4.51</v>
+        <v>4.67631</v>
       </c>
       <c r="P62" t="n">
-        <v>1.02607</v>
+        <v>0.6634139999999999</v>
       </c>
       <c r="Q62" s="3" t="n">
-        <v>1.987476277149291</v>
+        <v>0.9223986185530643</v>
       </c>
       <c r="R62" t="n">
-        <v>0.8241668035706786</v>
+        <v>0.04285830752449767</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2011.03</v>
+        <v>6263.01</v>
       </c>
       <c r="B63" t="n">
-        <v>136916387</v>
+        <v>293547742</v>
       </c>
       <c r="C63" t="n">
-        <v>230.440115</v>
+        <v>139.199747</v>
       </c>
       <c r="D63" t="n">
-        <v>-48.318817</v>
+        <v>-49.300844</v>
       </c>
       <c r="E63" t="n">
-        <v>2460081.126376</v>
+        <v>2460009.249357</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3.0178746</v>
       </c>
       <c r="G63" t="n">
-        <v>3.5341354</v>
+        <v>2.679</v>
       </c>
       <c r="H63" t="n">
-        <v>195.1972939</v>
+        <v>193</v>
       </c>
       <c r="I63" s="3" t="n">
-        <v>1.6208326</v>
+        <v>0.930891</v>
       </c>
       <c r="J63" t="n">
-        <v>335.6075222</v>
+        <v>303.499</v>
       </c>
       <c r="K63" t="n">
-        <v>1091.635552</v>
+        <v>1162</v>
       </c>
       <c r="L63" t="n">
-        <v>5.0494</v>
+        <v>9.1348</v>
       </c>
       <c r="M63" t="n">
-        <v>14.682</v>
+        <v>46.2588</v>
       </c>
       <c r="N63" t="n">
-        <v>5739</v>
+        <v>4717</v>
       </c>
       <c r="O63" t="n">
-        <v>4.51</v>
+        <v>4.61</v>
       </c>
       <c r="P63" t="n">
-        <v>1.02607</v>
+        <v>0.71</v>
       </c>
       <c r="Q63" s="3" t="n">
-        <v>1.987476277149291</v>
+        <v>0.9308156236180681</v>
       </c>
       <c r="R63" t="n">
-        <v>0.8241668035706786</v>
+        <v>0.1214124615862055</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>440.01</v>
+        <v>4310.01</v>
       </c>
       <c r="B64" t="n">
-        <v>143350972</v>
+        <v>303317324</v>
       </c>
       <c r="C64" t="n">
-        <v>82.245986</v>
+        <v>351.903531</v>
       </c>
       <c r="D64" t="n">
-        <v>-17.429564</v>
+        <v>-25.508462</v>
       </c>
       <c r="E64" t="n">
-        <v>2458439.13519</v>
+        <v>2458365.181534</v>
       </c>
       <c r="F64" t="n">
-        <v>1.0817</v>
+        <v>739.1670007</v>
       </c>
       <c r="G64" t="n">
-        <v>1.588</v>
+        <v>5.7183604</v>
       </c>
       <c r="H64" t="n">
-        <v>341.533</v>
+        <v>1376.1395053</v>
       </c>
       <c r="I64" s="3" t="n">
-        <v>2.07554</v>
+        <v>2.6735992</v>
       </c>
       <c r="J64" t="n">
-        <v>2462.7009749</v>
+        <v>0.0724872</v>
       </c>
       <c r="K64" t="n">
-        <v>1796.6880123</v>
+        <v>132.3381364</v>
       </c>
       <c r="L64" t="n">
-        <v>7.6818</v>
+        <v>9.4961</v>
       </c>
       <c r="M64" t="n">
-        <v>49.3375</v>
+        <v>40.0268</v>
       </c>
       <c r="N64" t="n">
-        <v>5759.2</v>
+        <v>4159</v>
       </c>
       <c r="O64" t="n">
-        <v>4.45</v>
+        <v>4.53501</v>
       </c>
       <c r="P64" t="n">
-        <v>1.02</v>
+        <v>0.7210839999999999</v>
       </c>
       <c r="Q64" s="3" t="n">
-        <v>2.048158595966117</v>
+        <v>0.935961884875647</v>
       </c>
       <c r="R64" t="n">
-        <v>0.05708224099375498</v>
+        <v>0.04720909237717162</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>652.01</v>
+        <v>4568.01</v>
       </c>
       <c r="B65" t="n">
-        <v>22221375</v>
+        <v>447088034</v>
       </c>
       <c r="C65" t="n">
-        <v>149.123515</v>
+        <v>238.702259</v>
       </c>
       <c r="D65" t="n">
-        <v>-24.099186</v>
+        <v>-65.901121</v>
       </c>
       <c r="E65" t="n">
-        <v>2460013.591733</v>
+        <v>2460121.465283</v>
       </c>
       <c r="F65" t="n">
-        <v>3.9846589</v>
+        <v>14.0063765</v>
       </c>
       <c r="G65" t="n">
-        <v>2.146</v>
+        <v>1.971</v>
       </c>
       <c r="H65" t="n">
-        <v>445</v>
+        <v>300</v>
       </c>
       <c r="I65" s="3" t="n">
-        <v>2.12827</v>
+        <v>2.26316</v>
       </c>
       <c r="J65" t="n">
-        <v>647.901</v>
+        <v>19.2603</v>
       </c>
       <c r="K65" t="n">
-        <v>1405</v>
+        <v>583</v>
       </c>
       <c r="L65" t="n">
-        <v>7.3635</v>
+        <v>6.9608</v>
       </c>
       <c r="M65" t="n">
-        <v>45.683</v>
+        <v>48.0378</v>
       </c>
       <c r="N65" t="n">
-        <v>5903</v>
+        <v>5899</v>
       </c>
       <c r="O65" t="n">
-        <v>4.44653</v>
+        <v>4.22221</v>
       </c>
       <c r="P65" t="n">
-        <v>1.03</v>
+        <v>1.33</v>
       </c>
       <c r="Q65" s="3" t="n">
-        <v>2.164160750371749</v>
+        <v>0.9532128040208352</v>
       </c>
       <c r="R65" t="n">
-        <v>0.09064358833580949</v>
+        <v>0.0118387871337529</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>141.01</v>
+        <v>833.01</v>
       </c>
       <c r="B66" t="n">
-        <v>403224672</v>
+        <v>362249359</v>
       </c>
       <c r="C66" t="n">
-        <v>338.983717</v>
+        <v>145.645472</v>
       </c>
       <c r="D66" t="n">
-        <v>-59.864829</v>
+        <v>-62.475886</v>
       </c>
       <c r="E66" t="n">
-        <v>2460178.671412</v>
+        <v>2458544.120496</v>
       </c>
       <c r="F66" t="n">
-        <v>1.0082361</v>
+        <v>1.041889</v>
       </c>
       <c r="G66" t="n">
-        <v>1.41</v>
+        <v>1.2737667</v>
       </c>
       <c r="H66" t="n">
-        <v>228</v>
+        <v>465.3854112</v>
       </c>
       <c r="I66" s="3" t="n">
-        <v>1.7202</v>
+        <v>1.389031</v>
       </c>
       <c r="J66" t="n">
-        <v>1882.94</v>
+        <v>270.068174</v>
       </c>
       <c r="K66" t="n">
-        <v>1835</v>
+        <v>1033.9227741</v>
       </c>
       <c r="L66" t="n">
-        <v>7.384</v>
+        <v>10.1461</v>
       </c>
       <c r="M66" t="n">
-        <v>48.0883</v>
+        <v>41.7148</v>
       </c>
       <c r="N66" t="n">
-        <v>5795.29</v>
+        <v>3965</v>
       </c>
       <c r="O66" t="n">
-        <v>4.438</v>
+        <v>4.68337</v>
       </c>
       <c r="P66" t="n">
-        <v>1.13</v>
+        <v>0.603336</v>
       </c>
       <c r="Q66" s="3" t="n">
-        <v>2.255461822390964</v>
+        <v>0.9621770088035774</v>
       </c>
       <c r="R66" t="n">
-        <v>0.06928742029234983</v>
+        <v>0.08879781148820186</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6965.02</v>
+        <v>5972.01</v>
       </c>
       <c r="B67" t="n">
-        <v>80224448</v>
+        <v>420814525</v>
       </c>
       <c r="C67" t="n">
-        <v>103.678273</v>
+        <v>330.795022</v>
       </c>
       <c r="D67" t="n">
-        <v>24.245141</v>
+        <v>18.884242</v>
       </c>
       <c r="E67" t="n">
-        <v>2459508.008646</v>
+        <v>2460552.87974</v>
       </c>
       <c r="F67" t="n">
-        <v>28.0693949</v>
+        <v>3.5247546</v>
       </c>
       <c r="G67" t="n">
-        <v>6.0393818</v>
+        <v>2.958</v>
       </c>
       <c r="H67" t="n">
-        <v>154.3008171</v>
+        <v>17803</v>
       </c>
       <c r="I67" s="3" t="n">
-        <v>1.6221344</v>
+        <v>16.3776</v>
       </c>
       <c r="J67" t="n">
-        <v>42.4755605</v>
+        <v>587.098</v>
       </c>
       <c r="K67" t="n">
-        <v>651.1102456</v>
+        <v>1371</v>
       </c>
       <c r="L67" t="n">
-        <v>6.3103</v>
+        <v>7.1274</v>
       </c>
       <c r="M67" t="n">
-        <v>31.1664</v>
+        <v>48.3016</v>
       </c>
       <c r="N67" t="n">
-        <v>6007</v>
+        <v>6052</v>
       </c>
       <c r="O67" t="n">
-        <v>4.37729</v>
+        <v>4.34258</v>
       </c>
       <c r="P67" t="n">
-        <v>1.12993</v>
+        <v>1.19</v>
       </c>
       <c r="Q67" s="3" t="n">
-        <v>2.345120679338927</v>
+        <v>0.9715889119731532</v>
       </c>
       <c r="R67" t="n">
-        <v>0.05173693479333623</v>
+        <v>0.01731301595994347</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6965.01</v>
+        <v>139.01</v>
       </c>
       <c r="B68" t="n">
-        <v>80224448</v>
+        <v>62483237</v>
       </c>
       <c r="C68" t="n">
-        <v>103.678273</v>
+        <v>336.402414</v>
       </c>
       <c r="D68" t="n">
-        <v>24.245141</v>
+        <v>-34.909713</v>
       </c>
       <c r="E68" t="n">
-        <v>2459505.193695</v>
+        <v>2458334.891563</v>
       </c>
       <c r="F68" t="n">
-        <v>5.9693397</v>
+        <v>11.0708575</v>
       </c>
       <c r="G68" t="n">
-        <v>3.441038</v>
+        <v>2.1937617</v>
       </c>
       <c r="H68" t="n">
-        <v>105.5424205</v>
+        <v>1149.7328034</v>
       </c>
       <c r="I68" s="3" t="n">
-        <v>1.3473608</v>
+        <v>2.3337648</v>
       </c>
       <c r="J68" t="n">
-        <v>334.6170929</v>
+        <v>22.4219066</v>
       </c>
       <c r="K68" t="n">
-        <v>1090.8292631</v>
+        <v>554.9934842</v>
       </c>
       <c r="L68" t="n">
-        <v>6.3103</v>
+        <v>9.3636</v>
       </c>
       <c r="M68" t="n">
-        <v>31.1664</v>
+        <v>42.4061</v>
       </c>
       <c r="N68" t="n">
-        <v>6007</v>
+        <v>4356</v>
       </c>
       <c r="O68" t="n">
-        <v>4.37729</v>
+        <v>4.53491</v>
       </c>
       <c r="P68" t="n">
-        <v>1.12993</v>
+        <v>0.700727</v>
       </c>
       <c r="Q68" s="3" t="n">
-        <v>2.345120679338927</v>
+        <v>0.9769186864503394</v>
       </c>
       <c r="R68" t="n">
-        <v>0.05173693479333623</v>
+        <v>0.02144133416206292</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4307.01</v>
+        <v>5554.01</v>
       </c>
       <c r="B69" t="n">
-        <v>141186075</v>
+        <v>91287873</v>
       </c>
       <c r="C69" t="n">
-        <v>81.32749800000001</v>
+        <v>104.74387</v>
       </c>
       <c r="D69" t="n">
-        <v>-75.69373400000001</v>
+        <v>28.715768</v>
       </c>
       <c r="E69" t="n">
-        <v>2458349.759358</v>
+        <v>2459515.17161</v>
       </c>
       <c r="F69" t="n">
-        <v>32.696666</v>
+        <v>26.694279</v>
       </c>
       <c r="G69" t="n">
-        <v>4.428309</v>
+        <v>3.7831301</v>
       </c>
       <c r="H69" t="n">
-        <v>108.5170828</v>
+        <v>1854.2924324</v>
       </c>
       <c r="I69" s="3" t="n">
-        <v>1.3159881</v>
+        <v>2.6845863</v>
       </c>
       <c r="J69" t="n">
-        <v>33.7475807</v>
+        <v>4.0851419</v>
       </c>
       <c r="K69" t="n">
-        <v>614.7243418</v>
+        <v>362.5947706</v>
       </c>
       <c r="L69" t="n">
-        <v>6.6418</v>
+        <v>9.83733</v>
       </c>
       <c r="M69" t="n">
-        <v>36.0469</v>
+        <v>39.4478</v>
       </c>
       <c r="N69" t="n">
-        <v>6079.16</v>
+        <v>3997</v>
       </c>
       <c r="O69" t="n">
-        <v>4.438</v>
+        <v>4.6288</v>
       </c>
       <c r="P69" t="n">
-        <v>1.09843</v>
+        <v>0.626722</v>
       </c>
       <c r="Q69" s="3" t="n">
-        <v>2.396525544307746</v>
+        <v>1.066521483154316</v>
       </c>
       <c r="R69" t="n">
-        <v>0.1616304778941326</v>
+        <v>0.05933370243670238</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4307.02</v>
+        <v>687.01</v>
       </c>
       <c r="B70" t="n">
-        <v>141186075</v>
+        <v>74534430</v>
       </c>
       <c r="C70" t="n">
-        <v>81.32749800000001</v>
+        <v>137.672815</v>
       </c>
       <c r="D70" t="n">
-        <v>-75.69373400000001</v>
+        <v>-45.098845</v>
       </c>
       <c r="E70" t="n">
-        <v>2458328.004126</v>
+        <v>2459977.554802</v>
       </c>
       <c r="F70" t="n">
-        <v>4.6545798</v>
+        <v>36.2995129</v>
       </c>
       <c r="G70" t="n">
-        <v>3.1445137</v>
+        <v>4.4333923</v>
       </c>
       <c r="H70" t="n">
-        <v>24.5834929</v>
+        <v>1322.2472746</v>
       </c>
       <c r="I70" s="3" t="n">
-        <v>0.5531037</v>
+        <v>2.2115007</v>
       </c>
       <c r="J70" t="n">
-        <v>454.0182322</v>
+        <v>3.169782</v>
       </c>
       <c r="K70" t="n">
-        <v>1177.3025181</v>
+        <v>340.3118696</v>
       </c>
       <c r="L70" t="n">
-        <v>6.6418</v>
+        <v>9.8445</v>
       </c>
       <c r="M70" t="n">
-        <v>36.0469</v>
+        <v>42.4467</v>
       </c>
       <c r="N70" t="n">
-        <v>6079.16</v>
+        <v>4253.9</v>
       </c>
       <c r="O70" t="n">
-        <v>4.438</v>
+        <v>4.57</v>
       </c>
       <c r="P70" t="n">
-        <v>1.09843</v>
+        <v>0.617519</v>
       </c>
       <c r="Q70" s="3" t="n">
-        <v>2.396525544307746</v>
+        <v>1.142903089246784</v>
       </c>
       <c r="R70" t="n">
-        <v>0.1616304778941326</v>
+        <v>0.1945912951651126</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>144.01</v>
+        <v>5140.01</v>
       </c>
       <c r="B71" t="n">
-        <v>261136679</v>
+        <v>175193677</v>
       </c>
       <c r="C71" t="n">
-        <v>84.29928</v>
+        <v>129.689446</v>
       </c>
       <c r="D71" t="n">
-        <v>-80.46460399999999</v>
+        <v>23.685265</v>
       </c>
       <c r="E71" t="n">
-        <v>2460011.550653</v>
+        <v>2459547.722323</v>
       </c>
       <c r="F71" t="n">
-        <v>6.267832</v>
+        <v>15.6113633</v>
       </c>
       <c r="G71" t="n">
-        <v>2.789</v>
+        <v>3.2002615</v>
       </c>
       <c r="H71" t="n">
-        <v>321</v>
+        <v>520.4897607</v>
       </c>
       <c r="I71" s="3" t="n">
-        <v>1.99779</v>
+        <v>2.9033347</v>
       </c>
       <c r="J71" t="n">
-        <v>203.434</v>
+        <v>111.9728668</v>
       </c>
       <c r="K71" t="n">
-        <v>1052</v>
+        <v>829.6557911</v>
       </c>
       <c r="L71" t="n">
-        <v>5.1054</v>
+        <v>6.3687</v>
       </c>
       <c r="M71" t="n">
-        <v>18.2702</v>
+        <v>35.26</v>
       </c>
       <c r="N71" t="n">
-        <v>5950</v>
+        <v>6061.77</v>
       </c>
       <c r="O71" t="n">
-        <v>4.438</v>
+        <v>4.31439</v>
       </c>
       <c r="P71" t="n">
-        <v>1.15</v>
+        <v>1.22568</v>
       </c>
       <c r="Q71" s="3" t="n">
-        <v>2.405178033970014</v>
+        <v>1.176253721254392</v>
       </c>
       <c r="R71" t="n">
-        <v>0.5469902615930315</v>
+        <v>0.07805369350328827</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5972.01</v>
+        <v>2431.01</v>
       </c>
       <c r="B72" t="n">
-        <v>420814525</v>
+        <v>258804746</v>
       </c>
       <c r="C72" t="n">
-        <v>330.795022</v>
+        <v>37.765299</v>
       </c>
       <c r="D72" t="n">
-        <v>18.884242</v>
+        <v>8.381625</v>
       </c>
       <c r="E72" t="n">
-        <v>2460552.87974</v>
+        <v>2460258.868869</v>
       </c>
       <c r="F72" t="n">
-        <v>3.5247546</v>
+        <v>0.224195</v>
       </c>
       <c r="G72" t="n">
-        <v>2.958</v>
+        <v>0.292</v>
       </c>
       <c r="H72" t="n">
-        <v>17803</v>
+        <v>540</v>
       </c>
       <c r="I72" s="3" t="n">
-        <v>16.3776</v>
+        <v>5.59553</v>
       </c>
       <c r="J72" t="n">
-        <v>587.098</v>
+        <v>2649.15</v>
       </c>
       <c r="K72" t="n">
-        <v>1371</v>
+        <v>1998</v>
       </c>
       <c r="L72" t="n">
-        <v>7.1274</v>
+        <v>9.520899999999999</v>
       </c>
       <c r="M72" t="n">
-        <v>48.3016</v>
+        <v>36.0559</v>
       </c>
       <c r="N72" t="n">
-        <v>6052</v>
+        <v>4079</v>
       </c>
       <c r="O72" t="n">
-        <v>4.34258</v>
+        <v>4.58</v>
       </c>
       <c r="P72" t="n">
-        <v>1.19</v>
+        <v>0.68</v>
       </c>
       <c r="Q72" s="3" t="n">
-        <v>2.64920738833917</v>
+        <v>1.239403332584826</v>
       </c>
       <c r="R72" t="n">
-        <v>0.01731301595994347</v>
+        <v>0.1915281956726753</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5140.01</v>
+        <v>5801.01</v>
       </c>
       <c r="B73" t="n">
-        <v>175193677</v>
+        <v>243921117</v>
       </c>
       <c r="C73" t="n">
-        <v>129.689446</v>
+        <v>303.1668</v>
       </c>
       <c r="D73" t="n">
-        <v>23.685265</v>
+        <v>-2.144437</v>
       </c>
       <c r="E73" t="n">
-        <v>2459547.722323</v>
+        <v>2459770.026754</v>
       </c>
       <c r="F73" t="n">
-        <v>15.6113633</v>
+        <v>3.067816</v>
       </c>
       <c r="G73" t="n">
-        <v>3.2002615</v>
+        <v>2.1103325</v>
       </c>
       <c r="H73" t="n">
-        <v>520.4897607</v>
+        <v>34536.7848173</v>
       </c>
       <c r="I73" s="3" t="n">
-        <v>2.9033347</v>
+        <v>11.7996868</v>
       </c>
       <c r="J73" t="n">
-        <v>111.9728668</v>
+        <v>72.44198299999999</v>
       </c>
       <c r="K73" t="n">
-        <v>829.6557911</v>
+        <v>744.0760606</v>
       </c>
       <c r="L73" t="n">
-        <v>6.3687</v>
+        <v>10.3622</v>
       </c>
       <c r="M73" t="n">
-        <v>35.26</v>
+        <v>49.7876</v>
       </c>
       <c r="N73" t="n">
-        <v>6061.77</v>
+        <v>3965</v>
       </c>
       <c r="O73" t="n">
-        <v>4.31439</v>
+        <v>4.62</v>
       </c>
       <c r="P73" t="n">
-        <v>1.22568</v>
+        <v>0.636572</v>
       </c>
       <c r="Q73" s="3" t="n">
-        <v>2.84489150755921</v>
+        <v>1.446091471842279</v>
       </c>
       <c r="R73" t="n">
-        <v>0.07805369350328827</v>
+        <v>0.07251061220725062</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4568.01</v>
+        <v>5955.01</v>
       </c>
       <c r="B74" t="n">
-        <v>447088034</v>
+        <v>434116397</v>
       </c>
       <c r="C74" t="n">
-        <v>238.702259</v>
+        <v>355.467833</v>
       </c>
       <c r="D74" t="n">
-        <v>-65.901121</v>
+        <v>14.106803</v>
       </c>
       <c r="E74" t="n">
-        <v>2460121.465283</v>
+        <v>2459825.845336</v>
       </c>
       <c r="F74" t="n">
-        <v>14.0063765</v>
+        <v>0.5902387</v>
       </c>
       <c r="G74" t="n">
-        <v>1.971</v>
+        <v>1.045052</v>
       </c>
       <c r="H74" t="n">
-        <v>300</v>
+        <v>518.7240999000001</v>
       </c>
       <c r="I74" s="3" t="n">
-        <v>2.26316</v>
+        <v>1.6802901</v>
       </c>
       <c r="J74" t="n">
-        <v>19.2603</v>
+        <v>517.0065166000001</v>
       </c>
       <c r="K74" t="n">
-        <v>583</v>
+        <v>1216.1685093</v>
       </c>
       <c r="L74" t="n">
-        <v>6.9608</v>
+        <v>10.3224</v>
       </c>
       <c r="M74" t="n">
-        <v>48.0378</v>
+        <v>42.8747</v>
       </c>
       <c r="N74" t="n">
-        <v>5899</v>
+        <v>3844</v>
       </c>
       <c r="O74" t="n">
-        <v>4.22221</v>
+        <v>4.6589</v>
       </c>
       <c r="P74" t="n">
-        <v>1.33</v>
+        <v>0.590924</v>
       </c>
       <c r="Q74" s="3" t="n">
-        <v>2.989065321326483</v>
+        <v>1.54172749561661</v>
       </c>
       <c r="R74" t="n">
-        <v>0.0118387871337529</v>
+        <v>0.1022963165103159</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>396.02</v>
+        <v>396.03</v>
       </c>
       <c r="B75" t="n">
         <v>178155732</v>
@@ -4668,25 +4668,25 @@
         <v>-30.814061</v>
       </c>
       <c r="E75" t="n">
-        <v>2459169.27128</v>
+        <v>2459117.261055</v>
       </c>
       <c r="F75" t="n">
-        <v>3.58529</v>
+        <v>11.2304605</v>
       </c>
       <c r="G75" t="n">
-        <v>2.495</v>
+        <v>3.6009978</v>
       </c>
       <c r="H75" t="n">
-        <v>180</v>
+        <v>208.629137</v>
       </c>
       <c r="I75" s="3" t="n">
-        <v>1.77141</v>
+        <v>2.0754665</v>
       </c>
       <c r="J75" t="n">
-        <v>646.628</v>
+        <v>210.3340005</v>
       </c>
       <c r="K75" t="n">
-        <v>1404</v>
+        <v>971.2859803</v>
       </c>
       <c r="L75" t="n">
         <v>5.9053</v>
@@ -4701,10 +4701,10 @@
         <v>4.438</v>
       </c>
       <c r="P75" t="n">
-        <v>1.28</v>
+        <v>1.2845</v>
       </c>
       <c r="Q75" s="3" t="n">
-        <v>4.362412611177165</v>
+        <v>3.195893511237676</v>
       </c>
       <c r="R75" t="n">
         <v>0.08132008275074698</v>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>396.03</v>
+        <v>396.02</v>
       </c>
       <c r="B76" t="n">
         <v>178155732</v>
@@ -4724,25 +4724,25 @@
         <v>-30.814061</v>
       </c>
       <c r="E76" t="n">
-        <v>2459117.261055</v>
+        <v>2459169.27128</v>
       </c>
       <c r="F76" t="n">
-        <v>11.2304605</v>
+        <v>3.58529</v>
       </c>
       <c r="G76" t="n">
-        <v>3.6009978</v>
+        <v>2.495</v>
       </c>
       <c r="H76" t="n">
-        <v>208.629137</v>
+        <v>180</v>
       </c>
       <c r="I76" s="3" t="n">
-        <v>2.0754665</v>
+        <v>1.77141</v>
       </c>
       <c r="J76" t="n">
-        <v>210.3340005</v>
+        <v>646.628</v>
       </c>
       <c r="K76" t="n">
-        <v>971.2859803</v>
+        <v>1404</v>
       </c>
       <c r="L76" t="n">
         <v>5.9053</v>
@@ -4757,10 +4757,10 @@
         <v>4.438</v>
       </c>
       <c r="P76" t="n">
-        <v>1.2845</v>
+        <v>1.28</v>
       </c>
       <c r="Q76" s="3" t="n">
-        <v>4.362412611177165</v>
+        <v>3.195893511237676</v>
       </c>
       <c r="R76" t="n">
         <v>0.08132008275074698</v>
@@ -4816,7 +4816,7 @@
         <v>1.2845</v>
       </c>
       <c r="Q77" s="3" t="n">
-        <v>4.362412611177165</v>
+        <v>3.195893511237676</v>
       </c>
       <c r="R77" t="n">
         <v>0.08132008275074698</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>554.02</v>
+        <v>554.01</v>
       </c>
       <c r="B78" t="n">
         <v>407966340</v>
@@ -4836,25 +4836,25 @@
         <v>9.207768</v>
       </c>
       <c r="E78" t="n">
-        <v>2458438.475888</v>
+        <v>2458442.61543</v>
       </c>
       <c r="F78" t="n">
-        <v>3.0440441</v>
+        <v>7.0491608</v>
       </c>
       <c r="G78" t="n">
-        <v>1.3542885</v>
+        <v>3.5024531</v>
       </c>
       <c r="H78" t="n">
-        <v>82.7350431</v>
+        <v>300.5227138</v>
       </c>
       <c r="I78" s="3" t="n">
-        <v>1.3337425</v>
+        <v>2.8464941</v>
       </c>
       <c r="J78" t="n">
-        <v>1500.1020491</v>
+        <v>489.6346689</v>
       </c>
       <c r="K78" t="n">
-        <v>1587.2668665</v>
+        <v>1199.7417985</v>
       </c>
       <c r="L78" t="n">
         <v>6.4386</v>
@@ -4872,7 +4872,7 @@
         <v>1.42717</v>
       </c>
       <c r="Q78" s="3" t="n">
-        <v>6.918604325668497</v>
+        <v>6.024879354419458</v>
       </c>
       <c r="R78" t="n">
         <v>0.09557954007745355</v>
@@ -4880,7 +4880,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>554.01</v>
+        <v>554.02</v>
       </c>
       <c r="B79" t="n">
         <v>407966340</v>
@@ -4892,25 +4892,25 @@
         <v>9.207768</v>
       </c>
       <c r="E79" t="n">
-        <v>2458442.61543</v>
+        <v>2458438.475888</v>
       </c>
       <c r="F79" t="n">
-        <v>7.0491608</v>
+        <v>3.0440441</v>
       </c>
       <c r="G79" t="n">
-        <v>3.5024531</v>
+        <v>1.3542885</v>
       </c>
       <c r="H79" t="n">
-        <v>300.5227138</v>
+        <v>82.7350431</v>
       </c>
       <c r="I79" s="3" t="n">
-        <v>2.8464941</v>
+        <v>1.3337425</v>
       </c>
       <c r="J79" t="n">
-        <v>489.6346689</v>
+        <v>1500.1020491</v>
       </c>
       <c r="K79" t="n">
-        <v>1199.7417985</v>
+        <v>1587.2668665</v>
       </c>
       <c r="L79" t="n">
         <v>6.4386</v>
@@ -4928,7 +4928,7 @@
         <v>1.42717</v>
       </c>
       <c r="Q79" s="3" t="n">
-        <v>6.918604325668497</v>
+        <v>6.024879354419458</v>
       </c>
       <c r="R79" t="n">
         <v>0.09557954007745355</v>
@@ -4967,7 +4967,7 @@
         <v>154.124</v>
       </c>
       <c r="Q80" s="3" t="n">
-        <v>35.83857477532435</v>
+        <v>35.71169791451638</v>
       </c>
       <c r="R80" t="n">
         <v>0.0305854259260738</v>

--- a/results/GAIA_TESS_candidate_matches_unique_planets.xlsx
+++ b/results/GAIA_TESS_candidate_matches_unique_planets.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R80"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -574,2012 +574,2015 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6276.01</v>
+        <v>1469.01</v>
       </c>
       <c r="B2" t="n">
-        <v>397362481</v>
+        <v>283722336</v>
       </c>
       <c r="C2" t="n">
-        <v>175.256304</v>
+        <v>348.337203</v>
       </c>
       <c r="D2" t="n">
-        <v>-44.404149</v>
+        <v>57.169626</v>
       </c>
       <c r="E2" t="n">
-        <v>2460017.108056</v>
+        <v>2459854.66819</v>
       </c>
       <c r="F2" t="n">
-        <v>6.207472</v>
+        <v>3.0929674</v>
       </c>
       <c r="G2" t="n">
-        <v>1.5587404</v>
+        <v>0.9315704</v>
       </c>
       <c r="H2" t="n">
-        <v>230.9041397</v>
+        <v>247.5119826</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.9558514</v>
+        <v>1.3536173</v>
       </c>
       <c r="J2" t="n">
-        <v>45.9200706</v>
+        <v>192.9278761</v>
       </c>
       <c r="K2" t="n">
-        <v>663.9270852</v>
+        <v>950.5358374</v>
       </c>
       <c r="L2" t="n">
-        <v>6.7213</v>
+        <v>4.6278</v>
       </c>
       <c r="M2" t="n">
-        <v>12.7781</v>
+        <v>6.53127</v>
       </c>
       <c r="N2" t="n">
-        <v>4633.87</v>
+        <v>4884.29</v>
       </c>
       <c r="O2" t="n">
-        <v>4.70763</v>
+        <v>4.59034</v>
       </c>
       <c r="P2" t="n">
-        <v>0.630715</v>
+        <v>0.750598</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>0.3183878703705095</v>
+        <v>0.2670928632313241</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3529309609610866</v>
+        <v>1.046469990099852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6276.02</v>
+        <v>1469.02</v>
       </c>
       <c r="B3" t="n">
-        <v>397362481</v>
+        <v>283722336</v>
       </c>
       <c r="C3" t="n">
-        <v>175.256304</v>
+        <v>348.337203</v>
       </c>
       <c r="D3" t="n">
-        <v>-44.404149</v>
+        <v>57.169626</v>
       </c>
       <c r="E3" t="n">
-        <v>2460014.846822</v>
+        <v>2459868.871705</v>
       </c>
       <c r="F3" t="n">
-        <v>4.4653471</v>
+        <v>6.7650278</v>
       </c>
       <c r="G3" t="n">
-        <v>1.5691486</v>
+        <v>1.444</v>
       </c>
       <c r="H3" t="n">
-        <v>186.7606727</v>
+        <v>220</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.8856846</v>
+        <v>1.27931</v>
       </c>
       <c r="J3" t="n">
-        <v>71.2440519</v>
+        <v>32.4433</v>
       </c>
       <c r="K3" t="n">
-        <v>740.9807105</v>
+        <v>664</v>
       </c>
       <c r="L3" t="n">
-        <v>6.7213</v>
+        <v>4.6278</v>
       </c>
       <c r="M3" t="n">
-        <v>12.7781</v>
+        <v>6.53127</v>
       </c>
       <c r="N3" t="n">
-        <v>4633.87</v>
+        <v>4884.29</v>
       </c>
       <c r="O3" t="n">
-        <v>4.70763</v>
+        <v>4.59034</v>
       </c>
       <c r="P3" t="n">
-        <v>0.630715</v>
+        <v>0.75</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>0.3183878703705095</v>
+        <v>0.2670928632313241</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3529309609610866</v>
+        <v>1.046469990099852</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6276.03</v>
+        <v>1773.01</v>
       </c>
       <c r="B4" t="n">
-        <v>397362481</v>
+        <v>332064670</v>
       </c>
       <c r="C4" t="n">
-        <v>175.256304</v>
+        <v>133.146837</v>
       </c>
       <c r="D4" t="n">
-        <v>-44.404149</v>
+        <v>28.329815</v>
       </c>
       <c r="E4" t="n">
-        <v>2460018.572448</v>
+        <v>2458870.692828</v>
       </c>
       <c r="F4" t="n">
-        <v>7.8708661</v>
+        <v>0.7365463</v>
       </c>
       <c r="G4" t="n">
-        <v>1.6355898</v>
+        <v>1.5732208</v>
       </c>
       <c r="H4" t="n">
-        <v>190.7947353</v>
+        <v>384.6733121</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1.0314874</v>
+        <v>2.0231121</v>
       </c>
       <c r="J4" t="n">
-        <v>33.4599699</v>
+        <v>2657.8322415</v>
       </c>
       <c r="K4" t="n">
-        <v>613.4104018</v>
+        <v>1831.2668801</v>
       </c>
       <c r="L4" t="n">
-        <v>6.7213</v>
+        <v>5.2058</v>
       </c>
       <c r="M4" t="n">
-        <v>12.7781</v>
+        <v>12.5855</v>
       </c>
       <c r="N4" t="n">
-        <v>4633.87</v>
+        <v>5250</v>
       </c>
       <c r="O4" t="n">
-        <v>4.70763</v>
+        <v>4.42</v>
       </c>
       <c r="P4" t="n">
-        <v>0.630715</v>
+        <v>0.963515</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.3183878703705095</v>
+        <v>0.4015502513867581</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3529309609610866</v>
+        <v>0.2680494911224468</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1773.01</v>
+        <v>4470.01</v>
       </c>
       <c r="B5" t="n">
-        <v>332064670</v>
+        <v>256364928</v>
       </c>
       <c r="C5" t="n">
-        <v>133.146837</v>
+        <v>300.182122</v>
       </c>
       <c r="D5" t="n">
-        <v>28.329815</v>
+        <v>22.709776</v>
       </c>
       <c r="E5" t="n">
-        <v>2458870.692828</v>
+        <v>2459770.410421</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7365463</v>
+        <v>2.2185748</v>
       </c>
       <c r="G5" t="n">
-        <v>1.5732208</v>
+        <v>1.8233621</v>
       </c>
       <c r="H5" t="n">
-        <v>384.6733121</v>
+        <v>25854.2144559</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>2.0231121</v>
+        <v>13.3010355</v>
       </c>
       <c r="J5" t="n">
-        <v>2657.8322415</v>
+        <v>348.1506195</v>
       </c>
       <c r="K5" t="n">
-        <v>1831.2668801</v>
+        <v>1101.6954166</v>
       </c>
       <c r="L5" t="n">
-        <v>5.2058</v>
+        <v>6.8481</v>
       </c>
       <c r="M5" t="n">
-        <v>12.5855</v>
+        <v>19.7638</v>
       </c>
       <c r="N5" t="n">
-        <v>5250</v>
+        <v>5023</v>
       </c>
       <c r="O5" t="n">
-        <v>4.42</v>
+        <v>4.58</v>
       </c>
       <c r="P5" t="n">
-        <v>0.963515</v>
+        <v>0.776484</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>0.3639498627094521</v>
+        <v>0.4972489485376618</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2680494911224468</v>
+        <v>0.1256230421520718</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>186.01</v>
+        <v>5789.01</v>
       </c>
       <c r="B6" t="n">
-        <v>279741379</v>
+        <v>87216634</v>
       </c>
       <c r="C6" t="n">
-        <v>51.750188</v>
+        <v>302.773447</v>
       </c>
       <c r="D6" t="n">
-        <v>-63.500166</v>
+        <v>16.189714</v>
       </c>
       <c r="E6" t="n">
-        <v>2460202.210988</v>
+        <v>2459776.255982</v>
       </c>
       <c r="F6" t="n">
-        <v>35.6134391</v>
+        <v>12.9256051</v>
       </c>
       <c r="G6" t="n">
-        <v>3.512</v>
+        <v>1.691</v>
       </c>
       <c r="H6" t="n">
-        <v>1575</v>
+        <v>790</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>3.12194</v>
+        <v>2.53704</v>
       </c>
       <c r="J6" t="n">
-        <v>10.8612</v>
+        <v>8.719390000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>505</v>
+        <v>478</v>
       </c>
       <c r="L6" t="n">
-        <v>6.9934</v>
+        <v>6.5715</v>
       </c>
       <c r="M6" t="n">
-        <v>16.32</v>
+        <v>20.4581</v>
       </c>
       <c r="N6" t="n">
-        <v>4628.53</v>
+        <v>5132</v>
       </c>
       <c r="O6" t="n">
-        <v>4.32239</v>
+        <v>4.49</v>
       </c>
       <c r="P6" t="n">
-        <v>0.71</v>
+        <v>0.88</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>0.3840778462287892</v>
+        <v>0.5168819078281685</v>
       </c>
       <c r="R6" t="n">
-        <v>0.216873501781118</v>
+        <v>0.2860097255552455</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>186.02</v>
+        <v>1821.01</v>
       </c>
       <c r="B7" t="n">
-        <v>279741379</v>
+        <v>82308728</v>
       </c>
       <c r="C7" t="n">
-        <v>51.750188</v>
+        <v>168.637658</v>
       </c>
       <c r="D7" t="n">
-        <v>-63.500166</v>
+        <v>25.710596</v>
       </c>
       <c r="E7" t="n">
-        <v>2460201.824941</v>
+        <v>2459664.085255</v>
       </c>
       <c r="F7" t="n">
-        <v>7.7897726</v>
+        <v>9.4893231</v>
       </c>
       <c r="G7" t="n">
-        <v>2.376</v>
+        <v>2.757</v>
       </c>
       <c r="H7" t="n">
-        <v>194</v>
+        <v>940</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>1.00084</v>
+        <v>2.4304</v>
       </c>
       <c r="J7" t="n">
-        <v>144.765</v>
+        <v>41.924</v>
       </c>
       <c r="K7" t="n">
-        <v>966</v>
+        <v>708</v>
       </c>
       <c r="L7" t="n">
-        <v>6.9934</v>
+        <v>6.9859</v>
       </c>
       <c r="M7" t="n">
-        <v>16.32</v>
+        <v>21.5618</v>
       </c>
       <c r="N7" t="n">
-        <v>4628.53</v>
+        <v>5120</v>
       </c>
       <c r="O7" t="n">
-        <v>4.32239</v>
+        <v>4.6</v>
       </c>
       <c r="P7" t="n">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>0.3840778462287892</v>
+        <v>0.5412196444315075</v>
       </c>
       <c r="R7" t="n">
-        <v>0.216873501781118</v>
+        <v>0.05814337766711058</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4470.01</v>
+        <v>2009.01</v>
       </c>
       <c r="B8" t="n">
-        <v>256364928</v>
+        <v>243187830</v>
       </c>
       <c r="C8" t="n">
-        <v>300.182122</v>
+        <v>16.908292</v>
       </c>
       <c r="D8" t="n">
-        <v>22.709776</v>
+        <v>22.952868</v>
       </c>
       <c r="E8" t="n">
-        <v>2459770.410421</v>
+        <v>2458783.768755</v>
       </c>
       <c r="F8" t="n">
-        <v>2.2185748</v>
+        <v>1071.0898448</v>
       </c>
       <c r="G8" t="n">
-        <v>1.8233621</v>
+        <v>2.1734134</v>
       </c>
       <c r="H8" t="n">
-        <v>25854.2144559</v>
+        <v>865.169438</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>13.3010355</v>
+        <v>2.2407785</v>
       </c>
       <c r="J8" t="n">
-        <v>348.1506195</v>
+        <v>1.3880259</v>
       </c>
       <c r="K8" t="n">
-        <v>1101.6954166</v>
+        <v>276.8338183</v>
       </c>
       <c r="L8" t="n">
-        <v>6.8481</v>
+        <v>7.3551</v>
       </c>
       <c r="M8" t="n">
-        <v>19.7638</v>
+        <v>20.5272</v>
       </c>
       <c r="N8" t="n">
-        <v>5023</v>
+        <v>4755.33</v>
       </c>
       <c r="O8" t="n">
-        <v>4.58</v>
+        <v>4.62683</v>
       </c>
       <c r="P8" t="n">
-        <v>0.776484</v>
+        <v>0.701499</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>0.4065417784609112</v>
+        <v>0.5761162700503707</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1256230421520718</v>
+        <v>0.2489958576576189</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6713.01</v>
+        <v>5084.01</v>
       </c>
       <c r="B9" t="n">
-        <v>428673146</v>
+        <v>438260486</v>
       </c>
       <c r="C9" t="n">
-        <v>179.792354</v>
+        <v>45.954561</v>
       </c>
       <c r="D9" t="n">
-        <v>-20.355606</v>
+        <v>20.110588</v>
       </c>
       <c r="E9" t="n">
-        <v>2458571.522303</v>
+        <v>2460252.991856</v>
       </c>
       <c r="F9" t="n">
-        <v>2.1538049</v>
+        <v>5.8321337</v>
       </c>
       <c r="G9" t="n">
-        <v>1.6541007</v>
+        <v>2.039</v>
       </c>
       <c r="H9" t="n">
-        <v>137.9312313</v>
+        <v>274</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.8814471</v>
+        <v>1.15554</v>
       </c>
       <c r="J9" t="n">
-        <v>331.6009868</v>
+        <v>49.8722</v>
       </c>
       <c r="K9" t="n">
-        <v>1088.3628347</v>
+        <v>740</v>
       </c>
       <c r="L9" t="n">
-        <v>7.0276</v>
+        <v>7.564</v>
       </c>
       <c r="M9" t="n">
-        <v>20.3632</v>
+        <v>21.3575</v>
       </c>
       <c r="N9" t="n">
-        <v>4944.24</v>
+        <v>4544</v>
       </c>
       <c r="O9" t="n">
-        <v>4.58767</v>
+        <v>4.54</v>
       </c>
       <c r="P9" t="n">
-        <v>0.757603</v>
+        <v>0.75</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>0.4231331142458284</v>
+        <v>0.6056323786844908</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2228342109737272</v>
+        <v>0.03576864546243089</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5789.01</v>
+        <v>2134.01</v>
       </c>
       <c r="B10" t="n">
-        <v>87216634</v>
+        <v>75878355</v>
       </c>
       <c r="C10" t="n">
-        <v>302.773447</v>
+        <v>271.935501</v>
       </c>
       <c r="D10" t="n">
-        <v>16.189714</v>
+        <v>39.072927</v>
       </c>
       <c r="E10" t="n">
-        <v>2459776.255982</v>
+        <v>2460496.590963</v>
       </c>
       <c r="F10" t="n">
-        <v>12.9256051</v>
+        <v>9.229207799999999</v>
       </c>
       <c r="G10" t="n">
-        <v>1.691</v>
+        <v>2.817</v>
       </c>
       <c r="H10" t="n">
-        <v>790</v>
+        <v>1606</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>2.53704</v>
+        <v>3.21883</v>
       </c>
       <c r="J10" t="n">
-        <v>8.719390000000001</v>
+        <v>37.6631</v>
       </c>
       <c r="K10" t="n">
-        <v>478</v>
+        <v>690</v>
       </c>
       <c r="L10" t="n">
-        <v>6.5715</v>
+        <v>7.7945</v>
       </c>
       <c r="M10" t="n">
-        <v>20.4581</v>
+        <v>22.6202</v>
       </c>
       <c r="N10" t="n">
-        <v>5132</v>
+        <v>4406</v>
       </c>
       <c r="O10" t="n">
-        <v>4.49</v>
+        <v>4.50428</v>
       </c>
       <c r="P10" t="n">
-        <v>0.88</v>
+        <v>0.77</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>0.4311738188042931</v>
+        <v>0.7050657275740375</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2860097255552455</v>
+        <v>0.1449687993748953</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2194.01</v>
+        <v>2134.02</v>
       </c>
       <c r="B11" t="n">
-        <v>271478281</v>
+        <v>75878355</v>
       </c>
       <c r="C11" t="n">
-        <v>299.156339</v>
+        <v>271.935501</v>
       </c>
       <c r="D11" t="n">
-        <v>-31.335181</v>
+        <v>39.072927</v>
       </c>
       <c r="E11" t="n">
-        <v>2460141.982191</v>
+        <v>2460485.79438</v>
       </c>
       <c r="F11" t="n">
-        <v>15.3419095</v>
+        <v>95.8531625</v>
       </c>
       <c r="G11" t="n">
-        <v>2.736</v>
+        <v>5.024</v>
       </c>
       <c r="H11" t="n">
-        <v>683</v>
+        <v>5975</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>1.7005</v>
+        <v>5.95763</v>
       </c>
       <c r="J11" t="n">
-        <v>14.2526</v>
+        <v>2.69104</v>
       </c>
       <c r="K11" t="n">
-        <v>541</v>
+        <v>356</v>
       </c>
       <c r="L11" t="n">
-        <v>7.4259</v>
+        <v>7.7945</v>
       </c>
       <c r="M11" t="n">
-        <v>19.5711</v>
+        <v>22.6202</v>
       </c>
       <c r="N11" t="n">
-        <v>4669</v>
+        <v>4406</v>
       </c>
       <c r="O11" t="n">
-        <v>4.63</v>
+        <v>4.50428</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>0.4369855154896619</v>
+        <v>0.7050657275740375</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2060338426977061</v>
+        <v>0.1449687993748953</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1821.01</v>
+        <v>1835.02</v>
       </c>
       <c r="B12" t="n">
-        <v>82308728</v>
+        <v>347332255</v>
       </c>
       <c r="C12" t="n">
-        <v>168.637658</v>
+        <v>189.839224</v>
       </c>
       <c r="D12" t="n">
-        <v>25.710596</v>
+        <v>20.027338</v>
       </c>
       <c r="E12" t="n">
-        <v>2459664.085255</v>
-      </c>
-      <c r="F12" t="n">
-        <v>9.4893231</v>
+        <v>2458937.873023</v>
       </c>
       <c r="G12" t="n">
-        <v>2.757</v>
+        <v>3.9454498</v>
       </c>
       <c r="H12" t="n">
-        <v>940</v>
+        <v>886.4838237</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>2.4304</v>
+        <v>2.5398986</v>
       </c>
       <c r="J12" t="n">
-        <v>41.924</v>
+        <v>48.4006234</v>
       </c>
       <c r="K12" t="n">
-        <v>708</v>
+        <v>672.7171326</v>
       </c>
       <c r="L12" t="n">
-        <v>6.9859</v>
+        <v>7.6621</v>
       </c>
       <c r="M12" t="n">
-        <v>21.5618</v>
+        <v>32.1585</v>
       </c>
       <c r="N12" t="n">
-        <v>5120</v>
+        <v>5297</v>
       </c>
       <c r="O12" t="n">
-        <v>4.6</v>
+        <v>4.61016</v>
       </c>
       <c r="P12" t="n">
-        <v>0.77</v>
+        <v>0.782479</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>0.440467041313477</v>
+        <v>0.7320316021428864</v>
       </c>
       <c r="R12" t="n">
-        <v>0.05814337766711058</v>
+        <v>0.06661906649581383</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2009.01</v>
+        <v>1835.01</v>
       </c>
       <c r="B13" t="n">
-        <v>243187830</v>
+        <v>347332255</v>
       </c>
       <c r="C13" t="n">
-        <v>16.908292</v>
+        <v>189.839224</v>
       </c>
       <c r="D13" t="n">
-        <v>22.952868</v>
+        <v>20.027338</v>
       </c>
       <c r="E13" t="n">
-        <v>2458783.768755</v>
+        <v>2458932.763635</v>
       </c>
       <c r="F13" t="n">
-        <v>1071.0898448</v>
+        <v>5.6419598</v>
       </c>
       <c r="G13" t="n">
-        <v>2.1734134</v>
+        <v>3.0871502</v>
       </c>
       <c r="H13" t="n">
-        <v>865.169438</v>
+        <v>543.838848</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>2.2407785</v>
+        <v>1.8245844</v>
       </c>
       <c r="J13" t="n">
-        <v>1.3880259</v>
+        <v>119.4171181</v>
       </c>
       <c r="K13" t="n">
-        <v>276.8338183</v>
+        <v>843.1141848</v>
       </c>
       <c r="L13" t="n">
-        <v>7.3551</v>
+        <v>7.6621</v>
       </c>
       <c r="M13" t="n">
-        <v>20.5272</v>
+        <v>32.1585</v>
       </c>
       <c r="N13" t="n">
-        <v>4755.33</v>
+        <v>5297</v>
       </c>
       <c r="O13" t="n">
-        <v>4.62683</v>
+        <v>4.61016</v>
       </c>
       <c r="P13" t="n">
-        <v>0.701499</v>
+        <v>0.782479</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>0.4464933530419892</v>
+        <v>0.7320316021428864</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2489958576576189</v>
+        <v>0.06661906649581383</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2011.03</v>
+        <v>1462.01</v>
       </c>
       <c r="B14" t="n">
-        <v>136916387</v>
+        <v>188768068</v>
       </c>
       <c r="C14" t="n">
-        <v>230.440115</v>
+        <v>261.349585</v>
       </c>
       <c r="D14" t="n">
-        <v>-48.318817</v>
+        <v>52.790472</v>
       </c>
       <c r="E14" t="n">
-        <v>2460081.126376</v>
+        <v>2460338.523071</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.1779407</v>
       </c>
       <c r="G14" t="n">
-        <v>3.5341354</v>
+        <v>2.098</v>
       </c>
       <c r="H14" t="n">
-        <v>195.1972939</v>
+        <v>110</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>1.6208326</v>
+        <v>1.28228</v>
       </c>
       <c r="J14" t="n">
-        <v>335.6075222</v>
+        <v>759.183</v>
       </c>
       <c r="K14" t="n">
-        <v>1091.635552</v>
+        <v>1462</v>
       </c>
       <c r="L14" t="n">
-        <v>5.0494</v>
+        <v>5.8961</v>
       </c>
       <c r="M14" t="n">
-        <v>14.682</v>
+        <v>27.0498</v>
       </c>
       <c r="N14" t="n">
-        <v>5739</v>
+        <v>5801.89</v>
       </c>
       <c r="O14" t="n">
-        <v>4.51</v>
+        <v>4.25132</v>
       </c>
       <c r="P14" t="n">
-        <v>1.02607</v>
+        <v>1.26</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>0.4604547707874415</v>
+        <v>0.7448828008906113</v>
       </c>
       <c r="R14" t="n">
-        <v>0.8241668035706786</v>
+        <v>0.05203226078176128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2011.02</v>
+        <v>1689.01</v>
       </c>
       <c r="B15" t="n">
-        <v>136916387</v>
+        <v>198384408</v>
       </c>
       <c r="C15" t="n">
-        <v>230.440115</v>
+        <v>257.78508</v>
       </c>
       <c r="D15" t="n">
-        <v>-48.318817</v>
+        <v>56.658901</v>
       </c>
       <c r="E15" t="n">
-        <v>2458650.89757</v>
+        <v>2458823.255936</v>
       </c>
       <c r="F15" t="n">
-        <v>27.5920718</v>
+        <v>9.1238101</v>
       </c>
       <c r="G15" t="n">
-        <v>3.2743016</v>
+        <v>5.1188391</v>
       </c>
       <c r="H15" t="n">
-        <v>555.3352929</v>
+        <v>283.324087</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>2.7050278</v>
+        <v>2.0471844</v>
       </c>
       <c r="J15" t="n">
-        <v>31.3830711</v>
+        <v>148.7455904</v>
       </c>
       <c r="K15" t="n">
-        <v>603.6616824</v>
+        <v>890.69861</v>
       </c>
       <c r="L15" t="n">
-        <v>5.0494</v>
+        <v>6.3196</v>
       </c>
       <c r="M15" t="n">
-        <v>14.682</v>
+        <v>26.9148</v>
       </c>
       <c r="N15" t="n">
-        <v>5739</v>
+        <v>5470.16</v>
       </c>
       <c r="O15" t="n">
-        <v>4.51</v>
+        <v>4.30008</v>
       </c>
       <c r="P15" t="n">
-        <v>1.02607</v>
+        <v>1.1485</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>0.4604547707874415</v>
+        <v>0.7588600719679252</v>
       </c>
       <c r="R15" t="n">
-        <v>0.8241668035706786</v>
+        <v>0.03260486313902574</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2011.01</v>
+        <v>260.01</v>
       </c>
       <c r="B16" t="n">
-        <v>136916387</v>
+        <v>37749396</v>
       </c>
       <c r="C16" t="n">
-        <v>230.440115</v>
+        <v>4.773018</v>
       </c>
       <c r="D16" t="n">
-        <v>-48.318817</v>
+        <v>-9.966150000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>2458631.767617</v>
+        <v>2458392.294018</v>
       </c>
       <c r="F16" t="n">
-        <v>11.5778362</v>
+        <v>13.4758478</v>
       </c>
       <c r="G16" t="n">
-        <v>3.8772499</v>
+        <v>2.0643913</v>
       </c>
       <c r="H16" t="n">
-        <v>217.3994918</v>
+        <v>708.9461601</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>1.5422129</v>
+        <v>1.9840882</v>
       </c>
       <c r="J16" t="n">
-        <v>99.9013415</v>
+        <v>10.1837519</v>
       </c>
       <c r="K16" t="n">
-        <v>806.3295568999999</v>
+        <v>455.6136246</v>
       </c>
       <c r="L16" t="n">
-        <v>5.0494</v>
+        <v>8.4991</v>
       </c>
       <c r="M16" t="n">
-        <v>14.682</v>
+        <v>20.1852</v>
       </c>
       <c r="N16" t="n">
-        <v>5739</v>
+        <v>4111</v>
       </c>
       <c r="O16" t="n">
-        <v>4.51</v>
+        <v>4.6461</v>
       </c>
       <c r="P16" t="n">
-        <v>1.02607</v>
+        <v>0.618173</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>0.4604547707874415</v>
+        <v>0.7902558828894091</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8241668035706786</v>
+        <v>0.1536852942719399</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>260.01</v>
+        <v>2069.01</v>
       </c>
       <c r="B17" t="n">
-        <v>37749396</v>
+        <v>198187049</v>
       </c>
       <c r="C17" t="n">
-        <v>4.773018</v>
+        <v>245.728968</v>
       </c>
       <c r="D17" t="n">
-        <v>-9.966150000000001</v>
+        <v>61.694836</v>
       </c>
       <c r="E17" t="n">
-        <v>2458392.294018</v>
+        <v>2458688.473496</v>
       </c>
       <c r="F17" t="n">
-        <v>13.4758478</v>
+        <v>5.9214229</v>
       </c>
       <c r="G17" t="n">
-        <v>2.0643913</v>
+        <v>2.4606208</v>
       </c>
       <c r="H17" t="n">
-        <v>708.9461601</v>
+        <v>140.4285921</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>1.9840882</v>
+        <v>1.0470381</v>
       </c>
       <c r="J17" t="n">
-        <v>10.1837519</v>
+        <v>122.1004834</v>
       </c>
       <c r="K17" t="n">
-        <v>455.6136246</v>
+        <v>847.8110943</v>
       </c>
       <c r="L17" t="n">
-        <v>8.4991</v>
+        <v>7.9726</v>
       </c>
       <c r="M17" t="n">
-        <v>20.1852</v>
+        <v>38.6215</v>
       </c>
       <c r="N17" t="n">
-        <v>4111</v>
+        <v>5268</v>
       </c>
       <c r="O17" t="n">
-        <v>4.6461</v>
+        <v>4.56138</v>
       </c>
       <c r="P17" t="n">
-        <v>0.618173</v>
+        <v>0.823126</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>0.4644199760795594</v>
+        <v>0.8269642916723454</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1536852942719399</v>
+        <v>0.06164093083342125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5084.01</v>
+        <v>2443.01</v>
       </c>
       <c r="B18" t="n">
-        <v>438260486</v>
+        <v>318753380</v>
       </c>
       <c r="C18" t="n">
-        <v>45.954561</v>
+        <v>40.179861</v>
       </c>
       <c r="D18" t="n">
-        <v>20.110588</v>
+        <v>1.199676</v>
       </c>
       <c r="E18" t="n">
-        <v>2460252.991856</v>
+        <v>2459148.098617</v>
       </c>
       <c r="F18" t="n">
-        <v>5.8321337</v>
+        <v>15.6692322</v>
       </c>
       <c r="G18" t="n">
-        <v>2.039</v>
+        <v>4.562853</v>
       </c>
       <c r="H18" t="n">
-        <v>274</v>
+        <v>1393.3814802</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>1.15554</v>
+        <v>2.6868893</v>
       </c>
       <c r="J18" t="n">
-        <v>49.8722</v>
+        <v>13.2931176</v>
       </c>
       <c r="K18" t="n">
-        <v>740</v>
+        <v>486.9971964</v>
       </c>
       <c r="L18" t="n">
-        <v>7.564</v>
+        <v>8.296900000000001</v>
       </c>
       <c r="M18" t="n">
-        <v>21.3575</v>
+        <v>23.9258</v>
       </c>
       <c r="N18" t="n">
-        <v>4544</v>
+        <v>4214.44</v>
       </c>
       <c r="O18" t="n">
-        <v>4.54</v>
+        <v>4.52845</v>
       </c>
       <c r="P18" t="n">
-        <v>0.75</v>
+        <v>0.732115</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>0.4686604135697814</v>
+        <v>0.8408621631098551</v>
       </c>
       <c r="R18" t="n">
-        <v>0.03576864546243089</v>
+        <v>0.1818675256393356</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1099.01</v>
+        <v>6965.01</v>
       </c>
       <c r="B19" t="n">
-        <v>290348383</v>
+        <v>80224448</v>
       </c>
       <c r="C19" t="n">
-        <v>328.718171</v>
+        <v>103.678273</v>
       </c>
       <c r="D19" t="n">
-        <v>-77.338802</v>
+        <v>24.245141</v>
       </c>
       <c r="E19" t="n">
-        <v>2460140.220927</v>
+        <v>2459505.193695</v>
       </c>
       <c r="F19" t="n">
-        <v>6.441006</v>
+        <v>5.9693397</v>
       </c>
       <c r="G19" t="n">
-        <v>1.812</v>
+        <v>3.441038</v>
       </c>
       <c r="H19" t="n">
-        <v>914</v>
+        <v>105.5424205</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>2.56374</v>
+        <v>1.3473608</v>
       </c>
       <c r="J19" t="n">
-        <v>87.89019999999999</v>
+        <v>334.6170929</v>
       </c>
       <c r="K19" t="n">
-        <v>853</v>
+        <v>1090.8292631</v>
       </c>
       <c r="L19" t="n">
-        <v>7.3661</v>
+        <v>6.3103</v>
       </c>
       <c r="M19" t="n">
-        <v>23.606</v>
+        <v>31.1664</v>
       </c>
       <c r="N19" t="n">
-        <v>4867</v>
+        <v>6007</v>
       </c>
       <c r="O19" t="n">
-        <v>4.438</v>
+        <v>4.37729</v>
       </c>
       <c r="P19" t="n">
-        <v>0.8</v>
+        <v>1.12993</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>0.4784930261051164</v>
+        <v>0.8497931073350418</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1472633162803166</v>
+        <v>0.05173693479333623</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6978.01</v>
+        <v>6965.02</v>
       </c>
       <c r="B20" t="n">
-        <v>320847025</v>
+        <v>80224448</v>
       </c>
       <c r="C20" t="n">
-        <v>299.638248</v>
+        <v>103.678273</v>
       </c>
       <c r="D20" t="n">
-        <v>-54.937423</v>
+        <v>24.245141</v>
       </c>
       <c r="E20" t="n">
-        <v>2458661.083459</v>
+        <v>2459508.008646</v>
       </c>
       <c r="F20" t="n">
-        <v>9.125813600000001</v>
+        <v>28.0693949</v>
       </c>
       <c r="G20" t="n">
-        <v>3.173012</v>
+        <v>6.0393818</v>
       </c>
       <c r="H20" t="n">
-        <v>169.7218223</v>
+        <v>154.3008171</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>0.9704787</v>
+        <v>1.6221344</v>
       </c>
       <c r="J20" t="n">
-        <v>42.107688</v>
+        <v>42.4755605</v>
       </c>
       <c r="K20" t="n">
-        <v>649.6958588</v>
+        <v>651.1102456</v>
       </c>
       <c r="L20" t="n">
-        <v>7.5621</v>
+        <v>6.3103</v>
       </c>
       <c r="M20" t="n">
-        <v>23.6103</v>
+        <v>31.1664</v>
       </c>
       <c r="N20" t="n">
-        <v>4747.13</v>
+        <v>6007</v>
       </c>
       <c r="O20" t="n">
-        <v>4.56794</v>
+        <v>4.37729</v>
       </c>
       <c r="P20" t="n">
-        <v>0.750709</v>
+        <v>1.12993</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>0.4877356136941862</v>
+        <v>0.8497931073350418</v>
       </c>
       <c r="R20" t="n">
-        <v>0.08153377876240343</v>
+        <v>0.05173693479333623</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2540.02</v>
+        <v>1434.01</v>
       </c>
       <c r="B21" t="n">
-        <v>354518617</v>
+        <v>138588540</v>
       </c>
       <c r="C21" t="n">
-        <v>82.558548</v>
+        <v>176.380591</v>
       </c>
       <c r="D21" t="n">
-        <v>-42.697946</v>
+        <v>65.541314</v>
       </c>
       <c r="E21" t="n">
-        <v>2459223.145597</v>
+        <v>2458703.403139</v>
       </c>
       <c r="F21" t="n">
-        <v>22.0819969</v>
+        <v>29.902663</v>
       </c>
       <c r="G21" t="n">
-        <v>3.073</v>
+        <v>3.6993733</v>
       </c>
       <c r="H21" t="n">
-        <v>1019</v>
+        <v>760.5977208</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>2.28729</v>
+        <v>2.0294563</v>
       </c>
       <c r="J21" t="n">
-        <v>5.94816</v>
+        <v>12.0207983</v>
       </c>
       <c r="K21" t="n">
-        <v>435</v>
+        <v>474.9009927</v>
       </c>
       <c r="L21" t="n">
-        <v>8.273099999999999</v>
+        <v>8.062099999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>19.1419</v>
+        <v>37.7873</v>
       </c>
       <c r="N21" t="n">
-        <v>4036.3</v>
+        <v>5393.86</v>
       </c>
       <c r="O21" t="n">
-        <v>4.65</v>
+        <v>4.67802</v>
       </c>
       <c r="P21" t="n">
-        <v>0.66</v>
+        <v>0.735511</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>0.5078596040079951</v>
+        <v>0.8686322884856515</v>
       </c>
       <c r="R21" t="n">
-        <v>0.07410788918668496</v>
+        <v>0.03779261048666958</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2540.01</v>
+        <v>6074.01</v>
       </c>
       <c r="B22" t="n">
-        <v>354518617</v>
+        <v>99896567</v>
       </c>
       <c r="C22" t="n">
-        <v>82.558548</v>
+        <v>310.421968</v>
       </c>
       <c r="D22" t="n">
-        <v>-42.697946</v>
+        <v>35.54592</v>
       </c>
       <c r="E22" t="n">
-        <v>2458480.943804</v>
+        <v>2458690.53445</v>
       </c>
       <c r="F22" t="n">
-        <v>12.7187255</v>
+        <v>12.1324506</v>
       </c>
       <c r="G22" t="n">
-        <v>3.1582562</v>
+        <v>1.5751733</v>
       </c>
       <c r="H22" t="n">
-        <v>1144.1789073</v>
+        <v>171.2764262</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>2.5924633</v>
+        <v>1.5690907</v>
       </c>
       <c r="J22" t="n">
-        <v>12.2599233</v>
+        <v>98.4603771</v>
       </c>
       <c r="K22" t="n">
-        <v>477.2453303</v>
+        <v>803.406097</v>
       </c>
       <c r="L22" t="n">
-        <v>8.273099999999999</v>
+        <v>6.8456</v>
       </c>
       <c r="M22" t="n">
-        <v>19.1419</v>
+        <v>34.5797</v>
       </c>
       <c r="N22" t="n">
-        <v>4036.3</v>
+        <v>5865</v>
       </c>
       <c r="O22" t="n">
-        <v>4.65</v>
+        <v>4.44965</v>
       </c>
       <c r="P22" t="n">
-        <v>0.661076</v>
+        <v>1.0159301</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>0.5078596040079951</v>
+        <v>0.8694920586555916</v>
       </c>
       <c r="R22" t="n">
-        <v>0.07410788918668496</v>
+        <v>0.05216827044224256</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>802.01</v>
+        <v>5734.01</v>
       </c>
       <c r="B23" t="n">
-        <v>167303382</v>
+        <v>9989136</v>
       </c>
       <c r="C23" t="n">
-        <v>97.985715</v>
+        <v>111.255818</v>
       </c>
       <c r="D23" t="n">
-        <v>-68.7118</v>
+        <v>37.231122</v>
       </c>
       <c r="E23" t="n">
-        <v>2458327.391469</v>
+        <v>2458848.68514</v>
       </c>
       <c r="F23" t="n">
-        <v>3.693916</v>
+        <v>6.1841688</v>
       </c>
       <c r="G23" t="n">
-        <v>1.7264201</v>
+        <v>2.5898497</v>
       </c>
       <c r="H23" t="n">
-        <v>74.807186</v>
+        <v>1052.3509168</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>0.6501353</v>
+        <v>2.4076002</v>
       </c>
       <c r="J23" t="n">
-        <v>186.8668956</v>
+        <v>56.3777871</v>
       </c>
       <c r="K23" t="n">
-        <v>942.9807829</v>
+        <v>698.8705758</v>
       </c>
       <c r="L23" t="n">
-        <v>7.5209</v>
+        <v>8.544600000000001</v>
       </c>
       <c r="M23" t="n">
-        <v>28.1042</v>
+        <v>32.5102</v>
       </c>
       <c r="N23" t="n">
-        <v>5235.78</v>
+        <v>4645</v>
       </c>
       <c r="O23" t="n">
-        <v>4.438</v>
+        <v>4.62</v>
       </c>
       <c r="P23" t="n">
-        <v>0.74982</v>
+        <v>0.693766</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>0.5505815501150764</v>
+        <v>0.8936552115002135</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2277199720930105</v>
+        <v>0.01559139926063062</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>144.01</v>
+        <v>2023.01</v>
       </c>
       <c r="B24" t="n">
-        <v>261136679</v>
+        <v>16884216</v>
       </c>
       <c r="C24" t="n">
-        <v>84.29928</v>
+        <v>232.863345</v>
       </c>
       <c r="D24" t="n">
-        <v>-80.46460399999999</v>
+        <v>33.902516</v>
       </c>
       <c r="E24" t="n">
-        <v>2460011.550653</v>
+        <v>2458964.128568</v>
       </c>
       <c r="F24" t="n">
-        <v>6.267832</v>
+        <v>11.1900486</v>
       </c>
       <c r="G24" t="n">
-        <v>2.789</v>
+        <v>2.9741507</v>
       </c>
       <c r="H24" t="n">
-        <v>321</v>
+        <v>567.7989939</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>1.99779</v>
+        <v>1.6608182</v>
       </c>
       <c r="J24" t="n">
-        <v>203.434</v>
+        <v>31.192573</v>
       </c>
       <c r="K24" t="n">
-        <v>1052</v>
+        <v>602.7435196</v>
       </c>
       <c r="L24" t="n">
-        <v>5.1054</v>
+        <v>8.504899999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>18.2702</v>
+        <v>36.9284</v>
       </c>
       <c r="N24" t="n">
-        <v>5950</v>
+        <v>4958</v>
       </c>
       <c r="O24" t="n">
-        <v>4.438</v>
+        <v>4.66667</v>
       </c>
       <c r="P24" t="n">
-        <v>1.15</v>
+        <v>0.6959920000000001</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>0.5682507800699519</v>
+        <v>0.9180746601776205</v>
       </c>
       <c r="R24" t="n">
-        <v>0.5469902615930315</v>
+        <v>0.05872196175686627</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1835.01</v>
+        <v>1430.01</v>
       </c>
       <c r="B25" t="n">
-        <v>347332255</v>
+        <v>293954617</v>
       </c>
       <c r="C25" t="n">
-        <v>189.839224</v>
+        <v>300.615453</v>
       </c>
       <c r="D25" t="n">
-        <v>20.027338</v>
+        <v>53.377442</v>
       </c>
       <c r="E25" t="n">
-        <v>2458932.763635</v>
+        <v>2460549.311109</v>
       </c>
       <c r="F25" t="n">
-        <v>5.6419598</v>
+        <v>7.4341456</v>
       </c>
       <c r="G25" t="n">
-        <v>3.0871502</v>
+        <v>2.424</v>
       </c>
       <c r="H25" t="n">
-        <v>543.838848</v>
+        <v>701</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>1.8245844</v>
+        <v>1.97737</v>
       </c>
       <c r="J25" t="n">
-        <v>119.4171181</v>
+        <v>48.0098</v>
       </c>
       <c r="K25" t="n">
-        <v>843.1141848</v>
+        <v>733</v>
       </c>
       <c r="L25" t="n">
-        <v>7.6621</v>
+        <v>8.3879</v>
       </c>
       <c r="M25" t="n">
-        <v>32.1585</v>
+        <v>41.1706</v>
       </c>
       <c r="N25" t="n">
-        <v>5297</v>
+        <v>5064</v>
       </c>
       <c r="O25" t="n">
-        <v>4.61016</v>
+        <v>4.57887</v>
       </c>
       <c r="P25" t="n">
-        <v>0.782479</v>
+        <v>0.78</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>0.5830139874015356</v>
+        <v>0.9396839689860219</v>
       </c>
       <c r="R25" t="n">
-        <v>0.06661906649581383</v>
+        <v>0.1100198261051309</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1835.02</v>
+        <v>2076.01</v>
       </c>
       <c r="B26" t="n">
-        <v>347332255</v>
+        <v>27491137</v>
       </c>
       <c r="C26" t="n">
-        <v>189.839224</v>
+        <v>217.392016</v>
       </c>
       <c r="D26" t="n">
-        <v>20.027338</v>
+        <v>39.790399</v>
       </c>
       <c r="E26" t="n">
-        <v>2458937.873023</v>
+        <v>2459675.695029</v>
+      </c>
+      <c r="F26" t="n">
+        <v>10.3563596</v>
       </c>
       <c r="G26" t="n">
-        <v>3.9454498</v>
+        <v>3.4814933</v>
       </c>
       <c r="H26" t="n">
-        <v>886.4838237</v>
+        <v>923.942127</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>2.5398986</v>
+        <v>2.4103206</v>
       </c>
       <c r="J26" t="n">
-        <v>48.4006234</v>
+        <v>48.1191014</v>
       </c>
       <c r="K26" t="n">
-        <v>672.7171326</v>
+        <v>671.7367776999999</v>
       </c>
       <c r="L26" t="n">
-        <v>7.6621</v>
+        <v>8.374499999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>32.1585</v>
+        <v>41.9091</v>
       </c>
       <c r="N26" t="n">
-        <v>5297</v>
+        <v>5149.6</v>
       </c>
       <c r="O26" t="n">
-        <v>4.61016</v>
+        <v>4.6</v>
       </c>
       <c r="P26" t="n">
-        <v>0.782479</v>
+        <v>0.7721479999999999</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>0.5830139874015356</v>
+        <v>0.9481211214084003</v>
       </c>
       <c r="R26" t="n">
-        <v>0.06661906649581383</v>
+        <v>0.05926071698556891</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2443.01</v>
+        <v>2076.03</v>
       </c>
       <c r="B27" t="n">
-        <v>318753380</v>
+        <v>27491137</v>
       </c>
       <c r="C27" t="n">
-        <v>40.179861</v>
+        <v>217.392016</v>
       </c>
       <c r="D27" t="n">
-        <v>1.199676</v>
+        <v>39.790399</v>
       </c>
       <c r="E27" t="n">
-        <v>2459148.098617</v>
+        <v>2459673.364369</v>
       </c>
       <c r="F27" t="n">
-        <v>15.6692322</v>
+        <v>21.0153047</v>
       </c>
       <c r="G27" t="n">
-        <v>4.562853</v>
+        <v>4.315</v>
       </c>
       <c r="H27" t="n">
-        <v>1393.3814802</v>
+        <v>2072</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>2.6868893</v>
+        <v>3.78219</v>
       </c>
       <c r="J27" t="n">
-        <v>13.2931176</v>
+        <v>28.033</v>
       </c>
       <c r="K27" t="n">
-        <v>486.9971964</v>
+        <v>641</v>
       </c>
       <c r="L27" t="n">
-        <v>8.296900000000001</v>
+        <v>8.374499999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>23.9258</v>
+        <v>41.9091</v>
       </c>
       <c r="N27" t="n">
-        <v>4214.44</v>
+        <v>5149.6</v>
       </c>
       <c r="O27" t="n">
-        <v>4.52845</v>
+        <v>4.6</v>
       </c>
       <c r="P27" t="n">
-        <v>0.732115</v>
+        <v>0.77</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>0.5875221654235464</v>
+        <v>0.9481211214084003</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1818675256393356</v>
+        <v>0.05926071698556891</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>253.01</v>
+        <v>2076.02</v>
       </c>
       <c r="B28" t="n">
-        <v>322063810</v>
+        <v>27491137</v>
       </c>
       <c r="C28" t="n">
-        <v>14.318503</v>
+        <v>217.392016</v>
       </c>
       <c r="D28" t="n">
-        <v>-51.585251</v>
+        <v>39.790399</v>
       </c>
       <c r="E28" t="n">
-        <v>2458355.622789</v>
+        <v>2459675.93251</v>
       </c>
       <c r="F28" t="n">
-        <v>3.5104148</v>
+        <v>35.1257472</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>2.839</v>
       </c>
       <c r="H28" t="n">
-        <v>308.8285985</v>
+        <v>2066</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>1.328654</v>
+        <v>3.17021</v>
       </c>
       <c r="J28" t="n">
-        <v>64.709886</v>
+        <v>3.78846</v>
       </c>
       <c r="K28" t="n">
-        <v>723.3731892</v>
+        <v>388</v>
       </c>
       <c r="L28" t="n">
-        <v>9.3626</v>
+        <v>8.374499999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>30.8431</v>
+        <v>41.9091</v>
       </c>
       <c r="N28" t="n">
-        <v>4020</v>
+        <v>5149.6</v>
       </c>
       <c r="O28" t="n">
-        <v>4.438</v>
+        <v>4.6</v>
       </c>
       <c r="P28" t="n">
-        <v>0.639371</v>
+        <v>0.77</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>0.6217175629236638</v>
+        <v>0.9481211214084003</v>
       </c>
       <c r="R28" t="n">
-        <v>0.08762883918922149</v>
+        <v>0.05926071698556891</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>431.02</v>
+        <v>2128.01</v>
       </c>
       <c r="B29" t="n">
-        <v>31374837</v>
+        <v>21832928</v>
       </c>
       <c r="C29" t="n">
-        <v>83.26925</v>
+        <v>256.9818</v>
       </c>
       <c r="D29" t="n">
-        <v>-26.72387</v>
+        <v>32.105303</v>
       </c>
       <c r="E29" t="n">
-        <v>2458438.375965</v>
+        <v>2458987.266354</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4900589</v>
+        <v>16.3413889</v>
       </c>
       <c r="G29" t="n">
-        <v>1.0123328</v>
+        <v>5.3764481</v>
       </c>
       <c r="H29" t="n">
-        <v>291.0399722</v>
+        <v>372.0970618</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>1.4741529</v>
+        <v>2.629079</v>
       </c>
       <c r="J29" t="n">
-        <v>2120.4474663</v>
+        <v>86.231465</v>
       </c>
       <c r="K29" t="n">
-        <v>1730.7192689</v>
+        <v>777.2060824</v>
       </c>
       <c r="L29" t="n">
-        <v>8.170500000000001</v>
+        <v>6.6813</v>
       </c>
       <c r="M29" t="n">
-        <v>32.5686</v>
+        <v>36.578</v>
       </c>
       <c r="N29" t="n">
-        <v>4891</v>
+        <v>5991.11</v>
       </c>
       <c r="O29" t="n">
-        <v>4.62</v>
+        <v>4.37711</v>
       </c>
       <c r="P29" t="n">
-        <v>0.7266319999999999</v>
+        <v>1.12506</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>0.638733258076041</v>
+        <v>0.9641417894894451</v>
       </c>
       <c r="R29" t="n">
-        <v>0.0767170384367596</v>
+        <v>0.08438831092999147</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>431.01</v>
+        <v>1144.01</v>
       </c>
       <c r="B30" t="n">
-        <v>31374837</v>
+        <v>28230919</v>
       </c>
       <c r="C30" t="n">
-        <v>83.26925</v>
+        <v>297.710176</v>
       </c>
       <c r="D30" t="n">
-        <v>-26.72387</v>
+        <v>48.081864</v>
       </c>
       <c r="E30" t="n">
-        <v>2458440.630295</v>
+        <v>2460554.347022</v>
       </c>
       <c r="F30" t="n">
-        <v>12.4610086</v>
+        <v>4.8878037</v>
       </c>
       <c r="G30" t="n">
-        <v>3.3195777</v>
+        <v>2.184</v>
       </c>
       <c r="H30" t="n">
-        <v>2078.1425981</v>
+        <v>4279</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>3.2809492</v>
+        <v>5.29152</v>
       </c>
       <c r="J30" t="n">
-        <v>28.3587888</v>
+        <v>71.68049999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>588.5612549</v>
+        <v>810</v>
       </c>
       <c r="L30" t="n">
-        <v>8.170500000000001</v>
+        <v>8.5077</v>
       </c>
       <c r="M30" t="n">
-        <v>32.5686</v>
+        <v>37.7647</v>
       </c>
       <c r="N30" t="n">
-        <v>4891</v>
+        <v>4757.3</v>
       </c>
       <c r="O30" t="n">
-        <v>4.62</v>
+        <v>4.56</v>
       </c>
       <c r="P30" t="n">
-        <v>0.7266319999999999</v>
+        <v>0.76</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>0.638733258076041</v>
+        <v>0.9663749523476942</v>
       </c>
       <c r="R30" t="n">
-        <v>0.0767170384367596</v>
+        <v>0.131139051935956</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1793.01</v>
+        <v>1643.01</v>
       </c>
       <c r="B31" t="n">
-        <v>304142124</v>
+        <v>298647682</v>
       </c>
       <c r="C31" t="n">
-        <v>164.856336</v>
+        <v>272.264241</v>
       </c>
       <c r="D31" t="n">
-        <v>-56.623556</v>
+        <v>53.217729</v>
       </c>
       <c r="E31" t="n">
-        <v>2460017.429225</v>
+        <v>2459815.953155</v>
       </c>
       <c r="F31" t="n">
-        <v>55.087</v>
+        <v>20.0795217</v>
       </c>
       <c r="G31" t="n">
-        <v>5.709</v>
+        <v>1.2186554</v>
       </c>
       <c r="H31" t="n">
-        <v>2509</v>
+        <v>1065.5355707</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>4.36639</v>
+        <v>2.7170462</v>
       </c>
       <c r="J31" t="n">
-        <v>16.5899</v>
+        <v>15.8594327</v>
       </c>
       <c r="K31" t="n">
-        <v>562</v>
+        <v>508.9693869</v>
       </c>
       <c r="L31" t="n">
-        <v>7.8436</v>
+        <v>8.662800000000001</v>
       </c>
       <c r="M31" t="n">
-        <v>36.9941</v>
+        <v>40.6988</v>
       </c>
       <c r="N31" t="n">
-        <v>5175</v>
+        <v>4763</v>
       </c>
       <c r="O31" t="n">
-        <v>4.51</v>
+        <v>4.54306</v>
       </c>
       <c r="P31" t="n">
-        <v>0.87</v>
+        <v>0.7775840000000001</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>0.6423787840647773</v>
+        <v>1.018507941129634</v>
       </c>
       <c r="R31" t="n">
-        <v>0.2165786356227843</v>
+        <v>0.02743089734967181</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5961.01</v>
+        <v>6985.01</v>
       </c>
       <c r="B32" t="n">
-        <v>262689575</v>
+        <v>59490344</v>
       </c>
       <c r="C32" t="n">
-        <v>349.216044</v>
+        <v>108.993831</v>
       </c>
       <c r="D32" t="n">
-        <v>5.695887</v>
+        <v>18.691658</v>
       </c>
       <c r="E32" t="n">
-        <v>2459447.785905</v>
+        <v>2459509.801369</v>
       </c>
       <c r="F32" t="n">
-        <v>1.617487</v>
+        <v>748.7146251</v>
       </c>
       <c r="G32" t="n">
-        <v>1.2809267</v>
+        <v>6.6689152</v>
       </c>
       <c r="H32" t="n">
-        <v>342.1852102</v>
+        <v>1655.3509066</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>1.3134056</v>
+        <v>3.4308988</v>
       </c>
       <c r="J32" t="n">
-        <v>197.2074933</v>
+        <v>0.1991332</v>
       </c>
       <c r="K32" t="n">
-        <v>955.7638559</v>
+        <v>170.3749226</v>
       </c>
       <c r="L32" t="n">
-        <v>9.039199999999999</v>
+        <v>8.3323</v>
       </c>
       <c r="M32" t="n">
-        <v>26.2533</v>
+        <v>46.2206</v>
       </c>
       <c r="N32" t="n">
-        <v>3900.68</v>
+        <v>5235</v>
       </c>
       <c r="O32" t="n">
-        <v>4.5239</v>
+        <v>4.5339</v>
       </c>
       <c r="P32" t="n">
-        <v>0.7017099999999999</v>
+        <v>0.844852</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>0.6595363756557957</v>
+        <v>1.024745179501231</v>
       </c>
       <c r="R32" t="n">
-        <v>0.01821666933803688</v>
+        <v>0.05116830388656043</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6965.01</v>
+        <v>5961.01</v>
       </c>
       <c r="B33" t="n">
-        <v>80224448</v>
+        <v>262689575</v>
       </c>
       <c r="C33" t="n">
-        <v>103.678273</v>
+        <v>349.216044</v>
       </c>
       <c r="D33" t="n">
-        <v>24.245141</v>
+        <v>5.695887</v>
       </c>
       <c r="E33" t="n">
-        <v>2459505.193695</v>
+        <v>2459447.785905</v>
       </c>
       <c r="F33" t="n">
-        <v>5.9693397</v>
+        <v>1.617487</v>
       </c>
       <c r="G33" t="n">
-        <v>3.441038</v>
+        <v>1.2809267</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5424205</v>
+        <v>342.1852102</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>1.3473608</v>
+        <v>1.3134056</v>
       </c>
       <c r="J33" t="n">
-        <v>334.6170929</v>
+        <v>197.2074933</v>
       </c>
       <c r="K33" t="n">
-        <v>1090.8292631</v>
+        <v>955.7638559</v>
       </c>
       <c r="L33" t="n">
-        <v>6.3103</v>
+        <v>9.039199999999999</v>
       </c>
       <c r="M33" t="n">
-        <v>31.1664</v>
+        <v>26.2533</v>
       </c>
       <c r="N33" t="n">
-        <v>6007</v>
+        <v>3900.68</v>
       </c>
       <c r="O33" t="n">
-        <v>4.37729</v>
+        <v>4.5239</v>
       </c>
       <c r="P33" t="n">
-        <v>1.12993</v>
+        <v>0.7017099999999999</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>0.7181866415369055</v>
+        <v>1.059534344419636</v>
       </c>
       <c r="R33" t="n">
-        <v>0.05173693479333623</v>
+        <v>0.01821666933803688</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6965.02</v>
+        <v>509.01</v>
       </c>
       <c r="B34" t="n">
-        <v>80224448</v>
+        <v>453211454</v>
       </c>
       <c r="C34" t="n">
-        <v>103.678273</v>
+        <v>117.924642</v>
       </c>
       <c r="D34" t="n">
-        <v>24.245141</v>
+        <v>9.385241000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>2459508.008646</v>
+        <v>2460269.974997</v>
       </c>
       <c r="F34" t="n">
-        <v>28.0693949</v>
+        <v>9.058820900000001</v>
       </c>
       <c r="G34" t="n">
-        <v>6.0393818</v>
+        <v>3.342</v>
       </c>
       <c r="H34" t="n">
-        <v>154.3008171</v>
+        <v>875</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>1.6221344</v>
+        <v>2.67607</v>
       </c>
       <c r="J34" t="n">
-        <v>42.4755605</v>
+        <v>92.839</v>
       </c>
       <c r="K34" t="n">
-        <v>651.1102456</v>
+        <v>864</v>
       </c>
       <c r="L34" t="n">
-        <v>6.3103</v>
+        <v>7.9259</v>
       </c>
       <c r="M34" t="n">
-        <v>31.1664</v>
+        <v>48.9739</v>
       </c>
       <c r="N34" t="n">
-        <v>6007</v>
+        <v>5560.26</v>
       </c>
       <c r="O34" t="n">
-        <v>4.37729</v>
+        <v>4.438</v>
       </c>
       <c r="P34" t="n">
-        <v>1.12993</v>
+        <v>0.96</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>0.7181866415369055</v>
+        <v>1.061668841907705</v>
       </c>
       <c r="R34" t="n">
-        <v>0.05173693479333623</v>
+        <v>0.1017032808558144</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>214.02</v>
+        <v>509.02</v>
       </c>
       <c r="B35" t="n">
-        <v>167415965</v>
+        <v>453211454</v>
       </c>
       <c r="C35" t="n">
-        <v>99.458741</v>
+        <v>117.924642</v>
       </c>
       <c r="D35" t="n">
-        <v>-70.931327</v>
+        <v>9.385241000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>2460174.709658</v>
+        <v>2460259.048369</v>
       </c>
       <c r="F35" t="n">
-        <v>9.695961</v>
+        <v>21.4003129</v>
       </c>
       <c r="G35" t="n">
-        <v>2.772</v>
+        <v>5.3847459</v>
       </c>
       <c r="H35" t="n">
-        <v>122</v>
+        <v>960.7539877</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>0.808552</v>
+        <v>3.0010426</v>
       </c>
       <c r="J35" t="n">
-        <v>66.2914</v>
+        <v>35.2811724</v>
       </c>
       <c r="K35" t="n">
-        <v>794</v>
+        <v>621.592122</v>
       </c>
       <c r="L35" t="n">
-        <v>8.008900000000001</v>
+        <v>7.9259</v>
       </c>
       <c r="M35" t="n">
-        <v>38.96</v>
+        <v>48.9739</v>
       </c>
       <c r="N35" t="n">
-        <v>5346.2</v>
+        <v>5560.26</v>
       </c>
       <c r="O35" t="n">
-        <v>4.6</v>
+        <v>4.438</v>
       </c>
       <c r="P35" t="n">
-        <v>0.8</v>
+        <v>0.962324</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>0.7275928301762715</v>
+        <v>1.061668841907705</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1669777466970116</v>
+        <v>0.1017032808558144</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>214.01</v>
+        <v>5392.01</v>
       </c>
       <c r="B36" t="n">
-        <v>167415965</v>
+        <v>198512478</v>
       </c>
       <c r="C36" t="n">
-        <v>99.458741</v>
+        <v>212.621349</v>
       </c>
       <c r="D36" t="n">
-        <v>-70.931327</v>
+        <v>72.58975700000001</v>
       </c>
       <c r="E36" t="n">
-        <v>2460154.945542</v>
+        <v>2460367.300993</v>
       </c>
       <c r="F36" t="n">
-        <v>18.5537012</v>
+        <v>17.5313321</v>
       </c>
       <c r="G36" t="n">
-        <v>3.438</v>
+        <v>4.334</v>
       </c>
       <c r="H36" t="n">
-        <v>448</v>
+        <v>306</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>1.57606</v>
+        <v>1.66838</v>
       </c>
       <c r="J36" t="n">
-        <v>25.0891</v>
+        <v>468.87</v>
       </c>
       <c r="K36" t="n">
-        <v>623</v>
+        <v>1296</v>
       </c>
       <c r="L36" t="n">
-        <v>8.008900000000001</v>
+        <v>8.1319</v>
       </c>
       <c r="M36" t="n">
-        <v>38.96</v>
+        <v>48.793</v>
       </c>
       <c r="N36" t="n">
-        <v>5346.2</v>
+        <v>5464</v>
       </c>
       <c r="O36" t="n">
-        <v>4.6</v>
+        <v>4.51</v>
       </c>
       <c r="P36" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>0.7275928301762715</v>
+        <v>1.064324053827933</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1669777466970116</v>
+        <v>0.05635993153899293</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>262.01</v>
+        <v>1776.01</v>
       </c>
       <c r="B37" t="n">
-        <v>70513361</v>
+        <v>21535395</v>
       </c>
       <c r="C37" t="n">
-        <v>32.534687</v>
+        <v>164.777291</v>
       </c>
       <c r="D37" t="n">
-        <v>-31.070627</v>
+        <v>40.983718</v>
       </c>
       <c r="E37" t="n">
-        <v>2459136.576258</v>
+        <v>2458871.488566</v>
       </c>
       <c r="F37" t="n">
-        <v>11.1452784</v>
+        <v>2.8009915</v>
       </c>
       <c r="G37" t="n">
-        <v>1.3947705</v>
+        <v>1.4985399</v>
       </c>
       <c r="H37" t="n">
-        <v>566.2736451</v>
+        <v>204.8553325</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>2.0671456</v>
+        <v>1.4033915</v>
       </c>
       <c r="J37" t="n">
-        <v>56.9132658</v>
+        <v>560.3349224</v>
       </c>
       <c r="K37" t="n">
-        <v>700.5241733</v>
+        <v>1240.8853925</v>
       </c>
       <c r="L37" t="n">
-        <v>8.134499999999999</v>
+        <v>7.6586</v>
       </c>
       <c r="M37" t="n">
-        <v>43.932</v>
+        <v>44.647</v>
       </c>
       <c r="N37" t="n">
-        <v>5302.58</v>
+        <v>5723.87</v>
       </c>
       <c r="O37" t="n">
-        <v>4.53515</v>
+        <v>4.49543</v>
       </c>
       <c r="P37" t="n">
-        <v>0.848675</v>
+        <v>0.945408</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>0.7509786365939464</v>
+        <v>1.06975163481739</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1492879722617396</v>
+        <v>0.1092036781983211</v>
       </c>
     </row>
     <row r="38">
@@ -2632,7 +2635,7 @@
         <v>0.63</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>0.7573579347875248</v>
+        <v>1.0925362451314</v>
       </c>
       <c r="R38" t="n">
         <v>0.2166081726537622</v>
@@ -2640,2337 +2643,1396 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>402.01</v>
+        <v>7062.01</v>
       </c>
       <c r="B39" t="n">
-        <v>120896927</v>
+        <v>23961340</v>
       </c>
       <c r="C39" t="n">
-        <v>36.867885</v>
+        <v>313.292091</v>
       </c>
       <c r="D39" t="n">
-        <v>-27.636117</v>
+        <v>-9.044055</v>
       </c>
       <c r="E39" t="n">
-        <v>2459139.126535</v>
+        <v>2460528.435521</v>
       </c>
       <c r="F39" t="n">
-        <v>4.7559737</v>
+        <v>10.5137924</v>
       </c>
       <c r="G39" t="n">
-        <v>2.5469696</v>
+        <v>2.275</v>
       </c>
       <c r="H39" t="n">
-        <v>398.6310113</v>
+        <v>1611</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>1.725417</v>
+        <v>3.1867</v>
       </c>
       <c r="J39" t="n">
-        <v>161.7314334</v>
+        <v>25.6571</v>
       </c>
       <c r="K39" t="n">
-        <v>909.5327855</v>
+        <v>627</v>
       </c>
       <c r="L39" t="n">
-        <v>8.3157</v>
+        <v>8.863</v>
       </c>
       <c r="M39" t="n">
-        <v>44.8155</v>
+        <v>47.6049</v>
       </c>
       <c r="N39" t="n">
-        <v>5175.2</v>
+        <v>4942</v>
       </c>
       <c r="O39" t="n">
-        <v>4.37657</v>
+        <v>4.58</v>
       </c>
       <c r="P39" t="n">
-        <v>0.841842</v>
+        <v>0.77</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>0.7628677312478804</v>
+        <v>1.113358310196863</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1131206969732151</v>
+        <v>0.02720601594492704</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>402.02</v>
+        <v>461.01</v>
       </c>
       <c r="B40" t="n">
-        <v>120896927</v>
+        <v>4646810</v>
       </c>
       <c r="C40" t="n">
-        <v>36.867885</v>
+        <v>38.271253</v>
       </c>
       <c r="D40" t="n">
-        <v>-27.636117</v>
+        <v>-10.352178</v>
       </c>
       <c r="E40" t="n">
-        <v>2459118.955569</v>
+        <v>2458416.351956</v>
       </c>
       <c r="F40" t="n">
-        <v>17.1807214</v>
+        <v>10.9245478</v>
       </c>
       <c r="G40" t="n">
-        <v>2.1004813</v>
+        <v>1.8716477</v>
       </c>
       <c r="H40" t="n">
-        <v>680.1385904</v>
+        <v>653.537141</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>2.1954034</v>
+        <v>1.9015018</v>
       </c>
       <c r="J40" t="n">
-        <v>29.1782002</v>
+        <v>35.242668</v>
       </c>
       <c r="K40" t="n">
-        <v>592.7674866</v>
+        <v>621.4224577</v>
       </c>
       <c r="L40" t="n">
-        <v>8.3157</v>
+        <v>8.872299999999999</v>
       </c>
       <c r="M40" t="n">
-        <v>44.8155</v>
+        <v>45.5621</v>
       </c>
       <c r="N40" t="n">
-        <v>5175.2</v>
+        <v>4884</v>
       </c>
       <c r="O40" t="n">
-        <v>4.37657</v>
+        <v>4.49</v>
       </c>
       <c r="P40" t="n">
-        <v>0.841842</v>
+        <v>0.74413</v>
       </c>
       <c r="Q40" s="3" t="n">
-        <v>0.7628677312478804</v>
+        <v>1.116655495291831</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1131206969732151</v>
+        <v>0.09656722333313997</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6266.01</v>
+        <v>7052.01</v>
       </c>
       <c r="B41" t="n">
-        <v>193023697</v>
+        <v>22038430</v>
       </c>
       <c r="C41" t="n">
-        <v>155.597851</v>
+        <v>268.95853</v>
       </c>
       <c r="D41" t="n">
-        <v>-28.847487</v>
+        <v>33.419623</v>
       </c>
       <c r="E41" t="n">
-        <v>2460013.265158</v>
+        <v>2460500.659766</v>
       </c>
       <c r="F41" t="n">
-        <v>2.7895524</v>
+        <v>2.8862017</v>
       </c>
       <c r="G41" t="n">
-        <v>1.969</v>
+        <v>0.487</v>
       </c>
       <c r="H41" t="n">
-        <v>262</v>
+        <v>412</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>0.986147</v>
+        <v>1.71911</v>
       </c>
       <c r="J41" t="n">
-        <v>376.853</v>
+        <v>15.4038</v>
       </c>
       <c r="K41" t="n">
-        <v>1227</v>
+        <v>551</v>
       </c>
       <c r="L41" t="n">
-        <v>8.5953</v>
+        <v>8.9588</v>
       </c>
       <c r="M41" t="n">
-        <v>42.6435</v>
+        <v>29.7194</v>
       </c>
       <c r="N41" t="n">
-        <v>5039</v>
+        <v>4269</v>
       </c>
       <c r="O41" t="n">
-        <v>4.62</v>
+        <v>4.65</v>
       </c>
       <c r="P41" t="n">
-        <v>0.74</v>
+        <v>0.64</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>0.7675547898499949</v>
+        <v>1.1181380300198</v>
       </c>
       <c r="R41" t="n">
-        <v>0.01595707167941454</v>
+        <v>0.1166629664479221</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>174.03</v>
+        <v>1807.01</v>
       </c>
       <c r="B42" t="n">
-        <v>425997655</v>
+        <v>180695581</v>
       </c>
       <c r="C42" t="n">
-        <v>55.459031</v>
+        <v>201.282626</v>
       </c>
       <c r="D42" t="n">
-        <v>-62.767267</v>
+        <v>38.922367</v>
       </c>
       <c r="E42" t="n">
-        <v>2460184.414244</v>
+        <v>2459664.070547</v>
       </c>
       <c r="F42" t="n">
-        <v>12.1623316</v>
+        <v>0.54937</v>
       </c>
       <c r="G42" t="n">
-        <v>2.614</v>
+        <v>0.883</v>
       </c>
       <c r="H42" t="n">
-        <v>317</v>
+        <v>370</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>1.15643</v>
+        <v>1.53904</v>
       </c>
       <c r="J42" t="n">
-        <v>27.5458</v>
+        <v>1407.22</v>
       </c>
       <c r="K42" t="n">
-        <v>638</v>
+        <v>1706</v>
       </c>
       <c r="L42" t="n">
-        <v>8.751300000000001</v>
+        <v>9.036300000000001</v>
       </c>
       <c r="M42" t="n">
-        <v>39.0341</v>
+        <v>42.5775</v>
       </c>
       <c r="N42" t="n">
-        <v>4813</v>
+        <v>4612.99</v>
       </c>
       <c r="O42" t="n">
-        <v>4.38</v>
+        <v>4.56172</v>
       </c>
       <c r="P42" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="Q42" s="3" t="n">
-        <v>0.7830204577516093</v>
+        <v>1.128211929288773</v>
       </c>
       <c r="R42" t="n">
-        <v>0.05462548793553362</v>
+        <v>0.06379238266733318</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>174.01</v>
+        <v>2018.01</v>
       </c>
       <c r="B43" t="n">
-        <v>425997655</v>
+        <v>357501308</v>
       </c>
       <c r="C43" t="n">
-        <v>55.459031</v>
+        <v>229.837442</v>
       </c>
       <c r="D43" t="n">
-        <v>-62.767267</v>
+        <v>29.207877</v>
       </c>
       <c r="E43" t="n">
-        <v>2460180.378105</v>
+        <v>2458958.257962</v>
       </c>
       <c r="F43" t="n">
-        <v>17.6671687</v>
+        <v>7.4355709</v>
       </c>
       <c r="G43" t="n">
-        <v>2.525</v>
+        <v>2.3450321</v>
       </c>
       <c r="H43" t="n">
-        <v>854</v>
+        <v>1310.6803156</v>
       </c>
       <c r="I43" s="3" t="n">
-        <v>1.87042</v>
+        <v>2.2761564</v>
       </c>
       <c r="J43" t="n">
-        <v>7.60884</v>
+        <v>26.0757607</v>
       </c>
       <c r="K43" t="n">
-        <v>462</v>
+        <v>576.3403106</v>
       </c>
       <c r="L43" t="n">
-        <v>8.751300000000001</v>
+        <v>8.962</v>
       </c>
       <c r="M43" t="n">
-        <v>39.0341</v>
+        <v>27.9956</v>
       </c>
       <c r="N43" t="n">
-        <v>4813</v>
+        <v>4218.9</v>
       </c>
       <c r="O43" t="n">
-        <v>4.38</v>
+        <v>4.67</v>
       </c>
       <c r="P43" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.622512</v>
       </c>
       <c r="Q43" s="3" t="n">
-        <v>0.7830204577516093</v>
+        <v>1.184954404382703</v>
       </c>
       <c r="R43" t="n">
-        <v>0.05462548793553362</v>
+        <v>0.2100230324201724</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>174.05</v>
+        <v>5972.01</v>
       </c>
       <c r="B44" t="n">
-        <v>425997655</v>
+        <v>420814525</v>
       </c>
       <c r="C44" t="n">
-        <v>55.459031</v>
+        <v>330.795022</v>
       </c>
       <c r="D44" t="n">
-        <v>-62.767267</v>
+        <v>18.884242</v>
       </c>
       <c r="E44" t="n">
-        <v>2460197.038739</v>
+        <v>2460552.87974</v>
       </c>
       <c r="F44" t="n">
-        <v>7.9076222</v>
+        <v>3.5247546</v>
       </c>
       <c r="G44" t="n">
-        <v>2.611</v>
+        <v>2.958</v>
       </c>
       <c r="H44" t="n">
-        <v>217</v>
+        <v>17803</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>0.969819</v>
+        <v>16.3776</v>
       </c>
       <c r="J44" t="n">
-        <v>44.8107</v>
+        <v>587.098</v>
       </c>
       <c r="K44" t="n">
-        <v>720</v>
+        <v>1371</v>
       </c>
       <c r="L44" t="n">
-        <v>8.751300000000001</v>
+        <v>7.1274</v>
       </c>
       <c r="M44" t="n">
-        <v>39.0341</v>
+        <v>48.3016</v>
       </c>
       <c r="N44" t="n">
-        <v>4813</v>
+        <v>6052</v>
       </c>
       <c r="O44" t="n">
-        <v>4.38</v>
+        <v>4.34258</v>
       </c>
       <c r="P44" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="Q44" s="3" t="n">
-        <v>0.7830204577516093</v>
+        <v>1.191718672573501</v>
       </c>
       <c r="R44" t="n">
-        <v>0.05462548793553362</v>
+        <v>0.01731301595994347</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>174.02</v>
+        <v>6249.01</v>
       </c>
       <c r="B45" t="n">
-        <v>425997655</v>
+        <v>456260074</v>
       </c>
       <c r="C45" t="n">
-        <v>55.459031</v>
+        <v>101.492034</v>
       </c>
       <c r="D45" t="n">
-        <v>-62.767267</v>
+        <v>66.89064399999999</v>
       </c>
       <c r="E45" t="n">
-        <v>2460157.951364</v>
+        <v>2458853.470005</v>
       </c>
       <c r="F45" t="n">
-        <v>29.7975205</v>
+        <v>1092.002299</v>
       </c>
       <c r="G45" t="n">
-        <v>2.782</v>
+        <v>5.604929</v>
       </c>
       <c r="H45" t="n">
-        <v>671</v>
+        <v>1689.5997267</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>1.60982</v>
+        <v>3.1384101</v>
       </c>
       <c r="J45" t="n">
-        <v>3.2713</v>
+        <v>0.0742263</v>
       </c>
       <c r="K45" t="n">
-        <v>374</v>
+        <v>133.1248776</v>
       </c>
       <c r="L45" t="n">
-        <v>8.751300000000001</v>
+        <v>9.0449</v>
       </c>
       <c r="M45" t="n">
-        <v>39.0341</v>
+        <v>47.9491</v>
       </c>
       <c r="N45" t="n">
         <v>4813</v>
       </c>
       <c r="O45" t="n">
-        <v>4.38</v>
+        <v>4.57884</v>
       </c>
       <c r="P45" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.751037</v>
       </c>
       <c r="Q45" s="3" t="n">
-        <v>0.7830204577516093</v>
+        <v>1.195614194869303</v>
       </c>
       <c r="R45" t="n">
-        <v>0.05462548793553362</v>
+        <v>0.01675017502121713</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>174.04</v>
+        <v>6249.02</v>
       </c>
       <c r="B46" t="n">
-        <v>425997655</v>
+        <v>456260074</v>
       </c>
       <c r="C46" t="n">
-        <v>55.459031</v>
+        <v>101.492034</v>
       </c>
       <c r="D46" t="n">
-        <v>-62.767267</v>
+        <v>66.89064399999999</v>
       </c>
       <c r="E46" t="n">
-        <v>2460203.017928</v>
+        <v>2458844.107949</v>
       </c>
       <c r="F46" t="n">
-        <v>3.9766833</v>
+        <v>15.5739143</v>
       </c>
       <c r="G46" t="n">
-        <v>1.859</v>
+        <v>2.4269262</v>
       </c>
       <c r="H46" t="n">
-        <v>142</v>
+        <v>779.9193691</v>
       </c>
       <c r="I46" s="3" t="n">
-        <v>0.757588</v>
+        <v>2.5864246</v>
       </c>
       <c r="J46" t="n">
-        <v>89.0886</v>
+        <v>21.461443</v>
       </c>
       <c r="K46" t="n">
-        <v>855</v>
+        <v>548.952136</v>
       </c>
       <c r="L46" t="n">
-        <v>8.751300000000001</v>
+        <v>9.0449</v>
       </c>
       <c r="M46" t="n">
-        <v>39.0341</v>
+        <v>47.9491</v>
       </c>
       <c r="N46" t="n">
         <v>4813</v>
       </c>
       <c r="O46" t="n">
-        <v>4.38</v>
+        <v>4.57884</v>
       </c>
       <c r="P46" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.751037</v>
       </c>
       <c r="Q46" s="3" t="n">
-        <v>0.7830204577516093</v>
+        <v>1.195614194869303</v>
       </c>
       <c r="R46" t="n">
-        <v>0.05462548793553362</v>
+        <v>0.01675017502121713</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4307.02</v>
+        <v>1411.01</v>
       </c>
       <c r="B47" t="n">
-        <v>141186075</v>
+        <v>116483514</v>
       </c>
       <c r="C47" t="n">
-        <v>81.32749800000001</v>
+        <v>232.946047</v>
       </c>
       <c r="D47" t="n">
-        <v>-75.69373400000001</v>
+        <v>47.055551</v>
       </c>
       <c r="E47" t="n">
-        <v>2458328.004126</v>
+        <v>2460447.085367</v>
       </c>
       <c r="F47" t="n">
-        <v>4.6545798</v>
+        <v>1.4520486</v>
       </c>
       <c r="G47" t="n">
-        <v>3.1445137</v>
+        <v>1.339</v>
       </c>
       <c r="H47" t="n">
-        <v>24.5834929</v>
+        <v>393</v>
       </c>
       <c r="I47" s="3" t="n">
-        <v>0.5531037</v>
+        <v>1.404</v>
       </c>
       <c r="J47" t="n">
-        <v>454.0182322</v>
+        <v>266.85</v>
       </c>
       <c r="K47" t="n">
-        <v>1177.3025181</v>
+        <v>1125</v>
       </c>
       <c r="L47" t="n">
-        <v>6.6418</v>
+        <v>9.1043</v>
       </c>
       <c r="M47" t="n">
-        <v>36.0469</v>
+        <v>32.4778</v>
       </c>
       <c r="N47" t="n">
-        <v>6079.16</v>
+        <v>4184</v>
       </c>
       <c r="O47" t="n">
-        <v>4.438</v>
+        <v>4.57376</v>
       </c>
       <c r="P47" t="n">
-        <v>1.09843</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q47" s="3" t="n">
-        <v>0.7994076233898318</v>
+        <v>1.205326888273188</v>
       </c>
       <c r="R47" t="n">
-        <v>0.1616304778941326</v>
+        <v>0.1692002171172093</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4307.01</v>
+        <v>5997.01</v>
       </c>
       <c r="B48" t="n">
-        <v>141186075</v>
+        <v>39516274</v>
       </c>
       <c r="C48" t="n">
-        <v>81.32749800000001</v>
+        <v>263.152578</v>
       </c>
       <c r="D48" t="n">
-        <v>-75.69373400000001</v>
+        <v>33.570556</v>
       </c>
       <c r="E48" t="n">
-        <v>2458349.759358</v>
+        <v>2458985.158761</v>
       </c>
       <c r="F48" t="n">
-        <v>32.696666</v>
+        <v>5.655018</v>
       </c>
       <c r="G48" t="n">
-        <v>4.428309</v>
+        <v>1.7818546</v>
       </c>
       <c r="H48" t="n">
-        <v>108.5170828</v>
+        <v>356.813695</v>
       </c>
       <c r="I48" s="3" t="n">
-        <v>1.3159881</v>
+        <v>1.5874236</v>
       </c>
       <c r="J48" t="n">
-        <v>33.7475807</v>
+        <v>67.20143210000001</v>
       </c>
       <c r="K48" t="n">
-        <v>614.7243418</v>
+        <v>730.2379204</v>
       </c>
       <c r="L48" t="n">
-        <v>6.6418</v>
+        <v>9.2576</v>
       </c>
       <c r="M48" t="n">
-        <v>36.0469</v>
+        <v>46.521</v>
       </c>
       <c r="N48" t="n">
-        <v>6079.16</v>
+        <v>4674</v>
       </c>
       <c r="O48" t="n">
-        <v>4.438</v>
+        <v>4.61121</v>
       </c>
       <c r="P48" t="n">
-        <v>1.09843</v>
+        <v>0.704768</v>
       </c>
       <c r="Q48" s="3" t="n">
-        <v>0.7994076233898318</v>
+        <v>1.241545346976267</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1616304778941326</v>
+        <v>0.1440519013547189</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6985.01</v>
+        <v>5809.01</v>
       </c>
       <c r="B49" t="n">
-        <v>59490344</v>
+        <v>283471501</v>
       </c>
       <c r="C49" t="n">
-        <v>108.993831</v>
+        <v>314.549077</v>
       </c>
       <c r="D49" t="n">
-        <v>18.691658</v>
+        <v>40.192264</v>
       </c>
       <c r="E49" t="n">
-        <v>2459509.801369</v>
+        <v>2460541.532262</v>
       </c>
       <c r="F49" t="n">
-        <v>748.7146251</v>
+        <v>9.210319399999999</v>
       </c>
       <c r="G49" t="n">
-        <v>6.6689152</v>
+        <v>2.341</v>
       </c>
       <c r="H49" t="n">
-        <v>1655.3509066</v>
+        <v>853</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>3.4308988</v>
+        <v>2.62813</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1991332</v>
+        <v>26.9787</v>
       </c>
       <c r="K49" t="n">
-        <v>170.3749226</v>
+        <v>634</v>
       </c>
       <c r="L49" t="n">
-        <v>8.3323</v>
-      </c>
-      <c r="M49" t="n">
-        <v>46.2206</v>
+        <v>9.320600000000001</v>
       </c>
       <c r="N49" t="n">
-        <v>5235</v>
-      </c>
-      <c r="O49" t="n">
-        <v>4.5339</v>
+        <v>4115.1</v>
       </c>
       <c r="P49" t="n">
-        <v>0.844852</v>
+        <v>0.88</v>
       </c>
       <c r="Q49" s="3" t="n">
-        <v>0.801501182634099</v>
+        <v>1.266231092040509</v>
       </c>
       <c r="R49" t="n">
-        <v>0.05116830388656043</v>
+        <v>0.1596334725227671</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6709.01</v>
+        <v>544.01</v>
       </c>
       <c r="B50" t="n">
-        <v>20375215</v>
+        <v>50618703</v>
       </c>
       <c r="C50" t="n">
-        <v>167.608218</v>
+        <v>82.290072</v>
       </c>
       <c r="D50" t="n">
-        <v>-29.414302</v>
+        <v>-0.342898</v>
       </c>
       <c r="E50" t="n">
-        <v>2458544.543307</v>
+        <v>2458469.756983</v>
       </c>
       <c r="F50" t="n">
-        <v>2.3477336</v>
+        <v>1.5483542</v>
       </c>
       <c r="G50" t="n">
-        <v>1.8624266</v>
+        <v>1.2030925</v>
       </c>
       <c r="H50" t="n">
-        <v>182.9434914</v>
+        <v>926.4111032</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>1.0903541</v>
+        <v>2.1601741</v>
       </c>
       <c r="J50" t="n">
-        <v>215.4979378</v>
+        <v>240.1950345</v>
       </c>
       <c r="K50" t="n">
-        <v>977.1934094</v>
+        <v>1004.0625199</v>
       </c>
       <c r="L50" t="n">
-        <v>8.8392</v>
+        <v>9.650399999999999</v>
       </c>
       <c r="M50" t="n">
-        <v>39.7429</v>
+        <v>41.1166</v>
       </c>
       <c r="N50" t="n">
-        <v>4799</v>
+        <v>4665</v>
       </c>
       <c r="O50" t="n">
-        <v>4.66766</v>
+        <v>4.67631</v>
       </c>
       <c r="P50" t="n">
-        <v>0.678033</v>
+        <v>0.6634139999999999</v>
       </c>
       <c r="Q50" s="3" t="n">
-        <v>0.8070233188124741</v>
+        <v>1.373786090337297</v>
       </c>
       <c r="R50" t="n">
-        <v>0.03672621597918261</v>
+        <v>0.04285830752449767</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2459.01</v>
+        <v>5140.01</v>
       </c>
       <c r="B51" t="n">
-        <v>192790476</v>
+        <v>175193677</v>
       </c>
       <c r="C51" t="n">
-        <v>82.143332</v>
+        <v>129.689446</v>
       </c>
       <c r="D51" t="n">
-        <v>-39.373046</v>
+        <v>23.685265</v>
       </c>
       <c r="E51" t="n">
-        <v>2458452.334564</v>
+        <v>2459547.722323</v>
       </c>
       <c r="F51" t="n">
-        <v>19.1047019</v>
+        <v>15.6113633</v>
       </c>
       <c r="G51" t="n">
-        <v>3.2516728</v>
+        <v>3.2002615</v>
       </c>
       <c r="H51" t="n">
-        <v>1906.0596245</v>
+        <v>520.4897607</v>
       </c>
       <c r="I51" s="3" t="n">
-        <v>2.9365337</v>
+        <v>2.9033347</v>
       </c>
       <c r="J51" t="n">
-        <v>8.5187297</v>
+        <v>111.9728668</v>
       </c>
       <c r="K51" t="n">
-        <v>435.7259839</v>
+        <v>829.6557911</v>
       </c>
       <c r="L51" t="n">
-        <v>9.395099999999999</v>
+        <v>6.3687</v>
       </c>
       <c r="M51" t="n">
-        <v>36.6113</v>
+        <v>35.26</v>
       </c>
       <c r="N51" t="n">
-        <v>4195</v>
+        <v>6061.77</v>
       </c>
       <c r="O51" t="n">
-        <v>4.59888</v>
+        <v>4.31439</v>
       </c>
       <c r="P51" t="n">
-        <v>0.6750930000000001</v>
+        <v>1.22568</v>
       </c>
       <c r="Q51" s="3" t="n">
-        <v>0.8304488523779201</v>
+        <v>1.457313216125925</v>
       </c>
       <c r="R51" t="n">
-        <v>0.04566165863559627</v>
+        <v>0.07805369350328827</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>509.01</v>
+        <v>6058.01</v>
       </c>
       <c r="B52" t="n">
-        <v>453211454</v>
+        <v>144006874</v>
       </c>
       <c r="C52" t="n">
-        <v>117.924642</v>
+        <v>81.40224499999999</v>
       </c>
       <c r="D52" t="n">
-        <v>9.385241000000001</v>
+        <v>37.118266</v>
       </c>
       <c r="E52" t="n">
-        <v>2460269.974997</v>
+        <v>2459935.968189</v>
       </c>
       <c r="F52" t="n">
-        <v>9.058820900000001</v>
+        <v>2.3673676</v>
       </c>
       <c r="G52" t="n">
-        <v>3.342</v>
+        <v>1.045</v>
       </c>
       <c r="H52" t="n">
-        <v>875</v>
+        <v>550</v>
       </c>
       <c r="I52" s="3" t="n">
-        <v>2.67607</v>
+        <v>1.78396</v>
       </c>
       <c r="J52" t="n">
-        <v>92.839</v>
+        <v>58.4073</v>
       </c>
       <c r="K52" t="n">
-        <v>864</v>
+        <v>770</v>
       </c>
       <c r="L52" t="n">
-        <v>7.9259</v>
+        <v>9.5951</v>
       </c>
       <c r="M52" t="n">
-        <v>48.9739</v>
+        <v>47.6869</v>
       </c>
       <c r="N52" t="n">
-        <v>5560.26</v>
+        <v>4403</v>
       </c>
       <c r="O52" t="n">
-        <v>4.438</v>
+        <v>4.58</v>
       </c>
       <c r="P52" t="n">
-        <v>0.96</v>
+        <v>0.71</v>
       </c>
       <c r="Q52" s="3" t="n">
-        <v>0.842554396475881</v>
+        <v>1.517865485656713</v>
       </c>
       <c r="R52" t="n">
-        <v>0.1017032808558144</v>
+        <v>0.04668015033414173</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>509.02</v>
+        <v>5554.01</v>
       </c>
       <c r="B53" t="n">
-        <v>453211454</v>
+        <v>91287873</v>
       </c>
       <c r="C53" t="n">
-        <v>117.924642</v>
+        <v>104.74387</v>
       </c>
       <c r="D53" t="n">
-        <v>9.385241000000001</v>
+        <v>28.715768</v>
       </c>
       <c r="E53" t="n">
-        <v>2460259.048369</v>
+        <v>2459515.17161</v>
       </c>
       <c r="F53" t="n">
-        <v>21.4003129</v>
+        <v>26.694279</v>
       </c>
       <c r="G53" t="n">
-        <v>5.3847459</v>
+        <v>3.7831301</v>
       </c>
       <c r="H53" t="n">
-        <v>960.7539877</v>
+        <v>1854.2924324</v>
       </c>
       <c r="I53" s="3" t="n">
-        <v>3.0010426</v>
+        <v>2.6845863</v>
       </c>
       <c r="J53" t="n">
-        <v>35.2811724</v>
+        <v>4.0851419</v>
       </c>
       <c r="K53" t="n">
-        <v>621.592122</v>
+        <v>362.5947706</v>
       </c>
       <c r="L53" t="n">
-        <v>7.9259</v>
+        <v>9.83733</v>
       </c>
       <c r="M53" t="n">
-        <v>48.9739</v>
+        <v>39.4478</v>
       </c>
       <c r="N53" t="n">
-        <v>5560.26</v>
+        <v>3997</v>
       </c>
       <c r="O53" t="n">
-        <v>4.438</v>
+        <v>4.6288</v>
       </c>
       <c r="P53" t="n">
-        <v>0.962324</v>
+        <v>0.626722</v>
       </c>
       <c r="Q53" s="3" t="n">
-        <v>0.842554396475881</v>
+        <v>1.627954212787946</v>
       </c>
       <c r="R53" t="n">
-        <v>0.1017032808558144</v>
+        <v>0.05933370243670238</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6678.01</v>
+        <v>2431.01</v>
       </c>
       <c r="B54" t="n">
-        <v>253864764</v>
+        <v>258804746</v>
       </c>
       <c r="C54" t="n">
-        <v>283.536275</v>
+        <v>37.765299</v>
       </c>
       <c r="D54" t="n">
-        <v>-36.65686</v>
+        <v>8.381625</v>
       </c>
       <c r="E54" t="n">
-        <v>2460149.83497</v>
+        <v>2460258.868869</v>
       </c>
       <c r="F54" t="n">
-        <v>3.4268387</v>
+        <v>0.224195</v>
       </c>
       <c r="G54" t="n">
-        <v>1.288</v>
+        <v>0.292</v>
       </c>
       <c r="H54" t="n">
-        <v>844</v>
+        <v>540</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>2.12571</v>
+        <v>5.59553</v>
       </c>
       <c r="J54" t="n">
-        <v>94.0962</v>
+        <v>2649.15</v>
       </c>
       <c r="K54" t="n">
-        <v>867</v>
+        <v>1998</v>
       </c>
       <c r="L54" t="n">
-        <v>8.8688</v>
+        <v>9.520899999999999</v>
       </c>
       <c r="M54" t="n">
-        <v>44.8496</v>
+        <v>36.0559</v>
       </c>
       <c r="N54" t="n">
-        <v>4794</v>
+        <v>4079</v>
       </c>
       <c r="O54" t="n">
-        <v>4.55</v>
+        <v>4.58</v>
       </c>
       <c r="P54" t="n">
-        <v>0.77</v>
+        <v>0.68</v>
       </c>
       <c r="Q54" s="3" t="n">
-        <v>0.8460331487101693</v>
+        <v>1.650127957691832</v>
       </c>
       <c r="R54" t="n">
-        <v>0.0352176809563584</v>
+        <v>0.1915281956726753</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>461.01</v>
+        <v>1486.01</v>
       </c>
       <c r="B55" t="n">
-        <v>4646810</v>
+        <v>233541860</v>
       </c>
       <c r="C55" t="n">
-        <v>38.271253</v>
+        <v>281.197877</v>
       </c>
       <c r="D55" t="n">
-        <v>-10.352178</v>
+        <v>62.685644</v>
       </c>
       <c r="E55" t="n">
-        <v>2458416.351956</v>
+        <v>2459635.536646</v>
       </c>
       <c r="F55" t="n">
-        <v>10.9245478</v>
+        <v>0.2666485</v>
       </c>
       <c r="G55" t="n">
-        <v>1.8716477</v>
+        <v>1.075</v>
       </c>
       <c r="H55" t="n">
-        <v>653.537141</v>
+        <v>230</v>
       </c>
       <c r="I55" s="3" t="n">
-        <v>1.9015018</v>
+        <v>1.30468</v>
       </c>
       <c r="J55" t="n">
-        <v>35.242668</v>
+        <v>3064.12</v>
       </c>
       <c r="K55" t="n">
-        <v>621.4224577</v>
+        <v>2072</v>
       </c>
       <c r="L55" t="n">
-        <v>8.872299999999999</v>
+        <v>9.959199999999999</v>
       </c>
       <c r="M55" t="n">
-        <v>45.5621</v>
+        <v>44.3531</v>
       </c>
       <c r="N55" t="n">
-        <v>4884</v>
+        <v>4154</v>
       </c>
       <c r="O55" t="n">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
       <c r="P55" t="n">
-        <v>0.74413</v>
+        <v>0.71</v>
       </c>
       <c r="Q55" s="3" t="n">
-        <v>0.8527980511516221</v>
+        <v>1.65695721791391</v>
       </c>
       <c r="R55" t="n">
-        <v>0.09656722333313997</v>
+        <v>0.03110876237070922</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>7062.01</v>
+        <v>1759.01</v>
       </c>
       <c r="B56" t="n">
-        <v>23961340</v>
+        <v>408636441</v>
       </c>
       <c r="C56" t="n">
-        <v>313.292091</v>
+        <v>326.851662</v>
       </c>
       <c r="D56" t="n">
-        <v>-9.044055</v>
+        <v>62.753816</v>
       </c>
       <c r="E56" t="n">
-        <v>2460528.435521</v>
+        <v>2460404.266149</v>
       </c>
       <c r="F56" t="n">
-        <v>10.5137924</v>
+        <v>18.8500438</v>
       </c>
       <c r="G56" t="n">
-        <v>2.275</v>
+        <v>3.407</v>
       </c>
       <c r="H56" t="n">
-        <v>1611</v>
+        <v>2610</v>
       </c>
       <c r="I56" s="3" t="n">
-        <v>3.1867</v>
+        <v>3.09094</v>
       </c>
       <c r="J56" t="n">
-        <v>25.6571</v>
+        <v>5.95531</v>
       </c>
       <c r="K56" t="n">
-        <v>627</v>
+        <v>435</v>
       </c>
       <c r="L56" t="n">
-        <v>8.863</v>
+        <v>9.928380000000001</v>
       </c>
       <c r="M56" t="n">
-        <v>47.6049</v>
+        <v>40.0654</v>
       </c>
       <c r="N56" t="n">
-        <v>4942</v>
+        <v>3960</v>
       </c>
       <c r="O56" t="n">
-        <v>4.58</v>
+        <v>4.62853</v>
       </c>
       <c r="P56" t="n">
-        <v>0.77</v>
+        <v>0.63</v>
       </c>
       <c r="Q56" s="3" t="n">
-        <v>0.8582848736645433</v>
+        <v>1.743539432563141</v>
       </c>
       <c r="R56" t="n">
-        <v>0.02720601594492704</v>
+        <v>0.08769119345162939</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6726.01</v>
+        <v>4610.01</v>
       </c>
       <c r="B57" t="n">
-        <v>121490076</v>
+        <v>1950736</v>
       </c>
       <c r="C57" t="n">
-        <v>343.572379</v>
+        <v>79.04324</v>
       </c>
       <c r="D57" t="n">
-        <v>-43.010229</v>
+        <v>30.585072</v>
       </c>
       <c r="E57" t="n">
-        <v>2460160.495921</v>
+        <v>2460307.729373</v>
       </c>
       <c r="F57" t="n">
-        <v>14.2456603</v>
+        <v>3.1129681</v>
       </c>
       <c r="G57" t="n">
-        <v>3.403</v>
+        <v>2.308</v>
       </c>
       <c r="H57" t="n">
-        <v>1084</v>
+        <v>585</v>
       </c>
       <c r="I57" s="3" t="n">
-        <v>3.68209</v>
+        <v>1.5002</v>
       </c>
       <c r="J57" t="n">
-        <v>180.487</v>
+        <v>151.507</v>
       </c>
       <c r="K57" t="n">
-        <v>1021</v>
+        <v>977</v>
       </c>
       <c r="L57" t="n">
-        <v>8.998799999999999</v>
+        <v>10.0745</v>
       </c>
       <c r="M57" t="n">
-        <v>46.2122</v>
+        <v>47.914</v>
       </c>
       <c r="N57" t="n">
-        <v>4760</v>
+        <v>4104</v>
       </c>
       <c r="O57" t="n">
         <v>4.57</v>
       </c>
       <c r="P57" t="n">
-        <v>0.76</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q57" s="3" t="n">
-        <v>0.8755490982267587</v>
+        <v>1.928498791447363</v>
       </c>
       <c r="R57" t="n">
-        <v>0.01321577041923607</v>
+        <v>0.06653290396318375</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2018.01</v>
+        <v>5955.01</v>
       </c>
       <c r="B58" t="n">
-        <v>357501308</v>
+        <v>434116397</v>
       </c>
       <c r="C58" t="n">
-        <v>229.837442</v>
+        <v>355.467833</v>
       </c>
       <c r="D58" t="n">
-        <v>29.207877</v>
+        <v>14.106803</v>
       </c>
       <c r="E58" t="n">
-        <v>2458958.257962</v>
+        <v>2459825.845336</v>
       </c>
       <c r="F58" t="n">
-        <v>7.4355709</v>
+        <v>0.5902387</v>
       </c>
       <c r="G58" t="n">
-        <v>2.3450321</v>
+        <v>1.045052</v>
       </c>
       <c r="H58" t="n">
-        <v>1310.6803156</v>
+        <v>518.7240999000001</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>2.2761564</v>
+        <v>1.6802901</v>
       </c>
       <c r="J58" t="n">
-        <v>26.0757607</v>
+        <v>517.0065166000001</v>
       </c>
       <c r="K58" t="n">
-        <v>576.3403106</v>
+        <v>1216.1685093</v>
       </c>
       <c r="L58" t="n">
-        <v>8.962</v>
+        <v>10.3224</v>
       </c>
       <c r="M58" t="n">
-        <v>27.9956</v>
+        <v>42.8747</v>
       </c>
       <c r="N58" t="n">
-        <v>4218.9</v>
+        <v>3844</v>
       </c>
       <c r="O58" t="n">
-        <v>4.67</v>
+        <v>4.6589</v>
       </c>
       <c r="P58" t="n">
-        <v>0.622512</v>
+        <v>0.590924</v>
       </c>
       <c r="Q58" s="3" t="n">
-        <v>0.8895167524026653</v>
+        <v>2.099223907159651</v>
       </c>
       <c r="R58" t="n">
-        <v>0.2100230324201724</v>
+        <v>0.1022963165103159</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>652.01</v>
+        <v>5801.01</v>
       </c>
       <c r="B59" t="n">
-        <v>22221375</v>
+        <v>243921117</v>
       </c>
       <c r="C59" t="n">
-        <v>149.123515</v>
+        <v>303.1668</v>
       </c>
       <c r="D59" t="n">
-        <v>-24.099186</v>
+        <v>-2.144437</v>
       </c>
       <c r="E59" t="n">
-        <v>2460013.591733</v>
+        <v>2459770.026754</v>
       </c>
       <c r="F59" t="n">
-        <v>3.9846589</v>
+        <v>3.067816</v>
       </c>
       <c r="G59" t="n">
-        <v>2.146</v>
+        <v>2.1103325</v>
       </c>
       <c r="H59" t="n">
-        <v>445</v>
+        <v>34536.7848173</v>
       </c>
       <c r="I59" s="3" t="n">
-        <v>2.12827</v>
+        <v>11.7996868</v>
       </c>
       <c r="J59" t="n">
-        <v>647.901</v>
+        <v>72.44198299999999</v>
       </c>
       <c r="K59" t="n">
-        <v>1405</v>
+        <v>744.0760606</v>
       </c>
       <c r="L59" t="n">
-        <v>7.3635</v>
+        <v>10.3622</v>
       </c>
       <c r="M59" t="n">
-        <v>45.683</v>
+        <v>49.7876</v>
       </c>
       <c r="N59" t="n">
-        <v>5903</v>
+        <v>3965</v>
       </c>
       <c r="O59" t="n">
-        <v>4.44653</v>
+        <v>4.62</v>
       </c>
       <c r="P59" t="n">
-        <v>1.03</v>
+        <v>0.636572</v>
       </c>
       <c r="Q59" s="3" t="n">
-        <v>0.8937733752542706</v>
+        <v>2.161818741545839</v>
       </c>
       <c r="R59" t="n">
-        <v>0.09064358833580949</v>
+        <v>0.07251061220725062</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>440.01</v>
+        <v>2274.02</v>
       </c>
       <c r="B60" t="n">
-        <v>143350972</v>
+        <v>289164482</v>
       </c>
       <c r="C60" t="n">
-        <v>82.245986</v>
+        <v>277.459311</v>
       </c>
       <c r="D60" t="n">
-        <v>-17.429564</v>
+        <v>40.541412</v>
       </c>
       <c r="E60" t="n">
-        <v>2458439.13519</v>
+        <v>2460337.873035</v>
       </c>
       <c r="F60" t="n">
-        <v>1.0817</v>
+        <v>1.1188024</v>
       </c>
       <c r="G60" t="n">
-        <v>1.588</v>
+        <v>1.119</v>
       </c>
       <c r="H60" t="n">
-        <v>341.533</v>
+        <v>427</v>
       </c>
       <c r="I60" s="3" t="n">
-        <v>2.07554</v>
+        <v>1.44009</v>
       </c>
       <c r="J60" t="n">
-        <v>2462.7009749</v>
+        <v>247.175</v>
       </c>
       <c r="K60" t="n">
-        <v>1796.6880123</v>
+        <v>1104</v>
       </c>
       <c r="L60" t="n">
-        <v>7.6818</v>
+        <v>10.3543</v>
       </c>
       <c r="M60" t="n">
-        <v>49.3375</v>
+        <v>48.876</v>
       </c>
       <c r="N60" t="n">
-        <v>5759.2</v>
+        <v>3943</v>
       </c>
       <c r="O60" t="n">
-        <v>4.45</v>
+        <v>4.62547</v>
       </c>
       <c r="P60" t="n">
-        <v>1.02</v>
+        <v>0.63</v>
       </c>
       <c r="Q60" s="3" t="n">
-        <v>0.9064552235095198</v>
+        <v>2.282167123690875</v>
       </c>
       <c r="R60" t="n">
-        <v>0.05708224099375498</v>
+        <v>0.04323476018011795</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>141.01</v>
+        <v>2274.01</v>
       </c>
       <c r="B61" t="n">
-        <v>403224672</v>
+        <v>289164482</v>
       </c>
       <c r="C61" t="n">
-        <v>338.983717</v>
+        <v>277.459311</v>
       </c>
       <c r="D61" t="n">
-        <v>-59.864829</v>
+        <v>40.541412</v>
       </c>
       <c r="E61" t="n">
-        <v>2460178.671412</v>
+        <v>2458685.367259</v>
       </c>
       <c r="F61" t="n">
-        <v>1.0082361</v>
+        <v>2.6796164</v>
       </c>
       <c r="G61" t="n">
-        <v>1.41</v>
+        <v>0.9028948</v>
       </c>
       <c r="H61" t="n">
-        <v>228</v>
+        <v>827.5423687</v>
       </c>
       <c r="I61" s="3" t="n">
-        <v>1.7202</v>
+        <v>1.8334769</v>
       </c>
       <c r="J61" t="n">
-        <v>1882.94</v>
+        <v>83.70782490000001</v>
       </c>
       <c r="K61" t="n">
-        <v>1835</v>
+        <v>771.4561825</v>
       </c>
       <c r="L61" t="n">
-        <v>7.384</v>
+        <v>10.3543</v>
       </c>
       <c r="M61" t="n">
-        <v>48.0883</v>
+        <v>48.876</v>
       </c>
       <c r="N61" t="n">
-        <v>5795.29</v>
+        <v>3943</v>
       </c>
       <c r="O61" t="n">
-        <v>4.438</v>
+        <v>4.62547</v>
       </c>
       <c r="P61" t="n">
-        <v>1.13</v>
+        <v>0.6307199999999999</v>
       </c>
       <c r="Q61" s="3" t="n">
-        <v>0.9086312583242271</v>
+        <v>2.282167123690875</v>
       </c>
       <c r="R61" t="n">
-        <v>0.06928742029234983</v>
+        <v>0.04323476018011795</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>544.01</v>
+        <v>554.02</v>
       </c>
       <c r="B62" t="n">
-        <v>50618703</v>
+        <v>407966340</v>
       </c>
       <c r="C62" t="n">
-        <v>82.290072</v>
+        <v>60.748336</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.342898</v>
+        <v>9.207768</v>
       </c>
       <c r="E62" t="n">
-        <v>2458469.756983</v>
+        <v>2458438.475888</v>
       </c>
       <c r="F62" t="n">
-        <v>1.5483542</v>
+        <v>3.0440441</v>
       </c>
       <c r="G62" t="n">
-        <v>1.2030925</v>
+        <v>1.3542885</v>
       </c>
       <c r="H62" t="n">
-        <v>926.4111032</v>
+        <v>82.7350431</v>
       </c>
       <c r="I62" s="3" t="n">
-        <v>2.1601741</v>
+        <v>1.3337425</v>
       </c>
       <c r="J62" t="n">
-        <v>240.1950345</v>
+        <v>1500.1020491</v>
       </c>
       <c r="K62" t="n">
-        <v>1004.0625199</v>
+        <v>1587.2668665</v>
       </c>
       <c r="L62" t="n">
-        <v>9.650399999999999</v>
+        <v>6.4386</v>
       </c>
       <c r="M62" t="n">
-        <v>41.1166</v>
+        <v>45.6181</v>
       </c>
       <c r="N62" t="n">
-        <v>4665</v>
+        <v>6337.87</v>
       </c>
       <c r="O62" t="n">
-        <v>4.67631</v>
+        <v>4.438</v>
       </c>
       <c r="P62" t="n">
-        <v>0.6634139999999999</v>
+        <v>1.42717</v>
       </c>
       <c r="Q62" s="3" t="n">
-        <v>0.9223986185530643</v>
+        <v>7.661122693237147</v>
       </c>
       <c r="R62" t="n">
-        <v>0.04285830752449767</v>
+        <v>0.09557954007745355</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6263.01</v>
+        <v>554.01</v>
       </c>
       <c r="B63" t="n">
-        <v>293547742</v>
+        <v>407966340</v>
       </c>
       <c r="C63" t="n">
-        <v>139.199747</v>
+        <v>60.748336</v>
       </c>
       <c r="D63" t="n">
-        <v>-49.300844</v>
+        <v>9.207768</v>
       </c>
       <c r="E63" t="n">
-        <v>2460009.249357</v>
+        <v>2458442.61543</v>
       </c>
       <c r="F63" t="n">
-        <v>3.0178746</v>
+        <v>7.0491608</v>
       </c>
       <c r="G63" t="n">
-        <v>2.679</v>
+        <v>3.5024531</v>
       </c>
       <c r="H63" t="n">
-        <v>193</v>
+        <v>300.5227138</v>
       </c>
       <c r="I63" s="3" t="n">
-        <v>0.930891</v>
+        <v>2.8464941</v>
       </c>
       <c r="J63" t="n">
-        <v>303.499</v>
+        <v>489.6346689</v>
       </c>
       <c r="K63" t="n">
-        <v>1162</v>
+        <v>1199.7417985</v>
       </c>
       <c r="L63" t="n">
-        <v>9.1348</v>
+        <v>6.4386</v>
       </c>
       <c r="M63" t="n">
-        <v>46.2588</v>
+        <v>45.6181</v>
       </c>
       <c r="N63" t="n">
-        <v>4717</v>
+        <v>6337.87</v>
       </c>
       <c r="O63" t="n">
-        <v>4.61</v>
+        <v>4.438</v>
       </c>
       <c r="P63" t="n">
-        <v>0.71</v>
+        <v>1.42717</v>
       </c>
       <c r="Q63" s="3" t="n">
-        <v>0.9308156236180681</v>
+        <v>7.661122693237147</v>
       </c>
       <c r="R63" t="n">
-        <v>0.1214124615862055</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>4310.01</v>
-      </c>
-      <c r="B64" t="n">
-        <v>303317324</v>
-      </c>
-      <c r="C64" t="n">
-        <v>351.903531</v>
-      </c>
-      <c r="D64" t="n">
-        <v>-25.508462</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2458365.181534</v>
-      </c>
-      <c r="F64" t="n">
-        <v>739.1670007</v>
-      </c>
-      <c r="G64" t="n">
-        <v>5.7183604</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1376.1395053</v>
-      </c>
-      <c r="I64" s="3" t="n">
-        <v>2.6735992</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.0724872</v>
-      </c>
-      <c r="K64" t="n">
-        <v>132.3381364</v>
-      </c>
-      <c r="L64" t="n">
-        <v>9.4961</v>
-      </c>
-      <c r="M64" t="n">
-        <v>40.0268</v>
-      </c>
-      <c r="N64" t="n">
-        <v>4159</v>
-      </c>
-      <c r="O64" t="n">
-        <v>4.53501</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0.7210839999999999</v>
-      </c>
-      <c r="Q64" s="3" t="n">
-        <v>0.935961884875647</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0.04720909237717162</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>4568.01</v>
-      </c>
-      <c r="B65" t="n">
-        <v>447088034</v>
-      </c>
-      <c r="C65" t="n">
-        <v>238.702259</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-65.901121</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2460121.465283</v>
-      </c>
-      <c r="F65" t="n">
-        <v>14.0063765</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1.971</v>
-      </c>
-      <c r="H65" t="n">
-        <v>300</v>
-      </c>
-      <c r="I65" s="3" t="n">
-        <v>2.26316</v>
-      </c>
-      <c r="J65" t="n">
-        <v>19.2603</v>
-      </c>
-      <c r="K65" t="n">
-        <v>583</v>
-      </c>
-      <c r="L65" t="n">
-        <v>6.9608</v>
-      </c>
-      <c r="M65" t="n">
-        <v>48.0378</v>
-      </c>
-      <c r="N65" t="n">
-        <v>5899</v>
-      </c>
-      <c r="O65" t="n">
-        <v>4.22221</v>
-      </c>
-      <c r="P65" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q65" s="3" t="n">
-        <v>0.9532128040208352</v>
-      </c>
-      <c r="R65" t="n">
-        <v>0.0118387871337529</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>833.01</v>
-      </c>
-      <c r="B66" t="n">
-        <v>362249359</v>
-      </c>
-      <c r="C66" t="n">
-        <v>145.645472</v>
-      </c>
-      <c r="D66" t="n">
-        <v>-62.475886</v>
-      </c>
-      <c r="E66" t="n">
-        <v>2458544.120496</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1.041889</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1.2737667</v>
-      </c>
-      <c r="H66" t="n">
-        <v>465.3854112</v>
-      </c>
-      <c r="I66" s="3" t="n">
-        <v>1.389031</v>
-      </c>
-      <c r="J66" t="n">
-        <v>270.068174</v>
-      </c>
-      <c r="K66" t="n">
-        <v>1033.9227741</v>
-      </c>
-      <c r="L66" t="n">
-        <v>10.1461</v>
-      </c>
-      <c r="M66" t="n">
-        <v>41.7148</v>
-      </c>
-      <c r="N66" t="n">
-        <v>3965</v>
-      </c>
-      <c r="O66" t="n">
-        <v>4.68337</v>
-      </c>
-      <c r="P66" t="n">
-        <v>0.603336</v>
-      </c>
-      <c r="Q66" s="3" t="n">
-        <v>0.9621770088035774</v>
-      </c>
-      <c r="R66" t="n">
-        <v>0.08879781148820186</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>5972.01</v>
-      </c>
-      <c r="B67" t="n">
-        <v>420814525</v>
-      </c>
-      <c r="C67" t="n">
-        <v>330.795022</v>
-      </c>
-      <c r="D67" t="n">
-        <v>18.884242</v>
-      </c>
-      <c r="E67" t="n">
-        <v>2460552.87974</v>
-      </c>
-      <c r="F67" t="n">
-        <v>3.5247546</v>
-      </c>
-      <c r="G67" t="n">
-        <v>2.958</v>
-      </c>
-      <c r="H67" t="n">
-        <v>17803</v>
-      </c>
-      <c r="I67" s="3" t="n">
-        <v>16.3776</v>
-      </c>
-      <c r="J67" t="n">
-        <v>587.098</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1371</v>
-      </c>
-      <c r="L67" t="n">
-        <v>7.1274</v>
-      </c>
-      <c r="M67" t="n">
-        <v>48.3016</v>
-      </c>
-      <c r="N67" t="n">
-        <v>6052</v>
-      </c>
-      <c r="O67" t="n">
-        <v>4.34258</v>
-      </c>
-      <c r="P67" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Q67" s="3" t="n">
-        <v>0.9715889119731532</v>
-      </c>
-      <c r="R67" t="n">
-        <v>0.01731301595994347</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>139.01</v>
-      </c>
-      <c r="B68" t="n">
-        <v>62483237</v>
-      </c>
-      <c r="C68" t="n">
-        <v>336.402414</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-34.909713</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2458334.891563</v>
-      </c>
-      <c r="F68" t="n">
-        <v>11.0708575</v>
-      </c>
-      <c r="G68" t="n">
-        <v>2.1937617</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1149.7328034</v>
-      </c>
-      <c r="I68" s="3" t="n">
-        <v>2.3337648</v>
-      </c>
-      <c r="J68" t="n">
-        <v>22.4219066</v>
-      </c>
-      <c r="K68" t="n">
-        <v>554.9934842</v>
-      </c>
-      <c r="L68" t="n">
-        <v>9.3636</v>
-      </c>
-      <c r="M68" t="n">
-        <v>42.4061</v>
-      </c>
-      <c r="N68" t="n">
-        <v>4356</v>
-      </c>
-      <c r="O68" t="n">
-        <v>4.53491</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0.700727</v>
-      </c>
-      <c r="Q68" s="3" t="n">
-        <v>0.9769186864503394</v>
-      </c>
-      <c r="R68" t="n">
-        <v>0.02144133416206292</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>5554.01</v>
-      </c>
-      <c r="B69" t="n">
-        <v>91287873</v>
-      </c>
-      <c r="C69" t="n">
-        <v>104.74387</v>
-      </c>
-      <c r="D69" t="n">
-        <v>28.715768</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2459515.17161</v>
-      </c>
-      <c r="F69" t="n">
-        <v>26.694279</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3.7831301</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1854.2924324</v>
-      </c>
-      <c r="I69" s="3" t="n">
-        <v>2.6845863</v>
-      </c>
-      <c r="J69" t="n">
-        <v>4.0851419</v>
-      </c>
-      <c r="K69" t="n">
-        <v>362.5947706</v>
-      </c>
-      <c r="L69" t="n">
-        <v>9.83733</v>
-      </c>
-      <c r="M69" t="n">
-        <v>39.4478</v>
-      </c>
-      <c r="N69" t="n">
-        <v>3997</v>
-      </c>
-      <c r="O69" t="n">
-        <v>4.6288</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0.626722</v>
-      </c>
-      <c r="Q69" s="3" t="n">
-        <v>1.066521483154316</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0.05933370243670238</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>687.01</v>
-      </c>
-      <c r="B70" t="n">
-        <v>74534430</v>
-      </c>
-      <c r="C70" t="n">
-        <v>137.672815</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-45.098845</v>
-      </c>
-      <c r="E70" t="n">
-        <v>2459977.554802</v>
-      </c>
-      <c r="F70" t="n">
-        <v>36.2995129</v>
-      </c>
-      <c r="G70" t="n">
-        <v>4.4333923</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1322.2472746</v>
-      </c>
-      <c r="I70" s="3" t="n">
-        <v>2.2115007</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3.169782</v>
-      </c>
-      <c r="K70" t="n">
-        <v>340.3118696</v>
-      </c>
-      <c r="L70" t="n">
-        <v>9.8445</v>
-      </c>
-      <c r="M70" t="n">
-        <v>42.4467</v>
-      </c>
-      <c r="N70" t="n">
-        <v>4253.9</v>
-      </c>
-      <c r="O70" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0.617519</v>
-      </c>
-      <c r="Q70" s="3" t="n">
-        <v>1.142903089246784</v>
-      </c>
-      <c r="R70" t="n">
-        <v>0.1945912951651126</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>5140.01</v>
-      </c>
-      <c r="B71" t="n">
-        <v>175193677</v>
-      </c>
-      <c r="C71" t="n">
-        <v>129.689446</v>
-      </c>
-      <c r="D71" t="n">
-        <v>23.685265</v>
-      </c>
-      <c r="E71" t="n">
-        <v>2459547.722323</v>
-      </c>
-      <c r="F71" t="n">
-        <v>15.6113633</v>
-      </c>
-      <c r="G71" t="n">
-        <v>3.2002615</v>
-      </c>
-      <c r="H71" t="n">
-        <v>520.4897607</v>
-      </c>
-      <c r="I71" s="3" t="n">
-        <v>2.9033347</v>
-      </c>
-      <c r="J71" t="n">
-        <v>111.9728668</v>
-      </c>
-      <c r="K71" t="n">
-        <v>829.6557911</v>
-      </c>
-      <c r="L71" t="n">
-        <v>6.3687</v>
-      </c>
-      <c r="M71" t="n">
-        <v>35.26</v>
-      </c>
-      <c r="N71" t="n">
-        <v>6061.77</v>
-      </c>
-      <c r="O71" t="n">
-        <v>4.31439</v>
-      </c>
-      <c r="P71" t="n">
-        <v>1.22568</v>
-      </c>
-      <c r="Q71" s="3" t="n">
-        <v>1.176253721254392</v>
-      </c>
-      <c r="R71" t="n">
-        <v>0.07805369350328827</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>2431.01</v>
-      </c>
-      <c r="B72" t="n">
-        <v>258804746</v>
-      </c>
-      <c r="C72" t="n">
-        <v>37.765299</v>
-      </c>
-      <c r="D72" t="n">
-        <v>8.381625</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2460258.868869</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.224195</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.292</v>
-      </c>
-      <c r="H72" t="n">
-        <v>540</v>
-      </c>
-      <c r="I72" s="3" t="n">
-        <v>5.59553</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2649.15</v>
-      </c>
-      <c r="K72" t="n">
-        <v>1998</v>
-      </c>
-      <c r="L72" t="n">
-        <v>9.520899999999999</v>
-      </c>
-      <c r="M72" t="n">
-        <v>36.0559</v>
-      </c>
-      <c r="N72" t="n">
-        <v>4079</v>
-      </c>
-      <c r="O72" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="Q72" s="3" t="n">
-        <v>1.239403332584826</v>
-      </c>
-      <c r="R72" t="n">
-        <v>0.1915281956726753</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>5801.01</v>
-      </c>
-      <c r="B73" t="n">
-        <v>243921117</v>
-      </c>
-      <c r="C73" t="n">
-        <v>303.1668</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-2.144437</v>
-      </c>
-      <c r="E73" t="n">
-        <v>2459770.026754</v>
-      </c>
-      <c r="F73" t="n">
-        <v>3.067816</v>
-      </c>
-      <c r="G73" t="n">
-        <v>2.1103325</v>
-      </c>
-      <c r="H73" t="n">
-        <v>34536.7848173</v>
-      </c>
-      <c r="I73" s="3" t="n">
-        <v>11.7996868</v>
-      </c>
-      <c r="J73" t="n">
-        <v>72.44198299999999</v>
-      </c>
-      <c r="K73" t="n">
-        <v>744.0760606</v>
-      </c>
-      <c r="L73" t="n">
-        <v>10.3622</v>
-      </c>
-      <c r="M73" t="n">
-        <v>49.7876</v>
-      </c>
-      <c r="N73" t="n">
-        <v>3965</v>
-      </c>
-      <c r="O73" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0.636572</v>
-      </c>
-      <c r="Q73" s="3" t="n">
-        <v>1.446091471842279</v>
-      </c>
-      <c r="R73" t="n">
-        <v>0.07251061220725062</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>5955.01</v>
-      </c>
-      <c r="B74" t="n">
-        <v>434116397</v>
-      </c>
-      <c r="C74" t="n">
-        <v>355.467833</v>
-      </c>
-      <c r="D74" t="n">
-        <v>14.106803</v>
-      </c>
-      <c r="E74" t="n">
-        <v>2459825.845336</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.5902387</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1.045052</v>
-      </c>
-      <c r="H74" t="n">
-        <v>518.7240999000001</v>
-      </c>
-      <c r="I74" s="3" t="n">
-        <v>1.6802901</v>
-      </c>
-      <c r="J74" t="n">
-        <v>517.0065166000001</v>
-      </c>
-      <c r="K74" t="n">
-        <v>1216.1685093</v>
-      </c>
-      <c r="L74" t="n">
-        <v>10.3224</v>
-      </c>
-      <c r="M74" t="n">
-        <v>42.8747</v>
-      </c>
-      <c r="N74" t="n">
-        <v>3844</v>
-      </c>
-      <c r="O74" t="n">
-        <v>4.6589</v>
-      </c>
-      <c r="P74" t="n">
-        <v>0.590924</v>
-      </c>
-      <c r="Q74" s="3" t="n">
-        <v>1.54172749561661</v>
-      </c>
-      <c r="R74" t="n">
-        <v>0.1022963165103159</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>396.03</v>
-      </c>
-      <c r="B75" t="n">
-        <v>178155732</v>
-      </c>
-      <c r="C75" t="n">
-        <v>42.984978</v>
-      </c>
-      <c r="D75" t="n">
-        <v>-30.814061</v>
-      </c>
-      <c r="E75" t="n">
-        <v>2459117.261055</v>
-      </c>
-      <c r="F75" t="n">
-        <v>11.2304605</v>
-      </c>
-      <c r="G75" t="n">
-        <v>3.6009978</v>
-      </c>
-      <c r="H75" t="n">
-        <v>208.629137</v>
-      </c>
-      <c r="I75" s="3" t="n">
-        <v>2.0754665</v>
-      </c>
-      <c r="J75" t="n">
-        <v>210.3340005</v>
-      </c>
-      <c r="K75" t="n">
-        <v>971.2859803</v>
-      </c>
-      <c r="L75" t="n">
-        <v>5.9053</v>
-      </c>
-      <c r="M75" t="n">
-        <v>31.964</v>
-      </c>
-      <c r="N75" t="n">
-        <v>6308.31</v>
-      </c>
-      <c r="O75" t="n">
-        <v>4.438</v>
-      </c>
-      <c r="P75" t="n">
-        <v>1.2845</v>
-      </c>
-      <c r="Q75" s="3" t="n">
-        <v>3.195893511237676</v>
-      </c>
-      <c r="R75" t="n">
-        <v>0.08132008275074698</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>396.02</v>
-      </c>
-      <c r="B76" t="n">
-        <v>178155732</v>
-      </c>
-      <c r="C76" t="n">
-        <v>42.984978</v>
-      </c>
-      <c r="D76" t="n">
-        <v>-30.814061</v>
-      </c>
-      <c r="E76" t="n">
-        <v>2459169.27128</v>
-      </c>
-      <c r="F76" t="n">
-        <v>3.58529</v>
-      </c>
-      <c r="G76" t="n">
-        <v>2.495</v>
-      </c>
-      <c r="H76" t="n">
-        <v>180</v>
-      </c>
-      <c r="I76" s="3" t="n">
-        <v>1.77141</v>
-      </c>
-      <c r="J76" t="n">
-        <v>646.628</v>
-      </c>
-      <c r="K76" t="n">
-        <v>1404</v>
-      </c>
-      <c r="L76" t="n">
-        <v>5.9053</v>
-      </c>
-      <c r="M76" t="n">
-        <v>31.964</v>
-      </c>
-      <c r="N76" t="n">
-        <v>6308.31</v>
-      </c>
-      <c r="O76" t="n">
-        <v>4.438</v>
-      </c>
-      <c r="P76" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q76" s="3" t="n">
-        <v>3.195893511237676</v>
-      </c>
-      <c r="R76" t="n">
-        <v>0.08132008275074698</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>396.01</v>
-      </c>
-      <c r="B77" t="n">
-        <v>178155732</v>
-      </c>
-      <c r="C77" t="n">
-        <v>42.984978</v>
-      </c>
-      <c r="D77" t="n">
-        <v>-30.814061</v>
-      </c>
-      <c r="E77" t="n">
-        <v>2459120.537697</v>
-      </c>
-      <c r="F77" t="n">
-        <v>5.9739124</v>
-      </c>
-      <c r="G77" t="n">
-        <v>3.1235464</v>
-      </c>
-      <c r="H77" t="n">
-        <v>232.5621027</v>
-      </c>
-      <c r="I77" s="3" t="n">
-        <v>2.3917735</v>
-      </c>
-      <c r="J77" t="n">
-        <v>488.0089226</v>
-      </c>
-      <c r="K77" t="n">
-        <v>1198.7446729</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.9053</v>
-      </c>
-      <c r="M77" t="n">
-        <v>31.964</v>
-      </c>
-      <c r="N77" t="n">
-        <v>6308.31</v>
-      </c>
-      <c r="O77" t="n">
-        <v>4.438</v>
-      </c>
-      <c r="P77" t="n">
-        <v>1.2845</v>
-      </c>
-      <c r="Q77" s="3" t="n">
-        <v>3.195893511237676</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0.08132008275074698</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>554.01</v>
-      </c>
-      <c r="B78" t="n">
-        <v>407966340</v>
-      </c>
-      <c r="C78" t="n">
-        <v>60.748336</v>
-      </c>
-      <c r="D78" t="n">
-        <v>9.207768</v>
-      </c>
-      <c r="E78" t="n">
-        <v>2458442.61543</v>
-      </c>
-      <c r="F78" t="n">
-        <v>7.0491608</v>
-      </c>
-      <c r="G78" t="n">
-        <v>3.5024531</v>
-      </c>
-      <c r="H78" t="n">
-        <v>300.5227138</v>
-      </c>
-      <c r="I78" s="3" t="n">
-        <v>2.8464941</v>
-      </c>
-      <c r="J78" t="n">
-        <v>489.6346689</v>
-      </c>
-      <c r="K78" t="n">
-        <v>1199.7417985</v>
-      </c>
-      <c r="L78" t="n">
-        <v>6.4386</v>
-      </c>
-      <c r="M78" t="n">
-        <v>45.6181</v>
-      </c>
-      <c r="N78" t="n">
-        <v>6337.87</v>
-      </c>
-      <c r="O78" t="n">
-        <v>4.438</v>
-      </c>
-      <c r="P78" t="n">
-        <v>1.42717</v>
-      </c>
-      <c r="Q78" s="3" t="n">
-        <v>6.024879354419458</v>
-      </c>
-      <c r="R78" t="n">
         <v>0.09557954007745355</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>554.02</v>
-      </c>
-      <c r="B79" t="n">
-        <v>407966340</v>
-      </c>
-      <c r="C79" t="n">
-        <v>60.748336</v>
-      </c>
-      <c r="D79" t="n">
-        <v>9.207768</v>
-      </c>
-      <c r="E79" t="n">
-        <v>2458438.475888</v>
-      </c>
-      <c r="F79" t="n">
-        <v>3.0440441</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1.3542885</v>
-      </c>
-      <c r="H79" t="n">
-        <v>82.7350431</v>
-      </c>
-      <c r="I79" s="3" t="n">
-        <v>1.3337425</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1500.1020491</v>
-      </c>
-      <c r="K79" t="n">
-        <v>1587.2668665</v>
-      </c>
-      <c r="L79" t="n">
-        <v>6.4386</v>
-      </c>
-      <c r="M79" t="n">
-        <v>45.6181</v>
-      </c>
-      <c r="N79" t="n">
-        <v>6337.87</v>
-      </c>
-      <c r="O79" t="n">
-        <v>4.438</v>
-      </c>
-      <c r="P79" t="n">
-        <v>1.42717</v>
-      </c>
-      <c r="Q79" s="3" t="n">
-        <v>6.024879354419458</v>
-      </c>
-      <c r="R79" t="n">
-        <v>0.09557954007745355</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>2326.01</v>
-      </c>
-      <c r="B80" t="n">
-        <v>175456679</v>
-      </c>
-      <c r="C80" t="n">
-        <v>350.491313</v>
-      </c>
-      <c r="D80" t="n">
-        <v>-40.174352</v>
-      </c>
-      <c r="E80" t="n">
-        <v>2460201.334015</v>
-      </c>
-      <c r="F80" t="n">
-        <v>58.9970907</v>
-      </c>
-      <c r="G80" t="n">
-        <v>5.722</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2725</v>
-      </c>
-      <c r="I80" s="3" t="n"/>
-      <c r="L80" t="n">
-        <v>9.456</v>
-      </c>
-      <c r="M80" t="n">
-        <v>154.124</v>
-      </c>
-      <c r="Q80" s="3" t="n">
-        <v>35.71169791451638</v>
-      </c>
-      <c r="R80" t="n">
-        <v>0.0305854259260738</v>
       </c>
     </row>
   </sheetData>

--- a/results/GAIA_TESS_candidate_matches_unique_planets.xlsx
+++ b/results/GAIA_TESS_candidate_matches_unique_planets.xlsx
@@ -574,7 +574,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6276.01</v>
+        <v>6276.03</v>
       </c>
       <c r="B2" t="n">
         <v>397362481</v>
@@ -586,25 +586,25 @@
         <v>-44.404149</v>
       </c>
       <c r="E2" t="n">
-        <v>2460017.108056</v>
+        <v>2460018.572448</v>
       </c>
       <c r="F2" t="n">
-        <v>6.207472</v>
+        <v>7.8708661</v>
       </c>
       <c r="G2" t="n">
-        <v>1.5587404</v>
+        <v>1.6355898</v>
       </c>
       <c r="H2" t="n">
-        <v>230.9041397</v>
+        <v>190.7947353</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.9558514</v>
+        <v>1.0314874</v>
       </c>
       <c r="J2" t="n">
-        <v>45.9200706</v>
+        <v>33.4599699</v>
       </c>
       <c r="K2" t="n">
-        <v>663.9270852</v>
+        <v>613.4104018</v>
       </c>
       <c r="L2" t="n">
         <v>6.7213</v>
@@ -622,7 +622,7 @@
         <v>0.630715</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>0.3183878703705095</v>
+        <v>0.6036502700178147</v>
       </c>
       <c r="R2" t="n">
         <v>0.3529309609610866</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6276.02</v>
+        <v>6276.01</v>
       </c>
       <c r="B3" t="n">
         <v>397362481</v>
@@ -642,25 +642,25 @@
         <v>-44.404149</v>
       </c>
       <c r="E3" t="n">
-        <v>2460014.846822</v>
+        <v>2460017.108056</v>
       </c>
       <c r="F3" t="n">
-        <v>4.4653471</v>
+        <v>6.207472</v>
       </c>
       <c r="G3" t="n">
-        <v>1.5691486</v>
+        <v>1.5587404</v>
       </c>
       <c r="H3" t="n">
-        <v>186.7606727</v>
+        <v>230.9041397</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.8856846</v>
+        <v>0.9558514</v>
       </c>
       <c r="J3" t="n">
-        <v>71.2440519</v>
+        <v>45.9200706</v>
       </c>
       <c r="K3" t="n">
-        <v>740.9807105</v>
+        <v>663.9270852</v>
       </c>
       <c r="L3" t="n">
         <v>6.7213</v>
@@ -678,7 +678,7 @@
         <v>0.630715</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>0.3183878703705095</v>
+        <v>0.6036502700178147</v>
       </c>
       <c r="R3" t="n">
         <v>0.3529309609610866</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6276.03</v>
+        <v>6276.02</v>
       </c>
       <c r="B4" t="n">
         <v>397362481</v>
@@ -698,25 +698,25 @@
         <v>-44.404149</v>
       </c>
       <c r="E4" t="n">
-        <v>2460018.572448</v>
+        <v>2460014.846822</v>
       </c>
       <c r="F4" t="n">
-        <v>7.8708661</v>
+        <v>4.4653471</v>
       </c>
       <c r="G4" t="n">
-        <v>1.6355898</v>
+        <v>1.5691486</v>
       </c>
       <c r="H4" t="n">
-        <v>190.7947353</v>
+        <v>186.7606727</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1.0314874</v>
+        <v>0.8856846</v>
       </c>
       <c r="J4" t="n">
-        <v>33.4599699</v>
+        <v>71.2440519</v>
       </c>
       <c r="K4" t="n">
-        <v>613.4104018</v>
+        <v>740.9807105</v>
       </c>
       <c r="L4" t="n">
         <v>6.7213</v>
@@ -734,7 +734,7 @@
         <v>0.630715</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.3183878703705095</v>
+        <v>0.6036502700178147</v>
       </c>
       <c r="R4" t="n">
         <v>0.3529309609610866</v>
@@ -742,63 +742,63 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1773.01</v>
+        <v>186.01</v>
       </c>
       <c r="B5" t="n">
-        <v>332064670</v>
+        <v>279741379</v>
       </c>
       <c r="C5" t="n">
-        <v>133.146837</v>
+        <v>51.750188</v>
       </c>
       <c r="D5" t="n">
-        <v>28.329815</v>
+        <v>-63.500166</v>
       </c>
       <c r="E5" t="n">
-        <v>2458870.692828</v>
+        <v>2460202.210988</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7365463</v>
+        <v>35.6134391</v>
       </c>
       <c r="G5" t="n">
-        <v>1.5732208</v>
+        <v>3.512</v>
       </c>
       <c r="H5" t="n">
-        <v>384.6733121</v>
+        <v>1575</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>2.0231121</v>
+        <v>3.12194</v>
       </c>
       <c r="J5" t="n">
-        <v>2657.8322415</v>
+        <v>10.8612</v>
       </c>
       <c r="K5" t="n">
-        <v>1831.2668801</v>
+        <v>505</v>
       </c>
       <c r="L5" t="n">
-        <v>5.2058</v>
+        <v>6.9934</v>
       </c>
       <c r="M5" t="n">
-        <v>12.5855</v>
+        <v>16.32</v>
       </c>
       <c r="N5" t="n">
-        <v>5250</v>
+        <v>4628.53</v>
       </c>
       <c r="O5" t="n">
-        <v>4.42</v>
+        <v>4.32239</v>
       </c>
       <c r="P5" t="n">
-        <v>0.963515</v>
+        <v>0.71</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>0.3639498627094521</v>
+        <v>0.7360760259646952</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2680494911224468</v>
+        <v>0.216873501781118</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>186.01</v>
+        <v>186.02</v>
       </c>
       <c r="B6" t="n">
         <v>279741379</v>
@@ -810,25 +810,25 @@
         <v>-63.500166</v>
       </c>
       <c r="E6" t="n">
-        <v>2460202.210988</v>
+        <v>2460201.824941</v>
       </c>
       <c r="F6" t="n">
-        <v>35.6134391</v>
+        <v>7.7897726</v>
       </c>
       <c r="G6" t="n">
-        <v>3.512</v>
+        <v>2.376</v>
       </c>
       <c r="H6" t="n">
-        <v>1575</v>
+        <v>194</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>3.12194</v>
+        <v>1.00084</v>
       </c>
       <c r="J6" t="n">
-        <v>10.8612</v>
+        <v>144.765</v>
       </c>
       <c r="K6" t="n">
-        <v>505</v>
+        <v>966</v>
       </c>
       <c r="L6" t="n">
         <v>6.9934</v>
@@ -846,7 +846,7 @@
         <v>0.71</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>0.3840778462287892</v>
+        <v>0.7360760259646952</v>
       </c>
       <c r="R6" t="n">
         <v>0.216873501781118</v>
@@ -854,282 +854,282 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>186.02</v>
+        <v>2194.01</v>
       </c>
       <c r="B7" t="n">
-        <v>279741379</v>
+        <v>271478281</v>
       </c>
       <c r="C7" t="n">
-        <v>51.750188</v>
+        <v>299.156339</v>
       </c>
       <c r="D7" t="n">
-        <v>-63.500166</v>
+        <v>-31.335181</v>
       </c>
       <c r="E7" t="n">
-        <v>2460201.824941</v>
+        <v>2460141.982191</v>
       </c>
       <c r="F7" t="n">
-        <v>7.7897726</v>
+        <v>15.3419095</v>
       </c>
       <c r="G7" t="n">
-        <v>2.376</v>
+        <v>2.736</v>
       </c>
       <c r="H7" t="n">
-        <v>194</v>
+        <v>683</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>1.00084</v>
+        <v>1.7005</v>
       </c>
       <c r="J7" t="n">
-        <v>144.765</v>
+        <v>14.2526</v>
       </c>
       <c r="K7" t="n">
-        <v>966</v>
+        <v>541</v>
       </c>
       <c r="L7" t="n">
-        <v>6.9934</v>
+        <v>7.4259</v>
       </c>
       <c r="M7" t="n">
-        <v>16.32</v>
+        <v>19.5711</v>
       </c>
       <c r="N7" t="n">
-        <v>4628.53</v>
+        <v>4669</v>
       </c>
       <c r="O7" t="n">
-        <v>4.32239</v>
+        <v>4.63</v>
       </c>
       <c r="P7" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>0.3840778462287892</v>
+        <v>0.8066475768186987</v>
       </c>
       <c r="R7" t="n">
-        <v>0.216873501781118</v>
+        <v>0.2060338426977061</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4470.01</v>
+        <v>6713.01</v>
       </c>
       <c r="B8" t="n">
-        <v>256364928</v>
+        <v>428673146</v>
       </c>
       <c r="C8" t="n">
-        <v>300.182122</v>
+        <v>179.792354</v>
       </c>
       <c r="D8" t="n">
-        <v>22.709776</v>
+        <v>-20.355606</v>
       </c>
       <c r="E8" t="n">
-        <v>2459770.410421</v>
+        <v>2458571.522303</v>
       </c>
       <c r="F8" t="n">
-        <v>2.2185748</v>
+        <v>2.1538049</v>
       </c>
       <c r="G8" t="n">
-        <v>1.8233621</v>
+        <v>1.6541007</v>
       </c>
       <c r="H8" t="n">
-        <v>25854.2144559</v>
+        <v>137.9312313</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>13.3010355</v>
+        <v>0.8814471</v>
       </c>
       <c r="J8" t="n">
-        <v>348.1506195</v>
+        <v>331.6009868</v>
       </c>
       <c r="K8" t="n">
-        <v>1101.6954166</v>
+        <v>1088.3628347</v>
       </c>
       <c r="L8" t="n">
-        <v>6.8481</v>
+        <v>7.0276</v>
       </c>
       <c r="M8" t="n">
-        <v>19.7638</v>
+        <v>20.3632</v>
       </c>
       <c r="N8" t="n">
-        <v>5023</v>
+        <v>4944.24</v>
       </c>
       <c r="O8" t="n">
-        <v>4.58</v>
+        <v>4.58767</v>
       </c>
       <c r="P8" t="n">
-        <v>0.776484</v>
+        <v>0.757603</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>0.4065417784609112</v>
+        <v>0.8164897989250212</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1256230421520718</v>
+        <v>0.2228342109737272</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6713.01</v>
+        <v>4470.01</v>
       </c>
       <c r="B9" t="n">
-        <v>428673146</v>
+        <v>256364928</v>
       </c>
       <c r="C9" t="n">
-        <v>179.792354</v>
+        <v>300.182122</v>
       </c>
       <c r="D9" t="n">
-        <v>-20.355606</v>
+        <v>22.709776</v>
       </c>
       <c r="E9" t="n">
-        <v>2458571.522303</v>
+        <v>2459770.410421</v>
       </c>
       <c r="F9" t="n">
-        <v>2.1538049</v>
+        <v>2.2185748</v>
       </c>
       <c r="G9" t="n">
-        <v>1.6541007</v>
+        <v>1.8233621</v>
       </c>
       <c r="H9" t="n">
-        <v>137.9312313</v>
+        <v>25854.2144559</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.8814471</v>
+        <v>13.3010355</v>
       </c>
       <c r="J9" t="n">
-        <v>331.6009868</v>
+        <v>348.1506195</v>
       </c>
       <c r="K9" t="n">
-        <v>1088.3628347</v>
+        <v>1101.6954166</v>
       </c>
       <c r="L9" t="n">
-        <v>7.0276</v>
+        <v>6.8481</v>
       </c>
       <c r="M9" t="n">
-        <v>20.3632</v>
+        <v>19.7638</v>
       </c>
       <c r="N9" t="n">
-        <v>4944.24</v>
+        <v>5023</v>
       </c>
       <c r="O9" t="n">
-        <v>4.58767</v>
+        <v>4.58</v>
       </c>
       <c r="P9" t="n">
-        <v>0.757603</v>
+        <v>0.776484</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>0.4231331142458284</v>
+        <v>0.8226369723154777</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2228342109737272</v>
+        <v>0.1256230421520718</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5789.01</v>
+        <v>260.01</v>
       </c>
       <c r="B10" t="n">
-        <v>87216634</v>
+        <v>37749396</v>
       </c>
       <c r="C10" t="n">
-        <v>302.773447</v>
+        <v>4.773018</v>
       </c>
       <c r="D10" t="n">
-        <v>16.189714</v>
+        <v>-9.966150000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>2459776.255982</v>
+        <v>2458392.294018</v>
       </c>
       <c r="F10" t="n">
-        <v>12.9256051</v>
+        <v>13.4758478</v>
       </c>
       <c r="G10" t="n">
-        <v>1.691</v>
+        <v>2.0643913</v>
       </c>
       <c r="H10" t="n">
-        <v>790</v>
+        <v>708.9461601</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>2.53704</v>
+        <v>1.9840882</v>
       </c>
       <c r="J10" t="n">
-        <v>8.719390000000001</v>
+        <v>10.1837519</v>
       </c>
       <c r="K10" t="n">
-        <v>478</v>
+        <v>455.6136246</v>
       </c>
       <c r="L10" t="n">
-        <v>6.5715</v>
+        <v>8.4991</v>
       </c>
       <c r="M10" t="n">
-        <v>20.4581</v>
+        <v>20.1852</v>
       </c>
       <c r="N10" t="n">
-        <v>5132</v>
+        <v>4111</v>
       </c>
       <c r="O10" t="n">
-        <v>4.49</v>
+        <v>4.6461</v>
       </c>
       <c r="P10" t="n">
-        <v>0.88</v>
+        <v>0.618173</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>0.4311738188042931</v>
+        <v>0.8239175227358072</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2860097255552455</v>
+        <v>0.1536852942719399</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2194.01</v>
+        <v>2009.01</v>
       </c>
       <c r="B11" t="n">
-        <v>271478281</v>
+        <v>243187830</v>
       </c>
       <c r="C11" t="n">
-        <v>299.156339</v>
+        <v>16.908292</v>
       </c>
       <c r="D11" t="n">
-        <v>-31.335181</v>
+        <v>22.952868</v>
       </c>
       <c r="E11" t="n">
-        <v>2460141.982191</v>
+        <v>2458783.768755</v>
       </c>
       <c r="F11" t="n">
-        <v>15.3419095</v>
+        <v>1071.0898448</v>
       </c>
       <c r="G11" t="n">
-        <v>2.736</v>
+        <v>2.1734134</v>
       </c>
       <c r="H11" t="n">
-        <v>683</v>
+        <v>865.169438</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>1.7005</v>
+        <v>2.2407785</v>
       </c>
       <c r="J11" t="n">
-        <v>14.2526</v>
+        <v>1.3880259</v>
       </c>
       <c r="K11" t="n">
-        <v>541</v>
+        <v>276.8338183</v>
       </c>
       <c r="L11" t="n">
-        <v>7.4259</v>
+        <v>7.3551</v>
       </c>
       <c r="M11" t="n">
-        <v>19.5711</v>
+        <v>20.5272</v>
       </c>
       <c r="N11" t="n">
-        <v>4669</v>
+        <v>4755.33</v>
       </c>
       <c r="O11" t="n">
-        <v>4.63</v>
+        <v>4.62683</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.701499</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>0.4369855154896619</v>
+        <v>0.8422036146915931</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2060338426977061</v>
+        <v>0.2489958576576189</v>
       </c>
     </row>
     <row r="12">
@@ -1182,7 +1182,7 @@
         <v>0.77</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>0.440467041313477</v>
+        <v>0.8627064625966099</v>
       </c>
       <c r="R12" t="n">
         <v>0.05814337766711058</v>
@@ -1190,335 +1190,338 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2009.01</v>
+        <v>5084.01</v>
       </c>
       <c r="B13" t="n">
-        <v>243187830</v>
+        <v>438260486</v>
       </c>
       <c r="C13" t="n">
-        <v>16.908292</v>
+        <v>45.954561</v>
       </c>
       <c r="D13" t="n">
-        <v>22.952868</v>
+        <v>20.110588</v>
       </c>
       <c r="E13" t="n">
-        <v>2458783.768755</v>
+        <v>2460252.991856</v>
       </c>
       <c r="F13" t="n">
-        <v>1071.0898448</v>
+        <v>5.8321337</v>
       </c>
       <c r="G13" t="n">
-        <v>2.1734134</v>
+        <v>2.039</v>
       </c>
       <c r="H13" t="n">
-        <v>865.169438</v>
+        <v>274</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>2.2407785</v>
+        <v>1.15554</v>
       </c>
       <c r="J13" t="n">
-        <v>1.3880259</v>
+        <v>49.8722</v>
       </c>
       <c r="K13" t="n">
-        <v>276.8338183</v>
+        <v>740</v>
       </c>
       <c r="L13" t="n">
-        <v>7.3551</v>
+        <v>7.564</v>
       </c>
       <c r="M13" t="n">
-        <v>20.5272</v>
+        <v>21.3575</v>
       </c>
       <c r="N13" t="n">
-        <v>4755.33</v>
+        <v>4544</v>
       </c>
       <c r="O13" t="n">
-        <v>4.62683</v>
+        <v>4.54</v>
       </c>
       <c r="P13" t="n">
-        <v>0.701499</v>
+        <v>0.75</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>0.4464933530419892</v>
+        <v>0.8663687244288396</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2489958576576189</v>
+        <v>0.03576864546243089</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2011.03</v>
+        <v>1773.01</v>
       </c>
       <c r="B14" t="n">
-        <v>136916387</v>
+        <v>332064670</v>
       </c>
       <c r="C14" t="n">
-        <v>230.440115</v>
+        <v>133.146837</v>
       </c>
       <c r="D14" t="n">
-        <v>-48.318817</v>
+        <v>28.329815</v>
       </c>
       <c r="E14" t="n">
-        <v>2460081.126376</v>
+        <v>2458870.692828</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7365463</v>
       </c>
       <c r="G14" t="n">
-        <v>3.5341354</v>
+        <v>1.5732208</v>
       </c>
       <c r="H14" t="n">
-        <v>195.1972939</v>
+        <v>384.6733121</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>1.6208326</v>
+        <v>2.0231121</v>
       </c>
       <c r="J14" t="n">
-        <v>335.6075222</v>
+        <v>2657.8322415</v>
       </c>
       <c r="K14" t="n">
-        <v>1091.635552</v>
+        <v>1831.2668801</v>
       </c>
       <c r="L14" t="n">
-        <v>5.0494</v>
+        <v>5.2058</v>
       </c>
       <c r="M14" t="n">
-        <v>14.682</v>
+        <v>12.5855</v>
       </c>
       <c r="N14" t="n">
-        <v>5739</v>
+        <v>5250</v>
       </c>
       <c r="O14" t="n">
-        <v>4.51</v>
+        <v>4.42</v>
       </c>
       <c r="P14" t="n">
-        <v>1.02607</v>
+        <v>0.963515</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>0.4604547707874415</v>
+        <v>0.8839610806037723</v>
       </c>
       <c r="R14" t="n">
-        <v>0.8241668035706786</v>
+        <v>0.2680494911224468</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2011.02</v>
+        <v>2540.01</v>
       </c>
       <c r="B15" t="n">
-        <v>136916387</v>
+        <v>354518617</v>
       </c>
       <c r="C15" t="n">
-        <v>230.440115</v>
+        <v>82.558548</v>
       </c>
       <c r="D15" t="n">
-        <v>-48.318817</v>
+        <v>-42.697946</v>
       </c>
       <c r="E15" t="n">
-        <v>2458650.89757</v>
+        <v>2458480.943804</v>
       </c>
       <c r="F15" t="n">
-        <v>27.5920718</v>
+        <v>12.7187255</v>
       </c>
       <c r="G15" t="n">
-        <v>3.2743016</v>
+        <v>3.1582562</v>
       </c>
       <c r="H15" t="n">
-        <v>555.3352929</v>
+        <v>1144.1789073</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>2.7050278</v>
+        <v>2.5924633</v>
       </c>
       <c r="J15" t="n">
-        <v>31.3830711</v>
+        <v>12.2599233</v>
       </c>
       <c r="K15" t="n">
-        <v>603.6616824</v>
+        <v>477.2453303</v>
       </c>
       <c r="L15" t="n">
-        <v>5.0494</v>
+        <v>8.273099999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>14.682</v>
+        <v>19.1419</v>
       </c>
       <c r="N15" t="n">
-        <v>5739</v>
+        <v>4036.3</v>
       </c>
       <c r="O15" t="n">
-        <v>4.51</v>
+        <v>4.65</v>
       </c>
       <c r="P15" t="n">
-        <v>1.02607</v>
+        <v>0.661076</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>0.4604547707874415</v>
+        <v>0.8995655422072516</v>
       </c>
       <c r="R15" t="n">
-        <v>0.8241668035706786</v>
+        <v>0.07410788918668496</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2011.01</v>
+        <v>2540.02</v>
       </c>
       <c r="B16" t="n">
-        <v>136916387</v>
+        <v>354518617</v>
       </c>
       <c r="C16" t="n">
-        <v>230.440115</v>
+        <v>82.558548</v>
       </c>
       <c r="D16" t="n">
-        <v>-48.318817</v>
+        <v>-42.697946</v>
       </c>
       <c r="E16" t="n">
-        <v>2458631.767617</v>
+        <v>2459223.145597</v>
       </c>
       <c r="F16" t="n">
-        <v>11.5778362</v>
+        <v>22.0819969</v>
       </c>
       <c r="G16" t="n">
-        <v>3.8772499</v>
+        <v>3.073</v>
       </c>
       <c r="H16" t="n">
-        <v>217.3994918</v>
+        <v>1019</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>1.5422129</v>
+        <v>2.28729</v>
       </c>
       <c r="J16" t="n">
-        <v>99.9013415</v>
+        <v>5.94816</v>
       </c>
       <c r="K16" t="n">
-        <v>806.3295568999999</v>
+        <v>435</v>
       </c>
       <c r="L16" t="n">
-        <v>5.0494</v>
+        <v>8.273099999999999</v>
       </c>
       <c r="M16" t="n">
-        <v>14.682</v>
+        <v>19.1419</v>
       </c>
       <c r="N16" t="n">
-        <v>5739</v>
+        <v>4036.3</v>
       </c>
       <c r="O16" t="n">
-        <v>4.51</v>
+        <v>4.65</v>
       </c>
       <c r="P16" t="n">
-        <v>1.02607</v>
+        <v>0.66</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>0.4604547707874415</v>
+        <v>0.8995655422072516</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8241668035706786</v>
+        <v>0.07410788918668496</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>260.01</v>
+        <v>5789.01</v>
       </c>
       <c r="B17" t="n">
-        <v>37749396</v>
+        <v>87216634</v>
       </c>
       <c r="C17" t="n">
-        <v>4.773018</v>
+        <v>302.773447</v>
       </c>
       <c r="D17" t="n">
-        <v>-9.966150000000001</v>
+        <v>16.189714</v>
       </c>
       <c r="E17" t="n">
-        <v>2458392.294018</v>
+        <v>2459776.255982</v>
       </c>
       <c r="F17" t="n">
-        <v>13.4758478</v>
+        <v>12.9256051</v>
       </c>
       <c r="G17" t="n">
-        <v>2.0643913</v>
+        <v>1.691</v>
       </c>
       <c r="H17" t="n">
-        <v>708.9461601</v>
+        <v>790</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>1.9840882</v>
+        <v>2.53704</v>
       </c>
       <c r="J17" t="n">
-        <v>10.1837519</v>
+        <v>8.719390000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>455.6136246</v>
+        <v>478</v>
       </c>
       <c r="L17" t="n">
-        <v>8.4991</v>
+        <v>6.5715</v>
       </c>
       <c r="M17" t="n">
-        <v>20.1852</v>
+        <v>20.4581</v>
       </c>
       <c r="N17" t="n">
-        <v>4111</v>
+        <v>5132</v>
       </c>
       <c r="O17" t="n">
-        <v>4.6461</v>
+        <v>4.49</v>
       </c>
       <c r="P17" t="n">
-        <v>0.618173</v>
+        <v>0.88</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>0.4644199760795594</v>
+        <v>0.9014348176269065</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1536852942719399</v>
+        <v>0.2860097255552455</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5084.01</v>
+        <v>6978.01</v>
       </c>
       <c r="B18" t="n">
-        <v>438260486</v>
+        <v>320847025</v>
       </c>
       <c r="C18" t="n">
-        <v>45.954561</v>
+        <v>299.638248</v>
       </c>
       <c r="D18" t="n">
-        <v>20.110588</v>
+        <v>-54.937423</v>
       </c>
       <c r="E18" t="n">
-        <v>2460252.991856</v>
+        <v>2458661.083459</v>
       </c>
       <c r="F18" t="n">
-        <v>5.8321337</v>
+        <v>9.125813600000001</v>
       </c>
       <c r="G18" t="n">
-        <v>2.039</v>
+        <v>3.173012</v>
       </c>
       <c r="H18" t="n">
-        <v>274</v>
+        <v>169.7218223</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>1.15554</v>
+        <v>0.9704787</v>
       </c>
       <c r="J18" t="n">
-        <v>49.8722</v>
+        <v>42.107688</v>
       </c>
       <c r="K18" t="n">
-        <v>740</v>
+        <v>649.6958588</v>
       </c>
       <c r="L18" t="n">
-        <v>7.564</v>
+        <v>7.5621</v>
       </c>
       <c r="M18" t="n">
-        <v>21.3575</v>
+        <v>23.6103</v>
       </c>
       <c r="N18" t="n">
-        <v>4544</v>
+        <v>4747.13</v>
       </c>
       <c r="O18" t="n">
-        <v>4.54</v>
+        <v>4.56794</v>
       </c>
       <c r="P18" t="n">
-        <v>0.75</v>
+        <v>0.750709</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>0.4686604135697814</v>
+        <v>0.9117968498801516</v>
       </c>
       <c r="R18" t="n">
-        <v>0.03576864546243089</v>
+        <v>0.08153377876240343</v>
       </c>
     </row>
     <row r="19">
@@ -1571,7 +1574,7 @@
         <v>0.8</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>0.4784930261051164</v>
+        <v>0.9201520384433114</v>
       </c>
       <c r="R19" t="n">
         <v>0.1472633162803166</v>
@@ -1579,615 +1582,612 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6978.01</v>
+        <v>802.01</v>
       </c>
       <c r="B20" t="n">
-        <v>320847025</v>
+        <v>167303382</v>
       </c>
       <c r="C20" t="n">
-        <v>299.638248</v>
+        <v>97.985715</v>
       </c>
       <c r="D20" t="n">
-        <v>-54.937423</v>
+        <v>-68.7118</v>
       </c>
       <c r="E20" t="n">
-        <v>2458661.083459</v>
+        <v>2458327.391469</v>
       </c>
       <c r="F20" t="n">
-        <v>9.125813600000001</v>
+        <v>3.693916</v>
       </c>
       <c r="G20" t="n">
-        <v>3.173012</v>
+        <v>1.7264201</v>
       </c>
       <c r="H20" t="n">
-        <v>169.7218223</v>
+        <v>74.807186</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>0.9704787</v>
+        <v>0.6501353</v>
       </c>
       <c r="J20" t="n">
-        <v>42.107688</v>
+        <v>186.8668956</v>
       </c>
       <c r="K20" t="n">
-        <v>649.6958588</v>
+        <v>942.9807829</v>
       </c>
       <c r="L20" t="n">
-        <v>7.5621</v>
+        <v>7.5209</v>
       </c>
       <c r="M20" t="n">
-        <v>23.6103</v>
+        <v>28.1042</v>
       </c>
       <c r="N20" t="n">
-        <v>4747.13</v>
+        <v>5235.78</v>
       </c>
       <c r="O20" t="n">
-        <v>4.56794</v>
+        <v>4.438</v>
       </c>
       <c r="P20" t="n">
-        <v>0.750709</v>
+        <v>0.74982</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>0.4877356136941862</v>
+        <v>1.033524097456652</v>
       </c>
       <c r="R20" t="n">
-        <v>0.08153377876240343</v>
+        <v>0.2277199720930105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2540.02</v>
+        <v>2443.01</v>
       </c>
       <c r="B21" t="n">
-        <v>354518617</v>
+        <v>318753380</v>
       </c>
       <c r="C21" t="n">
-        <v>82.558548</v>
+        <v>40.179861</v>
       </c>
       <c r="D21" t="n">
-        <v>-42.697946</v>
+        <v>1.199676</v>
       </c>
       <c r="E21" t="n">
-        <v>2459223.145597</v>
+        <v>2459148.098617</v>
       </c>
       <c r="F21" t="n">
-        <v>22.0819969</v>
+        <v>15.6692322</v>
       </c>
       <c r="G21" t="n">
-        <v>3.073</v>
+        <v>4.562853</v>
       </c>
       <c r="H21" t="n">
-        <v>1019</v>
+        <v>1393.3814802</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>2.28729</v>
+        <v>2.6868893</v>
       </c>
       <c r="J21" t="n">
-        <v>5.94816</v>
+        <v>13.2931176</v>
       </c>
       <c r="K21" t="n">
-        <v>435</v>
+        <v>486.9971964</v>
       </c>
       <c r="L21" t="n">
-        <v>8.273099999999999</v>
+        <v>8.296900000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>19.1419</v>
+        <v>23.9258</v>
       </c>
       <c r="N21" t="n">
-        <v>4036.3</v>
+        <v>4214.44</v>
       </c>
       <c r="O21" t="n">
-        <v>4.65</v>
+        <v>4.52845</v>
       </c>
       <c r="P21" t="n">
-        <v>0.66</v>
+        <v>0.732115</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>0.5078596040079951</v>
+        <v>1.04713564664033</v>
       </c>
       <c r="R21" t="n">
-        <v>0.07410788918668496</v>
+        <v>0.1818675256393356</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2540.01</v>
+        <v>253.01</v>
       </c>
       <c r="B22" t="n">
-        <v>354518617</v>
+        <v>322063810</v>
       </c>
       <c r="C22" t="n">
-        <v>82.558548</v>
+        <v>14.318503</v>
       </c>
       <c r="D22" t="n">
-        <v>-42.697946</v>
+        <v>-51.585251</v>
       </c>
       <c r="E22" t="n">
-        <v>2458480.943804</v>
+        <v>2458355.622789</v>
       </c>
       <c r="F22" t="n">
-        <v>12.7187255</v>
+        <v>3.5104148</v>
       </c>
       <c r="G22" t="n">
-        <v>3.1582562</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>1144.1789073</v>
+        <v>308.8285985</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>2.5924633</v>
+        <v>1.328654</v>
       </c>
       <c r="J22" t="n">
-        <v>12.2599233</v>
+        <v>64.709886</v>
       </c>
       <c r="K22" t="n">
-        <v>477.2453303</v>
+        <v>723.3731892</v>
       </c>
       <c r="L22" t="n">
-        <v>8.273099999999999</v>
+        <v>9.3626</v>
       </c>
       <c r="M22" t="n">
-        <v>19.1419</v>
+        <v>30.8431</v>
       </c>
       <c r="N22" t="n">
-        <v>4036.3</v>
+        <v>4020</v>
       </c>
       <c r="O22" t="n">
-        <v>4.65</v>
+        <v>4.438</v>
       </c>
       <c r="P22" t="n">
-        <v>0.661076</v>
+        <v>0.639371</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>0.5078596040079951</v>
+        <v>1.086836000081502</v>
       </c>
       <c r="R22" t="n">
-        <v>0.07410788918668496</v>
+        <v>0.08762883918922149</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>802.01</v>
+        <v>1835.02</v>
       </c>
       <c r="B23" t="n">
-        <v>167303382</v>
+        <v>347332255</v>
       </c>
       <c r="C23" t="n">
-        <v>97.985715</v>
+        <v>189.839224</v>
       </c>
       <c r="D23" t="n">
-        <v>-68.7118</v>
+        <v>20.027338</v>
       </c>
       <c r="E23" t="n">
-        <v>2458327.391469</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3.693916</v>
+        <v>2458937.873023</v>
       </c>
       <c r="G23" t="n">
-        <v>1.7264201</v>
+        <v>3.9454498</v>
       </c>
       <c r="H23" t="n">
-        <v>74.807186</v>
+        <v>886.4838237</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>0.6501353</v>
+        <v>2.5398986</v>
       </c>
       <c r="J23" t="n">
-        <v>186.8668956</v>
+        <v>48.4006234</v>
       </c>
       <c r="K23" t="n">
-        <v>942.9807829</v>
+        <v>672.7171326</v>
       </c>
       <c r="L23" t="n">
-        <v>7.5209</v>
+        <v>7.6621</v>
       </c>
       <c r="M23" t="n">
-        <v>28.1042</v>
+        <v>32.1585</v>
       </c>
       <c r="N23" t="n">
-        <v>5235.78</v>
+        <v>5297</v>
       </c>
       <c r="O23" t="n">
-        <v>4.438</v>
+        <v>4.61016</v>
       </c>
       <c r="P23" t="n">
-        <v>0.74982</v>
+        <v>0.782479</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>0.5505815501150764</v>
+        <v>1.102568633308624</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2277199720930105</v>
+        <v>0.06661906649581383</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>144.01</v>
+        <v>1835.01</v>
       </c>
       <c r="B24" t="n">
-        <v>261136679</v>
+        <v>347332255</v>
       </c>
       <c r="C24" t="n">
-        <v>84.29928</v>
+        <v>189.839224</v>
       </c>
       <c r="D24" t="n">
-        <v>-80.46460399999999</v>
+        <v>20.027338</v>
       </c>
       <c r="E24" t="n">
-        <v>2460011.550653</v>
+        <v>2458932.763635</v>
       </c>
       <c r="F24" t="n">
-        <v>6.267832</v>
+        <v>5.6419598</v>
       </c>
       <c r="G24" t="n">
-        <v>2.789</v>
+        <v>3.0871502</v>
       </c>
       <c r="H24" t="n">
-        <v>321</v>
+        <v>543.838848</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>1.99779</v>
+        <v>1.8245844</v>
       </c>
       <c r="J24" t="n">
-        <v>203.434</v>
+        <v>119.4171181</v>
       </c>
       <c r="K24" t="n">
-        <v>1052</v>
+        <v>843.1141848</v>
       </c>
       <c r="L24" t="n">
-        <v>5.1054</v>
+        <v>7.6621</v>
       </c>
       <c r="M24" t="n">
-        <v>18.2702</v>
+        <v>32.1585</v>
       </c>
       <c r="N24" t="n">
-        <v>5950</v>
+        <v>5297</v>
       </c>
       <c r="O24" t="n">
-        <v>4.438</v>
+        <v>4.61016</v>
       </c>
       <c r="P24" t="n">
-        <v>1.15</v>
+        <v>0.782479</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>0.5682507800699519</v>
+        <v>1.102568633308624</v>
       </c>
       <c r="R24" t="n">
-        <v>0.5469902615930315</v>
+        <v>0.06661906649581383</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1835.01</v>
+        <v>5961.01</v>
       </c>
       <c r="B25" t="n">
-        <v>347332255</v>
+        <v>262689575</v>
       </c>
       <c r="C25" t="n">
-        <v>189.839224</v>
+        <v>349.216044</v>
       </c>
       <c r="D25" t="n">
-        <v>20.027338</v>
+        <v>5.695887</v>
       </c>
       <c r="E25" t="n">
-        <v>2458932.763635</v>
+        <v>2459447.785905</v>
       </c>
       <c r="F25" t="n">
-        <v>5.6419598</v>
+        <v>1.617487</v>
       </c>
       <c r="G25" t="n">
-        <v>3.0871502</v>
+        <v>1.2809267</v>
       </c>
       <c r="H25" t="n">
-        <v>543.838848</v>
+        <v>342.1852102</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>1.8245844</v>
+        <v>1.3134056</v>
       </c>
       <c r="J25" t="n">
-        <v>119.4171181</v>
+        <v>197.2074933</v>
       </c>
       <c r="K25" t="n">
-        <v>843.1141848</v>
+        <v>955.7638559</v>
       </c>
       <c r="L25" t="n">
-        <v>7.6621</v>
+        <v>9.039199999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>32.1585</v>
+        <v>26.2533</v>
       </c>
       <c r="N25" t="n">
-        <v>5297</v>
+        <v>3900.68</v>
       </c>
       <c r="O25" t="n">
-        <v>4.61016</v>
+        <v>4.5239</v>
       </c>
       <c r="P25" t="n">
-        <v>0.782479</v>
+        <v>0.7017099999999999</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>0.5830139874015356</v>
+        <v>1.155518363889651</v>
       </c>
       <c r="R25" t="n">
-        <v>0.06661906649581383</v>
+        <v>0.01821666933803688</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1835.02</v>
+        <v>431.01</v>
       </c>
       <c r="B26" t="n">
-        <v>347332255</v>
+        <v>31374837</v>
       </c>
       <c r="C26" t="n">
-        <v>189.839224</v>
+        <v>83.26925</v>
       </c>
       <c r="D26" t="n">
-        <v>20.027338</v>
+        <v>-26.72387</v>
       </c>
       <c r="E26" t="n">
-        <v>2458937.873023</v>
+        <v>2458440.630295</v>
+      </c>
+      <c r="F26" t="n">
+        <v>12.4610086</v>
       </c>
       <c r="G26" t="n">
-        <v>3.9454498</v>
+        <v>3.3195777</v>
       </c>
       <c r="H26" t="n">
-        <v>886.4838237</v>
+        <v>2078.1425981</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>2.5398986</v>
+        <v>3.2809492</v>
       </c>
       <c r="J26" t="n">
-        <v>48.4006234</v>
+        <v>28.3587888</v>
       </c>
       <c r="K26" t="n">
-        <v>672.7171326</v>
+        <v>588.5612549</v>
       </c>
       <c r="L26" t="n">
-        <v>7.6621</v>
+        <v>8.170500000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>32.1585</v>
+        <v>32.5686</v>
       </c>
       <c r="N26" t="n">
-        <v>5297</v>
+        <v>4891</v>
       </c>
       <c r="O26" t="n">
-        <v>4.61016</v>
+        <v>4.62</v>
       </c>
       <c r="P26" t="n">
-        <v>0.782479</v>
+        <v>0.7266319999999999</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>0.5830139874015356</v>
+        <v>1.157049779910267</v>
       </c>
       <c r="R26" t="n">
-        <v>0.06661906649581383</v>
+        <v>0.0767170384367596</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2443.01</v>
+        <v>431.02</v>
       </c>
       <c r="B27" t="n">
-        <v>318753380</v>
+        <v>31374837</v>
       </c>
       <c r="C27" t="n">
-        <v>40.179861</v>
+        <v>83.26925</v>
       </c>
       <c r="D27" t="n">
-        <v>1.199676</v>
+        <v>-26.72387</v>
       </c>
       <c r="E27" t="n">
-        <v>2459148.098617</v>
+        <v>2458438.375965</v>
       </c>
       <c r="F27" t="n">
-        <v>15.6692322</v>
+        <v>0.4900589</v>
       </c>
       <c r="G27" t="n">
-        <v>4.562853</v>
+        <v>1.0123328</v>
       </c>
       <c r="H27" t="n">
-        <v>1393.3814802</v>
+        <v>291.0399722</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>2.6868893</v>
+        <v>1.4741529</v>
       </c>
       <c r="J27" t="n">
-        <v>13.2931176</v>
+        <v>2120.4474663</v>
       </c>
       <c r="K27" t="n">
-        <v>486.9971964</v>
+        <v>1730.7192689</v>
       </c>
       <c r="L27" t="n">
-        <v>8.296900000000001</v>
+        <v>8.170500000000001</v>
       </c>
       <c r="M27" t="n">
-        <v>23.9258</v>
+        <v>32.5686</v>
       </c>
       <c r="N27" t="n">
-        <v>4214.44</v>
+        <v>4891</v>
       </c>
       <c r="O27" t="n">
-        <v>4.52845</v>
+        <v>4.62</v>
       </c>
       <c r="P27" t="n">
-        <v>0.732115</v>
+        <v>0.7266319999999999</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>0.5875221654235464</v>
+        <v>1.157049779910267</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1818675256393356</v>
+        <v>0.0767170384367596</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>253.01</v>
+        <v>2011.03</v>
       </c>
       <c r="B28" t="n">
-        <v>322063810</v>
+        <v>136916387</v>
       </c>
       <c r="C28" t="n">
-        <v>14.318503</v>
+        <v>230.440115</v>
       </c>
       <c r="D28" t="n">
-        <v>-51.585251</v>
+        <v>-48.318817</v>
       </c>
       <c r="E28" t="n">
-        <v>2458355.622789</v>
-      </c>
-      <c r="F28" t="n">
-        <v>3.5104148</v>
+        <v>2460081.126376</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>3.5341354</v>
       </c>
       <c r="H28" t="n">
-        <v>308.8285985</v>
+        <v>195.1972939</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>1.328654</v>
+        <v>1.6208326</v>
       </c>
       <c r="J28" t="n">
-        <v>64.709886</v>
+        <v>335.6075222</v>
       </c>
       <c r="K28" t="n">
-        <v>723.3731892</v>
+        <v>1091.635552</v>
       </c>
       <c r="L28" t="n">
-        <v>9.3626</v>
+        <v>5.0494</v>
       </c>
       <c r="M28" t="n">
-        <v>30.8431</v>
+        <v>14.682</v>
       </c>
       <c r="N28" t="n">
-        <v>4020</v>
+        <v>5739</v>
       </c>
       <c r="O28" t="n">
-        <v>4.438</v>
+        <v>4.51</v>
       </c>
       <c r="P28" t="n">
-        <v>0.639371</v>
+        <v>1.02607</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>0.6217175629236638</v>
+        <v>1.183025290588741</v>
       </c>
       <c r="R28" t="n">
-        <v>0.08762883918922149</v>
+        <v>0.8241668035706786</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>431.02</v>
+        <v>2011.02</v>
       </c>
       <c r="B29" t="n">
-        <v>31374837</v>
+        <v>136916387</v>
       </c>
       <c r="C29" t="n">
-        <v>83.26925</v>
+        <v>230.440115</v>
       </c>
       <c r="D29" t="n">
-        <v>-26.72387</v>
+        <v>-48.318817</v>
       </c>
       <c r="E29" t="n">
-        <v>2458438.375965</v>
+        <v>2458650.89757</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4900589</v>
+        <v>27.5920718</v>
       </c>
       <c r="G29" t="n">
-        <v>1.0123328</v>
+        <v>3.2743016</v>
       </c>
       <c r="H29" t="n">
-        <v>291.0399722</v>
+        <v>555.3352929</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>1.4741529</v>
+        <v>2.7050278</v>
       </c>
       <c r="J29" t="n">
-        <v>2120.4474663</v>
+        <v>31.3830711</v>
       </c>
       <c r="K29" t="n">
-        <v>1730.7192689</v>
+        <v>603.6616824</v>
       </c>
       <c r="L29" t="n">
-        <v>8.170500000000001</v>
+        <v>5.0494</v>
       </c>
       <c r="M29" t="n">
-        <v>32.5686</v>
+        <v>14.682</v>
       </c>
       <c r="N29" t="n">
-        <v>4891</v>
+        <v>5739</v>
       </c>
       <c r="O29" t="n">
-        <v>4.62</v>
+        <v>4.51</v>
       </c>
       <c r="P29" t="n">
-        <v>0.7266319999999999</v>
+        <v>1.02607</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>0.638733258076041</v>
+        <v>1.183025290588741</v>
       </c>
       <c r="R29" t="n">
-        <v>0.0767170384367596</v>
+        <v>0.8241668035706786</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>431.01</v>
+        <v>2011.01</v>
       </c>
       <c r="B30" t="n">
-        <v>31374837</v>
+        <v>136916387</v>
       </c>
       <c r="C30" t="n">
-        <v>83.26925</v>
+        <v>230.440115</v>
       </c>
       <c r="D30" t="n">
-        <v>-26.72387</v>
+        <v>-48.318817</v>
       </c>
       <c r="E30" t="n">
-        <v>2458440.630295</v>
+        <v>2458631.767617</v>
       </c>
       <c r="F30" t="n">
-        <v>12.4610086</v>
+        <v>11.5778362</v>
       </c>
       <c r="G30" t="n">
-        <v>3.3195777</v>
+        <v>3.8772499</v>
       </c>
       <c r="H30" t="n">
-        <v>2078.1425981</v>
+        <v>217.3994918</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>3.2809492</v>
+        <v>1.5422129</v>
       </c>
       <c r="J30" t="n">
-        <v>28.3587888</v>
+        <v>99.9013415</v>
       </c>
       <c r="K30" t="n">
-        <v>588.5612549</v>
+        <v>806.3295568999999</v>
       </c>
       <c r="L30" t="n">
-        <v>8.170500000000001</v>
+        <v>5.0494</v>
       </c>
       <c r="M30" t="n">
-        <v>32.5686</v>
+        <v>14.682</v>
       </c>
       <c r="N30" t="n">
-        <v>4891</v>
+        <v>5739</v>
       </c>
       <c r="O30" t="n">
-        <v>4.62</v>
+        <v>4.51</v>
       </c>
       <c r="P30" t="n">
-        <v>0.7266319999999999</v>
+        <v>1.02607</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>0.638733258076041</v>
+        <v>1.183025290588741</v>
       </c>
       <c r="R30" t="n">
-        <v>0.0767170384367596</v>
+        <v>0.8241668035706786</v>
       </c>
     </row>
     <row r="31">
@@ -2240,7 +2240,7 @@
         <v>0.87</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>0.6423787840647773</v>
+        <v>1.234228002760053</v>
       </c>
       <c r="R31" t="n">
         <v>0.2165786356227843</v>
@@ -2248,2298 +2248,2298 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5961.01</v>
+        <v>4517.01</v>
       </c>
       <c r="B32" t="n">
-        <v>262689575</v>
+        <v>301289516</v>
       </c>
       <c r="C32" t="n">
-        <v>349.216044</v>
+        <v>351.771776</v>
       </c>
       <c r="D32" t="n">
-        <v>5.695887</v>
+        <v>-1.285343</v>
       </c>
       <c r="E32" t="n">
-        <v>2459447.785905</v>
+        <v>2460231.733831</v>
       </c>
       <c r="F32" t="n">
-        <v>1.617487</v>
+        <v>1.2089755</v>
       </c>
       <c r="G32" t="n">
-        <v>1.2809267</v>
+        <v>1.286</v>
       </c>
       <c r="H32" t="n">
-        <v>342.1852102</v>
+        <v>668</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>1.3134056</v>
+        <v>1.68645</v>
       </c>
       <c r="J32" t="n">
-        <v>197.2074933</v>
+        <v>325.749</v>
       </c>
       <c r="K32" t="n">
-        <v>955.7638559</v>
+        <v>1183</v>
       </c>
       <c r="L32" t="n">
-        <v>9.039199999999999</v>
+        <v>9.0684</v>
       </c>
       <c r="M32" t="n">
-        <v>26.2533</v>
+        <v>29.661</v>
       </c>
       <c r="N32" t="n">
-        <v>3900.68</v>
+        <v>4199</v>
       </c>
       <c r="O32" t="n">
-        <v>4.5239</v>
+        <v>4.65321</v>
       </c>
       <c r="P32" t="n">
-        <v>0.7017099999999999</v>
+        <v>0.63</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>0.6595363756557957</v>
+        <v>1.326232586610272</v>
       </c>
       <c r="R32" t="n">
-        <v>0.01821666933803688</v>
+        <v>0.2166081726537622</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6965.01</v>
+        <v>214.02</v>
       </c>
       <c r="B33" t="n">
-        <v>80224448</v>
+        <v>167415965</v>
       </c>
       <c r="C33" t="n">
-        <v>103.678273</v>
+        <v>99.458741</v>
       </c>
       <c r="D33" t="n">
-        <v>24.245141</v>
+        <v>-70.931327</v>
       </c>
       <c r="E33" t="n">
-        <v>2459505.193695</v>
+        <v>2460174.709658</v>
       </c>
       <c r="F33" t="n">
-        <v>5.9693397</v>
+        <v>9.695961</v>
       </c>
       <c r="G33" t="n">
-        <v>3.441038</v>
+        <v>2.772</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5424205</v>
+        <v>122</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>1.3473608</v>
+        <v>0.808552</v>
       </c>
       <c r="J33" t="n">
-        <v>334.6170929</v>
+        <v>66.2914</v>
       </c>
       <c r="K33" t="n">
-        <v>1090.8292631</v>
+        <v>794</v>
       </c>
       <c r="L33" t="n">
-        <v>6.3103</v>
+        <v>8.008900000000001</v>
       </c>
       <c r="M33" t="n">
-        <v>31.1664</v>
+        <v>38.96</v>
       </c>
       <c r="N33" t="n">
-        <v>6007</v>
+        <v>5346.2</v>
       </c>
       <c r="O33" t="n">
-        <v>4.37729</v>
+        <v>4.6</v>
       </c>
       <c r="P33" t="n">
-        <v>1.12993</v>
+        <v>0.8</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>0.7181866415369055</v>
+        <v>1.342540001201114</v>
       </c>
       <c r="R33" t="n">
-        <v>0.05173693479333623</v>
+        <v>0.1669777466970116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6965.02</v>
+        <v>214.01</v>
       </c>
       <c r="B34" t="n">
-        <v>80224448</v>
+        <v>167415965</v>
       </c>
       <c r="C34" t="n">
-        <v>103.678273</v>
+        <v>99.458741</v>
       </c>
       <c r="D34" t="n">
-        <v>24.245141</v>
+        <v>-70.931327</v>
       </c>
       <c r="E34" t="n">
-        <v>2459508.008646</v>
+        <v>2460154.945542</v>
       </c>
       <c r="F34" t="n">
-        <v>28.0693949</v>
+        <v>18.5537012</v>
       </c>
       <c r="G34" t="n">
-        <v>6.0393818</v>
+        <v>3.438</v>
       </c>
       <c r="H34" t="n">
-        <v>154.3008171</v>
+        <v>448</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>1.6221344</v>
+        <v>1.57606</v>
       </c>
       <c r="J34" t="n">
-        <v>42.4755605</v>
+        <v>25.0891</v>
       </c>
       <c r="K34" t="n">
-        <v>651.1102456</v>
+        <v>623</v>
       </c>
       <c r="L34" t="n">
-        <v>6.3103</v>
+        <v>8.008900000000001</v>
       </c>
       <c r="M34" t="n">
-        <v>31.1664</v>
+        <v>38.96</v>
       </c>
       <c r="N34" t="n">
-        <v>6007</v>
+        <v>5346.2</v>
       </c>
       <c r="O34" t="n">
-        <v>4.37729</v>
+        <v>4.6</v>
       </c>
       <c r="P34" t="n">
-        <v>1.12993</v>
+        <v>0.8</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>0.7181866415369055</v>
+        <v>1.342540001201114</v>
       </c>
       <c r="R34" t="n">
-        <v>0.05173693479333623</v>
+        <v>0.1669777466970116</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>214.02</v>
+        <v>6266.01</v>
       </c>
       <c r="B35" t="n">
-        <v>167415965</v>
+        <v>193023697</v>
       </c>
       <c r="C35" t="n">
-        <v>99.458741</v>
+        <v>155.597851</v>
       </c>
       <c r="D35" t="n">
-        <v>-70.931327</v>
+        <v>-28.847487</v>
       </c>
       <c r="E35" t="n">
-        <v>2460174.709658</v>
+        <v>2460013.265158</v>
       </c>
       <c r="F35" t="n">
-        <v>9.695961</v>
+        <v>2.7895524</v>
       </c>
       <c r="G35" t="n">
-        <v>2.772</v>
+        <v>1.969</v>
       </c>
       <c r="H35" t="n">
-        <v>122</v>
+        <v>262</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>0.808552</v>
+        <v>0.986147</v>
       </c>
       <c r="J35" t="n">
-        <v>66.2914</v>
+        <v>376.853</v>
       </c>
       <c r="K35" t="n">
-        <v>794</v>
+        <v>1227</v>
       </c>
       <c r="L35" t="n">
-        <v>8.008900000000001</v>
+        <v>8.5953</v>
       </c>
       <c r="M35" t="n">
-        <v>38.96</v>
+        <v>42.6435</v>
       </c>
       <c r="N35" t="n">
-        <v>5346.2</v>
+        <v>5039</v>
       </c>
       <c r="O35" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="P35" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>0.7275928301762715</v>
+        <v>1.380080961817654</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1669777466970116</v>
+        <v>0.01595707167941454</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>214.01</v>
+        <v>174.01</v>
       </c>
       <c r="B36" t="n">
-        <v>167415965</v>
+        <v>425997655</v>
       </c>
       <c r="C36" t="n">
-        <v>99.458741</v>
+        <v>55.459031</v>
       </c>
       <c r="D36" t="n">
-        <v>-70.931327</v>
+        <v>-62.767267</v>
       </c>
       <c r="E36" t="n">
-        <v>2460154.945542</v>
+        <v>2460180.378105</v>
       </c>
       <c r="F36" t="n">
-        <v>18.5537012</v>
+        <v>17.6671687</v>
       </c>
       <c r="G36" t="n">
-        <v>3.438</v>
+        <v>2.525</v>
       </c>
       <c r="H36" t="n">
-        <v>448</v>
+        <v>854</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>1.57606</v>
+        <v>1.87042</v>
       </c>
       <c r="J36" t="n">
-        <v>25.0891</v>
+        <v>7.60884</v>
       </c>
       <c r="K36" t="n">
-        <v>623</v>
+        <v>462</v>
       </c>
       <c r="L36" t="n">
-        <v>8.008900000000001</v>
+        <v>8.751300000000001</v>
       </c>
       <c r="M36" t="n">
-        <v>38.96</v>
+        <v>39.0341</v>
       </c>
       <c r="N36" t="n">
-        <v>5346.2</v>
+        <v>4813</v>
       </c>
       <c r="O36" t="n">
-        <v>4.6</v>
+        <v>4.38</v>
       </c>
       <c r="P36" t="n">
-        <v>0.8</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>0.7275928301762715</v>
+        <v>1.390642899182112</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1669777466970116</v>
+        <v>0.05462548793553362</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>262.01</v>
+        <v>174.02</v>
       </c>
       <c r="B37" t="n">
-        <v>70513361</v>
+        <v>425997655</v>
       </c>
       <c r="C37" t="n">
-        <v>32.534687</v>
+        <v>55.459031</v>
       </c>
       <c r="D37" t="n">
-        <v>-31.070627</v>
+        <v>-62.767267</v>
       </c>
       <c r="E37" t="n">
-        <v>2459136.576258</v>
+        <v>2460157.951364</v>
       </c>
       <c r="F37" t="n">
-        <v>11.1452784</v>
+        <v>29.7975205</v>
       </c>
       <c r="G37" t="n">
-        <v>1.3947705</v>
+        <v>2.782</v>
       </c>
       <c r="H37" t="n">
-        <v>566.2736451</v>
+        <v>671</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>2.0671456</v>
+        <v>1.60982</v>
       </c>
       <c r="J37" t="n">
-        <v>56.9132658</v>
+        <v>3.2713</v>
       </c>
       <c r="K37" t="n">
-        <v>700.5241733</v>
+        <v>374</v>
       </c>
       <c r="L37" t="n">
-        <v>8.134499999999999</v>
+        <v>8.751300000000001</v>
       </c>
       <c r="M37" t="n">
-        <v>43.932</v>
+        <v>39.0341</v>
       </c>
       <c r="N37" t="n">
-        <v>5302.58</v>
+        <v>4813</v>
       </c>
       <c r="O37" t="n">
-        <v>4.53515</v>
+        <v>4.38</v>
       </c>
       <c r="P37" t="n">
-        <v>0.848675</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>0.7509786365939464</v>
+        <v>1.390642899182112</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1492879722617396</v>
+        <v>0.05462548793553362</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4517.01</v>
+        <v>174.05</v>
       </c>
       <c r="B38" t="n">
-        <v>301289516</v>
+        <v>425997655</v>
       </c>
       <c r="C38" t="n">
-        <v>351.771776</v>
+        <v>55.459031</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.285343</v>
+        <v>-62.767267</v>
       </c>
       <c r="E38" t="n">
-        <v>2460231.733831</v>
+        <v>2460197.038739</v>
       </c>
       <c r="F38" t="n">
-        <v>1.2089755</v>
+        <v>7.9076222</v>
       </c>
       <c r="G38" t="n">
-        <v>1.286</v>
+        <v>2.611</v>
       </c>
       <c r="H38" t="n">
-        <v>668</v>
+        <v>217</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>1.68645</v>
+        <v>0.969819</v>
       </c>
       <c r="J38" t="n">
-        <v>325.749</v>
+        <v>44.8107</v>
       </c>
       <c r="K38" t="n">
-        <v>1183</v>
+        <v>720</v>
       </c>
       <c r="L38" t="n">
-        <v>9.0684</v>
+        <v>8.751300000000001</v>
       </c>
       <c r="M38" t="n">
-        <v>29.661</v>
+        <v>39.0341</v>
       </c>
       <c r="N38" t="n">
-        <v>4199</v>
+        <v>4813</v>
       </c>
       <c r="O38" t="n">
-        <v>4.65321</v>
+        <v>4.38</v>
       </c>
       <c r="P38" t="n">
-        <v>0.63</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>0.7573579347875248</v>
+        <v>1.390642899182112</v>
       </c>
       <c r="R38" t="n">
-        <v>0.2166081726537622</v>
+        <v>0.05462548793553362</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>402.01</v>
+        <v>174.04</v>
       </c>
       <c r="B39" t="n">
-        <v>120896927</v>
+        <v>425997655</v>
       </c>
       <c r="C39" t="n">
-        <v>36.867885</v>
+        <v>55.459031</v>
       </c>
       <c r="D39" t="n">
-        <v>-27.636117</v>
+        <v>-62.767267</v>
       </c>
       <c r="E39" t="n">
-        <v>2459139.126535</v>
+        <v>2460203.017928</v>
       </c>
       <c r="F39" t="n">
-        <v>4.7559737</v>
+        <v>3.9766833</v>
       </c>
       <c r="G39" t="n">
-        <v>2.5469696</v>
+        <v>1.859</v>
       </c>
       <c r="H39" t="n">
-        <v>398.6310113</v>
+        <v>142</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>1.725417</v>
+        <v>0.757588</v>
       </c>
       <c r="J39" t="n">
-        <v>161.7314334</v>
+        <v>89.0886</v>
       </c>
       <c r="K39" t="n">
-        <v>909.5327855</v>
+        <v>855</v>
       </c>
       <c r="L39" t="n">
-        <v>8.3157</v>
+        <v>8.751300000000001</v>
       </c>
       <c r="M39" t="n">
-        <v>44.8155</v>
+        <v>39.0341</v>
       </c>
       <c r="N39" t="n">
-        <v>5175.2</v>
+        <v>4813</v>
       </c>
       <c r="O39" t="n">
-        <v>4.37657</v>
+        <v>4.38</v>
       </c>
       <c r="P39" t="n">
-        <v>0.841842</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>0.7628677312478804</v>
+        <v>1.390642899182112</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1131206969732151</v>
+        <v>0.05462548793553362</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>402.02</v>
+        <v>174.03</v>
       </c>
       <c r="B40" t="n">
-        <v>120896927</v>
+        <v>425997655</v>
       </c>
       <c r="C40" t="n">
-        <v>36.867885</v>
+        <v>55.459031</v>
       </c>
       <c r="D40" t="n">
-        <v>-27.636117</v>
+        <v>-62.767267</v>
       </c>
       <c r="E40" t="n">
-        <v>2459118.955569</v>
+        <v>2460184.414244</v>
       </c>
       <c r="F40" t="n">
-        <v>17.1807214</v>
+        <v>12.1623316</v>
       </c>
       <c r="G40" t="n">
-        <v>2.1004813</v>
+        <v>2.614</v>
       </c>
       <c r="H40" t="n">
-        <v>680.1385904</v>
+        <v>317</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>2.1954034</v>
+        <v>1.15643</v>
       </c>
       <c r="J40" t="n">
-        <v>29.1782002</v>
+        <v>27.5458</v>
       </c>
       <c r="K40" t="n">
-        <v>592.7674866</v>
+        <v>638</v>
       </c>
       <c r="L40" t="n">
-        <v>8.3157</v>
+        <v>8.751300000000001</v>
       </c>
       <c r="M40" t="n">
-        <v>44.8155</v>
+        <v>39.0341</v>
       </c>
       <c r="N40" t="n">
-        <v>5175.2</v>
+        <v>4813</v>
       </c>
       <c r="O40" t="n">
-        <v>4.37657</v>
+        <v>4.38</v>
       </c>
       <c r="P40" t="n">
-        <v>0.841842</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q40" s="3" t="n">
-        <v>0.7628677312478804</v>
+        <v>1.390642899182112</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1131206969732151</v>
+        <v>0.05462548793553362</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6266.01</v>
+        <v>262.01</v>
       </c>
       <c r="B41" t="n">
-        <v>193023697</v>
+        <v>70513361</v>
       </c>
       <c r="C41" t="n">
-        <v>155.597851</v>
+        <v>32.534687</v>
       </c>
       <c r="D41" t="n">
-        <v>-28.847487</v>
+        <v>-31.070627</v>
       </c>
       <c r="E41" t="n">
-        <v>2460013.265158</v>
+        <v>2459136.576258</v>
       </c>
       <c r="F41" t="n">
-        <v>2.7895524</v>
+        <v>11.1452784</v>
       </c>
       <c r="G41" t="n">
-        <v>1.969</v>
+        <v>1.3947705</v>
       </c>
       <c r="H41" t="n">
-        <v>262</v>
+        <v>566.2736451</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>0.986147</v>
+        <v>2.0671456</v>
       </c>
       <c r="J41" t="n">
-        <v>376.853</v>
+        <v>56.9132658</v>
       </c>
       <c r="K41" t="n">
-        <v>1227</v>
+        <v>700.5241733</v>
       </c>
       <c r="L41" t="n">
-        <v>8.5953</v>
+        <v>8.134499999999999</v>
       </c>
       <c r="M41" t="n">
-        <v>42.6435</v>
+        <v>43.932</v>
       </c>
       <c r="N41" t="n">
-        <v>5039</v>
+        <v>5302.58</v>
       </c>
       <c r="O41" t="n">
-        <v>4.62</v>
+        <v>4.53515</v>
       </c>
       <c r="P41" t="n">
-        <v>0.74</v>
+        <v>0.848675</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>0.7675547898499949</v>
+        <v>1.417541627563252</v>
       </c>
       <c r="R41" t="n">
-        <v>0.01595707167941454</v>
+        <v>0.1492879722617396</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>174.03</v>
+        <v>402.02</v>
       </c>
       <c r="B42" t="n">
-        <v>425997655</v>
+        <v>120896927</v>
       </c>
       <c r="C42" t="n">
-        <v>55.459031</v>
+        <v>36.867885</v>
       </c>
       <c r="D42" t="n">
-        <v>-62.767267</v>
+        <v>-27.636117</v>
       </c>
       <c r="E42" t="n">
-        <v>2460184.414244</v>
+        <v>2459118.955569</v>
       </c>
       <c r="F42" t="n">
-        <v>12.1623316</v>
+        <v>17.1807214</v>
       </c>
       <c r="G42" t="n">
-        <v>2.614</v>
+        <v>2.1004813</v>
       </c>
       <c r="H42" t="n">
-        <v>317</v>
+        <v>680.1385904</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>1.15643</v>
+        <v>2.1954034</v>
       </c>
       <c r="J42" t="n">
-        <v>27.5458</v>
+        <v>29.1782002</v>
       </c>
       <c r="K42" t="n">
-        <v>638</v>
+        <v>592.7674866</v>
       </c>
       <c r="L42" t="n">
-        <v>8.751300000000001</v>
+        <v>8.3157</v>
       </c>
       <c r="M42" t="n">
-        <v>39.0341</v>
+        <v>44.8155</v>
       </c>
       <c r="N42" t="n">
-        <v>4813</v>
+        <v>5175.2</v>
       </c>
       <c r="O42" t="n">
-        <v>4.38</v>
+        <v>4.37657</v>
       </c>
       <c r="P42" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.841842</v>
       </c>
       <c r="Q42" s="3" t="n">
-        <v>0.7830204577516093</v>
+        <v>1.420266750973085</v>
       </c>
       <c r="R42" t="n">
-        <v>0.05462548793553362</v>
+        <v>0.1131206969732151</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>174.01</v>
+        <v>402.01</v>
       </c>
       <c r="B43" t="n">
-        <v>425997655</v>
+        <v>120896927</v>
       </c>
       <c r="C43" t="n">
-        <v>55.459031</v>
+        <v>36.867885</v>
       </c>
       <c r="D43" t="n">
-        <v>-62.767267</v>
+        <v>-27.636117</v>
       </c>
       <c r="E43" t="n">
-        <v>2460180.378105</v>
+        <v>2459139.126535</v>
       </c>
       <c r="F43" t="n">
-        <v>17.6671687</v>
+        <v>4.7559737</v>
       </c>
       <c r="G43" t="n">
-        <v>2.525</v>
+        <v>2.5469696</v>
       </c>
       <c r="H43" t="n">
-        <v>854</v>
+        <v>398.6310113</v>
       </c>
       <c r="I43" s="3" t="n">
-        <v>1.87042</v>
+        <v>1.725417</v>
       </c>
       <c r="J43" t="n">
-        <v>7.60884</v>
+        <v>161.7314334</v>
       </c>
       <c r="K43" t="n">
-        <v>462</v>
+        <v>909.5327855</v>
       </c>
       <c r="L43" t="n">
-        <v>8.751300000000001</v>
+        <v>8.3157</v>
       </c>
       <c r="M43" t="n">
-        <v>39.0341</v>
+        <v>44.8155</v>
       </c>
       <c r="N43" t="n">
-        <v>4813</v>
+        <v>5175.2</v>
       </c>
       <c r="O43" t="n">
-        <v>4.38</v>
+        <v>4.37657</v>
       </c>
       <c r="P43" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.841842</v>
       </c>
       <c r="Q43" s="3" t="n">
-        <v>0.7830204577516093</v>
+        <v>1.420266750973085</v>
       </c>
       <c r="R43" t="n">
-        <v>0.05462548793553362</v>
+        <v>0.1131206969732151</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>174.05</v>
+        <v>6709.01</v>
       </c>
       <c r="B44" t="n">
-        <v>425997655</v>
+        <v>20375215</v>
       </c>
       <c r="C44" t="n">
-        <v>55.459031</v>
+        <v>167.608218</v>
       </c>
       <c r="D44" t="n">
-        <v>-62.767267</v>
+        <v>-29.414302</v>
       </c>
       <c r="E44" t="n">
-        <v>2460197.038739</v>
+        <v>2458544.543307</v>
       </c>
       <c r="F44" t="n">
-        <v>7.9076222</v>
+        <v>2.3477336</v>
       </c>
       <c r="G44" t="n">
-        <v>2.611</v>
+        <v>1.8624266</v>
       </c>
       <c r="H44" t="n">
-        <v>217</v>
+        <v>182.9434914</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>0.969819</v>
+        <v>1.0903541</v>
       </c>
       <c r="J44" t="n">
-        <v>44.8107</v>
+        <v>215.4979378</v>
       </c>
       <c r="K44" t="n">
-        <v>720</v>
+        <v>977.1934094</v>
       </c>
       <c r="L44" t="n">
-        <v>8.751300000000001</v>
+        <v>8.8392</v>
       </c>
       <c r="M44" t="n">
-        <v>39.0341</v>
+        <v>39.7429</v>
       </c>
       <c r="N44" t="n">
-        <v>4813</v>
+        <v>4799</v>
       </c>
       <c r="O44" t="n">
-        <v>4.38</v>
+        <v>4.66766</v>
       </c>
       <c r="P44" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.678033</v>
       </c>
       <c r="Q44" s="3" t="n">
-        <v>0.7830204577516093</v>
+        <v>1.429141886451972</v>
       </c>
       <c r="R44" t="n">
-        <v>0.05462548793553362</v>
+        <v>0.03672621597918261</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>174.02</v>
+        <v>144.01</v>
       </c>
       <c r="B45" t="n">
-        <v>425997655</v>
+        <v>261136679</v>
       </c>
       <c r="C45" t="n">
-        <v>55.459031</v>
+        <v>84.29928</v>
       </c>
       <c r="D45" t="n">
-        <v>-62.767267</v>
+        <v>-80.46460399999999</v>
       </c>
       <c r="E45" t="n">
-        <v>2460157.951364</v>
+        <v>2460011.550653</v>
       </c>
       <c r="F45" t="n">
-        <v>29.7975205</v>
+        <v>6.267832</v>
       </c>
       <c r="G45" t="n">
-        <v>2.782</v>
+        <v>2.789</v>
       </c>
       <c r="H45" t="n">
-        <v>671</v>
+        <v>321</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>1.60982</v>
+        <v>1.99779</v>
       </c>
       <c r="J45" t="n">
-        <v>3.2713</v>
+        <v>203.434</v>
       </c>
       <c r="K45" t="n">
-        <v>374</v>
+        <v>1052</v>
       </c>
       <c r="L45" t="n">
-        <v>8.751300000000001</v>
+        <v>5.1054</v>
       </c>
       <c r="M45" t="n">
-        <v>39.0341</v>
+        <v>18.2702</v>
       </c>
       <c r="N45" t="n">
-        <v>4813</v>
+        <v>5950</v>
       </c>
       <c r="O45" t="n">
-        <v>4.38</v>
+        <v>4.438</v>
       </c>
       <c r="P45" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="Q45" s="3" t="n">
-        <v>0.7830204577516093</v>
+        <v>1.435841770397525</v>
       </c>
       <c r="R45" t="n">
-        <v>0.05462548793553362</v>
+        <v>0.5469902615930315</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>174.04</v>
+        <v>2459.01</v>
       </c>
       <c r="B46" t="n">
-        <v>425997655</v>
+        <v>192790476</v>
       </c>
       <c r="C46" t="n">
-        <v>55.459031</v>
+        <v>82.143332</v>
       </c>
       <c r="D46" t="n">
-        <v>-62.767267</v>
+        <v>-39.373046</v>
       </c>
       <c r="E46" t="n">
-        <v>2460203.017928</v>
+        <v>2458452.334564</v>
       </c>
       <c r="F46" t="n">
-        <v>3.9766833</v>
+        <v>19.1047019</v>
       </c>
       <c r="G46" t="n">
-        <v>1.859</v>
+        <v>3.2516728</v>
       </c>
       <c r="H46" t="n">
-        <v>142</v>
+        <v>1906.0596245</v>
       </c>
       <c r="I46" s="3" t="n">
-        <v>0.757588</v>
+        <v>2.9365337</v>
       </c>
       <c r="J46" t="n">
-        <v>89.0886</v>
+        <v>8.5187297</v>
       </c>
       <c r="K46" t="n">
-        <v>855</v>
+        <v>435.7259839</v>
       </c>
       <c r="L46" t="n">
-        <v>8.751300000000001</v>
+        <v>9.395099999999999</v>
       </c>
       <c r="M46" t="n">
-        <v>39.0341</v>
+        <v>36.6113</v>
       </c>
       <c r="N46" t="n">
-        <v>4813</v>
+        <v>4195</v>
       </c>
       <c r="O46" t="n">
-        <v>4.38</v>
+        <v>4.59888</v>
       </c>
       <c r="P46" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6750930000000001</v>
       </c>
       <c r="Q46" s="3" t="n">
-        <v>0.7830204577516093</v>
+        <v>1.44974443522691</v>
       </c>
       <c r="R46" t="n">
-        <v>0.05462548793553362</v>
+        <v>0.04566165863559627</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4307.02</v>
+        <v>6985.01</v>
       </c>
       <c r="B47" t="n">
-        <v>141186075</v>
+        <v>59490344</v>
       </c>
       <c r="C47" t="n">
-        <v>81.32749800000001</v>
+        <v>108.993831</v>
       </c>
       <c r="D47" t="n">
-        <v>-75.69373400000001</v>
+        <v>18.691658</v>
       </c>
       <c r="E47" t="n">
-        <v>2458328.004126</v>
+        <v>2459509.801369</v>
       </c>
       <c r="F47" t="n">
-        <v>4.6545798</v>
+        <v>748.7146251</v>
       </c>
       <c r="G47" t="n">
-        <v>3.1445137</v>
+        <v>6.6689152</v>
       </c>
       <c r="H47" t="n">
-        <v>24.5834929</v>
+        <v>1655.3509066</v>
       </c>
       <c r="I47" s="3" t="n">
-        <v>0.5531037</v>
+        <v>3.4308988</v>
       </c>
       <c r="J47" t="n">
-        <v>454.0182322</v>
+        <v>0.1991332</v>
       </c>
       <c r="K47" t="n">
-        <v>1177.3025181</v>
+        <v>170.3749226</v>
       </c>
       <c r="L47" t="n">
-        <v>6.6418</v>
+        <v>8.3323</v>
       </c>
       <c r="M47" t="n">
-        <v>36.0469</v>
+        <v>46.2206</v>
       </c>
       <c r="N47" t="n">
-        <v>6079.16</v>
+        <v>5235</v>
       </c>
       <c r="O47" t="n">
-        <v>4.438</v>
+        <v>4.5339</v>
       </c>
       <c r="P47" t="n">
-        <v>1.09843</v>
+        <v>0.844852</v>
       </c>
       <c r="Q47" s="3" t="n">
-        <v>0.7994076233898318</v>
+        <v>1.484563724091384</v>
       </c>
       <c r="R47" t="n">
-        <v>0.1616304778941326</v>
+        <v>0.05116830388656043</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4307.01</v>
+        <v>6678.01</v>
       </c>
       <c r="B48" t="n">
-        <v>141186075</v>
+        <v>253864764</v>
       </c>
       <c r="C48" t="n">
-        <v>81.32749800000001</v>
+        <v>283.536275</v>
       </c>
       <c r="D48" t="n">
-        <v>-75.69373400000001</v>
+        <v>-36.65686</v>
       </c>
       <c r="E48" t="n">
-        <v>2458349.759358</v>
+        <v>2460149.83497</v>
       </c>
       <c r="F48" t="n">
-        <v>32.696666</v>
+        <v>3.4268387</v>
       </c>
       <c r="G48" t="n">
-        <v>4.428309</v>
+        <v>1.288</v>
       </c>
       <c r="H48" t="n">
-        <v>108.5170828</v>
+        <v>844</v>
       </c>
       <c r="I48" s="3" t="n">
-        <v>1.3159881</v>
+        <v>2.12571</v>
       </c>
       <c r="J48" t="n">
-        <v>33.7475807</v>
+        <v>94.0962</v>
       </c>
       <c r="K48" t="n">
-        <v>614.7243418</v>
+        <v>867</v>
       </c>
       <c r="L48" t="n">
-        <v>6.6418</v>
+        <v>8.8688</v>
       </c>
       <c r="M48" t="n">
-        <v>36.0469</v>
+        <v>44.8496</v>
       </c>
       <c r="N48" t="n">
-        <v>6079.16</v>
+        <v>4794</v>
       </c>
       <c r="O48" t="n">
-        <v>4.438</v>
+        <v>4.55</v>
       </c>
       <c r="P48" t="n">
-        <v>1.09843</v>
+        <v>0.77</v>
       </c>
       <c r="Q48" s="3" t="n">
-        <v>0.7994076233898318</v>
+        <v>1.506642040307112</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1616304778941326</v>
+        <v>0.0352176809563584</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6985.01</v>
+        <v>461.01</v>
       </c>
       <c r="B49" t="n">
-        <v>59490344</v>
+        <v>4646810</v>
       </c>
       <c r="C49" t="n">
-        <v>108.993831</v>
+        <v>38.271253</v>
       </c>
       <c r="D49" t="n">
-        <v>18.691658</v>
+        <v>-10.352178</v>
       </c>
       <c r="E49" t="n">
-        <v>2459509.801369</v>
+        <v>2458416.351956</v>
       </c>
       <c r="F49" t="n">
-        <v>748.7146251</v>
+        <v>10.9245478</v>
       </c>
       <c r="G49" t="n">
-        <v>6.6689152</v>
+        <v>1.8716477</v>
       </c>
       <c r="H49" t="n">
-        <v>1655.3509066</v>
+        <v>653.537141</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>3.4308988</v>
+        <v>1.9015018</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1991332</v>
+        <v>35.242668</v>
       </c>
       <c r="K49" t="n">
-        <v>170.3749226</v>
+        <v>621.4224577</v>
       </c>
       <c r="L49" t="n">
-        <v>8.3323</v>
+        <v>8.872299999999999</v>
       </c>
       <c r="M49" t="n">
-        <v>46.2206</v>
+        <v>45.5621</v>
       </c>
       <c r="N49" t="n">
-        <v>5235</v>
+        <v>4884</v>
       </c>
       <c r="O49" t="n">
-        <v>4.5339</v>
+        <v>4.49</v>
       </c>
       <c r="P49" t="n">
-        <v>0.844852</v>
+        <v>0.74413</v>
       </c>
       <c r="Q49" s="3" t="n">
-        <v>0.801501182634099</v>
+        <v>1.516378108953446</v>
       </c>
       <c r="R49" t="n">
-        <v>0.05116830388656043</v>
+        <v>0.09656722333313997</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6709.01</v>
+        <v>7062.01</v>
       </c>
       <c r="B50" t="n">
-        <v>20375215</v>
+        <v>23961340</v>
       </c>
       <c r="C50" t="n">
-        <v>167.608218</v>
+        <v>313.292091</v>
       </c>
       <c r="D50" t="n">
-        <v>-29.414302</v>
+        <v>-9.044055</v>
       </c>
       <c r="E50" t="n">
-        <v>2458544.543307</v>
+        <v>2460528.435521</v>
       </c>
       <c r="F50" t="n">
-        <v>2.3477336</v>
+        <v>10.5137924</v>
       </c>
       <c r="G50" t="n">
-        <v>1.8624266</v>
+        <v>2.275</v>
       </c>
       <c r="H50" t="n">
-        <v>182.9434914</v>
+        <v>1611</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>1.0903541</v>
+        <v>3.1867</v>
       </c>
       <c r="J50" t="n">
-        <v>215.4979378</v>
+        <v>25.6571</v>
       </c>
       <c r="K50" t="n">
-        <v>977.1934094</v>
+        <v>627</v>
       </c>
       <c r="L50" t="n">
-        <v>8.8392</v>
+        <v>8.863</v>
       </c>
       <c r="M50" t="n">
-        <v>39.7429</v>
+        <v>47.6049</v>
       </c>
       <c r="N50" t="n">
-        <v>4799</v>
+        <v>4942</v>
       </c>
       <c r="O50" t="n">
-        <v>4.66766</v>
+        <v>4.58</v>
       </c>
       <c r="P50" t="n">
-        <v>0.678033</v>
+        <v>0.77</v>
       </c>
       <c r="Q50" s="3" t="n">
-        <v>0.8070233188124741</v>
+        <v>1.535217968277671</v>
       </c>
       <c r="R50" t="n">
-        <v>0.03672621597918261</v>
+        <v>0.02720601594492704</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2459.01</v>
+        <v>6726.01</v>
       </c>
       <c r="B51" t="n">
-        <v>192790476</v>
+        <v>121490076</v>
       </c>
       <c r="C51" t="n">
-        <v>82.143332</v>
+        <v>343.572379</v>
       </c>
       <c r="D51" t="n">
-        <v>-39.373046</v>
+        <v>-43.010229</v>
       </c>
       <c r="E51" t="n">
-        <v>2458452.334564</v>
+        <v>2460160.495921</v>
       </c>
       <c r="F51" t="n">
-        <v>19.1047019</v>
+        <v>14.2456603</v>
       </c>
       <c r="G51" t="n">
-        <v>3.2516728</v>
+        <v>3.403</v>
       </c>
       <c r="H51" t="n">
-        <v>1906.0596245</v>
+        <v>1084</v>
       </c>
       <c r="I51" s="3" t="n">
-        <v>2.9365337</v>
+        <v>3.68209</v>
       </c>
       <c r="J51" t="n">
-        <v>8.5187297</v>
+        <v>180.487</v>
       </c>
       <c r="K51" t="n">
-        <v>435.7259839</v>
+        <v>1021</v>
       </c>
       <c r="L51" t="n">
-        <v>9.395099999999999</v>
+        <v>8.998799999999999</v>
       </c>
       <c r="M51" t="n">
-        <v>36.6113</v>
+        <v>46.2122</v>
       </c>
       <c r="N51" t="n">
-        <v>4195</v>
+        <v>4760</v>
       </c>
       <c r="O51" t="n">
-        <v>4.59888</v>
+        <v>4.57</v>
       </c>
       <c r="P51" t="n">
-        <v>0.6750930000000001</v>
+        <v>0.76</v>
       </c>
       <c r="Q51" s="3" t="n">
-        <v>0.8304488523779201</v>
+        <v>1.559962907000137</v>
       </c>
       <c r="R51" t="n">
-        <v>0.04566165863559627</v>
+        <v>0.01321577041923607</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>509.01</v>
+        <v>2018.01</v>
       </c>
       <c r="B52" t="n">
-        <v>453211454</v>
+        <v>357501308</v>
       </c>
       <c r="C52" t="n">
-        <v>117.924642</v>
+        <v>229.837442</v>
       </c>
       <c r="D52" t="n">
-        <v>9.385241000000001</v>
+        <v>29.207877</v>
       </c>
       <c r="E52" t="n">
-        <v>2460269.974997</v>
+        <v>2458958.257962</v>
       </c>
       <c r="F52" t="n">
-        <v>9.058820900000001</v>
+        <v>7.4355709</v>
       </c>
       <c r="G52" t="n">
-        <v>3.342</v>
+        <v>2.3450321</v>
       </c>
       <c r="H52" t="n">
-        <v>875</v>
+        <v>1310.6803156</v>
       </c>
       <c r="I52" s="3" t="n">
-        <v>2.67607</v>
+        <v>2.2761564</v>
       </c>
       <c r="J52" t="n">
-        <v>92.839</v>
+        <v>26.0757607</v>
       </c>
       <c r="K52" t="n">
-        <v>864</v>
+        <v>576.3403106</v>
       </c>
       <c r="L52" t="n">
-        <v>7.9259</v>
+        <v>8.962</v>
       </c>
       <c r="M52" t="n">
-        <v>48.9739</v>
+        <v>27.9956</v>
       </c>
       <c r="N52" t="n">
-        <v>5560.26</v>
+        <v>4218.9</v>
       </c>
       <c r="O52" t="n">
-        <v>4.438</v>
+        <v>4.67</v>
       </c>
       <c r="P52" t="n">
-        <v>0.96</v>
+        <v>0.622512</v>
       </c>
       <c r="Q52" s="3" t="n">
-        <v>0.842554396475881</v>
+        <v>1.567080541948636</v>
       </c>
       <c r="R52" t="n">
-        <v>0.1017032808558144</v>
+        <v>0.2100230324201724</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>509.02</v>
+        <v>6965.02</v>
       </c>
       <c r="B53" t="n">
-        <v>453211454</v>
+        <v>80224448</v>
       </c>
       <c r="C53" t="n">
-        <v>117.924642</v>
+        <v>103.678273</v>
       </c>
       <c r="D53" t="n">
-        <v>9.385241000000001</v>
+        <v>24.245141</v>
       </c>
       <c r="E53" t="n">
-        <v>2460259.048369</v>
+        <v>2459508.008646</v>
       </c>
       <c r="F53" t="n">
-        <v>21.4003129</v>
+        <v>28.0693949</v>
       </c>
       <c r="G53" t="n">
-        <v>5.3847459</v>
+        <v>6.0393818</v>
       </c>
       <c r="H53" t="n">
-        <v>960.7539877</v>
+        <v>154.3008171</v>
       </c>
       <c r="I53" s="3" t="n">
-        <v>3.0010426</v>
+        <v>1.6221344</v>
       </c>
       <c r="J53" t="n">
-        <v>35.2811724</v>
+        <v>42.4755605</v>
       </c>
       <c r="K53" t="n">
-        <v>621.592122</v>
+        <v>651.1102456</v>
       </c>
       <c r="L53" t="n">
-        <v>7.9259</v>
+        <v>6.3103</v>
       </c>
       <c r="M53" t="n">
-        <v>48.9739</v>
+        <v>31.1664</v>
       </c>
       <c r="N53" t="n">
-        <v>5560.26</v>
+        <v>6007</v>
       </c>
       <c r="O53" t="n">
-        <v>4.438</v>
+        <v>4.37729</v>
       </c>
       <c r="P53" t="n">
-        <v>0.962324</v>
+        <v>1.12993</v>
       </c>
       <c r="Q53" s="3" t="n">
-        <v>0.842554396475881</v>
+        <v>1.589191432361864</v>
       </c>
       <c r="R53" t="n">
-        <v>0.1017032808558144</v>
+        <v>0.05173693479333623</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6678.01</v>
+        <v>6965.01</v>
       </c>
       <c r="B54" t="n">
-        <v>253864764</v>
+        <v>80224448</v>
       </c>
       <c r="C54" t="n">
-        <v>283.536275</v>
+        <v>103.678273</v>
       </c>
       <c r="D54" t="n">
-        <v>-36.65686</v>
+        <v>24.245141</v>
       </c>
       <c r="E54" t="n">
-        <v>2460149.83497</v>
+        <v>2459505.193695</v>
       </c>
       <c r="F54" t="n">
-        <v>3.4268387</v>
+        <v>5.9693397</v>
       </c>
       <c r="G54" t="n">
-        <v>1.288</v>
+        <v>3.441038</v>
       </c>
       <c r="H54" t="n">
-        <v>844</v>
+        <v>105.5424205</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>2.12571</v>
+        <v>1.3473608</v>
       </c>
       <c r="J54" t="n">
-        <v>94.0962</v>
+        <v>334.6170929</v>
       </c>
       <c r="K54" t="n">
-        <v>867</v>
+        <v>1090.8292631</v>
       </c>
       <c r="L54" t="n">
-        <v>8.8688</v>
+        <v>6.3103</v>
       </c>
       <c r="M54" t="n">
-        <v>44.8496</v>
+        <v>31.1664</v>
       </c>
       <c r="N54" t="n">
-        <v>4794</v>
+        <v>6007</v>
       </c>
       <c r="O54" t="n">
-        <v>4.55</v>
+        <v>4.37729</v>
       </c>
       <c r="P54" t="n">
-        <v>0.77</v>
+        <v>1.12993</v>
       </c>
       <c r="Q54" s="3" t="n">
-        <v>0.8460331487101693</v>
+        <v>1.589191432361864</v>
       </c>
       <c r="R54" t="n">
-        <v>0.0352176809563584</v>
+        <v>0.05173693479333623</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>461.01</v>
+        <v>544.01</v>
       </c>
       <c r="B55" t="n">
-        <v>4646810</v>
+        <v>50618703</v>
       </c>
       <c r="C55" t="n">
-        <v>38.271253</v>
+        <v>82.290072</v>
       </c>
       <c r="D55" t="n">
-        <v>-10.352178</v>
+        <v>-0.342898</v>
       </c>
       <c r="E55" t="n">
-        <v>2458416.351956</v>
+        <v>2458469.756983</v>
       </c>
       <c r="F55" t="n">
-        <v>10.9245478</v>
+        <v>1.5483542</v>
       </c>
       <c r="G55" t="n">
-        <v>1.8716477</v>
+        <v>1.2030925</v>
       </c>
       <c r="H55" t="n">
-        <v>653.537141</v>
+        <v>926.4111032</v>
       </c>
       <c r="I55" s="3" t="n">
-        <v>1.9015018</v>
+        <v>2.1601741</v>
       </c>
       <c r="J55" t="n">
-        <v>35.242668</v>
+        <v>240.1950345</v>
       </c>
       <c r="K55" t="n">
-        <v>621.4224577</v>
+        <v>1004.0625199</v>
       </c>
       <c r="L55" t="n">
-        <v>8.872299999999999</v>
+        <v>9.650399999999999</v>
       </c>
       <c r="M55" t="n">
-        <v>45.5621</v>
+        <v>41.1166</v>
       </c>
       <c r="N55" t="n">
-        <v>4884</v>
+        <v>4665</v>
       </c>
       <c r="O55" t="n">
-        <v>4.49</v>
+        <v>4.67631</v>
       </c>
       <c r="P55" t="n">
-        <v>0.74413</v>
+        <v>0.6634139999999999</v>
       </c>
       <c r="Q55" s="3" t="n">
-        <v>0.8527980511516221</v>
+        <v>1.607880801785313</v>
       </c>
       <c r="R55" t="n">
-        <v>0.09656722333313997</v>
+        <v>0.04285830752449767</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>7062.01</v>
+        <v>509.01</v>
       </c>
       <c r="B56" t="n">
-        <v>23961340</v>
+        <v>453211454</v>
       </c>
       <c r="C56" t="n">
-        <v>313.292091</v>
+        <v>117.924642</v>
       </c>
       <c r="D56" t="n">
-        <v>-9.044055</v>
+        <v>9.385241000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>2460528.435521</v>
+        <v>2460269.974997</v>
       </c>
       <c r="F56" t="n">
-        <v>10.5137924</v>
+        <v>9.058820900000001</v>
       </c>
       <c r="G56" t="n">
-        <v>2.275</v>
+        <v>3.342</v>
       </c>
       <c r="H56" t="n">
-        <v>1611</v>
+        <v>875</v>
       </c>
       <c r="I56" s="3" t="n">
-        <v>3.1867</v>
+        <v>2.67607</v>
       </c>
       <c r="J56" t="n">
-        <v>25.6571</v>
+        <v>92.839</v>
       </c>
       <c r="K56" t="n">
-        <v>627</v>
+        <v>864</v>
       </c>
       <c r="L56" t="n">
-        <v>8.863</v>
+        <v>7.9259</v>
       </c>
       <c r="M56" t="n">
-        <v>47.6049</v>
+        <v>48.9739</v>
       </c>
       <c r="N56" t="n">
-        <v>4942</v>
+        <v>5560.26</v>
       </c>
       <c r="O56" t="n">
-        <v>4.58</v>
+        <v>4.438</v>
       </c>
       <c r="P56" t="n">
-        <v>0.77</v>
+        <v>0.96</v>
       </c>
       <c r="Q56" s="3" t="n">
-        <v>0.8582848736645433</v>
+        <v>1.626298417461924</v>
       </c>
       <c r="R56" t="n">
-        <v>0.02720601594492704</v>
+        <v>0.1017032808558144</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6726.01</v>
+        <v>509.02</v>
       </c>
       <c r="B57" t="n">
-        <v>121490076</v>
+        <v>453211454</v>
       </c>
       <c r="C57" t="n">
-        <v>343.572379</v>
+        <v>117.924642</v>
       </c>
       <c r="D57" t="n">
-        <v>-43.010229</v>
+        <v>9.385241000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>2460160.495921</v>
+        <v>2460259.048369</v>
       </c>
       <c r="F57" t="n">
-        <v>14.2456603</v>
+        <v>21.4003129</v>
       </c>
       <c r="G57" t="n">
-        <v>3.403</v>
+        <v>5.3847459</v>
       </c>
       <c r="H57" t="n">
-        <v>1084</v>
+        <v>960.7539877</v>
       </c>
       <c r="I57" s="3" t="n">
-        <v>3.68209</v>
+        <v>3.0010426</v>
       </c>
       <c r="J57" t="n">
-        <v>180.487</v>
+        <v>35.2811724</v>
       </c>
       <c r="K57" t="n">
-        <v>1021</v>
+        <v>621.592122</v>
       </c>
       <c r="L57" t="n">
-        <v>8.998799999999999</v>
+        <v>7.9259</v>
       </c>
       <c r="M57" t="n">
-        <v>46.2122</v>
+        <v>48.9739</v>
       </c>
       <c r="N57" t="n">
-        <v>4760</v>
+        <v>5560.26</v>
       </c>
       <c r="O57" t="n">
-        <v>4.57</v>
+        <v>4.438</v>
       </c>
       <c r="P57" t="n">
-        <v>0.76</v>
+        <v>0.962324</v>
       </c>
       <c r="Q57" s="3" t="n">
-        <v>0.8755490982267587</v>
+        <v>1.626298417461924</v>
       </c>
       <c r="R57" t="n">
-        <v>0.01321577041923607</v>
+        <v>0.1017032808558144</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2018.01</v>
+        <v>4310.01</v>
       </c>
       <c r="B58" t="n">
-        <v>357501308</v>
+        <v>303317324</v>
       </c>
       <c r="C58" t="n">
-        <v>229.837442</v>
+        <v>351.903531</v>
       </c>
       <c r="D58" t="n">
-        <v>29.207877</v>
+        <v>-25.508462</v>
       </c>
       <c r="E58" t="n">
-        <v>2458958.257962</v>
+        <v>2458365.181534</v>
       </c>
       <c r="F58" t="n">
-        <v>7.4355709</v>
+        <v>739.1670007</v>
       </c>
       <c r="G58" t="n">
-        <v>2.3450321</v>
+        <v>5.7183604</v>
       </c>
       <c r="H58" t="n">
-        <v>1310.6803156</v>
+        <v>1376.1395053</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>2.2761564</v>
+        <v>2.6735992</v>
       </c>
       <c r="J58" t="n">
-        <v>26.0757607</v>
+        <v>0.0724872</v>
       </c>
       <c r="K58" t="n">
-        <v>576.3403106</v>
+        <v>132.3381364</v>
       </c>
       <c r="L58" t="n">
-        <v>8.962</v>
+        <v>9.4961</v>
       </c>
       <c r="M58" t="n">
-        <v>27.9956</v>
+        <v>40.0268</v>
       </c>
       <c r="N58" t="n">
-        <v>4218.9</v>
+        <v>4159</v>
       </c>
       <c r="O58" t="n">
-        <v>4.67</v>
+        <v>4.53501</v>
       </c>
       <c r="P58" t="n">
-        <v>0.622512</v>
+        <v>0.7210839999999999</v>
       </c>
       <c r="Q58" s="3" t="n">
-        <v>0.8895167524026653</v>
+        <v>1.639734192087474</v>
       </c>
       <c r="R58" t="n">
-        <v>0.2100230324201724</v>
+        <v>0.04720909237717162</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>652.01</v>
+        <v>6263.01</v>
       </c>
       <c r="B59" t="n">
-        <v>22221375</v>
+        <v>293547742</v>
       </c>
       <c r="C59" t="n">
-        <v>149.123515</v>
+        <v>139.199747</v>
       </c>
       <c r="D59" t="n">
-        <v>-24.099186</v>
+        <v>-49.300844</v>
       </c>
       <c r="E59" t="n">
-        <v>2460013.591733</v>
+        <v>2460009.249357</v>
       </c>
       <c r="F59" t="n">
-        <v>3.9846589</v>
+        <v>3.0178746</v>
       </c>
       <c r="G59" t="n">
-        <v>2.146</v>
+        <v>2.679</v>
       </c>
       <c r="H59" t="n">
-        <v>445</v>
+        <v>193</v>
       </c>
       <c r="I59" s="3" t="n">
-        <v>2.12827</v>
+        <v>0.930891</v>
       </c>
       <c r="J59" t="n">
-        <v>647.901</v>
+        <v>303.499</v>
       </c>
       <c r="K59" t="n">
-        <v>1405</v>
+        <v>1162</v>
       </c>
       <c r="L59" t="n">
-        <v>7.3635</v>
+        <v>9.1348</v>
       </c>
       <c r="M59" t="n">
-        <v>45.683</v>
+        <v>46.2588</v>
       </c>
       <c r="N59" t="n">
-        <v>5903</v>
+        <v>4717</v>
       </c>
       <c r="O59" t="n">
-        <v>4.44653</v>
+        <v>4.61</v>
       </c>
       <c r="P59" t="n">
-        <v>1.03</v>
+        <v>0.71</v>
       </c>
       <c r="Q59" s="3" t="n">
-        <v>0.8937733752542706</v>
+        <v>1.645503504737809</v>
       </c>
       <c r="R59" t="n">
-        <v>0.09064358833580949</v>
+        <v>0.1214124615862055</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>440.01</v>
+        <v>833.01</v>
       </c>
       <c r="B60" t="n">
-        <v>143350972</v>
+        <v>362249359</v>
       </c>
       <c r="C60" t="n">
-        <v>82.245986</v>
+        <v>145.645472</v>
       </c>
       <c r="D60" t="n">
-        <v>-17.429564</v>
+        <v>-62.475886</v>
       </c>
       <c r="E60" t="n">
-        <v>2458439.13519</v>
+        <v>2458544.120496</v>
       </c>
       <c r="F60" t="n">
-        <v>1.0817</v>
+        <v>1.041889</v>
       </c>
       <c r="G60" t="n">
-        <v>1.588</v>
+        <v>1.2737667</v>
       </c>
       <c r="H60" t="n">
-        <v>341.533</v>
+        <v>465.3854112</v>
       </c>
       <c r="I60" s="3" t="n">
-        <v>2.07554</v>
+        <v>1.389031</v>
       </c>
       <c r="J60" t="n">
-        <v>2462.7009749</v>
+        <v>270.068174</v>
       </c>
       <c r="K60" t="n">
-        <v>1796.6880123</v>
+        <v>1033.9227741</v>
       </c>
       <c r="L60" t="n">
-        <v>7.6818</v>
+        <v>10.1461</v>
       </c>
       <c r="M60" t="n">
-        <v>49.3375</v>
+        <v>41.7148</v>
       </c>
       <c r="N60" t="n">
-        <v>5759.2</v>
+        <v>3965</v>
       </c>
       <c r="O60" t="n">
-        <v>4.45</v>
+        <v>4.68337</v>
       </c>
       <c r="P60" t="n">
-        <v>1.02</v>
+        <v>0.603336</v>
       </c>
       <c r="Q60" s="3" t="n">
-        <v>0.9064552235095198</v>
+        <v>1.673011684280936</v>
       </c>
       <c r="R60" t="n">
-        <v>0.05708224099375498</v>
+        <v>0.08879781148820186</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>141.01</v>
+        <v>4307.01</v>
       </c>
       <c r="B61" t="n">
-        <v>403224672</v>
+        <v>141186075</v>
       </c>
       <c r="C61" t="n">
-        <v>338.983717</v>
+        <v>81.32749800000001</v>
       </c>
       <c r="D61" t="n">
-        <v>-59.864829</v>
+        <v>-75.69373400000001</v>
       </c>
       <c r="E61" t="n">
-        <v>2460178.671412</v>
+        <v>2458349.759358</v>
       </c>
       <c r="F61" t="n">
-        <v>1.0082361</v>
+        <v>32.696666</v>
       </c>
       <c r="G61" t="n">
-        <v>1.41</v>
+        <v>4.428309</v>
       </c>
       <c r="H61" t="n">
-        <v>228</v>
+        <v>108.5170828</v>
       </c>
       <c r="I61" s="3" t="n">
-        <v>1.7202</v>
+        <v>1.3159881</v>
       </c>
       <c r="J61" t="n">
-        <v>1882.94</v>
+        <v>33.7475807</v>
       </c>
       <c r="K61" t="n">
-        <v>1835</v>
+        <v>614.7243418</v>
       </c>
       <c r="L61" t="n">
-        <v>7.384</v>
+        <v>6.6418</v>
       </c>
       <c r="M61" t="n">
-        <v>48.0883</v>
+        <v>36.0469</v>
       </c>
       <c r="N61" t="n">
-        <v>5795.29</v>
+        <v>6079.16</v>
       </c>
       <c r="O61" t="n">
         <v>4.438</v>
       </c>
       <c r="P61" t="n">
-        <v>1.13</v>
+        <v>1.09843</v>
       </c>
       <c r="Q61" s="3" t="n">
-        <v>0.9086312583242271</v>
+        <v>1.709403743219913</v>
       </c>
       <c r="R61" t="n">
-        <v>0.06928742029234983</v>
+        <v>0.1616304778941326</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>544.01</v>
+        <v>4307.02</v>
       </c>
       <c r="B62" t="n">
-        <v>50618703</v>
+        <v>141186075</v>
       </c>
       <c r="C62" t="n">
-        <v>82.290072</v>
+        <v>81.32749800000001</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.342898</v>
+        <v>-75.69373400000001</v>
       </c>
       <c r="E62" t="n">
-        <v>2458469.756983</v>
+        <v>2458328.004126</v>
       </c>
       <c r="F62" t="n">
-        <v>1.5483542</v>
+        <v>4.6545798</v>
       </c>
       <c r="G62" t="n">
-        <v>1.2030925</v>
+        <v>3.1445137</v>
       </c>
       <c r="H62" t="n">
-        <v>926.4111032</v>
+        <v>24.5834929</v>
       </c>
       <c r="I62" s="3" t="n">
-        <v>2.1601741</v>
+        <v>0.5531037</v>
       </c>
       <c r="J62" t="n">
-        <v>240.1950345</v>
+        <v>454.0182322</v>
       </c>
       <c r="K62" t="n">
-        <v>1004.0625199</v>
+        <v>1177.3025181</v>
       </c>
       <c r="L62" t="n">
-        <v>9.650399999999999</v>
+        <v>6.6418</v>
       </c>
       <c r="M62" t="n">
-        <v>41.1166</v>
+        <v>36.0469</v>
       </c>
       <c r="N62" t="n">
-        <v>4665</v>
+        <v>6079.16</v>
       </c>
       <c r="O62" t="n">
-        <v>4.67631</v>
+        <v>4.438</v>
       </c>
       <c r="P62" t="n">
-        <v>0.6634139999999999</v>
+        <v>1.09843</v>
       </c>
       <c r="Q62" s="3" t="n">
-        <v>0.9223986185530643</v>
+        <v>1.709403743219913</v>
       </c>
       <c r="R62" t="n">
-        <v>0.04285830752449767</v>
+        <v>0.1616304778941326</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6263.01</v>
+        <v>139.01</v>
       </c>
       <c r="B63" t="n">
-        <v>293547742</v>
+        <v>62483237</v>
       </c>
       <c r="C63" t="n">
-        <v>139.199747</v>
+        <v>336.402414</v>
       </c>
       <c r="D63" t="n">
-        <v>-49.300844</v>
+        <v>-34.909713</v>
       </c>
       <c r="E63" t="n">
-        <v>2460009.249357</v>
+        <v>2458334.891563</v>
       </c>
       <c r="F63" t="n">
-        <v>3.0178746</v>
+        <v>11.0708575</v>
       </c>
       <c r="G63" t="n">
-        <v>2.679</v>
+        <v>2.1937617</v>
       </c>
       <c r="H63" t="n">
-        <v>193</v>
+        <v>1149.7328034</v>
       </c>
       <c r="I63" s="3" t="n">
-        <v>0.930891</v>
+        <v>2.3337648</v>
       </c>
       <c r="J63" t="n">
-        <v>303.499</v>
+        <v>22.4219066</v>
       </c>
       <c r="K63" t="n">
-        <v>1162</v>
+        <v>554.9934842</v>
       </c>
       <c r="L63" t="n">
-        <v>9.1348</v>
+        <v>9.3636</v>
       </c>
       <c r="M63" t="n">
-        <v>46.2588</v>
+        <v>42.4061</v>
       </c>
       <c r="N63" t="n">
-        <v>4717</v>
+        <v>4356</v>
       </c>
       <c r="O63" t="n">
-        <v>4.61</v>
+        <v>4.53491</v>
       </c>
       <c r="P63" t="n">
-        <v>0.71</v>
+        <v>0.700727</v>
       </c>
       <c r="Q63" s="3" t="n">
-        <v>0.9308156236180681</v>
+        <v>1.711840798525595</v>
       </c>
       <c r="R63" t="n">
-        <v>0.1214124615862055</v>
+        <v>0.02144133416206292</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4310.01</v>
+        <v>440.01</v>
       </c>
       <c r="B64" t="n">
-        <v>303317324</v>
+        <v>143350972</v>
       </c>
       <c r="C64" t="n">
-        <v>351.903531</v>
+        <v>82.245986</v>
       </c>
       <c r="D64" t="n">
-        <v>-25.508462</v>
+        <v>-17.429564</v>
       </c>
       <c r="E64" t="n">
-        <v>2458365.181534</v>
+        <v>2458439.13519</v>
       </c>
       <c r="F64" t="n">
-        <v>739.1670007</v>
+        <v>1.0817</v>
       </c>
       <c r="G64" t="n">
-        <v>5.7183604</v>
+        <v>1.588</v>
       </c>
       <c r="H64" t="n">
-        <v>1376.1395053</v>
+        <v>341.533</v>
       </c>
       <c r="I64" s="3" t="n">
-        <v>2.6735992</v>
+        <v>2.07554</v>
       </c>
       <c r="J64" t="n">
-        <v>0.0724872</v>
+        <v>2462.7009749</v>
       </c>
       <c r="K64" t="n">
-        <v>132.3381364</v>
+        <v>1796.6880123</v>
       </c>
       <c r="L64" t="n">
-        <v>9.4961</v>
+        <v>7.6818</v>
       </c>
       <c r="M64" t="n">
-        <v>40.0268</v>
+        <v>49.3375</v>
       </c>
       <c r="N64" t="n">
-        <v>4159</v>
+        <v>5759.2</v>
       </c>
       <c r="O64" t="n">
-        <v>4.53501</v>
+        <v>4.45</v>
       </c>
       <c r="P64" t="n">
-        <v>0.7210839999999999</v>
+        <v>1.02</v>
       </c>
       <c r="Q64" s="3" t="n">
-        <v>0.935961884875647</v>
+        <v>1.77076379929166</v>
       </c>
       <c r="R64" t="n">
-        <v>0.04720909237717162</v>
+        <v>0.05708224099375498</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4568.01</v>
+        <v>652.01</v>
       </c>
       <c r="B65" t="n">
-        <v>447088034</v>
+        <v>22221375</v>
       </c>
       <c r="C65" t="n">
-        <v>238.702259</v>
+        <v>149.123515</v>
       </c>
       <c r="D65" t="n">
-        <v>-65.901121</v>
+        <v>-24.099186</v>
       </c>
       <c r="E65" t="n">
-        <v>2460121.465283</v>
+        <v>2460013.591733</v>
       </c>
       <c r="F65" t="n">
-        <v>14.0063765</v>
+        <v>3.9846589</v>
       </c>
       <c r="G65" t="n">
-        <v>1.971</v>
+        <v>2.146</v>
       </c>
       <c r="H65" t="n">
-        <v>300</v>
+        <v>445</v>
       </c>
       <c r="I65" s="3" t="n">
-        <v>2.26316</v>
+        <v>2.12827</v>
       </c>
       <c r="J65" t="n">
-        <v>19.2603</v>
+        <v>647.901</v>
       </c>
       <c r="K65" t="n">
-        <v>583</v>
+        <v>1405</v>
       </c>
       <c r="L65" t="n">
-        <v>6.9608</v>
+        <v>7.3635</v>
       </c>
       <c r="M65" t="n">
-        <v>48.0378</v>
+        <v>45.683</v>
       </c>
       <c r="N65" t="n">
-        <v>5899</v>
+        <v>5903</v>
       </c>
       <c r="O65" t="n">
-        <v>4.22221</v>
+        <v>4.44653</v>
       </c>
       <c r="P65" t="n">
-        <v>1.33</v>
+        <v>1.03</v>
       </c>
       <c r="Q65" s="3" t="n">
-        <v>0.9532128040208352</v>
+        <v>1.776874771529581</v>
       </c>
       <c r="R65" t="n">
-        <v>0.0118387871337529</v>
+        <v>0.09064358833580949</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>833.01</v>
+        <v>141.01</v>
       </c>
       <c r="B66" t="n">
-        <v>362249359</v>
+        <v>403224672</v>
       </c>
       <c r="C66" t="n">
-        <v>145.645472</v>
+        <v>338.983717</v>
       </c>
       <c r="D66" t="n">
-        <v>-62.475886</v>
+        <v>-59.864829</v>
       </c>
       <c r="E66" t="n">
-        <v>2458544.120496</v>
+        <v>2460178.671412</v>
       </c>
       <c r="F66" t="n">
-        <v>1.041889</v>
+        <v>1.0082361</v>
       </c>
       <c r="G66" t="n">
-        <v>1.2737667</v>
+        <v>1.41</v>
       </c>
       <c r="H66" t="n">
-        <v>465.3854112</v>
+        <v>228</v>
       </c>
       <c r="I66" s="3" t="n">
-        <v>1.389031</v>
+        <v>1.7202</v>
       </c>
       <c r="J66" t="n">
-        <v>270.068174</v>
+        <v>1882.94</v>
       </c>
       <c r="K66" t="n">
-        <v>1033.9227741</v>
+        <v>1835</v>
       </c>
       <c r="L66" t="n">
-        <v>10.1461</v>
+        <v>7.384</v>
       </c>
       <c r="M66" t="n">
-        <v>41.7148</v>
+        <v>48.0883</v>
       </c>
       <c r="N66" t="n">
-        <v>3965</v>
+        <v>5795.29</v>
       </c>
       <c r="O66" t="n">
-        <v>4.68337</v>
+        <v>4.438</v>
       </c>
       <c r="P66" t="n">
-        <v>0.603336</v>
+        <v>1.13</v>
       </c>
       <c r="Q66" s="3" t="n">
-        <v>0.9621770088035774</v>
+        <v>1.822544105549942</v>
       </c>
       <c r="R66" t="n">
-        <v>0.08879781148820186</v>
+        <v>0.06928742029234983</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5972.01</v>
+        <v>5554.01</v>
       </c>
       <c r="B67" t="n">
-        <v>420814525</v>
+        <v>91287873</v>
       </c>
       <c r="C67" t="n">
-        <v>330.795022</v>
+        <v>104.74387</v>
       </c>
       <c r="D67" t="n">
-        <v>18.884242</v>
+        <v>28.715768</v>
       </c>
       <c r="E67" t="n">
-        <v>2460552.87974</v>
+        <v>2459515.17161</v>
       </c>
       <c r="F67" t="n">
-        <v>3.5247546</v>
+        <v>26.694279</v>
       </c>
       <c r="G67" t="n">
-        <v>2.958</v>
+        <v>3.7831301</v>
       </c>
       <c r="H67" t="n">
-        <v>17803</v>
+        <v>1854.2924324</v>
       </c>
       <c r="I67" s="3" t="n">
-        <v>16.3776</v>
+        <v>2.6845863</v>
       </c>
       <c r="J67" t="n">
-        <v>587.098</v>
+        <v>4.0851419</v>
       </c>
       <c r="K67" t="n">
-        <v>1371</v>
+        <v>362.5947706</v>
       </c>
       <c r="L67" t="n">
-        <v>7.1274</v>
+        <v>9.83733</v>
       </c>
       <c r="M67" t="n">
-        <v>48.3016</v>
+        <v>39.4478</v>
       </c>
       <c r="N67" t="n">
-        <v>6052</v>
+        <v>3997</v>
       </c>
       <c r="O67" t="n">
-        <v>4.34258</v>
+        <v>4.6288</v>
       </c>
       <c r="P67" t="n">
-        <v>1.19</v>
+        <v>0.626722</v>
       </c>
       <c r="Q67" s="3" t="n">
-        <v>0.9715889119731532</v>
+        <v>1.855414867436865</v>
       </c>
       <c r="R67" t="n">
-        <v>0.01731301595994347</v>
+        <v>0.05933370243670238</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>139.01</v>
+        <v>687.01</v>
       </c>
       <c r="B68" t="n">
-        <v>62483237</v>
+        <v>74534430</v>
       </c>
       <c r="C68" t="n">
-        <v>336.402414</v>
+        <v>137.672815</v>
       </c>
       <c r="D68" t="n">
-        <v>-34.909713</v>
+        <v>-45.098845</v>
       </c>
       <c r="E68" t="n">
-        <v>2458334.891563</v>
+        <v>2459977.554802</v>
       </c>
       <c r="F68" t="n">
-        <v>11.0708575</v>
+        <v>36.2995129</v>
       </c>
       <c r="G68" t="n">
-        <v>2.1937617</v>
+        <v>4.4333923</v>
       </c>
       <c r="H68" t="n">
-        <v>1149.7328034</v>
+        <v>1322.2472746</v>
       </c>
       <c r="I68" s="3" t="n">
-        <v>2.3337648</v>
+        <v>2.2115007</v>
       </c>
       <c r="J68" t="n">
-        <v>22.4219066</v>
+        <v>3.169782</v>
       </c>
       <c r="K68" t="n">
-        <v>554.9934842</v>
+        <v>340.3118696</v>
       </c>
       <c r="L68" t="n">
-        <v>9.3636</v>
+        <v>9.8445</v>
       </c>
       <c r="M68" t="n">
-        <v>42.4061</v>
+        <v>42.4467</v>
       </c>
       <c r="N68" t="n">
-        <v>4356</v>
+        <v>4253.9</v>
       </c>
       <c r="O68" t="n">
-        <v>4.53491</v>
+        <v>4.57</v>
       </c>
       <c r="P68" t="n">
-        <v>0.700727</v>
+        <v>0.617519</v>
       </c>
       <c r="Q68" s="3" t="n">
-        <v>0.9769186864503394</v>
+        <v>1.98896214143939</v>
       </c>
       <c r="R68" t="n">
-        <v>0.02144133416206292</v>
+        <v>0.1945912951651126</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5554.01</v>
+        <v>5972.01</v>
       </c>
       <c r="B69" t="n">
-        <v>91287873</v>
+        <v>420814525</v>
       </c>
       <c r="C69" t="n">
-        <v>104.74387</v>
+        <v>330.795022</v>
       </c>
       <c r="D69" t="n">
-        <v>28.715768</v>
+        <v>18.884242</v>
       </c>
       <c r="E69" t="n">
-        <v>2459515.17161</v>
+        <v>2460552.87974</v>
       </c>
       <c r="F69" t="n">
-        <v>26.694279</v>
+        <v>3.5247546</v>
       </c>
       <c r="G69" t="n">
-        <v>3.7831301</v>
+        <v>2.958</v>
       </c>
       <c r="H69" t="n">
-        <v>1854.2924324</v>
+        <v>17803</v>
       </c>
       <c r="I69" s="3" t="n">
-        <v>2.6845863</v>
+        <v>16.3776</v>
       </c>
       <c r="J69" t="n">
-        <v>4.0851419</v>
+        <v>587.098</v>
       </c>
       <c r="K69" t="n">
-        <v>362.5947706</v>
+        <v>1371</v>
       </c>
       <c r="L69" t="n">
-        <v>9.83733</v>
+        <v>7.1274</v>
       </c>
       <c r="M69" t="n">
-        <v>39.4478</v>
+        <v>48.3016</v>
       </c>
       <c r="N69" t="n">
-        <v>3997</v>
+        <v>6052</v>
       </c>
       <c r="O69" t="n">
-        <v>4.6288</v>
+        <v>4.34258</v>
       </c>
       <c r="P69" t="n">
-        <v>0.626722</v>
+        <v>1.19</v>
       </c>
       <c r="Q69" s="3" t="n">
-        <v>1.066521483154316</v>
+        <v>2.012620944277857</v>
       </c>
       <c r="R69" t="n">
-        <v>0.05933370243670238</v>
+        <v>0.01731301595994347</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>687.01</v>
+        <v>4568.01</v>
       </c>
       <c r="B70" t="n">
-        <v>74534430</v>
+        <v>447088034</v>
       </c>
       <c r="C70" t="n">
-        <v>137.672815</v>
+        <v>238.702259</v>
       </c>
       <c r="D70" t="n">
-        <v>-45.098845</v>
+        <v>-65.901121</v>
       </c>
       <c r="E70" t="n">
-        <v>2459977.554802</v>
+        <v>2460121.465283</v>
       </c>
       <c r="F70" t="n">
-        <v>36.2995129</v>
+        <v>14.0063765</v>
       </c>
       <c r="G70" t="n">
-        <v>4.4333923</v>
+        <v>1.971</v>
       </c>
       <c r="H70" t="n">
-        <v>1322.2472746</v>
+        <v>300</v>
       </c>
       <c r="I70" s="3" t="n">
-        <v>2.2115007</v>
+        <v>2.26316</v>
       </c>
       <c r="J70" t="n">
-        <v>3.169782</v>
+        <v>19.2603</v>
       </c>
       <c r="K70" t="n">
-        <v>340.3118696</v>
+        <v>583</v>
       </c>
       <c r="L70" t="n">
-        <v>9.8445</v>
+        <v>6.9608</v>
       </c>
       <c r="M70" t="n">
-        <v>42.4467</v>
+        <v>48.0378</v>
       </c>
       <c r="N70" t="n">
-        <v>4253.9</v>
+        <v>5899</v>
       </c>
       <c r="O70" t="n">
-        <v>4.57</v>
+        <v>4.22221</v>
       </c>
       <c r="P70" t="n">
-        <v>0.617519</v>
+        <v>1.33</v>
       </c>
       <c r="Q70" s="3" t="n">
-        <v>1.142903089246784</v>
+        <v>2.099615239697236</v>
       </c>
       <c r="R70" t="n">
-        <v>0.1945912951651126</v>
+        <v>0.0118387871337529</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5140.01</v>
+        <v>2431.01</v>
       </c>
       <c r="B71" t="n">
-        <v>175193677</v>
+        <v>258804746</v>
       </c>
       <c r="C71" t="n">
-        <v>129.689446</v>
+        <v>37.765299</v>
       </c>
       <c r="D71" t="n">
-        <v>23.685265</v>
+        <v>8.381625</v>
       </c>
       <c r="E71" t="n">
-        <v>2459547.722323</v>
+        <v>2460258.868869</v>
       </c>
       <c r="F71" t="n">
-        <v>15.6113633</v>
+        <v>0.224195</v>
       </c>
       <c r="G71" t="n">
-        <v>3.2002615</v>
+        <v>0.292</v>
       </c>
       <c r="H71" t="n">
-        <v>520.4897607</v>
+        <v>540</v>
       </c>
       <c r="I71" s="3" t="n">
-        <v>2.9033347</v>
+        <v>5.59553</v>
       </c>
       <c r="J71" t="n">
-        <v>111.9728668</v>
+        <v>2649.15</v>
       </c>
       <c r="K71" t="n">
-        <v>829.6557911</v>
+        <v>1998</v>
       </c>
       <c r="L71" t="n">
-        <v>6.3687</v>
+        <v>9.520899999999999</v>
       </c>
       <c r="M71" t="n">
-        <v>35.26</v>
+        <v>36.0559</v>
       </c>
       <c r="N71" t="n">
-        <v>6061.77</v>
+        <v>4079</v>
       </c>
       <c r="O71" t="n">
-        <v>4.31439</v>
+        <v>4.58</v>
       </c>
       <c r="P71" t="n">
-        <v>1.22568</v>
+        <v>0.68</v>
       </c>
       <c r="Q71" s="3" t="n">
-        <v>1.176253721254392</v>
+        <v>2.167290027842529</v>
       </c>
       <c r="R71" t="n">
-        <v>0.07805369350328827</v>
+        <v>0.1915281956726753</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2431.01</v>
+        <v>5140.01</v>
       </c>
       <c r="B72" t="n">
-        <v>258804746</v>
+        <v>175193677</v>
       </c>
       <c r="C72" t="n">
-        <v>37.765299</v>
+        <v>129.689446</v>
       </c>
       <c r="D72" t="n">
-        <v>8.381625</v>
+        <v>23.685265</v>
       </c>
       <c r="E72" t="n">
-        <v>2460258.868869</v>
+        <v>2459547.722323</v>
       </c>
       <c r="F72" t="n">
-        <v>0.224195</v>
+        <v>15.6113633</v>
       </c>
       <c r="G72" t="n">
-        <v>0.292</v>
+        <v>3.2002615</v>
       </c>
       <c r="H72" t="n">
-        <v>540</v>
+        <v>520.4897607</v>
       </c>
       <c r="I72" s="3" t="n">
-        <v>5.59553</v>
+        <v>2.9033347</v>
       </c>
       <c r="J72" t="n">
-        <v>2649.15</v>
+        <v>111.9728668</v>
       </c>
       <c r="K72" t="n">
-        <v>1998</v>
+        <v>829.6557911</v>
       </c>
       <c r="L72" t="n">
-        <v>9.520899999999999</v>
+        <v>6.3687</v>
       </c>
       <c r="M72" t="n">
-        <v>36.0559</v>
+        <v>35.26</v>
       </c>
       <c r="N72" t="n">
-        <v>4079</v>
+        <v>6061.77</v>
       </c>
       <c r="O72" t="n">
-        <v>4.58</v>
+        <v>4.31439</v>
       </c>
       <c r="P72" t="n">
-        <v>0.68</v>
+        <v>1.22568</v>
       </c>
       <c r="Q72" s="3" t="n">
-        <v>1.239403332584826</v>
+        <v>2.345782205913604</v>
       </c>
       <c r="R72" t="n">
-        <v>0.1915281956726753</v>
+        <v>0.07805369350328827</v>
       </c>
     </row>
     <row r="73">
@@ -4592,7 +4592,7 @@
         <v>0.636572</v>
       </c>
       <c r="Q73" s="3" t="n">
-        <v>1.446091471842279</v>
+        <v>2.511247632757248</v>
       </c>
       <c r="R73" t="n">
         <v>0.07251061220725062</v>
@@ -4648,7 +4648,7 @@
         <v>0.590924</v>
       </c>
       <c r="Q74" s="3" t="n">
-        <v>1.54172749561661</v>
+        <v>2.674574616230561</v>
       </c>
       <c r="R74" t="n">
         <v>0.1022963165103159</v>
@@ -4704,7 +4704,7 @@
         <v>1.2845</v>
       </c>
       <c r="Q75" s="3" t="n">
-        <v>3.195893511237676</v>
+        <v>5.691327750389669</v>
       </c>
       <c r="R75" t="n">
         <v>0.08132008275074698</v>
@@ -4760,7 +4760,7 @@
         <v>1.28</v>
       </c>
       <c r="Q76" s="3" t="n">
-        <v>3.195893511237676</v>
+        <v>5.691327750389669</v>
       </c>
       <c r="R76" t="n">
         <v>0.08132008275074698</v>
@@ -4816,7 +4816,7 @@
         <v>1.2845</v>
       </c>
       <c r="Q77" s="3" t="n">
-        <v>3.195893511237676</v>
+        <v>5.691327750389669</v>
       </c>
       <c r="R77" t="n">
         <v>0.08132008275074698</v>
@@ -4872,7 +4872,7 @@
         <v>1.42717</v>
       </c>
       <c r="Q78" s="3" t="n">
-        <v>6.024879354419458</v>
+        <v>10.54475952976137</v>
       </c>
       <c r="R78" t="n">
         <v>0.09557954007745355</v>
@@ -4928,7 +4928,7 @@
         <v>1.42717</v>
       </c>
       <c r="Q79" s="3" t="n">
-        <v>6.024879354419458</v>
+        <v>10.54475952976137</v>
       </c>
       <c r="R79" t="n">
         <v>0.09557954007745355</v>
@@ -4967,7 +4967,7 @@
         <v>154.124</v>
       </c>
       <c r="Q80" s="3" t="n">
-        <v>35.71169791451638</v>
+        <v>61.86865244577595</v>
       </c>
       <c r="R80" t="n">
         <v>0.0305854259260738</v>

--- a/results/GAIA_TESS_candidate_matches_unique_planets.xlsx
+++ b/results/GAIA_TESS_candidate_matches_unique_planets.xlsx
@@ -574,3353 +574,3353 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1469.01</v>
+        <v>260.01</v>
       </c>
       <c r="B2" t="n">
-        <v>283722336</v>
+        <v>37749396</v>
       </c>
       <c r="C2" t="n">
-        <v>348.337203</v>
+        <v>4.773018</v>
       </c>
       <c r="D2" t="n">
-        <v>57.169626</v>
+        <v>-9.966150000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2459854.66819</v>
+        <v>2458392.294018</v>
       </c>
       <c r="F2" t="n">
-        <v>3.0929674</v>
+        <v>13.4758478</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9315704</v>
+        <v>2.0643913</v>
       </c>
       <c r="H2" t="n">
-        <v>247.5119826</v>
+        <v>708.9461601</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>1.3536173</v>
+        <v>1.9840882</v>
       </c>
       <c r="J2" t="n">
-        <v>192.9278761</v>
+        <v>10.1837519</v>
       </c>
       <c r="K2" t="n">
-        <v>950.5358374</v>
+        <v>455.6136246</v>
       </c>
       <c r="L2" t="n">
-        <v>4.6278</v>
+        <v>8.4991</v>
       </c>
       <c r="M2" t="n">
-        <v>6.53127</v>
+        <v>20.1852</v>
       </c>
       <c r="N2" t="n">
-        <v>4884.29</v>
+        <v>4111</v>
       </c>
       <c r="O2" t="n">
-        <v>4.59034</v>
+        <v>4.6461</v>
       </c>
       <c r="P2" t="n">
-        <v>0.750598</v>
+        <v>0.618173</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>0.2670928632313241</v>
+        <v>1.033196630495687</v>
       </c>
       <c r="R2" t="n">
-        <v>1.046469990099852</v>
+        <v>0.1536852942719399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1469.02</v>
+        <v>5084.01</v>
       </c>
       <c r="B3" t="n">
-        <v>283722336</v>
+        <v>438260486</v>
       </c>
       <c r="C3" t="n">
-        <v>348.337203</v>
+        <v>45.954561</v>
       </c>
       <c r="D3" t="n">
-        <v>57.169626</v>
+        <v>20.110588</v>
       </c>
       <c r="E3" t="n">
-        <v>2459868.871705</v>
+        <v>2460252.991856</v>
       </c>
       <c r="F3" t="n">
-        <v>6.7650278</v>
+        <v>5.8321337</v>
       </c>
       <c r="G3" t="n">
-        <v>1.444</v>
+        <v>2.039</v>
       </c>
       <c r="H3" t="n">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>1.27931</v>
+        <v>1.15554</v>
       </c>
       <c r="J3" t="n">
-        <v>32.4433</v>
+        <v>49.8722</v>
       </c>
       <c r="K3" t="n">
-        <v>664</v>
+        <v>740</v>
       </c>
       <c r="L3" t="n">
-        <v>4.6278</v>
+        <v>7.564</v>
       </c>
       <c r="M3" t="n">
-        <v>6.53127</v>
+        <v>21.3575</v>
       </c>
       <c r="N3" t="n">
-        <v>4884.29</v>
+        <v>4544</v>
       </c>
       <c r="O3" t="n">
-        <v>4.59034</v>
+        <v>4.54</v>
       </c>
       <c r="P3" t="n">
         <v>0.75</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>0.2670928632313241</v>
+        <v>1.194339638421116</v>
       </c>
       <c r="R3" t="n">
-        <v>1.046469990099852</v>
+        <v>0.03576864546243089</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1773.01</v>
+        <v>2443.01</v>
       </c>
       <c r="B4" t="n">
-        <v>332064670</v>
+        <v>318753380</v>
       </c>
       <c r="C4" t="n">
-        <v>133.146837</v>
+        <v>40.179861</v>
       </c>
       <c r="D4" t="n">
-        <v>28.329815</v>
+        <v>1.199676</v>
       </c>
       <c r="E4" t="n">
-        <v>2458870.692828</v>
+        <v>2459148.098617</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7365463</v>
+        <v>15.6692322</v>
       </c>
       <c r="G4" t="n">
-        <v>1.5732208</v>
+        <v>4.562853</v>
       </c>
       <c r="H4" t="n">
-        <v>384.6733121</v>
+        <v>1393.3814802</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>2.0231121</v>
+        <v>2.6868893</v>
       </c>
       <c r="J4" t="n">
-        <v>2657.8322415</v>
+        <v>13.2931176</v>
       </c>
       <c r="K4" t="n">
-        <v>1831.2668801</v>
+        <v>486.9971964</v>
       </c>
       <c r="L4" t="n">
-        <v>5.2058</v>
+        <v>8.296900000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>12.5855</v>
+        <v>23.9258</v>
       </c>
       <c r="N4" t="n">
-        <v>5250</v>
+        <v>4214.44</v>
       </c>
       <c r="O4" t="n">
-        <v>4.42</v>
+        <v>4.52845</v>
       </c>
       <c r="P4" t="n">
-        <v>0.963515</v>
+        <v>0.732115</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.4015502513867581</v>
+        <v>1.211275628093407</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2680494911224468</v>
+        <v>0.1818675256393356</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4470.01</v>
+        <v>5961.01</v>
       </c>
       <c r="B5" t="n">
-        <v>256364928</v>
+        <v>262689575</v>
       </c>
       <c r="C5" t="n">
-        <v>300.182122</v>
+        <v>349.216044</v>
       </c>
       <c r="D5" t="n">
-        <v>22.709776</v>
+        <v>5.695887</v>
       </c>
       <c r="E5" t="n">
-        <v>2459770.410421</v>
+        <v>2459447.785905</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2185748</v>
+        <v>1.617487</v>
       </c>
       <c r="G5" t="n">
-        <v>1.8233621</v>
+        <v>1.2809267</v>
       </c>
       <c r="H5" t="n">
-        <v>25854.2144559</v>
+        <v>342.1852102</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>13.3010355</v>
+        <v>1.3134056</v>
       </c>
       <c r="J5" t="n">
-        <v>348.1506195</v>
+        <v>197.2074933</v>
       </c>
       <c r="K5" t="n">
-        <v>1101.6954166</v>
+        <v>955.7638559</v>
       </c>
       <c r="L5" t="n">
-        <v>6.8481</v>
+        <v>9.039199999999999</v>
       </c>
       <c r="M5" t="n">
-        <v>19.7638</v>
+        <v>26.2533</v>
       </c>
       <c r="N5" t="n">
-        <v>5023</v>
+        <v>3900.68</v>
       </c>
       <c r="O5" t="n">
-        <v>4.58</v>
+        <v>4.5239</v>
       </c>
       <c r="P5" t="n">
-        <v>0.776484</v>
+        <v>0.7017099999999999</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>0.4972489485376618</v>
+        <v>1.245846174113728</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1256230421520718</v>
+        <v>0.01821666933803688</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5789.01</v>
+        <v>2009.01</v>
       </c>
       <c r="B6" t="n">
-        <v>87216634</v>
+        <v>243187830</v>
       </c>
       <c r="C6" t="n">
-        <v>302.773447</v>
+        <v>16.908292</v>
       </c>
       <c r="D6" t="n">
-        <v>16.189714</v>
+        <v>22.952868</v>
       </c>
       <c r="E6" t="n">
-        <v>2459776.255982</v>
+        <v>2458783.768755</v>
       </c>
       <c r="F6" t="n">
-        <v>12.9256051</v>
+        <v>1071.0898448</v>
       </c>
       <c r="G6" t="n">
-        <v>1.691</v>
+        <v>2.1734134</v>
       </c>
       <c r="H6" t="n">
-        <v>790</v>
+        <v>865.169438</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>2.53704</v>
+        <v>2.2407785</v>
       </c>
       <c r="J6" t="n">
-        <v>8.719390000000001</v>
+        <v>1.3880259</v>
       </c>
       <c r="K6" t="n">
-        <v>478</v>
+        <v>276.8338183</v>
       </c>
       <c r="L6" t="n">
-        <v>6.5715</v>
+        <v>7.3551</v>
       </c>
       <c r="M6" t="n">
-        <v>20.4581</v>
+        <v>20.5272</v>
       </c>
       <c r="N6" t="n">
-        <v>5132</v>
+        <v>4755.33</v>
       </c>
       <c r="O6" t="n">
-        <v>4.49</v>
+        <v>4.62683</v>
       </c>
       <c r="P6" t="n">
-        <v>0.88</v>
+        <v>0.701499</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>0.5168819078281685</v>
+        <v>1.251277561671179</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2860097255552455</v>
+        <v>0.2489958576576189</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1821.01</v>
+        <v>2134.02</v>
       </c>
       <c r="B7" t="n">
-        <v>82308728</v>
+        <v>75878355</v>
       </c>
       <c r="C7" t="n">
-        <v>168.637658</v>
+        <v>271.935501</v>
       </c>
       <c r="D7" t="n">
-        <v>25.710596</v>
+        <v>39.072927</v>
       </c>
       <c r="E7" t="n">
-        <v>2459664.085255</v>
+        <v>2460485.79438</v>
       </c>
       <c r="F7" t="n">
-        <v>9.4893231</v>
+        <v>95.8531625</v>
       </c>
       <c r="G7" t="n">
-        <v>2.757</v>
+        <v>5.024</v>
       </c>
       <c r="H7" t="n">
-        <v>940</v>
+        <v>5975</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>2.4304</v>
+        <v>5.95763</v>
       </c>
       <c r="J7" t="n">
-        <v>41.924</v>
+        <v>2.69104</v>
       </c>
       <c r="K7" t="n">
-        <v>708</v>
+        <v>356</v>
       </c>
       <c r="L7" t="n">
-        <v>6.9859</v>
+        <v>7.7945</v>
       </c>
       <c r="M7" t="n">
-        <v>21.5618</v>
+        <v>22.6202</v>
       </c>
       <c r="N7" t="n">
-        <v>5120</v>
+        <v>4406</v>
       </c>
       <c r="O7" t="n">
-        <v>4.6</v>
+        <v>4.50428</v>
       </c>
       <c r="P7" t="n">
         <v>0.77</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>0.5412196444315075</v>
+        <v>1.264788290313442</v>
       </c>
       <c r="R7" t="n">
-        <v>0.05814337766711058</v>
+        <v>0.1449687993748953</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2009.01</v>
+        <v>2134.01</v>
       </c>
       <c r="B8" t="n">
-        <v>243187830</v>
+        <v>75878355</v>
       </c>
       <c r="C8" t="n">
-        <v>16.908292</v>
+        <v>271.935501</v>
       </c>
       <c r="D8" t="n">
-        <v>22.952868</v>
+        <v>39.072927</v>
       </c>
       <c r="E8" t="n">
-        <v>2458783.768755</v>
+        <v>2460496.590963</v>
       </c>
       <c r="F8" t="n">
-        <v>1071.0898448</v>
+        <v>9.229207799999999</v>
       </c>
       <c r="G8" t="n">
-        <v>2.1734134</v>
+        <v>2.817</v>
       </c>
       <c r="H8" t="n">
-        <v>865.169438</v>
+        <v>1606</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>2.2407785</v>
+        <v>3.21883</v>
       </c>
       <c r="J8" t="n">
-        <v>1.3880259</v>
+        <v>37.6631</v>
       </c>
       <c r="K8" t="n">
-        <v>276.8338183</v>
+        <v>690</v>
       </c>
       <c r="L8" t="n">
-        <v>7.3551</v>
+        <v>7.7945</v>
       </c>
       <c r="M8" t="n">
-        <v>20.5272</v>
+        <v>22.6202</v>
       </c>
       <c r="N8" t="n">
-        <v>4755.33</v>
+        <v>4406</v>
       </c>
       <c r="O8" t="n">
-        <v>4.62683</v>
+        <v>4.50428</v>
       </c>
       <c r="P8" t="n">
-        <v>0.701499</v>
+        <v>0.77</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>0.5761162700503707</v>
+        <v>1.264788290313442</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2489958576576189</v>
+        <v>0.1449687993748953</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5084.01</v>
+        <v>1469.01</v>
       </c>
       <c r="B9" t="n">
-        <v>438260486</v>
+        <v>283722336</v>
       </c>
       <c r="C9" t="n">
-        <v>45.954561</v>
+        <v>348.337203</v>
       </c>
       <c r="D9" t="n">
-        <v>20.110588</v>
+        <v>57.169626</v>
       </c>
       <c r="E9" t="n">
-        <v>2460252.991856</v>
+        <v>2459854.66819</v>
       </c>
       <c r="F9" t="n">
-        <v>5.8321337</v>
+        <v>3.0929674</v>
       </c>
       <c r="G9" t="n">
-        <v>2.039</v>
+        <v>0.9315704</v>
       </c>
       <c r="H9" t="n">
-        <v>274</v>
+        <v>247.5119826</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>1.15554</v>
+        <v>1.3536173</v>
       </c>
       <c r="J9" t="n">
-        <v>49.8722</v>
+        <v>192.9278761</v>
       </c>
       <c r="K9" t="n">
-        <v>740</v>
+        <v>950.5358374</v>
       </c>
       <c r="L9" t="n">
-        <v>7.564</v>
+        <v>4.6278</v>
       </c>
       <c r="M9" t="n">
-        <v>21.3575</v>
+        <v>6.53127</v>
       </c>
       <c r="N9" t="n">
-        <v>4544</v>
+        <v>4884.29</v>
       </c>
       <c r="O9" t="n">
-        <v>4.54</v>
+        <v>4.59034</v>
       </c>
       <c r="P9" t="n">
-        <v>0.75</v>
+        <v>0.750598</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>0.6056323786844908</v>
+        <v>1.296420910492415</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03576864546243089</v>
+        <v>1.046469990099852</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2134.01</v>
+        <v>1469.02</v>
       </c>
       <c r="B10" t="n">
-        <v>75878355</v>
+        <v>283722336</v>
       </c>
       <c r="C10" t="n">
-        <v>271.935501</v>
+        <v>348.337203</v>
       </c>
       <c r="D10" t="n">
-        <v>39.072927</v>
+        <v>57.169626</v>
       </c>
       <c r="E10" t="n">
-        <v>2460496.590963</v>
+        <v>2459868.871705</v>
       </c>
       <c r="F10" t="n">
-        <v>9.229207799999999</v>
+        <v>6.7650278</v>
       </c>
       <c r="G10" t="n">
-        <v>2.817</v>
+        <v>1.444</v>
       </c>
       <c r="H10" t="n">
-        <v>1606</v>
+        <v>220</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>3.21883</v>
+        <v>1.27931</v>
       </c>
       <c r="J10" t="n">
-        <v>37.6631</v>
+        <v>32.4433</v>
       </c>
       <c r="K10" t="n">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="L10" t="n">
-        <v>7.7945</v>
+        <v>4.6278</v>
       </c>
       <c r="M10" t="n">
-        <v>22.6202</v>
+        <v>6.53127</v>
       </c>
       <c r="N10" t="n">
-        <v>4406</v>
+        <v>4884.29</v>
       </c>
       <c r="O10" t="n">
-        <v>4.50428</v>
+        <v>4.59034</v>
       </c>
       <c r="P10" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>0.7050657275740375</v>
+        <v>1.296420910492415</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1449687993748953</v>
+        <v>1.046469990099852</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2134.02</v>
+        <v>4517.01</v>
       </c>
       <c r="B11" t="n">
-        <v>75878355</v>
+        <v>301289516</v>
       </c>
       <c r="C11" t="n">
-        <v>271.935501</v>
+        <v>351.771776</v>
       </c>
       <c r="D11" t="n">
-        <v>39.072927</v>
+        <v>-1.285343</v>
       </c>
       <c r="E11" t="n">
-        <v>2460485.79438</v>
+        <v>2460231.733831</v>
       </c>
       <c r="F11" t="n">
-        <v>95.8531625</v>
+        <v>1.2089755</v>
       </c>
       <c r="G11" t="n">
-        <v>5.024</v>
+        <v>1.286</v>
       </c>
       <c r="H11" t="n">
-        <v>5975</v>
+        <v>668</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>5.95763</v>
+        <v>1.68645</v>
       </c>
       <c r="J11" t="n">
-        <v>2.69104</v>
+        <v>325.749</v>
       </c>
       <c r="K11" t="n">
-        <v>356</v>
+        <v>1183</v>
       </c>
       <c r="L11" t="n">
-        <v>7.7945</v>
+        <v>9.0684</v>
       </c>
       <c r="M11" t="n">
-        <v>22.6202</v>
+        <v>29.661</v>
       </c>
       <c r="N11" t="n">
-        <v>4406</v>
+        <v>4199</v>
       </c>
       <c r="O11" t="n">
-        <v>4.50428</v>
+        <v>4.65321</v>
       </c>
       <c r="P11" t="n">
-        <v>0.77</v>
+        <v>0.63</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>0.7050657275740375</v>
+        <v>1.309435688241485</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1449687993748953</v>
+        <v>0.2166081726537622</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1835.02</v>
+        <v>5734.01</v>
       </c>
       <c r="B12" t="n">
-        <v>347332255</v>
+        <v>9989136</v>
       </c>
       <c r="C12" t="n">
-        <v>189.839224</v>
+        <v>111.255818</v>
       </c>
       <c r="D12" t="n">
-        <v>20.027338</v>
+        <v>37.231122</v>
       </c>
       <c r="E12" t="n">
-        <v>2458937.873023</v>
+        <v>2458848.68514</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6.1841688</v>
       </c>
       <c r="G12" t="n">
-        <v>3.9454498</v>
+        <v>2.5898497</v>
       </c>
       <c r="H12" t="n">
-        <v>886.4838237</v>
+        <v>1052.3509168</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>2.5398986</v>
+        <v>2.4076002</v>
       </c>
       <c r="J12" t="n">
-        <v>48.4006234</v>
+        <v>56.3777871</v>
       </c>
       <c r="K12" t="n">
-        <v>672.7171326</v>
+        <v>698.8705758</v>
       </c>
       <c r="L12" t="n">
-        <v>7.6621</v>
+        <v>8.544600000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>32.1585</v>
+        <v>32.5102</v>
       </c>
       <c r="N12" t="n">
-        <v>5297</v>
+        <v>4645</v>
       </c>
       <c r="O12" t="n">
-        <v>4.61016</v>
+        <v>4.62</v>
       </c>
       <c r="P12" t="n">
-        <v>0.782479</v>
+        <v>0.693766</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>0.7320316021428864</v>
+        <v>1.342818542634564</v>
       </c>
       <c r="R12" t="n">
-        <v>0.06661906649581383</v>
+        <v>0.01559139926063062</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1835.01</v>
+        <v>7052.01</v>
       </c>
       <c r="B13" t="n">
-        <v>347332255</v>
+        <v>22038430</v>
       </c>
       <c r="C13" t="n">
-        <v>189.839224</v>
+        <v>268.95853</v>
       </c>
       <c r="D13" t="n">
-        <v>20.027338</v>
+        <v>33.419623</v>
       </c>
       <c r="E13" t="n">
-        <v>2458932.763635</v>
+        <v>2460500.659766</v>
       </c>
       <c r="F13" t="n">
-        <v>5.6419598</v>
+        <v>2.8862017</v>
       </c>
       <c r="G13" t="n">
-        <v>3.0871502</v>
+        <v>0.487</v>
       </c>
       <c r="H13" t="n">
-        <v>543.838848</v>
+        <v>412</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>1.8245844</v>
+        <v>1.71911</v>
       </c>
       <c r="J13" t="n">
-        <v>119.4171181</v>
+        <v>15.4038</v>
       </c>
       <c r="K13" t="n">
-        <v>843.1141848</v>
+        <v>551</v>
       </c>
       <c r="L13" t="n">
-        <v>7.6621</v>
+        <v>8.9588</v>
       </c>
       <c r="M13" t="n">
-        <v>32.1585</v>
+        <v>29.7194</v>
       </c>
       <c r="N13" t="n">
-        <v>5297</v>
+        <v>4269</v>
       </c>
       <c r="O13" t="n">
-        <v>4.61016</v>
+        <v>4.65</v>
       </c>
       <c r="P13" t="n">
-        <v>0.782479</v>
+        <v>0.64</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>0.7320316021428864</v>
+        <v>1.384102258224339</v>
       </c>
       <c r="R13" t="n">
-        <v>0.06661906649581383</v>
+        <v>0.1166629664479221</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1462.01</v>
+        <v>5809.01</v>
       </c>
       <c r="B14" t="n">
-        <v>188768068</v>
+        <v>283471501</v>
       </c>
       <c r="C14" t="n">
-        <v>261.349585</v>
+        <v>314.549077</v>
       </c>
       <c r="D14" t="n">
-        <v>52.790472</v>
+        <v>40.192264</v>
       </c>
       <c r="E14" t="n">
-        <v>2460338.523071</v>
+        <v>2460541.532262</v>
       </c>
       <c r="F14" t="n">
-        <v>2.1779407</v>
+        <v>9.210319399999999</v>
       </c>
       <c r="G14" t="n">
-        <v>2.098</v>
+        <v>2.341</v>
       </c>
       <c r="H14" t="n">
-        <v>110</v>
+        <v>853</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>1.28228</v>
+        <v>2.62813</v>
       </c>
       <c r="J14" t="n">
-        <v>759.183</v>
+        <v>26.9787</v>
       </c>
       <c r="K14" t="n">
-        <v>1462</v>
+        <v>634</v>
       </c>
       <c r="L14" t="n">
-        <v>5.8961</v>
-      </c>
-      <c r="M14" t="n">
-        <v>27.0498</v>
+        <v>9.320600000000001</v>
       </c>
       <c r="N14" t="n">
-        <v>5801.89</v>
-      </c>
-      <c r="O14" t="n">
-        <v>4.25132</v>
+        <v>4115.1</v>
       </c>
       <c r="P14" t="n">
-        <v>1.26</v>
+        <v>0.88</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>0.7448828008906113</v>
+        <v>1.439726994580897</v>
       </c>
       <c r="R14" t="n">
-        <v>0.05203226078176128</v>
+        <v>0.1596334725227671</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1689.01</v>
+        <v>1411.01</v>
       </c>
       <c r="B15" t="n">
-        <v>198384408</v>
+        <v>116483514</v>
       </c>
       <c r="C15" t="n">
-        <v>257.78508</v>
+        <v>232.946047</v>
       </c>
       <c r="D15" t="n">
-        <v>56.658901</v>
+        <v>47.055551</v>
       </c>
       <c r="E15" t="n">
-        <v>2458823.255936</v>
+        <v>2460447.085367</v>
       </c>
       <c r="F15" t="n">
-        <v>9.1238101</v>
+        <v>1.4520486</v>
       </c>
       <c r="G15" t="n">
-        <v>5.1188391</v>
+        <v>1.339</v>
       </c>
       <c r="H15" t="n">
-        <v>283.324087</v>
+        <v>393</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>2.0471844</v>
+        <v>1.404</v>
       </c>
       <c r="J15" t="n">
-        <v>148.7455904</v>
+        <v>266.85</v>
       </c>
       <c r="K15" t="n">
-        <v>890.69861</v>
+        <v>1125</v>
       </c>
       <c r="L15" t="n">
-        <v>6.3196</v>
+        <v>9.1043</v>
       </c>
       <c r="M15" t="n">
-        <v>26.9148</v>
+        <v>32.4778</v>
       </c>
       <c r="N15" t="n">
-        <v>5470.16</v>
+        <v>4184</v>
       </c>
       <c r="O15" t="n">
-        <v>4.30008</v>
+        <v>4.57376</v>
       </c>
       <c r="P15" t="n">
-        <v>1.1485</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>0.7588600719679252</v>
+        <v>1.443841293612757</v>
       </c>
       <c r="R15" t="n">
-        <v>0.03260486313902574</v>
+        <v>0.1692002171172093</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>260.01</v>
+        <v>2023.01</v>
       </c>
       <c r="B16" t="n">
-        <v>37749396</v>
+        <v>16884216</v>
       </c>
       <c r="C16" t="n">
-        <v>4.773018</v>
+        <v>232.863345</v>
       </c>
       <c r="D16" t="n">
-        <v>-9.966150000000001</v>
+        <v>33.902516</v>
       </c>
       <c r="E16" t="n">
-        <v>2458392.294018</v>
+        <v>2458964.128568</v>
       </c>
       <c r="F16" t="n">
-        <v>13.4758478</v>
+        <v>11.1900486</v>
       </c>
       <c r="G16" t="n">
-        <v>2.0643913</v>
+        <v>2.9741507</v>
       </c>
       <c r="H16" t="n">
-        <v>708.9461601</v>
+        <v>567.7989939</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>1.9840882</v>
+        <v>1.6608182</v>
       </c>
       <c r="J16" t="n">
-        <v>10.1837519</v>
+        <v>31.192573</v>
       </c>
       <c r="K16" t="n">
-        <v>455.6136246</v>
+        <v>602.7435196</v>
       </c>
       <c r="L16" t="n">
-        <v>8.4991</v>
+        <v>8.504899999999999</v>
       </c>
       <c r="M16" t="n">
-        <v>20.1852</v>
+        <v>36.9284</v>
       </c>
       <c r="N16" t="n">
-        <v>4111</v>
+        <v>4958</v>
       </c>
       <c r="O16" t="n">
-        <v>4.6461</v>
+        <v>4.66667</v>
       </c>
       <c r="P16" t="n">
-        <v>0.618173</v>
+        <v>0.6959920000000001</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>0.7902558828894091</v>
+        <v>1.450838758676033</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1536852942719399</v>
+        <v>0.05872196175686627</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2069.01</v>
+        <v>1821.01</v>
       </c>
       <c r="B17" t="n">
-        <v>198187049</v>
+        <v>82308728</v>
       </c>
       <c r="C17" t="n">
-        <v>245.728968</v>
+        <v>168.637658</v>
       </c>
       <c r="D17" t="n">
-        <v>61.694836</v>
+        <v>25.710596</v>
       </c>
       <c r="E17" t="n">
-        <v>2458688.473496</v>
+        <v>2459664.085255</v>
       </c>
       <c r="F17" t="n">
-        <v>5.9214229</v>
+        <v>9.4893231</v>
       </c>
       <c r="G17" t="n">
-        <v>2.4606208</v>
+        <v>2.757</v>
       </c>
       <c r="H17" t="n">
-        <v>140.4285921</v>
+        <v>940</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>1.0470381</v>
+        <v>2.4304</v>
       </c>
       <c r="J17" t="n">
-        <v>122.1004834</v>
+        <v>41.924</v>
       </c>
       <c r="K17" t="n">
-        <v>847.8110943</v>
+        <v>708</v>
       </c>
       <c r="L17" t="n">
-        <v>7.9726</v>
+        <v>6.9859</v>
       </c>
       <c r="M17" t="n">
-        <v>38.6215</v>
+        <v>21.5618</v>
       </c>
       <c r="N17" t="n">
-        <v>5268</v>
+        <v>5120</v>
       </c>
       <c r="O17" t="n">
-        <v>4.56138</v>
+        <v>4.6</v>
       </c>
       <c r="P17" t="n">
-        <v>0.823126</v>
+        <v>0.77</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>0.8269642916723454</v>
+        <v>1.451460227890586</v>
       </c>
       <c r="R17" t="n">
-        <v>0.06164093083342125</v>
+        <v>0.05814337766711058</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2443.01</v>
+        <v>4470.01</v>
       </c>
       <c r="B18" t="n">
-        <v>318753380</v>
+        <v>256364928</v>
       </c>
       <c r="C18" t="n">
-        <v>40.179861</v>
+        <v>300.182122</v>
       </c>
       <c r="D18" t="n">
-        <v>1.199676</v>
+        <v>22.709776</v>
       </c>
       <c r="E18" t="n">
-        <v>2459148.098617</v>
+        <v>2459770.410421</v>
       </c>
       <c r="F18" t="n">
-        <v>15.6692322</v>
+        <v>2.2185748</v>
       </c>
       <c r="G18" t="n">
-        <v>4.562853</v>
+        <v>1.8233621</v>
       </c>
       <c r="H18" t="n">
-        <v>1393.3814802</v>
+        <v>25854.2144559</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>2.6868893</v>
+        <v>13.3010355</v>
       </c>
       <c r="J18" t="n">
-        <v>13.2931176</v>
+        <v>348.1506195</v>
       </c>
       <c r="K18" t="n">
-        <v>486.9971964</v>
+        <v>1101.6954166</v>
       </c>
       <c r="L18" t="n">
-        <v>8.296900000000001</v>
+        <v>6.8481</v>
       </c>
       <c r="M18" t="n">
-        <v>23.9258</v>
+        <v>19.7638</v>
       </c>
       <c r="N18" t="n">
-        <v>4214.44</v>
+        <v>5023</v>
       </c>
       <c r="O18" t="n">
-        <v>4.52845</v>
+        <v>4.58</v>
       </c>
       <c r="P18" t="n">
-        <v>0.732115</v>
+        <v>0.776484</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>0.8408621631098551</v>
+        <v>1.467604750719693</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1818675256393356</v>
+        <v>0.1256230421520718</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6965.01</v>
+        <v>1144.01</v>
       </c>
       <c r="B19" t="n">
-        <v>80224448</v>
+        <v>28230919</v>
       </c>
       <c r="C19" t="n">
-        <v>103.678273</v>
+        <v>297.710176</v>
       </c>
       <c r="D19" t="n">
-        <v>24.245141</v>
+        <v>48.081864</v>
       </c>
       <c r="E19" t="n">
-        <v>2459505.193695</v>
+        <v>2460554.347022</v>
       </c>
       <c r="F19" t="n">
-        <v>5.9693397</v>
+        <v>4.8878037</v>
       </c>
       <c r="G19" t="n">
-        <v>3.441038</v>
+        <v>2.184</v>
       </c>
       <c r="H19" t="n">
-        <v>105.5424205</v>
+        <v>4279</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>1.3473608</v>
+        <v>5.29152</v>
       </c>
       <c r="J19" t="n">
-        <v>334.6170929</v>
+        <v>71.68049999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>1090.8292631</v>
+        <v>810</v>
       </c>
       <c r="L19" t="n">
-        <v>6.3103</v>
+        <v>8.5077</v>
       </c>
       <c r="M19" t="n">
-        <v>31.1664</v>
+        <v>37.7647</v>
       </c>
       <c r="N19" t="n">
-        <v>6007</v>
+        <v>4757.3</v>
       </c>
       <c r="O19" t="n">
-        <v>4.37729</v>
+        <v>4.56</v>
       </c>
       <c r="P19" t="n">
-        <v>1.12993</v>
+        <v>0.76</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>0.8497931073350418</v>
+        <v>1.523639546448364</v>
       </c>
       <c r="R19" t="n">
-        <v>0.05173693479333623</v>
+        <v>0.131139051935956</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6965.02</v>
+        <v>1643.01</v>
       </c>
       <c r="B20" t="n">
-        <v>80224448</v>
+        <v>298647682</v>
       </c>
       <c r="C20" t="n">
-        <v>103.678273</v>
+        <v>272.264241</v>
       </c>
       <c r="D20" t="n">
-        <v>24.245141</v>
+        <v>53.217729</v>
       </c>
       <c r="E20" t="n">
-        <v>2459508.008646</v>
+        <v>2459815.953155</v>
       </c>
       <c r="F20" t="n">
-        <v>28.0693949</v>
+        <v>20.0795217</v>
       </c>
       <c r="G20" t="n">
-        <v>6.0393818</v>
+        <v>1.2186554</v>
       </c>
       <c r="H20" t="n">
-        <v>154.3008171</v>
+        <v>1065.5355707</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>1.6221344</v>
+        <v>2.7170462</v>
       </c>
       <c r="J20" t="n">
-        <v>42.4755605</v>
+        <v>15.8594327</v>
       </c>
       <c r="K20" t="n">
-        <v>651.1102456</v>
+        <v>508.9693869</v>
       </c>
       <c r="L20" t="n">
-        <v>6.3103</v>
+        <v>8.662800000000001</v>
       </c>
       <c r="M20" t="n">
-        <v>31.1664</v>
+        <v>40.6988</v>
       </c>
       <c r="N20" t="n">
-        <v>6007</v>
+        <v>4763</v>
       </c>
       <c r="O20" t="n">
-        <v>4.37729</v>
+        <v>4.54306</v>
       </c>
       <c r="P20" t="n">
-        <v>1.12993</v>
+        <v>0.7775840000000001</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>0.8497931073350418</v>
+        <v>1.533943525003013</v>
       </c>
       <c r="R20" t="n">
-        <v>0.05173693479333623</v>
+        <v>0.02743089734967181</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1434.01</v>
+        <v>544.01</v>
       </c>
       <c r="B21" t="n">
-        <v>138588540</v>
+        <v>50618703</v>
       </c>
       <c r="C21" t="n">
-        <v>176.380591</v>
+        <v>82.290072</v>
       </c>
       <c r="D21" t="n">
-        <v>65.541314</v>
+        <v>-0.342898</v>
       </c>
       <c r="E21" t="n">
-        <v>2458703.403139</v>
+        <v>2458469.756983</v>
       </c>
       <c r="F21" t="n">
-        <v>29.902663</v>
+        <v>1.5483542</v>
       </c>
       <c r="G21" t="n">
-        <v>3.6993733</v>
+        <v>1.2030925</v>
       </c>
       <c r="H21" t="n">
-        <v>760.5977208</v>
+        <v>926.4111032</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>2.0294563</v>
+        <v>2.1601741</v>
       </c>
       <c r="J21" t="n">
-        <v>12.0207983</v>
+        <v>240.1950345</v>
       </c>
       <c r="K21" t="n">
-        <v>474.9009927</v>
+        <v>1004.0625199</v>
       </c>
       <c r="L21" t="n">
-        <v>8.062099999999999</v>
+        <v>9.650399999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>37.7873</v>
+        <v>41.1166</v>
       </c>
       <c r="N21" t="n">
-        <v>5393.86</v>
+        <v>4665</v>
       </c>
       <c r="O21" t="n">
-        <v>4.67802</v>
+        <v>4.67631</v>
       </c>
       <c r="P21" t="n">
-        <v>0.735511</v>
+        <v>0.6634139999999999</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>0.8686322884856515</v>
+        <v>1.535174538115806</v>
       </c>
       <c r="R21" t="n">
-        <v>0.03779261048666958</v>
+        <v>0.04285830752449767</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6074.01</v>
+        <v>2018.01</v>
       </c>
       <c r="B22" t="n">
-        <v>99896567</v>
+        <v>357501308</v>
       </c>
       <c r="C22" t="n">
-        <v>310.421968</v>
+        <v>229.837442</v>
       </c>
       <c r="D22" t="n">
-        <v>35.54592</v>
+        <v>29.207877</v>
       </c>
       <c r="E22" t="n">
-        <v>2458690.53445</v>
+        <v>2458958.257962</v>
       </c>
       <c r="F22" t="n">
-        <v>12.1324506</v>
+        <v>7.4355709</v>
       </c>
       <c r="G22" t="n">
-        <v>1.5751733</v>
+        <v>2.3450321</v>
       </c>
       <c r="H22" t="n">
-        <v>171.2764262</v>
+        <v>1310.6803156</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>1.5690907</v>
+        <v>2.2761564</v>
       </c>
       <c r="J22" t="n">
-        <v>98.4603771</v>
+        <v>26.0757607</v>
       </c>
       <c r="K22" t="n">
-        <v>803.406097</v>
+        <v>576.3403106</v>
       </c>
       <c r="L22" t="n">
-        <v>6.8456</v>
+        <v>8.962</v>
       </c>
       <c r="M22" t="n">
-        <v>34.5797</v>
+        <v>27.9956</v>
       </c>
       <c r="N22" t="n">
-        <v>5865</v>
+        <v>4218.9</v>
       </c>
       <c r="O22" t="n">
-        <v>4.44965</v>
+        <v>4.67</v>
       </c>
       <c r="P22" t="n">
-        <v>1.0159301</v>
+        <v>0.622512</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>0.8694920586555916</v>
+        <v>1.539342568313268</v>
       </c>
       <c r="R22" t="n">
-        <v>0.05216827044224256</v>
+        <v>0.2100230324201724</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5734.01</v>
+        <v>1807.01</v>
       </c>
       <c r="B23" t="n">
-        <v>9989136</v>
+        <v>180695581</v>
       </c>
       <c r="C23" t="n">
-        <v>111.255818</v>
+        <v>201.282626</v>
       </c>
       <c r="D23" t="n">
-        <v>37.231122</v>
+        <v>38.922367</v>
       </c>
       <c r="E23" t="n">
-        <v>2458848.68514</v>
+        <v>2459664.070547</v>
       </c>
       <c r="F23" t="n">
-        <v>6.1841688</v>
+        <v>0.54937</v>
       </c>
       <c r="G23" t="n">
-        <v>2.5898497</v>
+        <v>0.883</v>
       </c>
       <c r="H23" t="n">
-        <v>1052.3509168</v>
+        <v>370</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>2.4076002</v>
+        <v>1.53904</v>
       </c>
       <c r="J23" t="n">
-        <v>56.3777871</v>
+        <v>1407.22</v>
       </c>
       <c r="K23" t="n">
-        <v>698.8705758</v>
+        <v>1706</v>
       </c>
       <c r="L23" t="n">
-        <v>8.544600000000001</v>
+        <v>9.036300000000001</v>
       </c>
       <c r="M23" t="n">
-        <v>32.5102</v>
+        <v>42.5775</v>
       </c>
       <c r="N23" t="n">
-        <v>4645</v>
+        <v>4612.99</v>
       </c>
       <c r="O23" t="n">
-        <v>4.62</v>
+        <v>4.56172</v>
       </c>
       <c r="P23" t="n">
-        <v>0.693766</v>
+        <v>0.74</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>0.8936552115002135</v>
+        <v>1.556506674803845</v>
       </c>
       <c r="R23" t="n">
-        <v>0.01559139926063062</v>
+        <v>0.06379238266733318</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2023.01</v>
+        <v>461.01</v>
       </c>
       <c r="B24" t="n">
-        <v>16884216</v>
+        <v>4646810</v>
       </c>
       <c r="C24" t="n">
-        <v>232.863345</v>
+        <v>38.271253</v>
       </c>
       <c r="D24" t="n">
-        <v>33.902516</v>
+        <v>-10.352178</v>
       </c>
       <c r="E24" t="n">
-        <v>2458964.128568</v>
+        <v>2458416.351956</v>
       </c>
       <c r="F24" t="n">
-        <v>11.1900486</v>
+        <v>10.9245478</v>
       </c>
       <c r="G24" t="n">
-        <v>2.9741507</v>
+        <v>1.8716477</v>
       </c>
       <c r="H24" t="n">
-        <v>567.7989939</v>
+        <v>653.537141</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>1.6608182</v>
+        <v>1.9015018</v>
       </c>
       <c r="J24" t="n">
-        <v>31.192573</v>
+        <v>35.242668</v>
       </c>
       <c r="K24" t="n">
-        <v>602.7435196</v>
+        <v>621.4224577</v>
       </c>
       <c r="L24" t="n">
-        <v>8.504899999999999</v>
+        <v>8.872299999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>36.9284</v>
+        <v>45.5621</v>
       </c>
       <c r="N24" t="n">
-        <v>4958</v>
+        <v>4884</v>
       </c>
       <c r="O24" t="n">
-        <v>4.66667</v>
+        <v>4.49</v>
       </c>
       <c r="P24" t="n">
-        <v>0.6959920000000001</v>
+        <v>0.74413</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>0.9180746601776205</v>
+        <v>1.612698332942558</v>
       </c>
       <c r="R24" t="n">
-        <v>0.05872196175686627</v>
+        <v>0.09656722333313997</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1430.01</v>
+        <v>5997.01</v>
       </c>
       <c r="B25" t="n">
-        <v>293954617</v>
+        <v>39516274</v>
       </c>
       <c r="C25" t="n">
-        <v>300.615453</v>
+        <v>263.152578</v>
       </c>
       <c r="D25" t="n">
-        <v>53.377442</v>
+        <v>33.570556</v>
       </c>
       <c r="E25" t="n">
-        <v>2460549.311109</v>
+        <v>2458985.158761</v>
       </c>
       <c r="F25" t="n">
-        <v>7.4341456</v>
+        <v>5.655018</v>
       </c>
       <c r="G25" t="n">
-        <v>2.424</v>
+        <v>1.7818546</v>
       </c>
       <c r="H25" t="n">
-        <v>701</v>
+        <v>356.813695</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>1.97737</v>
+        <v>1.5874236</v>
       </c>
       <c r="J25" t="n">
-        <v>48.0098</v>
+        <v>67.20143210000001</v>
       </c>
       <c r="K25" t="n">
-        <v>733</v>
+        <v>730.2379204</v>
       </c>
       <c r="L25" t="n">
-        <v>8.3879</v>
+        <v>9.2576</v>
       </c>
       <c r="M25" t="n">
-        <v>41.1706</v>
+        <v>46.521</v>
       </c>
       <c r="N25" t="n">
-        <v>5064</v>
+        <v>4674</v>
       </c>
       <c r="O25" t="n">
-        <v>4.57887</v>
+        <v>4.61121</v>
       </c>
       <c r="P25" t="n">
-        <v>0.78</v>
+        <v>0.704768</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>0.9396839689860219</v>
+        <v>1.633643190573729</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1100198261051309</v>
+        <v>0.1440519013547189</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2076.01</v>
+        <v>1835.01</v>
       </c>
       <c r="B26" t="n">
-        <v>27491137</v>
+        <v>347332255</v>
       </c>
       <c r="C26" t="n">
-        <v>217.392016</v>
+        <v>189.839224</v>
       </c>
       <c r="D26" t="n">
-        <v>39.790399</v>
+        <v>20.027338</v>
       </c>
       <c r="E26" t="n">
-        <v>2459675.695029</v>
+        <v>2458932.763635</v>
       </c>
       <c r="F26" t="n">
-        <v>10.3563596</v>
+        <v>5.6419598</v>
       </c>
       <c r="G26" t="n">
-        <v>3.4814933</v>
+        <v>3.0871502</v>
       </c>
       <c r="H26" t="n">
-        <v>923.942127</v>
+        <v>543.838848</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>2.4103206</v>
+        <v>1.8245844</v>
       </c>
       <c r="J26" t="n">
-        <v>48.1191014</v>
+        <v>119.4171181</v>
       </c>
       <c r="K26" t="n">
-        <v>671.7367776999999</v>
+        <v>843.1141848</v>
       </c>
       <c r="L26" t="n">
-        <v>8.374499999999999</v>
+        <v>7.6621</v>
       </c>
       <c r="M26" t="n">
-        <v>41.9091</v>
+        <v>32.1585</v>
       </c>
       <c r="N26" t="n">
-        <v>5149.6</v>
+        <v>5297</v>
       </c>
       <c r="O26" t="n">
-        <v>4.6</v>
+        <v>4.61016</v>
       </c>
       <c r="P26" t="n">
-        <v>0.7721479999999999</v>
+        <v>0.782479</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>0.9481211214084003</v>
+        <v>1.636354764225714</v>
       </c>
       <c r="R26" t="n">
-        <v>0.05926071698556891</v>
+        <v>0.06661906649581383</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2076.03</v>
+        <v>1835.02</v>
       </c>
       <c r="B27" t="n">
-        <v>27491137</v>
+        <v>347332255</v>
       </c>
       <c r="C27" t="n">
-        <v>217.392016</v>
+        <v>189.839224</v>
       </c>
       <c r="D27" t="n">
-        <v>39.790399</v>
+        <v>20.027338</v>
       </c>
       <c r="E27" t="n">
-        <v>2459673.364369</v>
-      </c>
-      <c r="F27" t="n">
-        <v>21.0153047</v>
+        <v>2458937.873023</v>
       </c>
       <c r="G27" t="n">
-        <v>4.315</v>
+        <v>3.9454498</v>
       </c>
       <c r="H27" t="n">
-        <v>2072</v>
+        <v>886.4838237</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>3.78219</v>
+        <v>2.5398986</v>
       </c>
       <c r="J27" t="n">
-        <v>28.033</v>
+        <v>48.4006234</v>
       </c>
       <c r="K27" t="n">
-        <v>641</v>
+        <v>672.7171326</v>
       </c>
       <c r="L27" t="n">
-        <v>8.374499999999999</v>
+        <v>7.6621</v>
       </c>
       <c r="M27" t="n">
-        <v>41.9091</v>
+        <v>32.1585</v>
       </c>
       <c r="N27" t="n">
-        <v>5149.6</v>
+        <v>5297</v>
       </c>
       <c r="O27" t="n">
-        <v>4.6</v>
+        <v>4.61016</v>
       </c>
       <c r="P27" t="n">
-        <v>0.77</v>
+        <v>0.782479</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>0.9481211214084003</v>
+        <v>1.636354764225714</v>
       </c>
       <c r="R27" t="n">
-        <v>0.05926071698556891</v>
+        <v>0.06661906649581383</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2076.02</v>
+        <v>1430.01</v>
       </c>
       <c r="B28" t="n">
-        <v>27491137</v>
+        <v>293954617</v>
       </c>
       <c r="C28" t="n">
-        <v>217.392016</v>
+        <v>300.615453</v>
       </c>
       <c r="D28" t="n">
-        <v>39.790399</v>
+        <v>53.377442</v>
       </c>
       <c r="E28" t="n">
-        <v>2459675.93251</v>
+        <v>2460549.311109</v>
       </c>
       <c r="F28" t="n">
-        <v>35.1257472</v>
+        <v>7.4341456</v>
       </c>
       <c r="G28" t="n">
-        <v>2.839</v>
+        <v>2.424</v>
       </c>
       <c r="H28" t="n">
-        <v>2066</v>
+        <v>701</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>3.17021</v>
+        <v>1.97737</v>
       </c>
       <c r="J28" t="n">
-        <v>3.78846</v>
+        <v>48.0098</v>
       </c>
       <c r="K28" t="n">
-        <v>388</v>
+        <v>733</v>
       </c>
       <c r="L28" t="n">
-        <v>8.374499999999999</v>
+        <v>8.3879</v>
       </c>
       <c r="M28" t="n">
-        <v>41.9091</v>
+        <v>41.1706</v>
       </c>
       <c r="N28" t="n">
-        <v>5149.6</v>
+        <v>5064</v>
       </c>
       <c r="O28" t="n">
-        <v>4.6</v>
+        <v>4.57887</v>
       </c>
       <c r="P28" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>0.9481211214084003</v>
+        <v>1.63699196957063</v>
       </c>
       <c r="R28" t="n">
-        <v>0.05926071698556891</v>
+        <v>0.1100198261051309</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2128.01</v>
+        <v>6249.02</v>
       </c>
       <c r="B29" t="n">
-        <v>21832928</v>
+        <v>456260074</v>
       </c>
       <c r="C29" t="n">
-        <v>256.9818</v>
+        <v>101.492034</v>
       </c>
       <c r="D29" t="n">
-        <v>32.105303</v>
+        <v>66.89064399999999</v>
       </c>
       <c r="E29" t="n">
-        <v>2458987.266354</v>
+        <v>2458844.107949</v>
       </c>
       <c r="F29" t="n">
-        <v>16.3413889</v>
+        <v>15.5739143</v>
       </c>
       <c r="G29" t="n">
-        <v>5.3764481</v>
+        <v>2.4269262</v>
       </c>
       <c r="H29" t="n">
-        <v>372.0970618</v>
+        <v>779.9193691</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>2.629079</v>
+        <v>2.5864246</v>
       </c>
       <c r="J29" t="n">
-        <v>86.231465</v>
+        <v>21.461443</v>
       </c>
       <c r="K29" t="n">
-        <v>777.2060824</v>
+        <v>548.952136</v>
       </c>
       <c r="L29" t="n">
-        <v>6.6813</v>
+        <v>9.0449</v>
       </c>
       <c r="M29" t="n">
-        <v>36.578</v>
+        <v>47.9491</v>
       </c>
       <c r="N29" t="n">
-        <v>5991.11</v>
+        <v>4813</v>
       </c>
       <c r="O29" t="n">
-        <v>4.37711</v>
+        <v>4.57884</v>
       </c>
       <c r="P29" t="n">
-        <v>1.12506</v>
+        <v>0.751037</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>0.9641417894894451</v>
+        <v>1.650922393499214</v>
       </c>
       <c r="R29" t="n">
-        <v>0.08438831092999147</v>
+        <v>0.01675017502121713</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1144.01</v>
+        <v>6249.01</v>
       </c>
       <c r="B30" t="n">
-        <v>28230919</v>
+        <v>456260074</v>
       </c>
       <c r="C30" t="n">
-        <v>297.710176</v>
+        <v>101.492034</v>
       </c>
       <c r="D30" t="n">
-        <v>48.081864</v>
+        <v>66.89064399999999</v>
       </c>
       <c r="E30" t="n">
-        <v>2460554.347022</v>
+        <v>2458853.470005</v>
       </c>
       <c r="F30" t="n">
-        <v>4.8878037</v>
+        <v>1092.002299</v>
       </c>
       <c r="G30" t="n">
-        <v>2.184</v>
+        <v>5.604929</v>
       </c>
       <c r="H30" t="n">
-        <v>4279</v>
+        <v>1689.5997267</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>5.29152</v>
+        <v>3.1384101</v>
       </c>
       <c r="J30" t="n">
-        <v>71.68049999999999</v>
+        <v>0.0742263</v>
       </c>
       <c r="K30" t="n">
-        <v>810</v>
+        <v>133.1248776</v>
       </c>
       <c r="L30" t="n">
-        <v>8.5077</v>
+        <v>9.0449</v>
       </c>
       <c r="M30" t="n">
-        <v>37.7647</v>
+        <v>47.9491</v>
       </c>
       <c r="N30" t="n">
-        <v>4757.3</v>
+        <v>4813</v>
       </c>
       <c r="O30" t="n">
-        <v>4.56</v>
+        <v>4.57884</v>
       </c>
       <c r="P30" t="n">
-        <v>0.76</v>
+        <v>0.751037</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>0.9663749523476942</v>
+        <v>1.650922393499214</v>
       </c>
       <c r="R30" t="n">
-        <v>0.131139051935956</v>
+        <v>0.01675017502121713</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1643.01</v>
+        <v>1434.01</v>
       </c>
       <c r="B31" t="n">
-        <v>298647682</v>
+        <v>138588540</v>
       </c>
       <c r="C31" t="n">
-        <v>272.264241</v>
+        <v>176.380591</v>
       </c>
       <c r="D31" t="n">
-        <v>53.217729</v>
+        <v>65.541314</v>
       </c>
       <c r="E31" t="n">
-        <v>2459815.953155</v>
+        <v>2458703.403139</v>
       </c>
       <c r="F31" t="n">
-        <v>20.0795217</v>
+        <v>29.902663</v>
       </c>
       <c r="G31" t="n">
-        <v>1.2186554</v>
+        <v>3.6993733</v>
       </c>
       <c r="H31" t="n">
-        <v>1065.5355707</v>
+        <v>760.5977208</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>2.7170462</v>
+        <v>2.0294563</v>
       </c>
       <c r="J31" t="n">
-        <v>15.8594327</v>
+        <v>12.0207983</v>
       </c>
       <c r="K31" t="n">
-        <v>508.9693869</v>
+        <v>474.9009927</v>
       </c>
       <c r="L31" t="n">
-        <v>8.662800000000001</v>
+        <v>8.062099999999999</v>
       </c>
       <c r="M31" t="n">
-        <v>40.6988</v>
+        <v>37.7873</v>
       </c>
       <c r="N31" t="n">
-        <v>4763</v>
+        <v>5393.86</v>
       </c>
       <c r="O31" t="n">
-        <v>4.54306</v>
+        <v>4.67802</v>
       </c>
       <c r="P31" t="n">
-        <v>0.7775840000000001</v>
+        <v>0.735511</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>1.018507941129634</v>
+        <v>1.679049255710149</v>
       </c>
       <c r="R31" t="n">
-        <v>0.02743089734967181</v>
+        <v>0.03779261048666958</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6985.01</v>
+        <v>7062.01</v>
       </c>
       <c r="B32" t="n">
-        <v>59490344</v>
+        <v>23961340</v>
       </c>
       <c r="C32" t="n">
-        <v>108.993831</v>
+        <v>313.292091</v>
       </c>
       <c r="D32" t="n">
-        <v>18.691658</v>
+        <v>-9.044055</v>
       </c>
       <c r="E32" t="n">
-        <v>2459509.801369</v>
+        <v>2460528.435521</v>
       </c>
       <c r="F32" t="n">
-        <v>748.7146251</v>
+        <v>10.5137924</v>
       </c>
       <c r="G32" t="n">
-        <v>6.6689152</v>
+        <v>2.275</v>
       </c>
       <c r="H32" t="n">
-        <v>1655.3509066</v>
+        <v>1611</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>3.4308988</v>
+        <v>3.1867</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1991332</v>
+        <v>25.6571</v>
       </c>
       <c r="K32" t="n">
-        <v>170.3749226</v>
+        <v>627</v>
       </c>
       <c r="L32" t="n">
-        <v>8.3323</v>
+        <v>8.863</v>
       </c>
       <c r="M32" t="n">
-        <v>46.2206</v>
+        <v>47.6049</v>
       </c>
       <c r="N32" t="n">
-        <v>5235</v>
+        <v>4942</v>
       </c>
       <c r="O32" t="n">
-        <v>4.5339</v>
+        <v>4.58</v>
       </c>
       <c r="P32" t="n">
-        <v>0.844852</v>
+        <v>0.77</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>1.024745179501231</v>
+        <v>1.689140930763304</v>
       </c>
       <c r="R32" t="n">
-        <v>0.05116830388656043</v>
+        <v>0.02720601594492704</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5961.01</v>
+        <v>5789.01</v>
       </c>
       <c r="B33" t="n">
-        <v>262689575</v>
+        <v>87216634</v>
       </c>
       <c r="C33" t="n">
-        <v>349.216044</v>
+        <v>302.773447</v>
       </c>
       <c r="D33" t="n">
-        <v>5.695887</v>
+        <v>16.189714</v>
       </c>
       <c r="E33" t="n">
-        <v>2459447.785905</v>
+        <v>2459776.255982</v>
       </c>
       <c r="F33" t="n">
-        <v>1.617487</v>
+        <v>12.9256051</v>
       </c>
       <c r="G33" t="n">
-        <v>1.2809267</v>
+        <v>1.691</v>
       </c>
       <c r="H33" t="n">
-        <v>342.1852102</v>
+        <v>790</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>1.3134056</v>
+        <v>2.53704</v>
       </c>
       <c r="J33" t="n">
-        <v>197.2074933</v>
+        <v>8.719390000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>955.7638559</v>
+        <v>478</v>
       </c>
       <c r="L33" t="n">
-        <v>9.039199999999999</v>
+        <v>6.5715</v>
       </c>
       <c r="M33" t="n">
-        <v>26.2533</v>
+        <v>20.4581</v>
       </c>
       <c r="N33" t="n">
-        <v>3900.68</v>
+        <v>5132</v>
       </c>
       <c r="O33" t="n">
-        <v>4.5239</v>
+        <v>4.49</v>
       </c>
       <c r="P33" t="n">
-        <v>0.7017099999999999</v>
+        <v>0.88</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>1.059534344419636</v>
+        <v>1.704998939529603</v>
       </c>
       <c r="R33" t="n">
-        <v>0.01821666933803688</v>
+        <v>0.2860097255552455</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>509.01</v>
+        <v>2076.01</v>
       </c>
       <c r="B34" t="n">
-        <v>453211454</v>
+        <v>27491137</v>
       </c>
       <c r="C34" t="n">
-        <v>117.924642</v>
+        <v>217.392016</v>
       </c>
       <c r="D34" t="n">
-        <v>9.385241000000001</v>
+        <v>39.790399</v>
       </c>
       <c r="E34" t="n">
-        <v>2460269.974997</v>
+        <v>2459675.695029</v>
       </c>
       <c r="F34" t="n">
-        <v>9.058820900000001</v>
+        <v>10.3563596</v>
       </c>
       <c r="G34" t="n">
-        <v>3.342</v>
+        <v>3.4814933</v>
       </c>
       <c r="H34" t="n">
-        <v>875</v>
+        <v>923.942127</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>2.67607</v>
+        <v>2.4103206</v>
       </c>
       <c r="J34" t="n">
-        <v>92.839</v>
+        <v>48.1191014</v>
       </c>
       <c r="K34" t="n">
-        <v>864</v>
+        <v>671.7367776999999</v>
       </c>
       <c r="L34" t="n">
-        <v>7.9259</v>
+        <v>8.374499999999999</v>
       </c>
       <c r="M34" t="n">
-        <v>48.9739</v>
+        <v>41.9091</v>
       </c>
       <c r="N34" t="n">
-        <v>5560.26</v>
+        <v>5149.6</v>
       </c>
       <c r="O34" t="n">
-        <v>4.438</v>
+        <v>4.6</v>
       </c>
       <c r="P34" t="n">
-        <v>0.96</v>
+        <v>0.7721479999999999</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>1.061668841907705</v>
+        <v>1.726090802103506</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1017032808558144</v>
+        <v>0.05926071698556891</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>509.02</v>
+        <v>2076.03</v>
       </c>
       <c r="B35" t="n">
-        <v>453211454</v>
+        <v>27491137</v>
       </c>
       <c r="C35" t="n">
-        <v>117.924642</v>
+        <v>217.392016</v>
       </c>
       <c r="D35" t="n">
-        <v>9.385241000000001</v>
+        <v>39.790399</v>
       </c>
       <c r="E35" t="n">
-        <v>2460259.048369</v>
+        <v>2459673.364369</v>
       </c>
       <c r="F35" t="n">
-        <v>21.4003129</v>
+        <v>21.0153047</v>
       </c>
       <c r="G35" t="n">
-        <v>5.3847459</v>
+        <v>4.315</v>
       </c>
       <c r="H35" t="n">
-        <v>960.7539877</v>
+        <v>2072</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>3.0010426</v>
+        <v>3.78219</v>
       </c>
       <c r="J35" t="n">
-        <v>35.2811724</v>
+        <v>28.033</v>
       </c>
       <c r="K35" t="n">
-        <v>621.592122</v>
+        <v>641</v>
       </c>
       <c r="L35" t="n">
-        <v>7.9259</v>
+        <v>8.374499999999999</v>
       </c>
       <c r="M35" t="n">
-        <v>48.9739</v>
+        <v>41.9091</v>
       </c>
       <c r="N35" t="n">
-        <v>5560.26</v>
+        <v>5149.6</v>
       </c>
       <c r="O35" t="n">
-        <v>4.438</v>
+        <v>4.6</v>
       </c>
       <c r="P35" t="n">
-        <v>0.962324</v>
+        <v>0.77</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>1.061668841907705</v>
+        <v>1.726090802103506</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1017032808558144</v>
+        <v>0.05926071698556891</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5392.01</v>
+        <v>2076.02</v>
       </c>
       <c r="B36" t="n">
-        <v>198512478</v>
+        <v>27491137</v>
       </c>
       <c r="C36" t="n">
-        <v>212.621349</v>
+        <v>217.392016</v>
       </c>
       <c r="D36" t="n">
-        <v>72.58975700000001</v>
+        <v>39.790399</v>
       </c>
       <c r="E36" t="n">
-        <v>2460367.300993</v>
+        <v>2459675.93251</v>
       </c>
       <c r="F36" t="n">
-        <v>17.5313321</v>
+        <v>35.1257472</v>
       </c>
       <c r="G36" t="n">
-        <v>4.334</v>
+        <v>2.839</v>
       </c>
       <c r="H36" t="n">
-        <v>306</v>
+        <v>2066</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>1.66838</v>
+        <v>3.17021</v>
       </c>
       <c r="J36" t="n">
-        <v>468.87</v>
+        <v>3.78846</v>
       </c>
       <c r="K36" t="n">
-        <v>1296</v>
+        <v>388</v>
       </c>
       <c r="L36" t="n">
-        <v>8.1319</v>
+        <v>8.374499999999999</v>
       </c>
       <c r="M36" t="n">
-        <v>48.793</v>
+        <v>41.9091</v>
       </c>
       <c r="N36" t="n">
-        <v>5464</v>
+        <v>5149.6</v>
       </c>
       <c r="O36" t="n">
-        <v>4.51</v>
+        <v>4.6</v>
       </c>
       <c r="P36" t="n">
-        <v>0.9</v>
+        <v>0.77</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>1.064324053827933</v>
+        <v>1.726090802103506</v>
       </c>
       <c r="R36" t="n">
-        <v>0.05635993153899293</v>
+        <v>0.05926071698556891</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1776.01</v>
+        <v>5554.01</v>
       </c>
       <c r="B37" t="n">
-        <v>21535395</v>
+        <v>91287873</v>
       </c>
       <c r="C37" t="n">
-        <v>164.777291</v>
+        <v>104.74387</v>
       </c>
       <c r="D37" t="n">
-        <v>40.983718</v>
+        <v>28.715768</v>
       </c>
       <c r="E37" t="n">
-        <v>2458871.488566</v>
+        <v>2459515.17161</v>
       </c>
       <c r="F37" t="n">
-        <v>2.8009915</v>
+        <v>26.694279</v>
       </c>
       <c r="G37" t="n">
-        <v>1.4985399</v>
+        <v>3.7831301</v>
       </c>
       <c r="H37" t="n">
-        <v>204.8553325</v>
+        <v>1854.2924324</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>1.4033915</v>
+        <v>2.6845863</v>
       </c>
       <c r="J37" t="n">
-        <v>560.3349224</v>
+        <v>4.0851419</v>
       </c>
       <c r="K37" t="n">
-        <v>1240.8853925</v>
+        <v>362.5947706</v>
       </c>
       <c r="L37" t="n">
-        <v>7.6586</v>
+        <v>9.83733</v>
       </c>
       <c r="M37" t="n">
-        <v>44.647</v>
+        <v>39.4478</v>
       </c>
       <c r="N37" t="n">
-        <v>5723.87</v>
+        <v>3997</v>
       </c>
       <c r="O37" t="n">
-        <v>4.49543</v>
+        <v>4.6288</v>
       </c>
       <c r="P37" t="n">
-        <v>0.945408</v>
+        <v>0.626722</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>1.06975163481739</v>
+        <v>1.757553896613831</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1092036781983211</v>
+        <v>0.05933370243670238</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4517.01</v>
+        <v>1486.01</v>
       </c>
       <c r="B38" t="n">
-        <v>301289516</v>
+        <v>233541860</v>
       </c>
       <c r="C38" t="n">
-        <v>351.771776</v>
+        <v>281.197877</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.285343</v>
+        <v>62.685644</v>
       </c>
       <c r="E38" t="n">
-        <v>2460231.733831</v>
+        <v>2459635.536646</v>
       </c>
       <c r="F38" t="n">
-        <v>1.2089755</v>
+        <v>0.2666485</v>
       </c>
       <c r="G38" t="n">
-        <v>1.286</v>
+        <v>1.075</v>
       </c>
       <c r="H38" t="n">
-        <v>668</v>
+        <v>230</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>1.68645</v>
+        <v>1.30468</v>
       </c>
       <c r="J38" t="n">
-        <v>325.749</v>
+        <v>3064.12</v>
       </c>
       <c r="K38" t="n">
-        <v>1183</v>
+        <v>2072</v>
       </c>
       <c r="L38" t="n">
-        <v>9.0684</v>
+        <v>9.959199999999999</v>
       </c>
       <c r="M38" t="n">
-        <v>29.661</v>
+        <v>44.3531</v>
       </c>
       <c r="N38" t="n">
-        <v>4199</v>
+        <v>4154</v>
       </c>
       <c r="O38" t="n">
-        <v>4.65321</v>
+        <v>4.53</v>
       </c>
       <c r="P38" t="n">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>1.0925362451314</v>
+        <v>1.784451737247451</v>
       </c>
       <c r="R38" t="n">
-        <v>0.2166081726537622</v>
+        <v>0.03110876237070922</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7062.01</v>
+        <v>6058.01</v>
       </c>
       <c r="B39" t="n">
-        <v>23961340</v>
+        <v>144006874</v>
       </c>
       <c r="C39" t="n">
-        <v>313.292091</v>
+        <v>81.40224499999999</v>
       </c>
       <c r="D39" t="n">
-        <v>-9.044055</v>
+        <v>37.118266</v>
       </c>
       <c r="E39" t="n">
-        <v>2460528.435521</v>
+        <v>2459935.968189</v>
       </c>
       <c r="F39" t="n">
-        <v>10.5137924</v>
+        <v>2.3673676</v>
       </c>
       <c r="G39" t="n">
-        <v>2.275</v>
+        <v>1.045</v>
       </c>
       <c r="H39" t="n">
-        <v>1611</v>
+        <v>550</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>3.1867</v>
+        <v>1.78396</v>
       </c>
       <c r="J39" t="n">
-        <v>25.6571</v>
+        <v>58.4073</v>
       </c>
       <c r="K39" t="n">
-        <v>627</v>
+        <v>770</v>
       </c>
       <c r="L39" t="n">
-        <v>8.863</v>
+        <v>9.5951</v>
       </c>
       <c r="M39" t="n">
-        <v>47.6049</v>
+        <v>47.6869</v>
       </c>
       <c r="N39" t="n">
-        <v>4942</v>
+        <v>4403</v>
       </c>
       <c r="O39" t="n">
         <v>4.58</v>
       </c>
       <c r="P39" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>1.113358310196863</v>
+        <v>1.79763062483054</v>
       </c>
       <c r="R39" t="n">
-        <v>0.02720601594492704</v>
+        <v>0.04668015033414173</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>461.01</v>
+        <v>2069.01</v>
       </c>
       <c r="B40" t="n">
-        <v>4646810</v>
+        <v>198187049</v>
       </c>
       <c r="C40" t="n">
-        <v>38.271253</v>
+        <v>245.728968</v>
       </c>
       <c r="D40" t="n">
-        <v>-10.352178</v>
+        <v>61.694836</v>
       </c>
       <c r="E40" t="n">
-        <v>2458416.351956</v>
+        <v>2458688.473496</v>
       </c>
       <c r="F40" t="n">
-        <v>10.9245478</v>
+        <v>5.9214229</v>
       </c>
       <c r="G40" t="n">
-        <v>1.8716477</v>
+        <v>2.4606208</v>
       </c>
       <c r="H40" t="n">
-        <v>653.537141</v>
+        <v>140.4285921</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>1.9015018</v>
+        <v>1.0470381</v>
       </c>
       <c r="J40" t="n">
-        <v>35.242668</v>
+        <v>122.1004834</v>
       </c>
       <c r="K40" t="n">
-        <v>621.4224577</v>
+        <v>847.8110943</v>
       </c>
       <c r="L40" t="n">
-        <v>8.872299999999999</v>
+        <v>7.9726</v>
       </c>
       <c r="M40" t="n">
-        <v>45.5621</v>
+        <v>38.6215</v>
       </c>
       <c r="N40" t="n">
-        <v>4884</v>
+        <v>5268</v>
       </c>
       <c r="O40" t="n">
-        <v>4.49</v>
+        <v>4.56138</v>
       </c>
       <c r="P40" t="n">
-        <v>0.74413</v>
+        <v>0.823126</v>
       </c>
       <c r="Q40" s="3" t="n">
-        <v>1.116655495291831</v>
+        <v>1.813585229043661</v>
       </c>
       <c r="R40" t="n">
-        <v>0.09656722333313997</v>
+        <v>0.06164093083342125</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>7052.01</v>
+        <v>1759.01</v>
       </c>
       <c r="B41" t="n">
-        <v>22038430</v>
+        <v>408636441</v>
       </c>
       <c r="C41" t="n">
-        <v>268.95853</v>
+        <v>326.851662</v>
       </c>
       <c r="D41" t="n">
-        <v>33.419623</v>
+        <v>62.753816</v>
       </c>
       <c r="E41" t="n">
-        <v>2460500.659766</v>
+        <v>2460404.266149</v>
       </c>
       <c r="F41" t="n">
-        <v>2.8862017</v>
+        <v>18.8500438</v>
       </c>
       <c r="G41" t="n">
-        <v>0.487</v>
+        <v>3.407</v>
       </c>
       <c r="H41" t="n">
-        <v>412</v>
+        <v>2610</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>1.71911</v>
+        <v>3.09094</v>
       </c>
       <c r="J41" t="n">
-        <v>15.4038</v>
+        <v>5.95531</v>
       </c>
       <c r="K41" t="n">
-        <v>551</v>
+        <v>435</v>
       </c>
       <c r="L41" t="n">
-        <v>8.9588</v>
+        <v>9.928380000000001</v>
       </c>
       <c r="M41" t="n">
-        <v>29.7194</v>
+        <v>40.0654</v>
       </c>
       <c r="N41" t="n">
-        <v>4269</v>
+        <v>3960</v>
       </c>
       <c r="O41" t="n">
-        <v>4.65</v>
+        <v>4.62853</v>
       </c>
       <c r="P41" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>1.1181380300198</v>
+        <v>1.897036734533635</v>
       </c>
       <c r="R41" t="n">
-        <v>0.1166629664479221</v>
+        <v>0.08769119345162939</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1807.01</v>
+        <v>2431.01</v>
       </c>
       <c r="B42" t="n">
-        <v>180695581</v>
+        <v>258804746</v>
       </c>
       <c r="C42" t="n">
-        <v>201.282626</v>
+        <v>37.765299</v>
       </c>
       <c r="D42" t="n">
-        <v>38.922367</v>
+        <v>8.381625</v>
       </c>
       <c r="E42" t="n">
-        <v>2459664.070547</v>
+        <v>2460258.868869</v>
       </c>
       <c r="F42" t="n">
-        <v>0.54937</v>
+        <v>0.224195</v>
       </c>
       <c r="G42" t="n">
-        <v>0.883</v>
+        <v>0.292</v>
       </c>
       <c r="H42" t="n">
-        <v>370</v>
+        <v>540</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>1.53904</v>
+        <v>5.59553</v>
       </c>
       <c r="J42" t="n">
-        <v>1407.22</v>
+        <v>2649.15</v>
       </c>
       <c r="K42" t="n">
-        <v>1706</v>
+        <v>1998</v>
       </c>
       <c r="L42" t="n">
-        <v>9.036300000000001</v>
+        <v>9.520899999999999</v>
       </c>
       <c r="M42" t="n">
-        <v>42.5775</v>
+        <v>36.0559</v>
       </c>
       <c r="N42" t="n">
-        <v>4612.99</v>
+        <v>4079</v>
       </c>
       <c r="O42" t="n">
-        <v>4.56172</v>
+        <v>4.58</v>
       </c>
       <c r="P42" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="Q42" s="3" t="n">
-        <v>1.128211929288773</v>
+        <v>1.939346032482382</v>
       </c>
       <c r="R42" t="n">
-        <v>0.06379238266733318</v>
+        <v>0.1915281956726753</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2018.01</v>
+        <v>6985.01</v>
       </c>
       <c r="B43" t="n">
-        <v>357501308</v>
+        <v>59490344</v>
       </c>
       <c r="C43" t="n">
-        <v>229.837442</v>
+        <v>108.993831</v>
       </c>
       <c r="D43" t="n">
-        <v>29.207877</v>
+        <v>18.691658</v>
       </c>
       <c r="E43" t="n">
-        <v>2458958.257962</v>
+        <v>2459509.801369</v>
       </c>
       <c r="F43" t="n">
-        <v>7.4355709</v>
+        <v>748.7146251</v>
       </c>
       <c r="G43" t="n">
-        <v>2.3450321</v>
+        <v>6.6689152</v>
       </c>
       <c r="H43" t="n">
-        <v>1310.6803156</v>
+        <v>1655.3509066</v>
       </c>
       <c r="I43" s="3" t="n">
-        <v>2.2761564</v>
+        <v>3.4308988</v>
       </c>
       <c r="J43" t="n">
-        <v>26.0757607</v>
+        <v>0.1991332</v>
       </c>
       <c r="K43" t="n">
-        <v>576.3403106</v>
+        <v>170.3749226</v>
       </c>
       <c r="L43" t="n">
-        <v>8.962</v>
+        <v>8.3323</v>
       </c>
       <c r="M43" t="n">
-        <v>27.9956</v>
+        <v>46.2206</v>
       </c>
       <c r="N43" t="n">
-        <v>4218.9</v>
+        <v>5235</v>
       </c>
       <c r="O43" t="n">
-        <v>4.67</v>
+        <v>4.5339</v>
       </c>
       <c r="P43" t="n">
-        <v>0.622512</v>
+        <v>0.844852</v>
       </c>
       <c r="Q43" s="3" t="n">
-        <v>1.184954404382703</v>
+        <v>1.951846748730099</v>
       </c>
       <c r="R43" t="n">
-        <v>0.2100230324201724</v>
+        <v>0.05116830388656043</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5972.01</v>
+        <v>1773.01</v>
       </c>
       <c r="B44" t="n">
-        <v>420814525</v>
+        <v>332064670</v>
       </c>
       <c r="C44" t="n">
-        <v>330.795022</v>
+        <v>133.146837</v>
       </c>
       <c r="D44" t="n">
-        <v>18.884242</v>
+        <v>28.329815</v>
       </c>
       <c r="E44" t="n">
-        <v>2460552.87974</v>
+        <v>2458870.692828</v>
       </c>
       <c r="F44" t="n">
-        <v>3.5247546</v>
+        <v>0.7365463</v>
       </c>
       <c r="G44" t="n">
-        <v>2.958</v>
+        <v>1.5732208</v>
       </c>
       <c r="H44" t="n">
-        <v>17803</v>
+        <v>384.6733121</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>16.3776</v>
+        <v>2.0231121</v>
       </c>
       <c r="J44" t="n">
-        <v>587.098</v>
+        <v>2657.8322415</v>
       </c>
       <c r="K44" t="n">
-        <v>1371</v>
+        <v>1831.2668801</v>
       </c>
       <c r="L44" t="n">
-        <v>7.1274</v>
+        <v>5.2058</v>
       </c>
       <c r="M44" t="n">
-        <v>48.3016</v>
+        <v>12.5855</v>
       </c>
       <c r="N44" t="n">
-        <v>6052</v>
+        <v>5250</v>
       </c>
       <c r="O44" t="n">
-        <v>4.34258</v>
+        <v>4.42</v>
       </c>
       <c r="P44" t="n">
-        <v>1.19</v>
+        <v>0.963515</v>
       </c>
       <c r="Q44" s="3" t="n">
-        <v>1.191718672573501</v>
+        <v>1.977480319599974</v>
       </c>
       <c r="R44" t="n">
-        <v>0.01731301595994347</v>
+        <v>0.2680494911224468</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6249.01</v>
+        <v>4610.01</v>
       </c>
       <c r="B45" t="n">
-        <v>456260074</v>
+        <v>1950736</v>
       </c>
       <c r="C45" t="n">
-        <v>101.492034</v>
+        <v>79.04324</v>
       </c>
       <c r="D45" t="n">
-        <v>66.89064399999999</v>
+        <v>30.585072</v>
       </c>
       <c r="E45" t="n">
-        <v>2458853.470005</v>
+        <v>2460307.729373</v>
       </c>
       <c r="F45" t="n">
-        <v>1092.002299</v>
+        <v>3.1129681</v>
       </c>
       <c r="G45" t="n">
-        <v>5.604929</v>
+        <v>2.308</v>
       </c>
       <c r="H45" t="n">
-        <v>1689.5997267</v>
+        <v>585</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>3.1384101</v>
+        <v>1.5002</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0742263</v>
+        <v>151.507</v>
       </c>
       <c r="K45" t="n">
-        <v>133.1248776</v>
+        <v>977</v>
       </c>
       <c r="L45" t="n">
-        <v>9.0449</v>
+        <v>10.0745</v>
       </c>
       <c r="M45" t="n">
-        <v>47.9491</v>
+        <v>47.914</v>
       </c>
       <c r="N45" t="n">
-        <v>4813</v>
+        <v>4104</v>
       </c>
       <c r="O45" t="n">
-        <v>4.57884</v>
+        <v>4.57</v>
       </c>
       <c r="P45" t="n">
-        <v>0.751037</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q45" s="3" t="n">
-        <v>1.195614194869303</v>
+        <v>2.090989106311385</v>
       </c>
       <c r="R45" t="n">
-        <v>0.01675017502121713</v>
+        <v>0.06653290396318375</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6249.02</v>
+        <v>5955.01</v>
       </c>
       <c r="B46" t="n">
-        <v>456260074</v>
+        <v>434116397</v>
       </c>
       <c r="C46" t="n">
-        <v>101.492034</v>
+        <v>355.467833</v>
       </c>
       <c r="D46" t="n">
-        <v>66.89064399999999</v>
+        <v>14.106803</v>
       </c>
       <c r="E46" t="n">
-        <v>2458844.107949</v>
+        <v>2459825.845336</v>
       </c>
       <c r="F46" t="n">
-        <v>15.5739143</v>
+        <v>0.5902387</v>
       </c>
       <c r="G46" t="n">
-        <v>2.4269262</v>
+        <v>1.045052</v>
       </c>
       <c r="H46" t="n">
-        <v>779.9193691</v>
+        <v>518.7240999000001</v>
       </c>
       <c r="I46" s="3" t="n">
-        <v>2.5864246</v>
+        <v>1.6802901</v>
       </c>
       <c r="J46" t="n">
-        <v>21.461443</v>
+        <v>517.0065166000001</v>
       </c>
       <c r="K46" t="n">
-        <v>548.952136</v>
+        <v>1216.1685093</v>
       </c>
       <c r="L46" t="n">
-        <v>9.0449</v>
+        <v>10.3224</v>
       </c>
       <c r="M46" t="n">
-        <v>47.9491</v>
+        <v>42.8747</v>
       </c>
       <c r="N46" t="n">
-        <v>4813</v>
+        <v>3844</v>
       </c>
       <c r="O46" t="n">
-        <v>4.57884</v>
+        <v>4.6589</v>
       </c>
       <c r="P46" t="n">
-        <v>0.751037</v>
+        <v>0.590924</v>
       </c>
       <c r="Q46" s="3" t="n">
-        <v>1.195614194869303</v>
+        <v>2.185032813561829</v>
       </c>
       <c r="R46" t="n">
-        <v>0.01675017502121713</v>
+        <v>0.1022963165103159</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1411.01</v>
+        <v>5392.01</v>
       </c>
       <c r="B47" t="n">
-        <v>116483514</v>
+        <v>198512478</v>
       </c>
       <c r="C47" t="n">
-        <v>232.946047</v>
+        <v>212.621349</v>
       </c>
       <c r="D47" t="n">
-        <v>47.055551</v>
+        <v>72.58975700000001</v>
       </c>
       <c r="E47" t="n">
-        <v>2460447.085367</v>
+        <v>2460367.300993</v>
       </c>
       <c r="F47" t="n">
-        <v>1.4520486</v>
+        <v>17.5313321</v>
       </c>
       <c r="G47" t="n">
-        <v>1.339</v>
+        <v>4.334</v>
       </c>
       <c r="H47" t="n">
-        <v>393</v>
+        <v>306</v>
       </c>
       <c r="I47" s="3" t="n">
-        <v>1.404</v>
+        <v>1.66838</v>
       </c>
       <c r="J47" t="n">
-        <v>266.85</v>
+        <v>468.87</v>
       </c>
       <c r="K47" t="n">
-        <v>1125</v>
+        <v>1296</v>
       </c>
       <c r="L47" t="n">
-        <v>9.1043</v>
+        <v>8.1319</v>
       </c>
       <c r="M47" t="n">
-        <v>32.4778</v>
+        <v>48.793</v>
       </c>
       <c r="N47" t="n">
-        <v>4184</v>
+        <v>5464</v>
       </c>
       <c r="O47" t="n">
-        <v>4.57376</v>
+        <v>4.51</v>
       </c>
       <c r="P47" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="Q47" s="3" t="n">
-        <v>1.205326888273188</v>
+        <v>2.188020963138853</v>
       </c>
       <c r="R47" t="n">
-        <v>0.1692002171172093</v>
+        <v>0.05635993153899293</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5997.01</v>
+        <v>5801.01</v>
       </c>
       <c r="B48" t="n">
-        <v>39516274</v>
+        <v>243921117</v>
       </c>
       <c r="C48" t="n">
-        <v>263.152578</v>
+        <v>303.1668</v>
       </c>
       <c r="D48" t="n">
-        <v>33.570556</v>
+        <v>-2.144437</v>
       </c>
       <c r="E48" t="n">
-        <v>2458985.158761</v>
+        <v>2459770.026754</v>
       </c>
       <c r="F48" t="n">
-        <v>5.655018</v>
+        <v>3.067816</v>
       </c>
       <c r="G48" t="n">
-        <v>1.7818546</v>
+        <v>2.1103325</v>
       </c>
       <c r="H48" t="n">
-        <v>356.813695</v>
+        <v>34536.7848173</v>
       </c>
       <c r="I48" s="3" t="n">
-        <v>1.5874236</v>
+        <v>11.7996868</v>
       </c>
       <c r="J48" t="n">
-        <v>67.20143210000001</v>
+        <v>72.44198299999999</v>
       </c>
       <c r="K48" t="n">
-        <v>730.2379204</v>
+        <v>744.0760606</v>
       </c>
       <c r="L48" t="n">
-        <v>9.2576</v>
+        <v>10.3622</v>
       </c>
       <c r="M48" t="n">
-        <v>46.521</v>
+        <v>49.7876</v>
       </c>
       <c r="N48" t="n">
-        <v>4674</v>
+        <v>3965</v>
       </c>
       <c r="O48" t="n">
-        <v>4.61121</v>
+        <v>4.62</v>
       </c>
       <c r="P48" t="n">
-        <v>0.704768</v>
+        <v>0.636572</v>
       </c>
       <c r="Q48" s="3" t="n">
-        <v>1.241545346976267</v>
+        <v>2.267803543469689</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1440519013547189</v>
+        <v>0.07251061220725062</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5809.01</v>
+        <v>2274.02</v>
       </c>
       <c r="B49" t="n">
-        <v>283471501</v>
+        <v>289164482</v>
       </c>
       <c r="C49" t="n">
-        <v>314.549077</v>
+        <v>277.459311</v>
       </c>
       <c r="D49" t="n">
-        <v>40.192264</v>
+        <v>40.541412</v>
       </c>
       <c r="E49" t="n">
-        <v>2460541.532262</v>
+        <v>2460337.873035</v>
       </c>
       <c r="F49" t="n">
-        <v>9.210319399999999</v>
+        <v>1.1188024</v>
       </c>
       <c r="G49" t="n">
-        <v>2.341</v>
+        <v>1.119</v>
       </c>
       <c r="H49" t="n">
-        <v>853</v>
+        <v>427</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>2.62813</v>
+        <v>1.44009</v>
       </c>
       <c r="J49" t="n">
-        <v>26.9787</v>
+        <v>247.175</v>
       </c>
       <c r="K49" t="n">
-        <v>634</v>
+        <v>1104</v>
       </c>
       <c r="L49" t="n">
-        <v>9.320600000000001</v>
+        <v>10.3543</v>
+      </c>
+      <c r="M49" t="n">
+        <v>48.876</v>
       </c>
       <c r="N49" t="n">
-        <v>4115.1</v>
+        <v>3943</v>
+      </c>
+      <c r="O49" t="n">
+        <v>4.62547</v>
       </c>
       <c r="P49" t="n">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="Q49" s="3" t="n">
-        <v>1.266231092040509</v>
+        <v>2.402440918079677</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1596334725227671</v>
+        <v>0.04323476018011795</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>544.01</v>
+        <v>2274.01</v>
       </c>
       <c r="B50" t="n">
-        <v>50618703</v>
+        <v>289164482</v>
       </c>
       <c r="C50" t="n">
-        <v>82.290072</v>
+        <v>277.459311</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.342898</v>
+        <v>40.541412</v>
       </c>
       <c r="E50" t="n">
-        <v>2458469.756983</v>
+        <v>2458685.367259</v>
       </c>
       <c r="F50" t="n">
-        <v>1.5483542</v>
+        <v>2.6796164</v>
       </c>
       <c r="G50" t="n">
-        <v>1.2030925</v>
+        <v>0.9028948</v>
       </c>
       <c r="H50" t="n">
-        <v>926.4111032</v>
+        <v>827.5423687</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>2.1601741</v>
+        <v>1.8334769</v>
       </c>
       <c r="J50" t="n">
-        <v>240.1950345</v>
+        <v>83.70782490000001</v>
       </c>
       <c r="K50" t="n">
-        <v>1004.0625199</v>
+        <v>771.4561825</v>
       </c>
       <c r="L50" t="n">
-        <v>9.650399999999999</v>
+        <v>10.3543</v>
       </c>
       <c r="M50" t="n">
-        <v>41.1166</v>
+        <v>48.876</v>
       </c>
       <c r="N50" t="n">
-        <v>4665</v>
+        <v>3943</v>
       </c>
       <c r="O50" t="n">
-        <v>4.67631</v>
+        <v>4.62547</v>
       </c>
       <c r="P50" t="n">
-        <v>0.6634139999999999</v>
+        <v>0.6307199999999999</v>
       </c>
       <c r="Q50" s="3" t="n">
-        <v>1.373786090337297</v>
+        <v>2.402440918079677</v>
       </c>
       <c r="R50" t="n">
-        <v>0.04285830752449767</v>
+        <v>0.04323476018011795</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5140.01</v>
+        <v>509.02</v>
       </c>
       <c r="B51" t="n">
-        <v>175193677</v>
+        <v>453211454</v>
       </c>
       <c r="C51" t="n">
-        <v>129.689446</v>
+        <v>117.924642</v>
       </c>
       <c r="D51" t="n">
-        <v>23.685265</v>
+        <v>9.385241000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>2459547.722323</v>
+        <v>2460259.048369</v>
       </c>
       <c r="F51" t="n">
-        <v>15.6113633</v>
+        <v>21.4003129</v>
       </c>
       <c r="G51" t="n">
-        <v>3.2002615</v>
+        <v>5.3847459</v>
       </c>
       <c r="H51" t="n">
-        <v>520.4897607</v>
+        <v>960.7539877</v>
       </c>
       <c r="I51" s="3" t="n">
-        <v>2.9033347</v>
+        <v>3.0010426</v>
       </c>
       <c r="J51" t="n">
-        <v>111.9728668</v>
+        <v>35.2811724</v>
       </c>
       <c r="K51" t="n">
-        <v>829.6557911</v>
+        <v>621.592122</v>
       </c>
       <c r="L51" t="n">
-        <v>6.3687</v>
+        <v>7.9259</v>
       </c>
       <c r="M51" t="n">
-        <v>35.26</v>
+        <v>48.9739</v>
       </c>
       <c r="N51" t="n">
-        <v>6061.77</v>
+        <v>5560.26</v>
       </c>
       <c r="O51" t="n">
-        <v>4.31439</v>
+        <v>4.438</v>
       </c>
       <c r="P51" t="n">
-        <v>1.22568</v>
+        <v>0.962324</v>
       </c>
       <c r="Q51" s="3" t="n">
-        <v>1.457313216125925</v>
+        <v>2.45663422781619</v>
       </c>
       <c r="R51" t="n">
-        <v>0.07805369350328827</v>
+        <v>0.1017032808558144</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6058.01</v>
+        <v>509.01</v>
       </c>
       <c r="B52" t="n">
-        <v>144006874</v>
+        <v>453211454</v>
       </c>
       <c r="C52" t="n">
-        <v>81.40224499999999</v>
+        <v>117.924642</v>
       </c>
       <c r="D52" t="n">
-        <v>37.118266</v>
+        <v>9.385241000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>2459935.968189</v>
+        <v>2460269.974997</v>
       </c>
       <c r="F52" t="n">
-        <v>2.3673676</v>
+        <v>9.058820900000001</v>
       </c>
       <c r="G52" t="n">
-        <v>1.045</v>
+        <v>3.342</v>
       </c>
       <c r="H52" t="n">
-        <v>550</v>
+        <v>875</v>
       </c>
       <c r="I52" s="3" t="n">
-        <v>1.78396</v>
+        <v>2.67607</v>
       </c>
       <c r="J52" t="n">
-        <v>58.4073</v>
+        <v>92.839</v>
       </c>
       <c r="K52" t="n">
-        <v>770</v>
+        <v>864</v>
       </c>
       <c r="L52" t="n">
-        <v>9.5951</v>
+        <v>7.9259</v>
       </c>
       <c r="M52" t="n">
-        <v>47.6869</v>
+        <v>48.9739</v>
       </c>
       <c r="N52" t="n">
-        <v>4403</v>
+        <v>5560.26</v>
       </c>
       <c r="O52" t="n">
-        <v>4.58</v>
+        <v>4.438</v>
       </c>
       <c r="P52" t="n">
-        <v>0.71</v>
+        <v>0.96</v>
       </c>
       <c r="Q52" s="3" t="n">
-        <v>1.517865485656713</v>
+        <v>2.45663422781619</v>
       </c>
       <c r="R52" t="n">
-        <v>0.04668015033414173</v>
+        <v>0.1017032808558144</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5554.01</v>
+        <v>1776.01</v>
       </c>
       <c r="B53" t="n">
-        <v>91287873</v>
+        <v>21535395</v>
       </c>
       <c r="C53" t="n">
-        <v>104.74387</v>
+        <v>164.777291</v>
       </c>
       <c r="D53" t="n">
-        <v>28.715768</v>
+        <v>40.983718</v>
       </c>
       <c r="E53" t="n">
-        <v>2459515.17161</v>
+        <v>2458871.488566</v>
       </c>
       <c r="F53" t="n">
-        <v>26.694279</v>
+        <v>2.8009915</v>
       </c>
       <c r="G53" t="n">
-        <v>3.7831301</v>
+        <v>1.4985399</v>
       </c>
       <c r="H53" t="n">
-        <v>1854.2924324</v>
+        <v>204.8553325</v>
       </c>
       <c r="I53" s="3" t="n">
-        <v>2.6845863</v>
+        <v>1.4033915</v>
       </c>
       <c r="J53" t="n">
-        <v>4.0851419</v>
+        <v>560.3349224</v>
       </c>
       <c r="K53" t="n">
-        <v>362.5947706</v>
+        <v>1240.8853925</v>
       </c>
       <c r="L53" t="n">
-        <v>9.83733</v>
+        <v>7.6586</v>
       </c>
       <c r="M53" t="n">
-        <v>39.4478</v>
+        <v>44.647</v>
       </c>
       <c r="N53" t="n">
-        <v>3997</v>
+        <v>5723.87</v>
       </c>
       <c r="O53" t="n">
-        <v>4.6288</v>
+        <v>4.49543</v>
       </c>
       <c r="P53" t="n">
-        <v>0.626722</v>
+        <v>0.945408</v>
       </c>
       <c r="Q53" s="3" t="n">
-        <v>1.627954212787946</v>
+        <v>2.477646543958159</v>
       </c>
       <c r="R53" t="n">
-        <v>0.05933370243670238</v>
+        <v>0.1092036781983211</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2431.01</v>
+        <v>6074.01</v>
       </c>
       <c r="B54" t="n">
-        <v>258804746</v>
+        <v>99896567</v>
       </c>
       <c r="C54" t="n">
-        <v>37.765299</v>
+        <v>310.421968</v>
       </c>
       <c r="D54" t="n">
-        <v>8.381625</v>
+        <v>35.54592</v>
       </c>
       <c r="E54" t="n">
-        <v>2460258.868869</v>
+        <v>2458690.53445</v>
       </c>
       <c r="F54" t="n">
-        <v>0.224195</v>
+        <v>12.1324506</v>
       </c>
       <c r="G54" t="n">
-        <v>0.292</v>
+        <v>1.5751733</v>
       </c>
       <c r="H54" t="n">
-        <v>540</v>
+        <v>171.2764262</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>5.59553</v>
+        <v>1.5690907</v>
       </c>
       <c r="J54" t="n">
-        <v>2649.15</v>
+        <v>98.4603771</v>
       </c>
       <c r="K54" t="n">
-        <v>1998</v>
+        <v>803.406097</v>
       </c>
       <c r="L54" t="n">
-        <v>9.520899999999999</v>
+        <v>6.8456</v>
       </c>
       <c r="M54" t="n">
-        <v>36.0559</v>
+        <v>34.5797</v>
       </c>
       <c r="N54" t="n">
-        <v>4079</v>
+        <v>5865</v>
       </c>
       <c r="O54" t="n">
-        <v>4.58</v>
+        <v>4.44965</v>
       </c>
       <c r="P54" t="n">
-        <v>0.68</v>
+        <v>1.0159301</v>
       </c>
       <c r="Q54" s="3" t="n">
-        <v>1.650127957691832</v>
+        <v>2.723091978666176</v>
       </c>
       <c r="R54" t="n">
-        <v>0.1915281956726753</v>
+        <v>0.05216827044224256</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1486.01</v>
+        <v>6965.01</v>
       </c>
       <c r="B55" t="n">
-        <v>233541860</v>
+        <v>80224448</v>
       </c>
       <c r="C55" t="n">
-        <v>281.197877</v>
+        <v>103.678273</v>
       </c>
       <c r="D55" t="n">
-        <v>62.685644</v>
+        <v>24.245141</v>
       </c>
       <c r="E55" t="n">
-        <v>2459635.536646</v>
+        <v>2459505.193695</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2666485</v>
+        <v>5.9693397</v>
       </c>
       <c r="G55" t="n">
-        <v>1.075</v>
+        <v>3.441038</v>
       </c>
       <c r="H55" t="n">
-        <v>230</v>
+        <v>105.5424205</v>
       </c>
       <c r="I55" s="3" t="n">
-        <v>1.30468</v>
+        <v>1.3473608</v>
       </c>
       <c r="J55" t="n">
-        <v>3064.12</v>
+        <v>334.6170929</v>
       </c>
       <c r="K55" t="n">
-        <v>2072</v>
+        <v>1090.8292631</v>
       </c>
       <c r="L55" t="n">
-        <v>9.959199999999999</v>
+        <v>6.3103</v>
       </c>
       <c r="M55" t="n">
-        <v>44.3531</v>
+        <v>31.1664</v>
       </c>
       <c r="N55" t="n">
-        <v>4154</v>
+        <v>6007</v>
       </c>
       <c r="O55" t="n">
-        <v>4.53</v>
+        <v>4.37729</v>
       </c>
       <c r="P55" t="n">
-        <v>0.71</v>
+        <v>1.12993</v>
       </c>
       <c r="Q55" s="3" t="n">
-        <v>1.65695721791391</v>
+        <v>3.165630025183241</v>
       </c>
       <c r="R55" t="n">
-        <v>0.03110876237070922</v>
+        <v>0.05173693479333623</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1759.01</v>
+        <v>6965.02</v>
       </c>
       <c r="B56" t="n">
-        <v>408636441</v>
+        <v>80224448</v>
       </c>
       <c r="C56" t="n">
-        <v>326.851662</v>
+        <v>103.678273</v>
       </c>
       <c r="D56" t="n">
-        <v>62.753816</v>
+        <v>24.245141</v>
       </c>
       <c r="E56" t="n">
-        <v>2460404.266149</v>
+        <v>2459508.008646</v>
       </c>
       <c r="F56" t="n">
-        <v>18.8500438</v>
+        <v>28.0693949</v>
       </c>
       <c r="G56" t="n">
-        <v>3.407</v>
+        <v>6.0393818</v>
       </c>
       <c r="H56" t="n">
-        <v>2610</v>
+        <v>154.3008171</v>
       </c>
       <c r="I56" s="3" t="n">
-        <v>3.09094</v>
+        <v>1.6221344</v>
       </c>
       <c r="J56" t="n">
-        <v>5.95531</v>
+        <v>42.4755605</v>
       </c>
       <c r="K56" t="n">
-        <v>435</v>
+        <v>651.1102456</v>
       </c>
       <c r="L56" t="n">
-        <v>9.928380000000001</v>
+        <v>6.3103</v>
       </c>
       <c r="M56" t="n">
-        <v>40.0654</v>
+        <v>31.1664</v>
       </c>
       <c r="N56" t="n">
-        <v>3960</v>
+        <v>6007</v>
       </c>
       <c r="O56" t="n">
-        <v>4.62853</v>
+        <v>4.37729</v>
       </c>
       <c r="P56" t="n">
-        <v>0.63</v>
+        <v>1.12993</v>
       </c>
       <c r="Q56" s="3" t="n">
-        <v>1.743539432563141</v>
+        <v>3.165630025183241</v>
       </c>
       <c r="R56" t="n">
-        <v>0.08769119345162939</v>
+        <v>0.05173693479333623</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4610.01</v>
+        <v>2128.01</v>
       </c>
       <c r="B57" t="n">
-        <v>1950736</v>
+        <v>21832928</v>
       </c>
       <c r="C57" t="n">
-        <v>79.04324</v>
+        <v>256.9818</v>
       </c>
       <c r="D57" t="n">
-        <v>30.585072</v>
+        <v>32.105303</v>
       </c>
       <c r="E57" t="n">
-        <v>2460307.729373</v>
+        <v>2458987.266354</v>
       </c>
       <c r="F57" t="n">
-        <v>3.1129681</v>
+        <v>16.3413889</v>
       </c>
       <c r="G57" t="n">
-        <v>2.308</v>
+        <v>5.3764481</v>
       </c>
       <c r="H57" t="n">
-        <v>585</v>
+        <v>372.0970618</v>
       </c>
       <c r="I57" s="3" t="n">
-        <v>1.5002</v>
+        <v>2.629079</v>
       </c>
       <c r="J57" t="n">
-        <v>151.507</v>
+        <v>86.231465</v>
       </c>
       <c r="K57" t="n">
-        <v>977</v>
+        <v>777.2060824</v>
       </c>
       <c r="L57" t="n">
-        <v>10.0745</v>
+        <v>6.6813</v>
       </c>
       <c r="M57" t="n">
-        <v>47.914</v>
+        <v>36.578</v>
       </c>
       <c r="N57" t="n">
-        <v>4104</v>
+        <v>5991.11</v>
       </c>
       <c r="O57" t="n">
-        <v>4.57</v>
+        <v>4.37711</v>
       </c>
       <c r="P57" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.12506</v>
       </c>
       <c r="Q57" s="3" t="n">
-        <v>1.928498791447363</v>
+        <v>3.198652056791207</v>
       </c>
       <c r="R57" t="n">
-        <v>0.06653290396318375</v>
+        <v>0.08438831092999147</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5955.01</v>
+        <v>1462.01</v>
       </c>
       <c r="B58" t="n">
-        <v>434116397</v>
+        <v>188768068</v>
       </c>
       <c r="C58" t="n">
-        <v>355.467833</v>
+        <v>261.349585</v>
       </c>
       <c r="D58" t="n">
-        <v>14.106803</v>
+        <v>52.790472</v>
       </c>
       <c r="E58" t="n">
-        <v>2459825.845336</v>
+        <v>2460338.523071</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5902387</v>
+        <v>2.1779407</v>
       </c>
       <c r="G58" t="n">
-        <v>1.045052</v>
+        <v>2.098</v>
       </c>
       <c r="H58" t="n">
-        <v>518.7240999000001</v>
+        <v>110</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>1.6802901</v>
+        <v>1.28228</v>
       </c>
       <c r="J58" t="n">
-        <v>517.0065166000001</v>
+        <v>759.183</v>
       </c>
       <c r="K58" t="n">
-        <v>1216.1685093</v>
+        <v>1462</v>
       </c>
       <c r="L58" t="n">
-        <v>10.3224</v>
+        <v>5.8961</v>
       </c>
       <c r="M58" t="n">
-        <v>42.8747</v>
+        <v>27.0498</v>
       </c>
       <c r="N58" t="n">
-        <v>3844</v>
+        <v>5801.89</v>
       </c>
       <c r="O58" t="n">
-        <v>4.6589</v>
+        <v>4.25132</v>
       </c>
       <c r="P58" t="n">
-        <v>0.590924</v>
+        <v>1.26</v>
       </c>
       <c r="Q58" s="3" t="n">
-        <v>2.099223907159651</v>
+        <v>3.487009655055755</v>
       </c>
       <c r="R58" t="n">
-        <v>0.1022963165103159</v>
+        <v>0.05203226078176128</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5801.01</v>
+        <v>5972.01</v>
       </c>
       <c r="B59" t="n">
-        <v>243921117</v>
+        <v>420814525</v>
       </c>
       <c r="C59" t="n">
-        <v>303.1668</v>
+        <v>330.795022</v>
       </c>
       <c r="D59" t="n">
-        <v>-2.144437</v>
+        <v>18.884242</v>
       </c>
       <c r="E59" t="n">
-        <v>2459770.026754</v>
+        <v>2460552.87974</v>
       </c>
       <c r="F59" t="n">
-        <v>3.067816</v>
+        <v>3.5247546</v>
       </c>
       <c r="G59" t="n">
-        <v>2.1103325</v>
+        <v>2.958</v>
       </c>
       <c r="H59" t="n">
-        <v>34536.7848173</v>
+        <v>17803</v>
       </c>
       <c r="I59" s="3" t="n">
-        <v>11.7996868</v>
+        <v>16.3776</v>
       </c>
       <c r="J59" t="n">
-        <v>72.44198299999999</v>
+        <v>587.098</v>
       </c>
       <c r="K59" t="n">
-        <v>744.0760606</v>
+        <v>1371</v>
       </c>
       <c r="L59" t="n">
-        <v>10.3622</v>
+        <v>7.1274</v>
       </c>
       <c r="M59" t="n">
-        <v>49.7876</v>
+        <v>48.3016</v>
       </c>
       <c r="N59" t="n">
-        <v>3965</v>
+        <v>6052</v>
       </c>
       <c r="O59" t="n">
-        <v>4.62</v>
+        <v>4.34258</v>
       </c>
       <c r="P59" t="n">
-        <v>0.636572</v>
+        <v>1.19</v>
       </c>
       <c r="Q59" s="3" t="n">
-        <v>2.161818741545839</v>
+        <v>3.571290677517552</v>
       </c>
       <c r="R59" t="n">
-        <v>0.07251061220725062</v>
+        <v>0.01731301595994347</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2274.02</v>
+        <v>1689.01</v>
       </c>
       <c r="B60" t="n">
-        <v>289164482</v>
+        <v>198384408</v>
       </c>
       <c r="C60" t="n">
-        <v>277.459311</v>
+        <v>257.78508</v>
       </c>
       <c r="D60" t="n">
-        <v>40.541412</v>
+        <v>56.658901</v>
       </c>
       <c r="E60" t="n">
-        <v>2460337.873035</v>
+        <v>2458823.255936</v>
       </c>
       <c r="F60" t="n">
-        <v>1.1188024</v>
+        <v>9.1238101</v>
       </c>
       <c r="G60" t="n">
-        <v>1.119</v>
+        <v>5.1188391</v>
       </c>
       <c r="H60" t="n">
-        <v>427</v>
+        <v>283.324087</v>
       </c>
       <c r="I60" s="3" t="n">
-        <v>1.44009</v>
+        <v>2.0471844</v>
       </c>
       <c r="J60" t="n">
-        <v>247.175</v>
+        <v>148.7455904</v>
       </c>
       <c r="K60" t="n">
-        <v>1104</v>
+        <v>890.69861</v>
       </c>
       <c r="L60" t="n">
-        <v>10.3543</v>
+        <v>6.3196</v>
       </c>
       <c r="M60" t="n">
-        <v>48.876</v>
+        <v>26.9148</v>
       </c>
       <c r="N60" t="n">
-        <v>3943</v>
+        <v>5470.16</v>
       </c>
       <c r="O60" t="n">
-        <v>4.62547</v>
+        <v>4.30008</v>
       </c>
       <c r="P60" t="n">
-        <v>0.63</v>
+        <v>1.1485</v>
       </c>
       <c r="Q60" s="3" t="n">
-        <v>2.282167123690875</v>
+        <v>3.617164992432295</v>
       </c>
       <c r="R60" t="n">
-        <v>0.04323476018011795</v>
+        <v>0.03260486313902574</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2274.01</v>
+        <v>5140.01</v>
       </c>
       <c r="B61" t="n">
-        <v>289164482</v>
+        <v>175193677</v>
       </c>
       <c r="C61" t="n">
-        <v>277.459311</v>
+        <v>129.689446</v>
       </c>
       <c r="D61" t="n">
-        <v>40.541412</v>
+        <v>23.685265</v>
       </c>
       <c r="E61" t="n">
-        <v>2458685.367259</v>
+        <v>2459547.722323</v>
       </c>
       <c r="F61" t="n">
-        <v>2.6796164</v>
+        <v>15.6113633</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9028948</v>
+        <v>3.2002615</v>
       </c>
       <c r="H61" t="n">
-        <v>827.5423687</v>
+        <v>520.4897607</v>
       </c>
       <c r="I61" s="3" t="n">
-        <v>1.8334769</v>
+        <v>2.9033347</v>
       </c>
       <c r="J61" t="n">
-        <v>83.70782490000001</v>
+        <v>111.9728668</v>
       </c>
       <c r="K61" t="n">
-        <v>771.4561825</v>
+        <v>829.6557911</v>
       </c>
       <c r="L61" t="n">
-        <v>10.3543</v>
+        <v>6.3687</v>
       </c>
       <c r="M61" t="n">
-        <v>48.876</v>
+        <v>35.26</v>
       </c>
       <c r="N61" t="n">
-        <v>3943</v>
+        <v>6061.77</v>
       </c>
       <c r="O61" t="n">
-        <v>4.62547</v>
+        <v>4.31439</v>
       </c>
       <c r="P61" t="n">
-        <v>0.6307199999999999</v>
+        <v>1.22568</v>
       </c>
       <c r="Q61" s="3" t="n">
-        <v>2.282167123690875</v>
+        <v>3.824617860709115</v>
       </c>
       <c r="R61" t="n">
-        <v>0.04323476018011795</v>
+        <v>0.07805369350328827</v>
       </c>
     </row>
     <row r="62">
@@ -3973,7 +3973,7 @@
         <v>1.42717</v>
       </c>
       <c r="Q62" s="3" t="n">
-        <v>7.661122693237147</v>
+        <v>8.937750311733469</v>
       </c>
       <c r="R62" t="n">
         <v>0.09557954007745355</v>
@@ -4029,7 +4029,7 @@
         <v>1.42717</v>
       </c>
       <c r="Q63" s="3" t="n">
-        <v>7.661122693237147</v>
+        <v>8.937750311733469</v>
       </c>
       <c r="R63" t="n">
         <v>0.09557954007745355</v>

--- a/results/GAIA_TESS_candidate_matches_unique_planets.xlsx
+++ b/results/GAIA_TESS_candidate_matches_unique_planets.xlsx
@@ -622,7 +622,7 @@
         <v>0.630715</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>0.8180441313395623</v>
+        <v>0.4573291322971118</v>
       </c>
       <c r="R2" t="n">
         <v>0.3529309609610866</v>
@@ -678,7 +678,7 @@
         <v>0.630715</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>0.8180441313395623</v>
+        <v>0.4573291322971118</v>
       </c>
       <c r="R3" t="n">
         <v>0.3529309609610866</v>
@@ -734,7 +734,7 @@
         <v>0.630715</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.8180441313395623</v>
+        <v>0.4573291322971118</v>
       </c>
       <c r="R4" t="n">
         <v>0.3529309609610866</v>
@@ -790,7 +790,7 @@
         <v>0.71</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>1.019880171092267</v>
+        <v>0.5747214936203638</v>
       </c>
       <c r="R5" t="n">
         <v>0.216873501781118</v>
@@ -846,7 +846,7 @@
         <v>0.71</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>1.019880171092267</v>
+        <v>0.5747214936203638</v>
       </c>
       <c r="R6" t="n">
         <v>0.216873501781118</v>
@@ -902,7 +902,7 @@
         <v>0.757603</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>1.208666246344946</v>
+        <v>0.6689697604315441</v>
       </c>
       <c r="R7" t="n">
         <v>0.2228342109737272</v>
@@ -910,119 +910,119 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1099.01</v>
+        <v>5789.01</v>
       </c>
       <c r="B8" t="n">
-        <v>290348383</v>
+        <v>87216634</v>
       </c>
       <c r="C8" t="n">
-        <v>328.718171</v>
+        <v>302.773447</v>
       </c>
       <c r="D8" t="n">
-        <v>-77.338802</v>
+        <v>16.189714</v>
       </c>
       <c r="E8" t="n">
-        <v>2460140.220927</v>
+        <v>2459776.255982</v>
       </c>
       <c r="F8" t="n">
-        <v>6.441006</v>
+        <v>12.9256051</v>
       </c>
       <c r="G8" t="n">
-        <v>1.812</v>
+        <v>1.691</v>
       </c>
       <c r="H8" t="n">
-        <v>914</v>
+        <v>790</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>2.56374</v>
+        <v>2.53704</v>
       </c>
       <c r="J8" t="n">
-        <v>87.89019999999999</v>
+        <v>8.719390000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>853</v>
+        <v>478</v>
       </c>
       <c r="L8" t="n">
-        <v>7.3661</v>
+        <v>6.5715</v>
       </c>
       <c r="M8" t="n">
-        <v>23.606</v>
+        <v>20.4581</v>
       </c>
       <c r="N8" t="n">
-        <v>4867</v>
+        <v>5132</v>
       </c>
       <c r="O8" t="n">
-        <v>4.438</v>
+        <v>4.49</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>1.597062214762744</v>
+        <v>0.8326105656603114</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1472633162803166</v>
+        <v>0.2860097255552455</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5789.01</v>
+        <v>2011.02</v>
       </c>
       <c r="B9" t="n">
-        <v>87216634</v>
+        <v>136916387</v>
       </c>
       <c r="C9" t="n">
-        <v>302.773447</v>
+        <v>230.440115</v>
       </c>
       <c r="D9" t="n">
-        <v>16.189714</v>
+        <v>-48.318817</v>
       </c>
       <c r="E9" t="n">
-        <v>2459776.255982</v>
+        <v>2458650.89757</v>
       </c>
       <c r="F9" t="n">
-        <v>12.9256051</v>
+        <v>27.5920718</v>
       </c>
       <c r="G9" t="n">
-        <v>1.691</v>
+        <v>3.2743016</v>
       </c>
       <c r="H9" t="n">
-        <v>790</v>
+        <v>555.3352929</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>2.53704</v>
+        <v>2.7050278</v>
       </c>
       <c r="J9" t="n">
-        <v>8.719390000000001</v>
+        <v>31.3830711</v>
       </c>
       <c r="K9" t="n">
-        <v>478</v>
+        <v>603.6616824</v>
       </c>
       <c r="L9" t="n">
-        <v>6.5715</v>
+        <v>5.0494</v>
       </c>
       <c r="M9" t="n">
-        <v>20.4581</v>
+        <v>14.682</v>
       </c>
       <c r="N9" t="n">
-        <v>5132</v>
+        <v>5739</v>
       </c>
       <c r="O9" t="n">
-        <v>4.49</v>
+        <v>4.51</v>
       </c>
       <c r="P9" t="n">
-        <v>0.88</v>
+        <v>1.02607</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>1.719165057290658</v>
+        <v>0.8786003547184101</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2860097255552455</v>
+        <v>0.8241668035706786</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2011.02</v>
+        <v>2011.03</v>
       </c>
       <c r="B10" t="n">
         <v>136916387</v>
@@ -1034,25 +1034,22 @@
         <v>-48.318817</v>
       </c>
       <c r="E10" t="n">
-        <v>2458650.89757</v>
-      </c>
-      <c r="F10" t="n">
-        <v>27.5920718</v>
+        <v>2460081.126376</v>
       </c>
       <c r="G10" t="n">
-        <v>3.2743016</v>
+        <v>3.5341354</v>
       </c>
       <c r="H10" t="n">
-        <v>555.3352929</v>
+        <v>195.1972939</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>2.7050278</v>
+        <v>1.6208326</v>
       </c>
       <c r="J10" t="n">
-        <v>31.3830711</v>
+        <v>335.6075222</v>
       </c>
       <c r="K10" t="n">
-        <v>603.6616824</v>
+        <v>1091.635552</v>
       </c>
       <c r="L10" t="n">
         <v>5.0494</v>
@@ -1070,7 +1067,7 @@
         <v>1.02607</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>2.209049609459966</v>
+        <v>0.8786003547184101</v>
       </c>
       <c r="R10" t="n">
         <v>0.8241668035706786</v>
@@ -1078,7 +1075,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2011.03</v>
+        <v>2011.01</v>
       </c>
       <c r="B11" t="n">
         <v>136916387</v>
@@ -1090,22 +1087,25 @@
         <v>-48.318817</v>
       </c>
       <c r="E11" t="n">
-        <v>2460081.126376</v>
+        <v>2458631.767617</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11.5778362</v>
       </c>
       <c r="G11" t="n">
-        <v>3.5341354</v>
+        <v>3.8772499</v>
       </c>
       <c r="H11" t="n">
-        <v>195.1972939</v>
+        <v>217.3994918</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>1.6208326</v>
+        <v>1.5422129</v>
       </c>
       <c r="J11" t="n">
-        <v>335.6075222</v>
+        <v>99.9013415</v>
       </c>
       <c r="K11" t="n">
-        <v>1091.635552</v>
+        <v>806.3295568999999</v>
       </c>
       <c r="L11" t="n">
         <v>5.0494</v>
@@ -1123,7 +1123,7 @@
         <v>1.02607</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>2.209049609459966</v>
+        <v>0.8786003547184101</v>
       </c>
       <c r="R11" t="n">
         <v>0.8241668035706786</v>
@@ -1131,58 +1131,58 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2011.01</v>
+        <v>1099.01</v>
       </c>
       <c r="B12" t="n">
-        <v>136916387</v>
+        <v>290348383</v>
       </c>
       <c r="C12" t="n">
-        <v>230.440115</v>
+        <v>328.718171</v>
       </c>
       <c r="D12" t="n">
-        <v>-48.318817</v>
+        <v>-77.338802</v>
       </c>
       <c r="E12" t="n">
-        <v>2458631.767617</v>
+        <v>2460140.220927</v>
       </c>
       <c r="F12" t="n">
-        <v>11.5778362</v>
+        <v>6.441006</v>
       </c>
       <c r="G12" t="n">
-        <v>3.8772499</v>
+        <v>1.812</v>
       </c>
       <c r="H12" t="n">
-        <v>217.3994918</v>
+        <v>914</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>1.5422129</v>
+        <v>2.56374</v>
       </c>
       <c r="J12" t="n">
-        <v>99.9013415</v>
+        <v>87.89019999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>806.3295568999999</v>
+        <v>853</v>
       </c>
       <c r="L12" t="n">
-        <v>5.0494</v>
+        <v>7.3661</v>
       </c>
       <c r="M12" t="n">
-        <v>14.682</v>
+        <v>23.606</v>
       </c>
       <c r="N12" t="n">
-        <v>5739</v>
+        <v>4867</v>
       </c>
       <c r="O12" t="n">
-        <v>4.51</v>
+        <v>4.438</v>
       </c>
       <c r="P12" t="n">
-        <v>1.02607</v>
+        <v>0.8</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>2.209049609459966</v>
+        <v>0.9099502856655908</v>
       </c>
       <c r="R12" t="n">
-        <v>0.8241668035706786</v>
+        <v>0.1472633162803166</v>
       </c>
     </row>
     <row r="13">
@@ -1235,7 +1235,7 @@
         <v>1.03</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>2.503660604420008</v>
+        <v>1.386957062992251</v>
       </c>
       <c r="R13" t="n">
         <v>0.09064358833580949</v>
@@ -1291,7 +1291,7 @@
         <v>1.09843</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>3.157297112102346</v>
+        <v>1.546870014982985</v>
       </c>
       <c r="R14" t="n">
         <v>0.1616304778941326</v>
@@ -1347,7 +1347,7 @@
         <v>1.09843</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>3.157297112102346</v>
+        <v>1.546870014982985</v>
       </c>
       <c r="R15" t="n">
         <v>0.1616304778941326</v>
@@ -1403,7 +1403,7 @@
         <v>1.33</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>3.530285645418739</v>
+        <v>1.692375571059443</v>
       </c>
       <c r="R16" t="n">
         <v>0.0118387871337529</v>
@@ -1459,7 +1459,7 @@
         <v>1.2845</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>6.397373081970478</v>
+        <v>4.872880388587285</v>
       </c>
       <c r="R17" t="n">
         <v>0.08132008275074698</v>
@@ -1515,7 +1515,7 @@
         <v>1.28</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>6.397373081970478</v>
+        <v>4.872880388587285</v>
       </c>
       <c r="R18" t="n">
         <v>0.08132008275074698</v>
@@ -1571,7 +1571,7 @@
         <v>1.2845</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>6.397373081970478</v>
+        <v>4.872880388587285</v>
       </c>
       <c r="R19" t="n">
         <v>0.08132008275074698</v>
@@ -1627,7 +1627,7 @@
         <v>1.42717</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>12.41551009314516</v>
+        <v>10.16437674197399</v>
       </c>
       <c r="R20" t="n">
         <v>0.09557954007745355</v>
@@ -1683,7 +1683,7 @@
         <v>1.42717</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>12.41551009314516</v>
+        <v>10.16437674197399</v>
       </c>
       <c r="R21" t="n">
         <v>0.09557954007745355</v>
